--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="381">
   <si>
     <t>common_name</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Edsall-1999-TransAmFishSoc</t>
   </si>
   <si>
-    <t>0.0533</t>
-  </si>
-  <si>
     <t>Common wolffish</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>McCarthy-etal-1998-AquacultureInt</t>
   </si>
   <si>
-    <t>The small size is larvae</t>
-  </si>
-  <si>
     <t>0.113</t>
   </si>
   <si>
@@ -971,12 +965,6 @@
   </si>
   <si>
     <t>11.209</t>
-  </si>
-  <si>
-    <t>0.270</t>
-  </si>
-  <si>
-    <t>0.1196</t>
   </si>
   <si>
     <t>63.1</t>
@@ -1548,11 +1536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,22 +1571,22 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1660,10 +1648,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
@@ -1672,28 +1660,28 @@
         <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="O2" s="3">
         <v>2</v>
       </c>
       <c r="P2" s="3">
-        <v>11744000</v>
+        <v>11744</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>43</v>
@@ -1713,7 +1701,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B3" s="3">
         <v>14</v>
@@ -1722,10 +1710,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>24</v>
@@ -1734,22 +1722,22 @@
         <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>32</v>
@@ -1770,7 +1758,7 @@
         <v>43</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>22</v>
@@ -1778,19 +1766,19 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B4" s="3">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
@@ -1799,22 +1787,22 @@
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>32</v>
@@ -1835,7 +1823,7 @@
         <v>43</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>22</v>
@@ -1843,19 +1831,19 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B5" s="3">
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>24</v>
@@ -1864,22 +1852,22 @@
         <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>32</v>
@@ -1900,7 +1888,7 @@
         <v>43</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>22</v>
@@ -1908,19 +1896,19 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B6" s="3">
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>28</v>
@@ -1929,22 +1917,22 @@
         <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>36</v>
@@ -1962,13 +1950,13 @@
         <v>43</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1988,25 +1976,25 @@
         <v>39</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P7" s="3">
         <v>9500</v>
@@ -2024,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>30</v>
@@ -2047,25 +2035,25 @@
         <v>39</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="O8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P8" s="3">
         <v>9500</v>
@@ -2083,7 +2071,7 @@
         <v>6</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>30</v>
@@ -2106,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="O9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P9" s="3">
         <v>9500</v>
@@ -2142,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>30</v>
@@ -2165,25 +2153,25 @@
         <v>39</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="O10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P10" s="3">
         <v>9500</v>
@@ -2201,7 +2189,7 @@
         <v>6</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>30</v>
@@ -2215,40 +2203,40 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="P11" s="3">
         <v>100000</v>
@@ -2263,7 +2251,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>42</v>
@@ -2271,16 +2259,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B12" s="3">
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E12" s="3">
         <v>17</v>
@@ -2292,25 +2280,25 @@
         <v>45</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P12" s="3">
         <v>9100</v>
@@ -2325,10 +2313,10 @@
         <v>43</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>47</v>
@@ -2336,19 +2324,19 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B13" s="3">
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>44</v>
@@ -2357,25 +2345,25 @@
         <v>45</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P13" s="3">
         <v>9100</v>
@@ -2390,10 +2378,10 @@
         <v>43</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="V13" s="3" t="s">
         <v>47</v>
@@ -2401,19 +2389,19 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B14" s="3">
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>44</v>
@@ -2422,25 +2410,25 @@
         <v>45</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P14" s="3">
         <v>9100</v>
@@ -2455,10 +2443,10 @@
         <v>43</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>47</v>
@@ -2466,7 +2454,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B15" s="3">
         <v>25</v>
@@ -2475,7 +2463,7 @@
         <v>179</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E15" s="3">
         <v>251</v>
@@ -2487,25 +2475,25 @@
         <v>45</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P15" s="3">
         <v>9100</v>
@@ -2520,10 +2508,10 @@
         <v>43</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>47</v>
@@ -2534,7 +2522,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2548,22 +2536,22 @@
         <v>52</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="N16" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>36</v>
@@ -2581,10 +2569,10 @@
         <v>10</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>48</v>
@@ -2609,22 +2597,22 @@
         <v>52</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="N17" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>36</v>
@@ -2642,10 +2630,10 @@
         <v>10</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>48</v>
@@ -2659,10 +2647,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E18" s="3">
         <v>49</v>
@@ -2674,25 +2662,25 @@
         <v>56</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P18" s="3">
         <v>96800</v>
@@ -2715,16 +2703,16 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E19" s="3">
         <v>143</v>
@@ -2736,25 +2724,25 @@
         <v>60</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="M19" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P19" s="3">
         <v>10000</v>
@@ -2772,7 +2760,7 @@
         <v>43</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>58</v>
@@ -2789,10 +2777,10 @@
         <v>65</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>63</v>
@@ -2801,22 +2789,22 @@
         <v>64</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="N20" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O20" s="3">
         <v>2</v>
@@ -2831,7 +2819,7 @@
         <v>33</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>43</v>
@@ -2859,25 +2847,25 @@
         <v>68</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="N21" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P21" s="4">
         <v>46800</v>
@@ -2889,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>18</v>
@@ -2918,25 +2906,25 @@
         <v>68</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="N22" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P22" s="4">
         <v>46800</v>
@@ -2948,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>18</v>
@@ -2966,13 +2954,13 @@
         <v>72</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
@@ -2982,25 +2970,25 @@
         <v>76</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="P23" s="4">
         <v>60000</v>
@@ -3012,10 +3000,10 @@
         <v>28</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4" t="s">
@@ -3030,7 +3018,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3042,25 +3030,25 @@
         <v>80</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="N24" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="P24" s="4">
         <v>3900</v>
@@ -3084,7 +3072,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B25" s="4">
         <v>31</v>
@@ -3093,10 +3081,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
@@ -3106,25 +3094,25 @@
         <v>82</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P25" s="4">
         <v>45000</v>
@@ -3142,7 +3130,7 @@
         <v>43</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="V25" s="4" t="s">
         <v>85</v>
@@ -3159,7 +3147,7 @@
         <v>89</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E26" s="4">
         <v>46</v>
@@ -3172,25 +3160,25 @@
         <v>87</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P26" s="4">
         <v>1900</v>
@@ -3225,10 +3213,10 @@
         <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -3238,25 +3226,25 @@
         <v>95</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P27" s="4">
         <v>19000</v>
@@ -3280,47 +3268,47 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B28" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="O28" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P28" s="4">
         <v>23600</v>
@@ -3337,186 +3325,180 @@
       <c r="T28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="U28" s="4"/>
+      <c r="V28" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="3">
+        <v>652</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="4">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="P29" s="4">
-        <v>23600</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>109</v>
+        <v>135</v>
+      </c>
+      <c r="B30" s="3">
+        <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>107</v>
+        <v>322</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>324</v>
+        <v>125</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>323</v>
+        <v>143</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>32</v>
+      <c r="J30" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="P30" s="3">
-        <v>652</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>325</v>
+        <v>96000</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>2</v>
+      </c>
+      <c r="R30" s="5">
+        <v>16</v>
+      </c>
+      <c r="S30" s="5">
+        <v>9</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="3">
-        <v>17</v>
+        <v>136</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P31" s="3">
         <v>96000</v>
@@ -3534,51 +3516,51 @@
         <v>89</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P32" s="3">
         <v>96000</v>
@@ -3596,51 +3578,51 @@
         <v>89</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>328</v>
+        <v>131</v>
+      </c>
+      <c r="C33" s="3">
+        <v>17</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>329</v>
+        <v>145</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P33" s="3">
         <v>96000</v>
@@ -3658,51 +3640,51 @@
         <v>89</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="3">
-        <v>17</v>
+        <v>132</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="I34" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P34" s="3">
         <v>96000</v>
@@ -3720,51 +3702,51 @@
         <v>89</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="C35" s="3">
+        <v>309</v>
+      </c>
+      <c r="D35" s="3">
+        <v>447</v>
+      </c>
+      <c r="E35" s="3">
+        <v>648</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P35" s="3">
         <v>96000</v>
@@ -3782,51 +3764,51 @@
         <v>89</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3">
-        <v>309</v>
+        <v>628</v>
       </c>
       <c r="D36" s="3">
-        <v>447</v>
+        <v>874</v>
       </c>
       <c r="E36" s="3">
-        <v>648</v>
+        <v>1217</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P36" s="3">
         <v>96000</v>
@@ -3844,51 +3826,51 @@
         <v>89</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C37" s="3">
-        <v>628</v>
+        <v>1503</v>
       </c>
       <c r="D37" s="3">
-        <v>874</v>
+        <v>2213</v>
       </c>
       <c r="E37" s="3">
-        <v>1217</v>
+        <v>3154</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P37" s="3">
         <v>96000</v>
@@ -3906,113 +3888,116 @@
         <v>89</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>136</v>
+        <v>110</v>
+      </c>
+      <c r="B38" s="3">
+        <v>14</v>
       </c>
       <c r="C38" s="3">
-        <v>1503</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2213</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3154</v>
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F38" s="3">
+        <v>35</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O38" s="3">
+        <v>4</v>
+      </c>
+      <c r="P38" s="3">
+        <v>320000</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V38" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="P38" s="3">
-        <v>96000</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>2</v>
-      </c>
-      <c r="R38" s="5">
-        <v>16</v>
-      </c>
-      <c r="S38" s="5">
-        <v>9</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="3">
-        <v>14</v>
+        <v>149</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C39" s="3">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="E39" s="3">
+        <v>451</v>
       </c>
       <c r="F39" s="3">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="O39" s="3">
         <v>4</v>
@@ -4030,10 +4015,10 @@
         <v>43</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -4044,40 +4029,40 @@
         <v>150</v>
       </c>
       <c r="C40" s="3">
-        <v>136</v>
+        <v>3000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E40" s="3">
-        <v>451</v>
+        <v>4600</v>
       </c>
       <c r="F40" s="3">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="O40" s="3">
         <v>4</v>
@@ -4095,10 +4080,10 @@
         <v>43</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -4106,108 +4091,111 @@
         <v>153</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="3">
-        <v>3000</v>
+        <v>158</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4000</v>
+        <v>347</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P41" s="3">
+        <v>25000</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="V41" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="O41" s="3">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
-        <v>320000</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="N42" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>36</v>
@@ -4228,54 +4216,54 @@
         <v>37</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="F43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="I43" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>36</v>
@@ -4296,54 +4284,54 @@
         <v>37</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>36</v>
@@ -4364,54 +4352,54 @@
         <v>37</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>167</v>
+        <v>339</v>
+      </c>
+      <c r="F45" s="3">
+        <v>54</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>36</v>
@@ -4432,54 +4420,54 @@
         <v>37</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F46" s="3">
-        <v>54</v>
+        <v>499</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>36</v>
@@ -4500,60 +4488,57 @@
         <v>37</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>165</v>
+        <v>350</v>
+      </c>
+      <c r="B47" s="3">
+        <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F47" s="3">
-        <v>499</v>
+        <v>348</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>209</v>
+        <v>262</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="P47" s="3">
-        <v>25000</v>
+        <v>5263</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>43</v>
@@ -4565,75 +4550,69 @@
         <v>43</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B48" s="3">
-        <v>16</v>
-      </c>
-      <c r="C48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="K48" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N48" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="P48" s="3">
-        <v>5263</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>43</v>
+        <v>582</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>-2</v>
+      </c>
+      <c r="R48" s="3">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
+        <v>3</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>169</v>
@@ -4641,40 +4620,40 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>173</v>
+        <v>352</v>
+      </c>
+      <c r="B49" s="3">
+        <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P49" s="3">
         <v>582</v>
@@ -4689,107 +4668,107 @@
         <v>3</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>356</v>
+        <v>173</v>
       </c>
       <c r="B50" s="3">
-        <v>9</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>358</v>
+        <v>33</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>266</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>267</v>
+        <v>218</v>
+      </c>
+      <c r="O50" s="3">
+        <v>4</v>
       </c>
       <c r="P50" s="3">
-        <v>582</v>
+        <v>68000</v>
       </c>
       <c r="Q50" s="3">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="R50" s="3">
-        <v>8</v>
-      </c>
-      <c r="S50" s="3">
-        <v>3</v>
-      </c>
-      <c r="T50" s="3" t="s">
-        <v>222</v>
+        <v>32</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="T50" s="3">
+        <v>14</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="3">
         <v>33</v>
       </c>
       <c r="F51" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I51" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="N51" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O51" s="3">
         <v>4</v>
@@ -4804,51 +4783,51 @@
         <v>32</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T51" s="3">
         <v>14</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B52" s="3">
         <v>33</v>
       </c>
       <c r="F52" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="N52" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O52" s="3">
         <v>4</v>
@@ -4863,51 +4842,51 @@
         <v>32</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T52" s="3">
         <v>14</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="3">
         <v>33</v>
       </c>
       <c r="F53" s="3">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I53" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="N53" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O53" s="3">
         <v>4</v>
@@ -4922,110 +4901,107 @@
         <v>32</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T53" s="3">
         <v>14</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>178</v>
+        <v>367</v>
       </c>
       <c r="B54" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P54" s="6">
+        <v>4800</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>10</v>
+      </c>
+      <c r="R54" s="6">
+        <v>22</v>
+      </c>
+      <c r="S54" s="6">
+        <v>16</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O54" s="3">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
-        <v>68000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>17</v>
-      </c>
-      <c r="R54" s="3">
-        <v>32</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="T54" s="3">
-        <v>14</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B55" s="3">
-        <v>28</v>
-      </c>
       <c r="F55" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>36</v>
@@ -5046,42 +5022,42 @@
         <v>43</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>6</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>271</v>
+        <v>4</v>
+      </c>
+      <c r="B56" s="3">
+        <v>23</v>
       </c>
       <c r="F56" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>36</v>
@@ -5102,42 +5078,42 @@
         <v>43</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F57" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>36</v>
@@ -5158,101 +5134,101 @@
         <v>43</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>3</v>
+      <c r="A58" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B58" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I58" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="J58" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P58" s="8">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>16</v>
+      </c>
+      <c r="R58" s="8">
+        <v>25</v>
+      </c>
+      <c r="S58" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="N58" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="O58" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P58" s="6">
-        <v>4800</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>10</v>
-      </c>
-      <c r="R58" s="6">
-        <v>22</v>
-      </c>
-      <c r="S58" s="6">
-        <v>16</v>
-      </c>
       <c r="T58" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V58" s="4" t="s">
-        <v>370</v>
+      <c r="V58" s="8" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B59" s="3">
         <v>27</v>
       </c>
       <c r="F59" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P59" s="8">
         <v>300</v>
@@ -5264,51 +5240,51 @@
         <v>25</v>
       </c>
       <c r="S59" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="T59" s="5" t="s">
         <v>43</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B60" s="3">
         <v>27</v>
       </c>
       <c r="F60" s="3">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P60" s="8">
         <v>300</v>
@@ -5320,69 +5296,13 @@
         <v>25</v>
       </c>
       <c r="S60" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="T60" s="5" t="s">
         <v>43</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B61" s="3">
-        <v>27</v>
-      </c>
-      <c r="F61" s="3">
-        <v>36</v>
-      </c>
-      <c r="G61" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="P61" s="8">
-        <v>300</v>
-      </c>
-      <c r="Q61" s="8">
-        <v>16</v>
-      </c>
-      <c r="R61" s="8">
-        <v>25</v>
-      </c>
-      <c r="S61" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="T61" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V61" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48063D80-4BAB-E04B-8642-C340A0019301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13455" windowHeight="6915"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="33880" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="607">
   <si>
     <t>common_name</t>
   </si>
@@ -1813,9 +1814,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>SGR growth from Fig 1; Sizes from Table 1; Temperature not from Fishbase but from this paper: Effects of water temperature on feeding and growth of juvenile marbled flounder Pseudopleuronectes yokohamae under laboratory conditions: evaluation by group- and individual-based methods</t>
-  </si>
-  <si>
     <t>Demersal</t>
   </si>
   <si>
@@ -1835,16 +1833,22 @@
   </si>
   <si>
     <t>Reef-associated; oceanodromous</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>SGR growth from Fig 1; Sizes from Table 1; Environmental temperature from Joh, M., Nakaya, M., Yoshida, N. &amp; Takatsu, T. (2013). Interannual growth differences and growth-selective survival in larvae and juveniles of marbled sole Pseudopleuronectes yokohamae. Marine Ecology Progress Series, 494, 267–279. AND Mitamura, H., Arai, N., Hori, M., Uchida, K., Kajiyama, M. &amp; Ishii, M. (2020). Occurrence of a temperate coastal flatfish, the marbled flounder Pseudopleuronectes yokohamae, at high water temperatures in a shallow bay in summer detected by acoustic telemetry. Fish Sci, 86, 77–85.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,6 +1866,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2012,6 +2022,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2047,6 +2074,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2222,44 +2266,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O214" sqref="O214"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="3"/>
+    <col min="11" max="11" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" style="3" customWidth="1"/>
     <col min="22" max="22" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="117.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="37.42578125" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="3"/>
+    <col min="23" max="23" width="117.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="37.5" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
@@ -2336,7 +2380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>214</v>
       </c>
@@ -2374,7 +2418,7 @@
         <v>80</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>81</v>
@@ -2397,11 +2441,11 @@
       <c r="U2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="3">
-        <v>11</v>
+      <c r="V2" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X2" s="3">
         <v>1</v>
@@ -2410,7 +2454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2448,7 +2492,7 @@
         <v>80</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>81</v>
@@ -2471,11 +2515,11 @@
       <c r="U3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="3">
-        <v>11</v>
+      <c r="V3" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X3" s="3">
         <v>1</v>
@@ -2484,7 +2528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>218</v>
       </c>
@@ -2522,7 +2566,7 @@
         <v>80</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>81</v>
@@ -2545,11 +2589,11 @@
       <c r="U4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="3">
-        <v>11</v>
+      <c r="V4" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
@@ -2558,7 +2602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>220</v>
       </c>
@@ -2596,7 +2640,7 @@
         <v>80</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>81</v>
@@ -2619,11 +2663,11 @@
       <c r="U5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="3">
-        <v>11</v>
+      <c r="V5" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X5" s="3">
         <v>1</v>
@@ -2632,7 +2676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>222</v>
       </c>
@@ -2670,7 +2714,7 @@
         <v>80</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>81</v>
@@ -2693,11 +2737,11 @@
       <c r="U6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="3">
-        <v>11</v>
+      <c r="V6" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X6" s="3">
         <v>1</v>
@@ -2706,7 +2750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>224</v>
       </c>
@@ -2744,7 +2788,7 @@
         <v>80</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>81</v>
@@ -2767,11 +2811,11 @@
       <c r="U7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="3">
-        <v>11</v>
+      <c r="V7" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X7" s="3">
         <v>1</v>
@@ -2780,7 +2824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>226</v>
       </c>
@@ -2818,7 +2862,7 @@
         <v>80</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>81</v>
@@ -2841,11 +2885,11 @@
       <c r="U8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="3">
-        <v>11</v>
+      <c r="V8" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X8" s="3">
         <v>1</v>
@@ -2854,7 +2898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>228</v>
       </c>
@@ -2892,7 +2936,7 @@
         <v>80</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>81</v>
@@ -2915,11 +2959,11 @@
       <c r="U9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="3">
-        <v>11</v>
+      <c r="V9" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X9" s="3">
         <v>1</v>
@@ -2928,7 +2972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>230</v>
       </c>
@@ -2966,7 +3010,7 @@
         <v>80</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>81</v>
@@ -2989,11 +3033,11 @@
       <c r="U10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="3">
-        <v>11</v>
+      <c r="V10" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X10" s="3">
         <v>1</v>
@@ -3002,7 +3046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>232</v>
       </c>
@@ -3040,7 +3084,7 @@
         <v>80</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>81</v>
@@ -3063,11 +3107,11 @@
       <c r="U11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="3">
-        <v>11</v>
+      <c r="V11" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X11" s="3">
         <v>1</v>
@@ -3076,7 +3120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>234</v>
       </c>
@@ -3114,7 +3158,7 @@
         <v>80</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>81</v>
@@ -3137,11 +3181,11 @@
       <c r="U12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V12" s="3">
-        <v>11</v>
+      <c r="V12" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X12" s="3">
         <v>1</v>
@@ -3150,7 +3194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>236</v>
       </c>
@@ -3188,7 +3232,7 @@
         <v>80</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>81</v>
@@ -3211,11 +3255,11 @@
       <c r="U13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V13" s="3">
-        <v>11</v>
+      <c r="V13" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X13" s="3">
         <v>1</v>
@@ -3224,7 +3268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>238</v>
       </c>
@@ -3262,7 +3306,7 @@
         <v>80</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>81</v>
@@ -3285,11 +3329,11 @@
       <c r="U14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V14" s="3">
-        <v>11</v>
+      <c r="V14" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X14" s="3">
         <v>1</v>
@@ -3298,7 +3342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>240</v>
       </c>
@@ -3336,7 +3380,7 @@
         <v>80</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>81</v>
@@ -3359,11 +3403,11 @@
       <c r="U15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V15" s="3">
-        <v>11</v>
+      <c r="V15" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X15" s="3">
         <v>1</v>
@@ -3372,7 +3416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>242</v>
       </c>
@@ -3410,7 +3454,7 @@
         <v>80</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>81</v>
@@ -3433,11 +3477,11 @@
       <c r="U16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V16" s="3">
-        <v>11</v>
+      <c r="V16" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X16" s="3">
         <v>1</v>
@@ -3446,7 +3490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>244</v>
       </c>
@@ -3484,7 +3528,7 @@
         <v>80</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>81</v>
@@ -3507,11 +3551,11 @@
       <c r="U17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V17" s="3">
-        <v>11</v>
+      <c r="V17" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X17" s="3">
         <v>1</v>
@@ -3520,7 +3564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>246</v>
       </c>
@@ -3558,7 +3602,7 @@
         <v>80</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>81</v>
@@ -3581,11 +3625,11 @@
       <c r="U18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V18" s="3">
-        <v>11</v>
+      <c r="V18" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X18" s="3">
         <v>1</v>
@@ -3594,7 +3638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -3632,7 +3676,7 @@
         <v>80</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>81</v>
@@ -3655,11 +3699,11 @@
       <c r="U19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="3">
-        <v>11</v>
+      <c r="V19" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="X19" s="3">
         <v>1</v>
@@ -3668,7 +3712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -3700,7 +3744,7 @@
         <v>80</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>85</v>
@@ -3736,7 +3780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>250</v>
       </c>
@@ -3768,7 +3812,7 @@
         <v>80</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>85</v>
@@ -3804,7 +3848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>252</v>
       </c>
@@ -3836,7 +3880,7 @@
         <v>80</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>85</v>
@@ -3872,7 +3916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>254</v>
       </c>
@@ -3904,7 +3948,7 @@
         <v>80</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>85</v>
@@ -3940,7 +3984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>256</v>
       </c>
@@ -3972,7 +4016,7 @@
         <v>80</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>85</v>
@@ -4008,7 +4052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>258</v>
       </c>
@@ -4040,7 +4084,7 @@
         <v>80</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>85</v>
@@ -4076,7 +4120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>260</v>
       </c>
@@ -4108,7 +4152,7 @@
         <v>80</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>85</v>
@@ -4144,7 +4188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>262</v>
       </c>
@@ -4176,7 +4220,7 @@
         <v>80</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>85</v>
@@ -4212,7 +4256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>264</v>
       </c>
@@ -4244,7 +4288,7 @@
         <v>80</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>85</v>
@@ -4280,7 +4324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>266</v>
       </c>
@@ -4312,7 +4356,7 @@
         <v>80</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>85</v>
@@ -4348,7 +4392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>268</v>
       </c>
@@ -4380,7 +4424,7 @@
         <v>80</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>85</v>
@@ -4416,7 +4460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>270</v>
       </c>
@@ -4448,7 +4492,7 @@
         <v>80</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>85</v>
@@ -4484,7 +4528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>272</v>
       </c>
@@ -4516,7 +4560,7 @@
         <v>80</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>85</v>
@@ -4552,7 +4596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>274</v>
       </c>
@@ -4584,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>85</v>
@@ -4620,7 +4664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>276</v>
       </c>
@@ -4652,7 +4696,7 @@
         <v>80</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>85</v>
@@ -4688,7 +4732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>278</v>
       </c>
@@ -4720,7 +4764,7 @@
         <v>80</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>85</v>
@@ -4756,7 +4800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>280</v>
       </c>
@@ -4788,7 +4832,7 @@
         <v>80</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>85</v>
@@ -4824,7 +4868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>282</v>
       </c>
@@ -4856,7 +4900,7 @@
         <v>80</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>85</v>
@@ -4892,7 +4936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>284</v>
       </c>
@@ -4924,7 +4968,7 @@
         <v>80</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>85</v>
@@ -4960,7 +5004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>286</v>
       </c>
@@ -4992,7 +5036,7 @@
         <v>80</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>85</v>
@@ -5028,7 +5072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>288</v>
       </c>
@@ -5066,7 +5110,7 @@
         <v>80</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>86</v>
@@ -5102,7 +5146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>290</v>
       </c>
@@ -5140,7 +5184,7 @@
         <v>80</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>86</v>
@@ -5176,7 +5220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>292</v>
       </c>
@@ -5214,7 +5258,7 @@
         <v>80</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>86</v>
@@ -5250,7 +5294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>294</v>
       </c>
@@ -5288,7 +5332,7 @@
         <v>80</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>86</v>
@@ -5324,7 +5368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>296</v>
       </c>
@@ -5362,7 +5406,7 @@
         <v>80</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>86</v>
@@ -5398,7 +5442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>298</v>
       </c>
@@ -5436,7 +5480,7 @@
         <v>80</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>86</v>
@@ -5472,7 +5516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>300</v>
       </c>
@@ -5510,7 +5554,7 @@
         <v>80</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>86</v>
@@ -5546,7 +5590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>302</v>
       </c>
@@ -5584,7 +5628,7 @@
         <v>80</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>86</v>
@@ -5620,7 +5664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>304</v>
       </c>
@@ -5658,7 +5702,7 @@
         <v>80</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>86</v>
@@ -5694,7 +5738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>306</v>
       </c>
@@ -5732,7 +5776,7 @@
         <v>80</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>86</v>
@@ -5768,7 +5812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>308</v>
       </c>
@@ -5806,7 +5850,7 @@
         <v>80</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>86</v>
@@ -5842,7 +5886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>310</v>
       </c>
@@ -5880,7 +5924,7 @@
         <v>80</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>86</v>
@@ -5916,7 +5960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>312</v>
       </c>
@@ -5954,7 +5998,7 @@
         <v>80</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>86</v>
@@ -5990,7 +6034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>314</v>
       </c>
@@ -6028,7 +6072,7 @@
         <v>80</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>86</v>
@@ -6064,7 +6108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>316</v>
       </c>
@@ -6102,7 +6146,7 @@
         <v>80</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>86</v>
@@ -6138,7 +6182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>318</v>
       </c>
@@ -6176,7 +6220,7 @@
         <v>80</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>86</v>
@@ -6212,7 +6256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>320</v>
       </c>
@@ -6250,7 +6294,7 @@
         <v>80</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>86</v>
@@ -6286,7 +6330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>322</v>
       </c>
@@ -6324,7 +6368,7 @@
         <v>80</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>86</v>
@@ -6360,7 +6404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>324</v>
       </c>
@@ -6398,7 +6442,7 @@
         <v>80</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>86</v>
@@ -6434,7 +6478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>326</v>
       </c>
@@ -6472,7 +6516,7 @@
         <v>80</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>86</v>
@@ -6508,7 +6552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>328</v>
       </c>
@@ -6542,7 +6586,7 @@
         <v>94</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>81</v>
@@ -6578,7 +6622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>330</v>
       </c>
@@ -6612,7 +6656,7 @@
         <v>94</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>81</v>
@@ -6648,7 +6692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>332</v>
       </c>
@@ -6680,7 +6724,7 @@
         <v>94</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O62" s="4" t="s">
         <v>81</v>
@@ -6716,7 +6760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>334</v>
       </c>
@@ -6748,7 +6792,7 @@
         <v>94</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O63" s="4" t="s">
         <v>81</v>
@@ -6784,7 +6828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>336</v>
       </c>
@@ -6816,7 +6860,7 @@
         <v>94</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>81</v>
@@ -6852,7 +6896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>338</v>
       </c>
@@ -6884,7 +6928,7 @@
         <v>94</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O65" s="4" t="s">
         <v>81</v>
@@ -6920,7 +6964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>340</v>
       </c>
@@ -6954,7 +6998,7 @@
         <v>94</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>81</v>
@@ -6990,7 +7034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>342</v>
       </c>
@@ -7024,7 +7068,7 @@
         <v>94</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>81</v>
@@ -7060,7 +7104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>344</v>
       </c>
@@ -7092,7 +7136,7 @@
         <v>94</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>81</v>
@@ -7128,7 +7172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>346</v>
       </c>
@@ -7160,7 +7204,7 @@
         <v>94</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>81</v>
@@ -7196,7 +7240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>348</v>
       </c>
@@ -7228,7 +7272,7 @@
         <v>94</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>81</v>
@@ -7264,7 +7308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>350</v>
       </c>
@@ -7296,7 +7340,7 @@
         <v>94</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>81</v>
@@ -7332,7 +7376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>352</v>
       </c>
@@ -7364,7 +7408,7 @@
         <v>94</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>81</v>
@@ -7400,7 +7444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>354</v>
       </c>
@@ -7432,7 +7476,7 @@
         <v>94</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>81</v>
@@ -7468,7 +7512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>51</v>
       </c>
@@ -7507,7 +7551,7 @@
         <v>94</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>77</v>
@@ -7543,7 +7587,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>168</v>
       </c>
@@ -7582,7 +7626,7 @@
         <v>94</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>77</v>
@@ -7618,7 +7662,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>138</v>
       </c>
@@ -7657,7 +7701,7 @@
         <v>94</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>77</v>
@@ -7693,7 +7737,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>138</v>
       </c>
@@ -7732,7 +7776,7 @@
         <v>94</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>77</v>
@@ -7768,7 +7812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>169</v>
       </c>
@@ -7806,7 +7850,7 @@
         <v>94</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>77</v>
@@ -7842,7 +7886,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>170</v>
       </c>
@@ -7880,7 +7924,7 @@
         <v>94</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>77</v>
@@ -7916,7 +7960,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>171</v>
       </c>
@@ -7954,7 +7998,7 @@
         <v>94</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>77</v>
@@ -7990,7 +8034,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>172</v>
       </c>
@@ -8028,7 +8072,7 @@
         <v>94</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>77</v>
@@ -8064,7 +8108,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>173</v>
       </c>
@@ -8102,7 +8146,7 @@
         <v>94</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>77</v>
@@ -8138,7 +8182,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>136</v>
       </c>
@@ -8176,7 +8220,7 @@
         <v>94</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>77</v>
@@ -8212,7 +8256,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>174</v>
       </c>
@@ -8250,7 +8294,7 @@
         <v>94</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>77</v>
@@ -8286,7 +8330,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>175</v>
       </c>
@@ -8324,7 +8368,7 @@
         <v>94</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>77</v>
@@ -8360,7 +8404,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>359</v>
       </c>
@@ -8392,7 +8436,7 @@
         <v>96</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O86" s="5" t="s">
         <v>81</v>
@@ -8428,7 +8472,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>361</v>
       </c>
@@ -8460,7 +8504,7 @@
         <v>96</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O87" s="5" t="s">
         <v>81</v>
@@ -8496,7 +8540,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>363</v>
       </c>
@@ -8528,7 +8572,7 @@
         <v>96</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O88" s="5" t="s">
         <v>81</v>
@@ -8564,7 +8608,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>365</v>
       </c>
@@ -8596,7 +8640,7 @@
         <v>96</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O89" s="5" t="s">
         <v>81</v>
@@ -8632,7 +8676,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>367</v>
       </c>
@@ -8665,7 +8709,7 @@
         <v>96</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O90" s="5" t="s">
         <v>81</v>
@@ -8701,7 +8745,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>369</v>
       </c>
@@ -8734,7 +8778,7 @@
         <v>96</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O91" s="5" t="s">
         <v>81</v>
@@ -8770,7 +8814,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>371</v>
       </c>
@@ -8802,7 +8846,7 @@
         <v>96</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O92" s="5" t="s">
         <v>81</v>
@@ -8838,7 +8882,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>373</v>
       </c>
@@ -8870,7 +8914,7 @@
         <v>96</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O93" s="5" t="s">
         <v>81</v>
@@ -8906,7 +8950,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>375</v>
       </c>
@@ -8938,7 +8982,7 @@
         <v>96</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O94" s="5" t="s">
         <v>81</v>
@@ -8974,7 +9018,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>377</v>
       </c>
@@ -9006,7 +9050,7 @@
         <v>96</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O95" s="5" t="s">
         <v>81</v>
@@ -9042,7 +9086,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>379</v>
       </c>
@@ -9074,7 +9118,7 @@
         <v>96</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O96" s="5" t="s">
         <v>81</v>
@@ -9110,7 +9154,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>381</v>
       </c>
@@ -9142,7 +9186,7 @@
         <v>96</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O97" s="5" t="s">
         <v>81</v>
@@ -9178,7 +9222,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>383</v>
       </c>
@@ -9210,7 +9254,7 @@
         <v>96</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O98" s="5" t="s">
         <v>81</v>
@@ -9246,7 +9290,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>385</v>
       </c>
@@ -9278,7 +9322,7 @@
         <v>96</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O99" s="5" t="s">
         <v>81</v>
@@ -9314,7 +9358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>387</v>
       </c>
@@ -9346,7 +9390,7 @@
         <v>96</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O100" s="5" t="s">
         <v>81</v>
@@ -9382,7 +9426,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>389</v>
       </c>
@@ -9414,7 +9458,7 @@
         <v>96</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O101" s="5" t="s">
         <v>81</v>
@@ -9450,7 +9494,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>391</v>
       </c>
@@ -9482,7 +9526,7 @@
         <v>96</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O102" s="5" t="s">
         <v>81</v>
@@ -9518,7 +9562,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>393</v>
       </c>
@@ -9550,7 +9594,7 @@
         <v>96</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O103" s="5" t="s">
         <v>81</v>
@@ -9586,7 +9630,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>395</v>
       </c>
@@ -9618,7 +9662,7 @@
         <v>96</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O104" s="5" t="s">
         <v>81</v>
@@ -9654,7 +9698,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>397</v>
       </c>
@@ -9686,7 +9730,7 @@
         <v>96</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O105" s="5" t="s">
         <v>81</v>
@@ -9722,7 +9766,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>399</v>
       </c>
@@ -9754,7 +9798,7 @@
         <v>96</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O106" s="5" t="s">
         <v>81</v>
@@ -9790,7 +9834,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>401</v>
       </c>
@@ -9822,7 +9866,7 @@
         <v>96</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O107" s="5" t="s">
         <v>81</v>
@@ -9858,7 +9902,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>403</v>
       </c>
@@ -9890,7 +9934,7 @@
         <v>96</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O108" s="5" t="s">
         <v>81</v>
@@ -9926,7 +9970,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>405</v>
       </c>
@@ -9958,7 +10002,7 @@
         <v>96</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O109" s="5" t="s">
         <v>81</v>
@@ -9994,7 +10038,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>407</v>
       </c>
@@ -10026,7 +10070,7 @@
         <v>96</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O110" s="5" t="s">
         <v>81</v>
@@ -10062,7 +10106,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>409</v>
       </c>
@@ -10094,7 +10138,7 @@
         <v>96</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O111" s="5" t="s">
         <v>81</v>
@@ -10130,7 +10174,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>411</v>
       </c>
@@ -10162,7 +10206,7 @@
         <v>96</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O112" s="5" t="s">
         <v>81</v>
@@ -10198,7 +10242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>413</v>
       </c>
@@ -10230,7 +10274,7 @@
         <v>96</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O113" s="5" t="s">
         <v>81</v>
@@ -10266,7 +10310,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>415</v>
       </c>
@@ -10298,7 +10342,7 @@
         <v>96</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O114" s="5" t="s">
         <v>81</v>
@@ -10334,7 +10378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>417</v>
       </c>
@@ -10366,7 +10410,7 @@
         <v>96</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O115" s="5" t="s">
         <v>81</v>
@@ -10402,7 +10446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>419</v>
       </c>
@@ -10434,7 +10478,7 @@
         <v>96</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O116" s="5" t="s">
         <v>81</v>
@@ -10470,7 +10514,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>421</v>
       </c>
@@ -10502,7 +10546,7 @@
         <v>96</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O117" s="5" t="s">
         <v>81</v>
@@ -10538,7 +10582,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>423</v>
       </c>
@@ -10570,7 +10614,7 @@
         <v>96</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O118" s="5" t="s">
         <v>81</v>
@@ -10606,7 +10650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>425</v>
       </c>
@@ -10638,7 +10682,7 @@
         <v>96</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O119" s="5" t="s">
         <v>81</v>
@@ -10674,7 +10718,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>427</v>
       </c>
@@ -10706,7 +10750,7 @@
         <v>80</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O120" s="5" t="s">
         <v>81</v>
@@ -10742,7 +10786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>429</v>
       </c>
@@ -10774,7 +10818,7 @@
         <v>80</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O121" s="5" t="s">
         <v>81</v>
@@ -10810,7 +10854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>431</v>
       </c>
@@ -10842,7 +10886,7 @@
         <v>80</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O122" s="5" t="s">
         <v>81</v>
@@ -10878,7 +10922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>433</v>
       </c>
@@ -10910,7 +10954,7 @@
         <v>80</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O123" s="5" t="s">
         <v>81</v>
@@ -10946,7 +10990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>435</v>
       </c>
@@ -10978,7 +11022,7 @@
         <v>80</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O124" s="5" t="s">
         <v>81</v>
@@ -11014,7 +11058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>437</v>
       </c>
@@ -11046,7 +11090,7 @@
         <v>80</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O125" s="5" t="s">
         <v>81</v>
@@ -11082,7 +11126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>439</v>
       </c>
@@ -11114,7 +11158,7 @@
         <v>80</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O126" s="5" t="s">
         <v>81</v>
@@ -11150,7 +11194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>441</v>
       </c>
@@ -11182,7 +11226,7 @@
         <v>80</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O127" s="5" t="s">
         <v>81</v>
@@ -11218,7 +11262,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>443</v>
       </c>
@@ -11250,7 +11294,7 @@
         <v>80</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O128" s="5" t="s">
         <v>81</v>
@@ -11286,7 +11330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>445</v>
       </c>
@@ -11318,7 +11362,7 @@
         <v>80</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O129" s="5" t="s">
         <v>81</v>
@@ -11354,7 +11398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>447</v>
       </c>
@@ -11386,7 +11430,7 @@
         <v>80</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O130" s="5" t="s">
         <v>81</v>
@@ -11422,7 +11466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>449</v>
       </c>
@@ -11454,7 +11498,7 @@
         <v>80</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O131" s="5" t="s">
         <v>81</v>
@@ -11490,7 +11534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>451</v>
       </c>
@@ -11522,7 +11566,7 @@
         <v>80</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O132" s="5" t="s">
         <v>81</v>
@@ -11558,7 +11602,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>453</v>
       </c>
@@ -11590,7 +11634,7 @@
         <v>80</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O133" s="5" t="s">
         <v>81</v>
@@ -11626,7 +11670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>455</v>
       </c>
@@ -11658,7 +11702,7 @@
         <v>80</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O134" s="5" t="s">
         <v>81</v>
@@ -11694,7 +11738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>457</v>
       </c>
@@ -11726,7 +11770,7 @@
         <v>80</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O135" s="5" t="s">
         <v>81</v>
@@ -11762,7 +11806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>459</v>
       </c>
@@ -11794,7 +11838,7 @@
         <v>80</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O136" s="5" t="s">
         <v>81</v>
@@ -11830,7 +11874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>461</v>
       </c>
@@ -11862,7 +11906,7 @@
         <v>96</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O137" s="5" t="s">
         <v>81</v>
@@ -11898,7 +11942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>463</v>
       </c>
@@ -11930,7 +11974,7 @@
         <v>96</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O138" s="5" t="s">
         <v>81</v>
@@ -11966,7 +12010,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>465</v>
       </c>
@@ -11998,7 +12042,7 @@
         <v>96</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O139" s="5" t="s">
         <v>81</v>
@@ -12034,7 +12078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>467</v>
       </c>
@@ -12066,7 +12110,7 @@
         <v>96</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O140" s="5" t="s">
         <v>81</v>
@@ -12102,7 +12146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>469</v>
       </c>
@@ -12134,7 +12178,7 @@
         <v>96</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O141" s="5" t="s">
         <v>81</v>
@@ -12170,7 +12214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>471</v>
       </c>
@@ -12202,7 +12246,7 @@
         <v>96</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O142" s="5" t="s">
         <v>81</v>
@@ -12238,7 +12282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>473</v>
       </c>
@@ -12270,7 +12314,7 @@
         <v>96</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O143" s="5" t="s">
         <v>81</v>
@@ -12306,7 +12350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>475</v>
       </c>
@@ -12338,7 +12382,7 @@
         <v>96</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O144" s="5" t="s">
         <v>81</v>
@@ -12374,7 +12418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>477</v>
       </c>
@@ -12406,7 +12450,7 @@
         <v>96</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O145" s="5" t="s">
         <v>81</v>
@@ -12442,7 +12486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>479</v>
       </c>
@@ -12474,7 +12518,7 @@
         <v>96</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O146" s="5" t="s">
         <v>81</v>
@@ -12510,7 +12554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>481</v>
       </c>
@@ -12542,7 +12586,7 @@
         <v>96</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O147" s="5" t="s">
         <v>81</v>
@@ -12578,7 +12622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>483</v>
       </c>
@@ -12610,7 +12654,7 @@
         <v>96</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O148" s="5" t="s">
         <v>81</v>
@@ -12646,7 +12690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>485</v>
       </c>
@@ -12678,7 +12722,7 @@
         <v>96</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O149" s="5" t="s">
         <v>81</v>
@@ -12714,7 +12758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>487</v>
       </c>
@@ -12746,7 +12790,7 @@
         <v>96</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O150" s="5" t="s">
         <v>81</v>
@@ -12782,7 +12826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>489</v>
       </c>
@@ -12814,7 +12858,7 @@
         <v>96</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O151" s="5" t="s">
         <v>81</v>
@@ -12850,7 +12894,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>477</v>
       </c>
@@ -12882,7 +12926,7 @@
         <v>96</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O152" s="5" t="s">
         <v>81</v>
@@ -12918,7 +12962,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>492</v>
       </c>
@@ -12950,7 +12994,7 @@
         <v>96</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O153" s="5" t="s">
         <v>81</v>
@@ -12986,7 +13030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>494</v>
       </c>
@@ -13018,7 +13062,7 @@
         <v>96</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O154" s="5" t="s">
         <v>81</v>
@@ -13054,7 +13098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>496</v>
       </c>
@@ -13086,7 +13130,7 @@
         <v>96</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O155" s="5" t="s">
         <v>81</v>
@@ -13122,7 +13166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>498</v>
       </c>
@@ -13154,7 +13198,7 @@
         <v>96</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O156" s="5" t="s">
         <v>81</v>
@@ -13190,7 +13234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>500</v>
       </c>
@@ -13222,7 +13266,7 @@
         <v>96</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O157" s="5" t="s">
         <v>81</v>
@@ -13258,7 +13302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>502</v>
       </c>
@@ -13290,7 +13334,7 @@
         <v>96</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O158" s="5" t="s">
         <v>81</v>
@@ -13326,7 +13370,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>504</v>
       </c>
@@ -13358,7 +13402,7 @@
         <v>96</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O159" s="5" t="s">
         <v>81</v>
@@ -13394,7 +13438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>506</v>
       </c>
@@ -13426,7 +13470,7 @@
         <v>96</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O160" s="5" t="s">
         <v>81</v>
@@ -13462,7 +13506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>508</v>
       </c>
@@ -13494,7 +13538,7 @@
         <v>96</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O161" s="5" t="s">
         <v>81</v>
@@ -13530,7 +13574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>510</v>
       </c>
@@ -13562,7 +13606,7 @@
         <v>96</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O162" s="5" t="s">
         <v>81</v>
@@ -13598,7 +13642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>512</v>
       </c>
@@ -13630,7 +13674,7 @@
         <v>96</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O163" s="5" t="s">
         <v>81</v>
@@ -13666,7 +13710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>514</v>
       </c>
@@ -13698,7 +13742,7 @@
         <v>96</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O164" s="5" t="s">
         <v>81</v>
@@ -13734,7 +13778,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>516</v>
       </c>
@@ -13766,7 +13810,7 @@
         <v>96</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O165" s="5" t="s">
         <v>81</v>
@@ -13802,7 +13846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>518</v>
       </c>
@@ -13834,7 +13878,7 @@
         <v>96</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O166" s="5" t="s">
         <v>81</v>
@@ -13870,7 +13914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>520</v>
       </c>
@@ -13902,7 +13946,7 @@
         <v>96</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O167" s="5" t="s">
         <v>81</v>
@@ -13938,7 +13982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>522</v>
       </c>
@@ -13970,7 +14014,7 @@
         <v>96</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O168" s="5" t="s">
         <v>81</v>
@@ -14006,7 +14050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>524</v>
       </c>
@@ -14038,7 +14082,7 @@
         <v>96</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O169" s="5" t="s">
         <v>81</v>
@@ -14074,7 +14118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>526</v>
       </c>
@@ -14106,7 +14150,7 @@
         <v>96</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O170" s="5" t="s">
         <v>81</v>
@@ -14142,7 +14186,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>528</v>
       </c>
@@ -14174,7 +14218,7 @@
         <v>96</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O171" s="5" t="s">
         <v>81</v>
@@ -14210,7 +14254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>530</v>
       </c>
@@ -14242,7 +14286,7 @@
         <v>96</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O172" s="3" t="s">
         <v>85</v>
@@ -14278,7 +14322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>531</v>
       </c>
@@ -14310,7 +14354,7 @@
         <v>96</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>85</v>
@@ -14346,7 +14390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>532</v>
       </c>
@@ -14378,7 +14422,7 @@
         <v>96</v>
       </c>
       <c r="N174" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O174" s="3" t="s">
         <v>85</v>
@@ -14414,7 +14458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>533</v>
       </c>
@@ -14446,7 +14490,7 @@
         <v>96</v>
       </c>
       <c r="N175" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O175" s="3" t="s">
         <v>85</v>
@@ -14482,7 +14526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>534</v>
       </c>
@@ -14514,7 +14558,7 @@
         <v>96</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O176" s="3" t="s">
         <v>85</v>
@@ -14550,7 +14594,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>535</v>
       </c>
@@ -14582,7 +14626,7 @@
         <v>96</v>
       </c>
       <c r="N177" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O177" s="3" t="s">
         <v>85</v>
@@ -14618,7 +14662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>536</v>
       </c>
@@ -14650,7 +14694,7 @@
         <v>96</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O178" s="3" t="s">
         <v>85</v>
@@ -14686,7 +14730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>537</v>
       </c>
@@ -14718,7 +14762,7 @@
         <v>96</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O179" s="3" t="s">
         <v>85</v>
@@ -14754,7 +14798,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>538</v>
       </c>
@@ -14786,7 +14830,7 @@
         <v>96</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O180" s="3" t="s">
         <v>85</v>
@@ -14822,7 +14866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>539</v>
       </c>
@@ -14854,7 +14898,7 @@
         <v>96</v>
       </c>
       <c r="N181" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O181" s="3" t="s">
         <v>85</v>
@@ -14890,7 +14934,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>187</v>
       </c>
@@ -14922,7 +14966,7 @@
         <v>96</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O182" s="3" t="s">
         <v>86</v>
@@ -14958,7 +15002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>60</v>
       </c>
@@ -14990,7 +15034,7 @@
         <v>96</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O183" s="3" t="s">
         <v>86</v>
@@ -15026,7 +15070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>188</v>
       </c>
@@ -15058,7 +15102,7 @@
         <v>96</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O184" s="3" t="s">
         <v>86</v>
@@ -15094,7 +15138,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>189</v>
       </c>
@@ -15126,7 +15170,7 @@
         <v>96</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O185" s="3" t="s">
         <v>86</v>
@@ -15162,7 +15206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>190</v>
       </c>
@@ -15194,7 +15238,7 @@
         <v>96</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O186" s="3" t="s">
         <v>86</v>
@@ -15230,7 +15274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>191</v>
       </c>
@@ -15262,7 +15306,7 @@
         <v>96</v>
       </c>
       <c r="N187" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O187" s="3" t="s">
         <v>86</v>
@@ -15298,7 +15342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>61</v>
       </c>
@@ -15330,7 +15374,7 @@
         <v>96</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>86</v>
@@ -15366,7 +15410,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>192</v>
       </c>
@@ -15398,7 +15442,7 @@
         <v>96</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O189" s="3" t="s">
         <v>86</v>
@@ -15434,7 +15478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>193</v>
       </c>
@@ -15466,7 +15510,7 @@
         <v>96</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O190" s="3" t="s">
         <v>86</v>
@@ -15502,7 +15546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>194</v>
       </c>
@@ -15534,7 +15578,7 @@
         <v>96</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O191" s="3" t="s">
         <v>86</v>
@@ -15570,7 +15614,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>195</v>
       </c>
@@ -15602,7 +15646,7 @@
         <v>96</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O192" s="3" t="s">
         <v>86</v>
@@ -15638,7 +15682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>62</v>
       </c>
@@ -15670,7 +15714,7 @@
         <v>96</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O193" s="3" t="s">
         <v>86</v>
@@ -15706,7 +15750,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>196</v>
       </c>
@@ -15738,7 +15782,7 @@
         <v>96</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O194" s="3" t="s">
         <v>86</v>
@@ -15774,7 +15818,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>197</v>
       </c>
@@ -15806,7 +15850,7 @@
         <v>96</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O195" s="3" t="s">
         <v>86</v>
@@ -15842,7 +15886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>59</v>
       </c>
@@ -15874,7 +15918,7 @@
         <v>96</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O196" s="3" t="s">
         <v>86</v>
@@ -15910,7 +15954,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
@@ -15942,7 +15986,7 @@
         <v>96</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O197" s="3" t="s">
         <v>86</v>
@@ -15978,7 +16022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>63</v>
       </c>
@@ -16010,7 +16054,7 @@
         <v>96</v>
       </c>
       <c r="N198" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O198" s="3" t="s">
         <v>86</v>
@@ -16046,7 +16090,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>199</v>
       </c>
@@ -16078,7 +16122,7 @@
         <v>96</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O199" s="3" t="s">
         <v>86</v>
@@ -16114,7 +16158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>200</v>
       </c>
@@ -16146,7 +16190,7 @@
         <v>96</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O200" s="3" t="s">
         <v>86</v>
@@ -16182,7 +16226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>201</v>
       </c>
@@ -16214,7 +16258,7 @@
         <v>96</v>
       </c>
       <c r="N201" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O201" s="3" t="s">
         <v>86</v>
@@ -16250,7 +16294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>202</v>
       </c>
@@ -16282,7 +16326,7 @@
         <v>76</v>
       </c>
       <c r="N202" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O202" s="6" t="s">
         <v>81</v>
@@ -16318,7 +16362,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>203</v>
       </c>
@@ -16350,7 +16394,7 @@
         <v>76</v>
       </c>
       <c r="N203" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O203" s="6" t="s">
         <v>81</v>
@@ -16386,7 +16430,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>118</v>
       </c>
@@ -16418,7 +16462,7 @@
         <v>76</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O204" s="6" t="s">
         <v>81</v>
@@ -16454,7 +16498,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
@@ -16486,7 +16530,7 @@
         <v>76</v>
       </c>
       <c r="N205" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O205" s="6" t="s">
         <v>81</v>
@@ -16522,7 +16566,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
@@ -16554,7 +16598,7 @@
         <v>76</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O206" s="6" t="s">
         <v>81</v>
@@ -16590,7 +16634,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>206</v>
       </c>
@@ -16622,7 +16666,7 @@
         <v>76</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O207" s="6" t="s">
         <v>81</v>
@@ -16658,7 +16702,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>127</v>
       </c>
@@ -16690,7 +16734,7 @@
         <v>76</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O208" s="6" t="s">
         <v>81</v>
@@ -16726,7 +16770,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>128</v>
       </c>
@@ -16758,7 +16802,7 @@
         <v>76</v>
       </c>
       <c r="N209" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O209" s="6" t="s">
         <v>81</v>
@@ -16794,7 +16838,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>129</v>
       </c>
@@ -16826,7 +16870,7 @@
         <v>76</v>
       </c>
       <c r="N210" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O210" s="6" t="s">
         <v>81</v>
@@ -16862,7 +16906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>207</v>
       </c>
@@ -16894,7 +16938,7 @@
         <v>76</v>
       </c>
       <c r="N211" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O211" s="6" t="s">
         <v>81</v>
@@ -16930,7 +16974,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>208</v>
       </c>
@@ -16962,7 +17006,7 @@
         <v>76</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O212" s="6" t="s">
         <v>81</v>
@@ -16998,7 +17042,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>209</v>
       </c>
@@ -17030,7 +17074,7 @@
         <v>76</v>
       </c>
       <c r="N213" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O213" s="6" t="s">
         <v>81</v>
@@ -17066,7 +17110,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>179</v>
       </c>
@@ -17098,7 +17142,7 @@
         <v>76</v>
       </c>
       <c r="N214" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O214" s="6" t="s">
         <v>81</v>
@@ -17134,7 +17178,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>32</v>
       </c>
@@ -17166,7 +17210,7 @@
         <v>76</v>
       </c>
       <c r="N215" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O215" s="6" t="s">
         <v>81</v>
@@ -17202,7 +17246,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>210</v>
       </c>
@@ -17234,7 +17278,7 @@
         <v>76</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O216" s="6" t="s">
         <v>81</v>
@@ -17270,7 +17314,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>540</v>
       </c>
@@ -17305,7 +17349,7 @@
         <v>80</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O217" s="3" t="s">
         <v>81</v>
@@ -17341,7 +17385,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>542</v>
       </c>
@@ -17376,7 +17420,7 @@
         <v>80</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O218" s="3" t="s">
         <v>81</v>
@@ -17412,7 +17456,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>544</v>
       </c>
@@ -17447,7 +17491,7 @@
         <v>80</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O219" s="3" t="s">
         <v>81</v>
@@ -17483,7 +17527,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>546</v>
       </c>
@@ -17518,7 +17562,7 @@
         <v>80</v>
       </c>
       <c r="N220" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O220" s="3" t="s">
         <v>81</v>
@@ -17554,7 +17598,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>548</v>
       </c>
@@ -17589,7 +17633,7 @@
         <v>80</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O221" s="3" t="s">
         <v>81</v>
@@ -17625,7 +17669,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>550</v>
       </c>
@@ -17660,7 +17704,7 @@
         <v>80</v>
       </c>
       <c r="N222" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O222" s="3" t="s">
         <v>81</v>
@@ -17696,7 +17740,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>552</v>
       </c>
@@ -17731,7 +17775,7 @@
         <v>80</v>
       </c>
       <c r="N223" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O223" s="3" t="s">
         <v>81</v>
@@ -17767,7 +17811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>554</v>
       </c>
@@ -17802,7 +17846,7 @@
         <v>80</v>
       </c>
       <c r="N224" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O224" s="3" t="s">
         <v>81</v>
@@ -17838,7 +17882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>556</v>
       </c>
@@ -17873,7 +17917,7 @@
         <v>80</v>
       </c>
       <c r="N225" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O225" s="3" t="s">
         <v>81</v>
@@ -17909,7 +17953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>558</v>
       </c>
@@ -17944,7 +17988,7 @@
         <v>80</v>
       </c>
       <c r="N226" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O226" s="3" t="s">
         <v>81</v>
@@ -17980,7 +18024,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>560</v>
       </c>
@@ -18015,7 +18059,7 @@
         <v>80</v>
       </c>
       <c r="N227" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O227" s="3" t="s">
         <v>81</v>
@@ -18051,7 +18095,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>562</v>
       </c>
@@ -18086,7 +18130,7 @@
         <v>80</v>
       </c>
       <c r="N228" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O228" s="3" t="s">
         <v>81</v>
@@ -18122,7 +18166,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>564</v>
       </c>
@@ -18157,7 +18201,7 @@
         <v>80</v>
       </c>
       <c r="N229" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O229" s="3" t="s">
         <v>81</v>
@@ -18194,7 +18238,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y229"/>
+  <autoFilter ref="A1:Y229" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48063D80-4BAB-E04B-8642-C340A0019301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A20E70-9D10-9E46-A69C-AD97954A8298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="33880" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="460" windowWidth="29800" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -2269,9 +2269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V62" sqref="V62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7019,10 +7019,10 @@
         <v>9</v>
       </c>
       <c r="U66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V66" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="W66" s="4" t="s">
         <v>589</v>
@@ -7089,10 +7089,10 @@
         <v>9</v>
       </c>
       <c r="U67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V67" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="V67" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="W67" s="4" t="s">
         <v>589</v>
@@ -7157,10 +7157,10 @@
         <v>9</v>
       </c>
       <c r="U68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V68" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="W68" s="4" t="s">
         <v>589</v>
@@ -7225,10 +7225,10 @@
         <v>9</v>
       </c>
       <c r="U69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V69" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="V69" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="W69" s="4" t="s">
         <v>589</v>
@@ -7293,10 +7293,10 @@
         <v>9</v>
       </c>
       <c r="U70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V70" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="V70" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="W70" s="4" t="s">
         <v>589</v>
@@ -7361,10 +7361,10 @@
         <v>9</v>
       </c>
       <c r="U71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V71" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="V71" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="W71" s="4" t="s">
         <v>589</v>
@@ -7429,10 +7429,10 @@
         <v>9</v>
       </c>
       <c r="U72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V72" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="V72" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="W72" s="4" t="s">
         <v>589</v>
@@ -7497,10 +7497,10 @@
         <v>9</v>
       </c>
       <c r="U73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V73" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="V73" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="W73" s="4" t="s">
         <v>589</v>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3527E87D-0BF3-FC42-A049-4E626A6EE110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689EDB2D-85CD-254F-BD19-B25BAEB360EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="19760" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="21160" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="142">
   <si>
     <t>common_name</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Pelteobagrus</t>
   </si>
   <si>
-    <t>Zhang-etal-2016-Journal of Applied Ichtyology (found via Cmax search)</t>
-  </si>
-  <si>
     <t>#litterature_search</t>
   </si>
   <si>
@@ -324,12 +321,6 @@
     <t>size_group</t>
   </si>
   <si>
-    <t>Potentially average over a too large size-range; Geometric mean from size window</t>
-  </si>
-  <si>
-    <t>Two datapoints per temp replicate but unclear why. To not inflate # data points I used one per temp. as for other species when I took only mean</t>
-  </si>
-  <si>
     <t>w_maturation_g</t>
   </si>
   <si>
@@ -337,18 +328,6 @@
   </si>
   <si>
     <t>Seawater treatment; Geometric mean from size window; Maturation size from Davis 1982 Aust. J. Mar. Freshwater Res</t>
-  </si>
-  <si>
-    <t>Standard growth unit. different equation; Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size. calculated mean in separate doc.; w_maturation from Craig et al 1981 CJFA, age at maturatity = 2,3, used geometric mean of length at age</t>
-  </si>
-  <si>
-    <t>Found from consumption literature search; Fish sizes are "about" the size specified; w_maturation based on median lengths from two fishbase sources</t>
-  </si>
-  <si>
-    <t>Found from consumption literature search; Fish sizes are "about" the size specified; w_maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish</t>
-  </si>
-  <si>
-    <t>Geometric mean from size window; w_maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
   </si>
   <si>
     <t>above_optimum</t>
@@ -456,7 +435,25 @@
     <t>growth_rate_%/day</t>
   </si>
   <si>
-    <t>Experiments not conducted at the same time (partly published previously); Maturation size 77.5 cm (Males 75, Females 80). Icelandic cod at year 2000 Pardoe et al 2009 CJFAS</t>
+    <t>Experiments not conducted at the same time (partly published previously); Maturation size 77.5 cm (Males 75, Females 80) (Icelandic cod at year 2000 Pardoe et al 2009 CJFAS); Temperature not from FishBase as it was not concistent with reference. Instead I used mean minimum and maximum from Righton et al (2010). Thermal niche of Atlantic cod Gadus morhua: limits, tolerance and optima. Marine Ecology Progress Series, 420, 1-13.</t>
+  </si>
+  <si>
+    <t>Growth is for a large size-range; Geometric mean average initial and final size</t>
+  </si>
+  <si>
+    <t>Standard growth unit. different equation; Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size, calculated mean in separate doc.; w_maturation from Craig et al 1981 CJFA, age at maturatity 2,3, used geometric mean of length at age.</t>
+  </si>
+  <si>
+    <t>Fish sizes are "about" the size specified; Weight at maturation based on median lengths from two fishbase sources; Optimum is temperature treatment yielding highest growth (not estimated)</t>
+  </si>
+  <si>
+    <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated)</t>
+  </si>
+  <si>
+    <t>Zhang-etal-2016-JournalofAppliedIchtyology</t>
+  </si>
+  <si>
+    <t>Geometric mean from size window; Weight at maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
   </si>
 </sst>
 </file>
@@ -908,14 +905,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W224" sqref="W224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -928,7 +925,7 @@
     <col min="11" max="11" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -945,10 +942,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>83</v>
@@ -960,10 +957,10 @@
         <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -993,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
@@ -1014,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -1038,7 +1035,7 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -1059,7 +1056,7 @@
         <v>61</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>62</v>
@@ -1086,13 +1083,13 @@
         <v>13.5</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X2" s="3">
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1113,7 +1110,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
@@ -1134,7 +1131,7 @@
         <v>61</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>62</v>
@@ -1161,13 +1158,13 @@
         <v>13.5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X3" s="3">
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1188,7 +1185,7 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>17</v>
@@ -1209,7 +1206,7 @@
         <v>61</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>62</v>
@@ -1236,13 +1233,13 @@
         <v>13.5</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1263,7 +1260,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>17</v>
@@ -1284,7 +1281,7 @@
         <v>61</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>62</v>
@@ -1311,13 +1308,13 @@
         <v>13.5</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X5" s="3">
         <v>1</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1338,7 +1335,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>17</v>
@@ -1359,7 +1356,7 @@
         <v>61</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>62</v>
@@ -1386,13 +1383,13 @@
         <v>13.5</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X6" s="3">
         <v>1</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1413,7 +1410,7 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>17</v>
@@ -1434,7 +1431,7 @@
         <v>61</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>62</v>
@@ -1461,13 +1458,13 @@
         <v>13.5</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X7" s="3">
         <v>1</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1488,7 +1485,7 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
@@ -1509,7 +1506,7 @@
         <v>61</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>62</v>
@@ -1536,13 +1533,13 @@
         <v>13.5</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X8" s="3">
         <v>1</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -1563,7 +1560,7 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>17</v>
@@ -1584,7 +1581,7 @@
         <v>61</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>62</v>
@@ -1611,13 +1608,13 @@
         <v>13.5</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X9" s="3">
         <v>1</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1638,7 +1635,7 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>17</v>
@@ -1659,7 +1656,7 @@
         <v>61</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>62</v>
@@ -1686,13 +1683,13 @@
         <v>13.5</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X10" s="3">
         <v>1</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1713,7 +1710,7 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>17</v>
@@ -1734,7 +1731,7 @@
         <v>61</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>62</v>
@@ -1761,13 +1758,13 @@
         <v>13.5</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X11" s="3">
         <v>1</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1788,7 +1785,7 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>17</v>
@@ -1809,7 +1806,7 @@
         <v>61</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>62</v>
@@ -1836,13 +1833,13 @@
         <v>13.5</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X12" s="3">
         <v>1</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -1863,7 +1860,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>17</v>
@@ -1884,7 +1881,7 @@
         <v>61</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>62</v>
@@ -1911,13 +1908,13 @@
         <v>13.5</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X13" s="3">
         <v>1</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -1938,7 +1935,7 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -1959,7 +1956,7 @@
         <v>61</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>62</v>
@@ -1986,13 +1983,13 @@
         <v>13.5</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X14" s="3">
         <v>1</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -2013,7 +2010,7 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>17</v>
@@ -2034,7 +2031,7 @@
         <v>61</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>62</v>
@@ -2061,13 +2058,13 @@
         <v>13.5</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X15" s="3">
         <v>1</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -2088,7 +2085,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>17</v>
@@ -2109,7 +2106,7 @@
         <v>61</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>62</v>
@@ -2136,13 +2133,13 @@
         <v>13.5</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X16" s="3">
         <v>1</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -2163,7 +2160,7 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>17</v>
@@ -2184,7 +2181,7 @@
         <v>61</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>62</v>
@@ -2211,13 +2208,13 @@
         <v>13.5</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X17" s="3">
         <v>1</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -2238,7 +2235,7 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>17</v>
@@ -2259,7 +2256,7 @@
         <v>61</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>62</v>
@@ -2286,13 +2283,13 @@
         <v>13.5</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X18" s="3">
         <v>1</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -2313,7 +2310,7 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>17</v>
@@ -2334,7 +2331,7 @@
         <v>61</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>62</v>
@@ -2361,13 +2358,13 @@
         <v>13.5</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X19" s="3">
         <v>1</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -2384,7 +2381,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>18</v>
@@ -2405,7 +2402,7 @@
         <v>61</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>66</v>
@@ -2432,7 +2429,7 @@
         <v>6</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="X20" s="3">
         <v>1</v>
@@ -2455,7 +2452,7 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
@@ -2476,7 +2473,7 @@
         <v>61</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>66</v>
@@ -2503,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="X21" s="3">
         <v>1</v>
@@ -2526,7 +2523,7 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
@@ -2547,7 +2544,7 @@
         <v>61</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>66</v>
@@ -2574,7 +2571,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="X22" s="3">
         <v>1</v>
@@ -2597,7 +2594,7 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
@@ -2618,7 +2615,7 @@
         <v>61</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>66</v>
@@ -2645,7 +2642,7 @@
         <v>6</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="X23" s="3">
         <v>1</v>
@@ -2668,7 +2665,7 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
@@ -2689,7 +2686,7 @@
         <v>61</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>66</v>
@@ -2716,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="X24" s="3">
         <v>1</v>
@@ -2739,7 +2736,7 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>18</v>
@@ -2760,7 +2757,7 @@
         <v>61</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>66</v>
@@ -2787,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="X25" s="3">
         <v>1</v>
@@ -2810,7 +2807,7 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
@@ -2831,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>66</v>
@@ -2858,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="X26" s="3">
         <v>1</v>
@@ -2881,7 +2878,7 @@
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>18</v>
@@ -2902,7 +2899,7 @@
         <v>61</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>66</v>
@@ -2929,7 +2926,7 @@
         <v>6</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="X27" s="3">
         <v>1</v>
@@ -2952,7 +2949,7 @@
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>18</v>
@@ -2973,7 +2970,7 @@
         <v>61</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>66</v>
@@ -3000,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="X28" s="3">
         <v>1</v>
@@ -3023,7 +3020,7 @@
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
@@ -3044,7 +3041,7 @@
         <v>61</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>66</v>
@@ -3071,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="X29" s="3">
         <v>1</v>
@@ -3094,7 +3091,7 @@
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
@@ -3115,7 +3112,7 @@
         <v>61</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>66</v>
@@ -3142,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="X30" s="3">
         <v>1</v>
@@ -3165,7 +3162,7 @@
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
@@ -3186,7 +3183,7 @@
         <v>61</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>66</v>
@@ -3213,7 +3210,7 @@
         <v>6</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="X31" s="3">
         <v>1</v>
@@ -3236,7 +3233,7 @@
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
@@ -3257,7 +3254,7 @@
         <v>61</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>66</v>
@@ -3284,7 +3281,7 @@
         <v>6</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="X32" s="3">
         <v>1</v>
@@ -3307,7 +3304,7 @@
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
@@ -3328,7 +3325,7 @@
         <v>61</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>66</v>
@@ -3355,7 +3352,7 @@
         <v>6</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="X33" s="3">
         <v>1</v>
@@ -3378,7 +3375,7 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
@@ -3399,7 +3396,7 @@
         <v>61</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>66</v>
@@ -3426,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="X34" s="3">
         <v>1</v>
@@ -3449,7 +3446,7 @@
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>18</v>
@@ -3470,7 +3467,7 @@
         <v>61</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>66</v>
@@ -3497,7 +3494,7 @@
         <v>6</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="X35" s="3">
         <v>1</v>
@@ -3520,7 +3517,7 @@
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>18</v>
@@ -3541,7 +3538,7 @@
         <v>61</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>66</v>
@@ -3568,7 +3565,7 @@
         <v>6</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="X36" s="3">
         <v>1</v>
@@ -3591,7 +3588,7 @@
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
@@ -3612,7 +3609,7 @@
         <v>61</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>66</v>
@@ -3639,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="X37" s="3">
         <v>1</v>
@@ -3662,7 +3659,7 @@
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
@@ -3683,7 +3680,7 @@
         <v>61</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>66</v>
@@ -3710,7 +3707,7 @@
         <v>6</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="X38" s="3">
         <v>1</v>
@@ -3733,7 +3730,7 @@
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
@@ -3754,7 +3751,7 @@
         <v>61</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>66</v>
@@ -3781,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="X39" s="3">
         <v>1</v>
@@ -3808,7 +3805,7 @@
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>22</v>
@@ -3829,7 +3826,7 @@
         <v>61</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>67</v>
@@ -3856,7 +3853,7 @@
         <v>16.8</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X40" s="3">
         <v>1</v>
@@ -3883,7 +3880,7 @@
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>22</v>
@@ -3904,7 +3901,7 @@
         <v>61</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>67</v>
@@ -3931,7 +3928,7 @@
         <v>16.8</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X41" s="3">
         <v>1</v>
@@ -3958,7 +3955,7 @@
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>22</v>
@@ -3979,7 +3976,7 @@
         <v>61</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>67</v>
@@ -4006,7 +4003,7 @@
         <v>16.8</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X42" s="3">
         <v>1</v>
@@ -4033,7 +4030,7 @@
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>22</v>
@@ -4054,7 +4051,7 @@
         <v>61</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>67</v>
@@ -4081,7 +4078,7 @@
         <v>16.8</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X43" s="3">
         <v>1</v>
@@ -4108,7 +4105,7 @@
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>22</v>
@@ -4129,7 +4126,7 @@
         <v>61</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>67</v>
@@ -4156,7 +4153,7 @@
         <v>16.8</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X44" s="3">
         <v>1</v>
@@ -4183,7 +4180,7 @@
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>22</v>
@@ -4204,7 +4201,7 @@
         <v>61</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>67</v>
@@ -4231,7 +4228,7 @@
         <v>16.8</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X45" s="3">
         <v>1</v>
@@ -4258,7 +4255,7 @@
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>22</v>
@@ -4279,7 +4276,7 @@
         <v>61</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>67</v>
@@ -4306,7 +4303,7 @@
         <v>16.8</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X46" s="3">
         <v>1</v>
@@ -4333,7 +4330,7 @@
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>22</v>
@@ -4354,7 +4351,7 @@
         <v>61</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>67</v>
@@ -4381,7 +4378,7 @@
         <v>16.8</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X47" s="3">
         <v>1</v>
@@ -4408,7 +4405,7 @@
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>22</v>
@@ -4429,7 +4426,7 @@
         <v>61</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>67</v>
@@ -4456,7 +4453,7 @@
         <v>16.8</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X48" s="3">
         <v>1</v>
@@ -4483,7 +4480,7 @@
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>22</v>
@@ -4504,7 +4501,7 @@
         <v>61</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>67</v>
@@ -4531,7 +4528,7 @@
         <v>16.8</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X49" s="3">
         <v>1</v>
@@ -4558,7 +4555,7 @@
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>22</v>
@@ -4579,7 +4576,7 @@
         <v>61</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>67</v>
@@ -4606,7 +4603,7 @@
         <v>16.8</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X50" s="3">
         <v>1</v>
@@ -4633,7 +4630,7 @@
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>22</v>
@@ -4654,7 +4651,7 @@
         <v>61</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>67</v>
@@ -4681,7 +4678,7 @@
         <v>16.8</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X51" s="3">
         <v>1</v>
@@ -4708,7 +4705,7 @@
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>22</v>
@@ -4729,7 +4726,7 @@
         <v>61</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>67</v>
@@ -4756,7 +4753,7 @@
         <v>16.8</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X52" s="3">
         <v>1</v>
@@ -4783,7 +4780,7 @@
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>22</v>
@@ -4804,7 +4801,7 @@
         <v>61</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>67</v>
@@ -4831,7 +4828,7 @@
         <v>16.8</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X53" s="3">
         <v>1</v>
@@ -4858,7 +4855,7 @@
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>22</v>
@@ -4879,7 +4876,7 @@
         <v>61</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>67</v>
@@ -4906,7 +4903,7 @@
         <v>16.8</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X54" s="3">
         <v>1</v>
@@ -4933,7 +4930,7 @@
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>22</v>
@@ -4954,7 +4951,7 @@
         <v>61</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>67</v>
@@ -4981,7 +4978,7 @@
         <v>16.8</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X55" s="3">
         <v>1</v>
@@ -5008,7 +5005,7 @@
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>22</v>
@@ -5029,7 +5026,7 @@
         <v>61</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>67</v>
@@ -5056,7 +5053,7 @@
         <v>16.8</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X56" s="3">
         <v>1</v>
@@ -5083,7 +5080,7 @@
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>22</v>
@@ -5104,7 +5101,7 @@
         <v>61</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>67</v>
@@ -5131,7 +5128,7 @@
         <v>16.8</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X57" s="3">
         <v>1</v>
@@ -5158,7 +5155,7 @@
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>22</v>
@@ -5179,7 +5176,7 @@
         <v>61</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>67</v>
@@ -5206,7 +5203,7 @@
         <v>16.8</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X58" s="3">
         <v>1</v>
@@ -5233,7 +5230,7 @@
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>22</v>
@@ -5254,7 +5251,7 @@
         <v>61</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>67</v>
@@ -5281,7 +5278,7 @@
         <v>16.8</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X59" s="3">
         <v>1</v>
@@ -5304,7 +5301,7 @@
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>27</v>
@@ -5325,7 +5322,7 @@
         <v>71</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>62</v>
@@ -5352,7 +5349,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W60" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X60" s="3">
         <v>1</v>
@@ -5375,7 +5372,7 @@
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>27</v>
@@ -5396,7 +5393,7 @@
         <v>71</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>62</v>
@@ -5423,7 +5420,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W61" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X61" s="3">
         <v>1</v>
@@ -5446,7 +5443,7 @@
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>27</v>
@@ -5467,7 +5464,7 @@
         <v>71</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O62" s="4" t="s">
         <v>62</v>
@@ -5494,7 +5491,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W62" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X62" s="3">
         <v>1</v>
@@ -5517,7 +5514,7 @@
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>27</v>
@@ -5538,7 +5535,7 @@
         <v>71</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O63" s="4" t="s">
         <v>62</v>
@@ -5565,7 +5562,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W63" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X63" s="3">
         <v>1</v>
@@ -5588,7 +5585,7 @@
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>27</v>
@@ -5609,7 +5606,7 @@
         <v>71</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>62</v>
@@ -5636,7 +5633,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W64" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X64" s="3">
         <v>1</v>
@@ -5659,7 +5656,7 @@
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>27</v>
@@ -5680,7 +5677,7 @@
         <v>71</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O65" s="4" t="s">
         <v>62</v>
@@ -5707,7 +5704,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W65" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X65" s="3">
         <v>1</v>
@@ -5730,7 +5727,7 @@
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>28</v>
@@ -5751,7 +5748,7 @@
         <v>71</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>62</v>
@@ -5778,7 +5775,7 @@
         <v>8.4</v>
       </c>
       <c r="W66" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X66" s="3">
         <v>1</v>
@@ -5801,7 +5798,7 @@
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>28</v>
@@ -5822,7 +5819,7 @@
         <v>71</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>62</v>
@@ -5849,7 +5846,7 @@
         <v>8.4</v>
       </c>
       <c r="W67" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X67" s="3">
         <v>1</v>
@@ -5872,7 +5869,7 @@
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>28</v>
@@ -5893,7 +5890,7 @@
         <v>71</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>62</v>
@@ -5920,7 +5917,7 @@
         <v>8.4</v>
       </c>
       <c r="W68" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X68" s="3">
         <v>1</v>
@@ -5943,7 +5940,7 @@
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>28</v>
@@ -5964,7 +5961,7 @@
         <v>71</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>62</v>
@@ -5991,7 +5988,7 @@
         <v>8.4</v>
       </c>
       <c r="W69" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X69" s="3">
         <v>1</v>
@@ -6014,7 +6011,7 @@
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>28</v>
@@ -6035,7 +6032,7 @@
         <v>71</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>62</v>
@@ -6062,7 +6059,7 @@
         <v>8.4</v>
       </c>
       <c r="W70" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X70" s="3">
         <v>1</v>
@@ -6085,7 +6082,7 @@
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>28</v>
@@ -6106,7 +6103,7 @@
         <v>71</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>62</v>
@@ -6133,7 +6130,7 @@
         <v>8.4</v>
       </c>
       <c r="W71" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X71" s="3">
         <v>1</v>
@@ -6156,7 +6153,7 @@
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>28</v>
@@ -6177,7 +6174,7 @@
         <v>71</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>62</v>
@@ -6204,7 +6201,7 @@
         <v>8.4</v>
       </c>
       <c r="W72" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X72" s="3">
         <v>1</v>
@@ -6227,7 +6224,7 @@
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>28</v>
@@ -6248,7 +6245,7 @@
         <v>71</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>62</v>
@@ -6275,7 +6272,7 @@
         <v>8.4</v>
       </c>
       <c r="W73" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X73" s="3">
         <v>1</v>
@@ -6302,7 +6299,7 @@
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>31</v>
@@ -6323,7 +6320,7 @@
         <v>71</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>58</v>
@@ -6350,13 +6347,13 @@
         <v>27.05</v>
       </c>
       <c r="W74" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X74" s="3">
         <v>2</v>
       </c>
       <c r="Y74" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
@@ -6377,7 +6374,7 @@
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>31</v>
@@ -6398,7 +6395,7 @@
         <v>71</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>58</v>
@@ -6425,13 +6422,13 @@
         <v>27.05</v>
       </c>
       <c r="W75" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X75" s="3">
         <v>2</v>
       </c>
       <c r="Y75" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
@@ -6452,7 +6449,7 @@
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>31</v>
@@ -6473,7 +6470,7 @@
         <v>71</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>58</v>
@@ -6500,13 +6497,13 @@
         <v>27.05</v>
       </c>
       <c r="W76" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X76" s="3">
         <v>2</v>
       </c>
       <c r="Y76" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
@@ -6527,7 +6524,7 @@
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>31</v>
@@ -6548,7 +6545,7 @@
         <v>71</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>58</v>
@@ -6575,13 +6572,13 @@
         <v>27.05</v>
       </c>
       <c r="W77" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X77" s="3">
         <v>2</v>
       </c>
       <c r="Y77" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
@@ -6602,7 +6599,7 @@
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>31</v>
@@ -6623,7 +6620,7 @@
         <v>71</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>58</v>
@@ -6650,13 +6647,13 @@
         <v>27.05</v>
       </c>
       <c r="W78" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X78" s="3">
         <v>2</v>
       </c>
       <c r="Y78" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
@@ -6677,7 +6674,7 @@
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>31</v>
@@ -6698,7 +6695,7 @@
         <v>71</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>58</v>
@@ -6725,13 +6722,13 @@
         <v>27.05</v>
       </c>
       <c r="W79" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X79" s="3">
         <v>2</v>
       </c>
       <c r="Y79" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
@@ -6752,7 +6749,7 @@
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>31</v>
@@ -6773,7 +6770,7 @@
         <v>71</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>58</v>
@@ -6800,13 +6797,13 @@
         <v>27.05</v>
       </c>
       <c r="W80" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X80" s="3">
         <v>2</v>
       </c>
       <c r="Y80" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
@@ -6827,7 +6824,7 @@
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>31</v>
@@ -6848,7 +6845,7 @@
         <v>71</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>58</v>
@@ -6875,13 +6872,13 @@
         <v>27.05</v>
       </c>
       <c r="W81" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X81" s="3">
         <v>2</v>
       </c>
       <c r="Y81" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
@@ -6902,7 +6899,7 @@
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>31</v>
@@ -6923,7 +6920,7 @@
         <v>71</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>58</v>
@@ -6950,13 +6947,13 @@
         <v>27.05</v>
       </c>
       <c r="W82" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X82" s="3">
         <v>2</v>
       </c>
       <c r="Y82" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
@@ -6977,7 +6974,7 @@
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>31</v>
@@ -6998,7 +6995,7 @@
         <v>71</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>58</v>
@@ -7025,13 +7022,13 @@
         <v>27.05</v>
       </c>
       <c r="W83" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X83" s="3">
         <v>2</v>
       </c>
       <c r="Y83" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
@@ -7052,7 +7049,7 @@
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>31</v>
@@ -7073,7 +7070,7 @@
         <v>71</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>58</v>
@@ -7100,13 +7097,13 @@
         <v>27.05</v>
       </c>
       <c r="W84" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X84" s="3">
         <v>2</v>
       </c>
       <c r="Y84" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
@@ -7127,7 +7124,7 @@
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>31</v>
@@ -7148,7 +7145,7 @@
         <v>71</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>58</v>
@@ -7175,13 +7172,13 @@
         <v>27.05</v>
       </c>
       <c r="W85" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X85" s="3">
         <v>2</v>
       </c>
       <c r="Y85" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
@@ -7198,7 +7195,7 @@
         <v>2</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>33</v>
@@ -7219,7 +7216,7 @@
         <v>72</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O86" s="5" t="s">
         <v>62</v>
@@ -7243,16 +7240,16 @@
         <v>9</v>
       </c>
       <c r="V86" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W86" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X86" s="3">
         <v>2</v>
       </c>
       <c r="Y86" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
@@ -7269,7 +7266,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>33</v>
@@ -7290,7 +7287,7 @@
         <v>72</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O87" s="5" t="s">
         <v>62</v>
@@ -7314,16 +7311,16 @@
         <v>9</v>
       </c>
       <c r="V87" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W87" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X87" s="3">
         <v>2</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
@@ -7340,7 +7337,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>33</v>
@@ -7361,7 +7358,7 @@
         <v>72</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O88" s="5" t="s">
         <v>62</v>
@@ -7385,16 +7382,16 @@
         <v>9</v>
       </c>
       <c r="V88" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W88" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X88" s="3">
         <v>2</v>
       </c>
       <c r="Y88" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
@@ -7411,7 +7408,7 @@
         <v>2</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>33</v>
@@ -7432,7 +7429,7 @@
         <v>72</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O89" s="5" t="s">
         <v>62</v>
@@ -7456,16 +7453,16 @@
         <v>9</v>
       </c>
       <c r="V89" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W89" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X89" s="3">
         <v>2</v>
       </c>
       <c r="Y89" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
@@ -7482,7 +7479,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>33</v>
@@ -7503,7 +7500,7 @@
         <v>72</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O90" s="5" t="s">
         <v>62</v>
@@ -7527,16 +7524,16 @@
         <v>9</v>
       </c>
       <c r="V90" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W90" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X90" s="3">
         <v>2</v>
       </c>
       <c r="Y90" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
@@ -7553,7 +7550,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>33</v>
@@ -7574,7 +7571,7 @@
         <v>72</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O91" s="5" t="s">
         <v>62</v>
@@ -7598,16 +7595,16 @@
         <v>9</v>
       </c>
       <c r="V91" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W91" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X91" s="3">
         <v>2</v>
       </c>
       <c r="Y91" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
@@ -7624,7 +7621,7 @@
         <v>7</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>33</v>
@@ -7645,7 +7642,7 @@
         <v>72</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O92" s="5" t="s">
         <v>62</v>
@@ -7669,16 +7666,16 @@
         <v>9</v>
       </c>
       <c r="V92" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W92" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X92" s="3">
         <v>2</v>
       </c>
       <c r="Y92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
@@ -7695,7 +7692,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>33</v>
@@ -7716,7 +7713,7 @@
         <v>72</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O93" s="5" t="s">
         <v>62</v>
@@ -7740,16 +7737,16 @@
         <v>9</v>
       </c>
       <c r="V93" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W93" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X93" s="3">
         <v>2</v>
       </c>
       <c r="Y93" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
@@ -7766,7 +7763,7 @@
         <v>7</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>33</v>
@@ -7787,7 +7784,7 @@
         <v>72</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O94" s="5" t="s">
         <v>62</v>
@@ -7811,16 +7808,16 @@
         <v>9</v>
       </c>
       <c r="V94" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W94" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X94" s="3">
         <v>2</v>
       </c>
       <c r="Y94" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
@@ -7837,7 +7834,7 @@
         <v>7</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>33</v>
@@ -7858,7 +7855,7 @@
         <v>72</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O95" s="5" t="s">
         <v>62</v>
@@ -7882,16 +7879,16 @@
         <v>9</v>
       </c>
       <c r="V95" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W95" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X95" s="3">
         <v>2</v>
       </c>
       <c r="Y95" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
@@ -7908,7 +7905,7 @@
         <v>7</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>33</v>
@@ -7929,7 +7926,7 @@
         <v>72</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O96" s="5" t="s">
         <v>62</v>
@@ -7953,16 +7950,16 @@
         <v>9</v>
       </c>
       <c r="V96" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W96" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X96" s="3">
         <v>2</v>
       </c>
       <c r="Y96" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
@@ -7979,7 +7976,7 @@
         <v>7</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>33</v>
@@ -8000,7 +7997,7 @@
         <v>72</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O97" s="5" t="s">
         <v>62</v>
@@ -8024,16 +8021,16 @@
         <v>9</v>
       </c>
       <c r="V97" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W97" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X97" s="3">
         <v>2</v>
       </c>
       <c r="Y97" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
@@ -8050,7 +8047,7 @@
         <v>14</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>33</v>
@@ -8071,7 +8068,7 @@
         <v>72</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O98" s="5" t="s">
         <v>62</v>
@@ -8095,16 +8092,16 @@
         <v>9</v>
       </c>
       <c r="V98" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W98" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X98" s="3">
         <v>2</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
@@ -8121,7 +8118,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>33</v>
@@ -8142,7 +8139,7 @@
         <v>72</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O99" s="5" t="s">
         <v>62</v>
@@ -8166,16 +8163,16 @@
         <v>9</v>
       </c>
       <c r="V99" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W99" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X99" s="3">
         <v>2</v>
       </c>
       <c r="Y99" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
@@ -8192,7 +8189,7 @@
         <v>14</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>33</v>
@@ -8213,7 +8210,7 @@
         <v>72</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O100" s="5" t="s">
         <v>62</v>
@@ -8237,16 +8234,16 @@
         <v>9</v>
       </c>
       <c r="V100" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W100" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X100" s="3">
         <v>2</v>
       </c>
       <c r="Y100" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
@@ -8263,7 +8260,7 @@
         <v>14</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>33</v>
@@ -8284,7 +8281,7 @@
         <v>72</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O101" s="5" t="s">
         <v>62</v>
@@ -8308,16 +8305,16 @@
         <v>9</v>
       </c>
       <c r="V101" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W101" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X101" s="3">
         <v>2</v>
       </c>
       <c r="Y101" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
@@ -8334,7 +8331,7 @@
         <v>14</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>33</v>
@@ -8355,7 +8352,7 @@
         <v>72</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O102" s="5" t="s">
         <v>62</v>
@@ -8379,16 +8376,16 @@
         <v>9</v>
       </c>
       <c r="V102" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W102" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X102" s="3">
         <v>2</v>
       </c>
       <c r="Y102" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
@@ -8405,7 +8402,7 @@
         <v>57</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>33</v>
@@ -8426,7 +8423,7 @@
         <v>72</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O103" s="5" t="s">
         <v>62</v>
@@ -8450,16 +8447,16 @@
         <v>9</v>
       </c>
       <c r="V103" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W103" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X103" s="3">
         <v>2</v>
       </c>
       <c r="Y103" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
@@ -8476,7 +8473,7 @@
         <v>57</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>33</v>
@@ -8497,7 +8494,7 @@
         <v>72</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O104" s="5" t="s">
         <v>62</v>
@@ -8521,16 +8518,16 @@
         <v>9</v>
       </c>
       <c r="V104" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W104" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X104" s="3">
         <v>2</v>
       </c>
       <c r="Y104" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
@@ -8547,7 +8544,7 @@
         <v>57</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>33</v>
@@ -8568,7 +8565,7 @@
         <v>72</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O105" s="5" t="s">
         <v>62</v>
@@ -8592,16 +8589,16 @@
         <v>9</v>
       </c>
       <c r="V105" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W105" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X105" s="3">
         <v>2</v>
       </c>
       <c r="Y105" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
@@ -8618,7 +8615,7 @@
         <v>57</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>33</v>
@@ -8639,7 +8636,7 @@
         <v>72</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O106" s="5" t="s">
         <v>62</v>
@@ -8663,16 +8660,16 @@
         <v>9</v>
       </c>
       <c r="V106" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W106" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X106" s="3">
         <v>2</v>
       </c>
       <c r="Y106" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
@@ -8689,7 +8686,7 @@
         <v>57</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>33</v>
@@ -8710,7 +8707,7 @@
         <v>72</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O107" s="5" t="s">
         <v>62</v>
@@ -8734,16 +8731,16 @@
         <v>9</v>
       </c>
       <c r="V107" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W107" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X107" s="3">
         <v>2</v>
       </c>
       <c r="Y107" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
@@ -8760,7 +8757,7 @@
         <v>143</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>33</v>
@@ -8781,7 +8778,7 @@
         <v>72</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O108" s="5" t="s">
         <v>62</v>
@@ -8805,16 +8802,16 @@
         <v>9</v>
       </c>
       <c r="V108" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W108" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X108" s="3">
         <v>2</v>
       </c>
       <c r="Y108" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
@@ -8831,7 +8828,7 @@
         <v>143</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>33</v>
@@ -8852,7 +8849,7 @@
         <v>72</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O109" s="5" t="s">
         <v>62</v>
@@ -8876,16 +8873,16 @@
         <v>9</v>
       </c>
       <c r="V109" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W109" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X109" s="3">
         <v>2</v>
       </c>
       <c r="Y109" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
@@ -8902,7 +8899,7 @@
         <v>143</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>33</v>
@@ -8923,7 +8920,7 @@
         <v>72</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O110" s="5" t="s">
         <v>62</v>
@@ -8947,16 +8944,16 @@
         <v>9</v>
       </c>
       <c r="V110" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W110" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X110" s="3">
         <v>2</v>
       </c>
       <c r="Y110" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
@@ -8973,7 +8970,7 @@
         <v>143</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>33</v>
@@ -8994,7 +8991,7 @@
         <v>72</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O111" s="5" t="s">
         <v>62</v>
@@ -9018,16 +9015,16 @@
         <v>9</v>
       </c>
       <c r="V111" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W111" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X111" s="3">
         <v>2</v>
       </c>
       <c r="Y111" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
@@ -9044,7 +9041,7 @@
         <v>373</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>33</v>
@@ -9065,7 +9062,7 @@
         <v>72</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O112" s="5" t="s">
         <v>62</v>
@@ -9089,16 +9086,16 @@
         <v>9</v>
       </c>
       <c r="V112" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W112" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X112" s="3">
         <v>2</v>
       </c>
       <c r="Y112" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
@@ -9115,7 +9112,7 @@
         <v>373</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>33</v>
@@ -9136,7 +9133,7 @@
         <v>72</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O113" s="5" t="s">
         <v>62</v>
@@ -9160,16 +9157,16 @@
         <v>9</v>
       </c>
       <c r="V113" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W113" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X113" s="3">
         <v>2</v>
       </c>
       <c r="Y113" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
@@ -9186,7 +9183,7 @@
         <v>373</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>33</v>
@@ -9207,7 +9204,7 @@
         <v>72</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O114" s="5" t="s">
         <v>62</v>
@@ -9231,16 +9228,16 @@
         <v>9</v>
       </c>
       <c r="V114" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W114" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X114" s="3">
         <v>2</v>
       </c>
       <c r="Y114" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
@@ -9257,7 +9254,7 @@
         <v>373</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>33</v>
@@ -9278,7 +9275,7 @@
         <v>72</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O115" s="5" t="s">
         <v>62</v>
@@ -9302,16 +9299,16 @@
         <v>9</v>
       </c>
       <c r="V115" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W115" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X115" s="3">
         <v>2</v>
       </c>
       <c r="Y115" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
@@ -9328,7 +9325,7 @@
         <v>1050</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>33</v>
@@ -9349,7 +9346,7 @@
         <v>72</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O116" s="5" t="s">
         <v>62</v>
@@ -9373,16 +9370,16 @@
         <v>9</v>
       </c>
       <c r="V116" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W116" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X116" s="3">
         <v>2</v>
       </c>
       <c r="Y116" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
@@ -9399,7 +9396,7 @@
         <v>1050</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>33</v>
@@ -9420,7 +9417,7 @@
         <v>72</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O117" s="5" t="s">
         <v>62</v>
@@ -9444,16 +9441,16 @@
         <v>9</v>
       </c>
       <c r="V117" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W117" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X117" s="3">
         <v>2</v>
       </c>
       <c r="Y117" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
@@ -9470,7 +9467,7 @@
         <v>1050</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>33</v>
@@ -9491,7 +9488,7 @@
         <v>72</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O118" s="5" t="s">
         <v>62</v>
@@ -9515,16 +9512,16 @@
         <v>9</v>
       </c>
       <c r="V118" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W118" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X118" s="3">
         <v>2</v>
       </c>
       <c r="Y118" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
@@ -9541,7 +9538,7 @@
         <v>1050</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>33</v>
@@ -9562,7 +9559,7 @@
         <v>72</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O119" s="5" t="s">
         <v>62</v>
@@ -9586,16 +9583,16 @@
         <v>9</v>
       </c>
       <c r="V119" s="16">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="W119" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X119" s="3">
         <v>2</v>
       </c>
       <c r="Y119" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
@@ -9605,14 +9602,18 @@
       <c r="B120" s="10">
         <v>7.3031373987263599</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8">
-        <v>28.284269999999999</v>
+      <c r="C120" s="10">
+        <v>8</v>
+      </c>
+      <c r="D120" s="10">
+        <v>62.9</v>
+      </c>
+      <c r="E120" s="10">
+        <v>22.432120000000001</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>35</v>
@@ -9633,7 +9634,7 @@
         <v>61</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O120" s="5" t="s">
         <v>62</v>
@@ -9642,7 +9643,7 @@
         <v>4</v>
       </c>
       <c r="Q120" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R120" s="10">
         <v>320000</v>
@@ -9660,7 +9661,7 @@
         <v>4.2</v>
       </c>
       <c r="W120" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X120" s="3">
         <v>1</v>
@@ -9676,14 +9677,18 @@
       <c r="B121" s="10">
         <v>10.0385423265428</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8">
-        <v>28.284269999999999</v>
+      <c r="C121" s="10">
+        <v>8</v>
+      </c>
+      <c r="D121" s="10">
+        <v>62.9</v>
+      </c>
+      <c r="E121" s="10">
+        <v>22.432120000000001</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>35</v>
@@ -9704,7 +9709,7 @@
         <v>61</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O121" s="5" t="s">
         <v>62</v>
@@ -9713,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="Q121" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R121" s="10">
         <v>320000</v>
@@ -9731,7 +9736,7 @@
         <v>4.2</v>
       </c>
       <c r="W121" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X121" s="3">
         <v>1</v>
@@ -9747,14 +9752,18 @@
       <c r="B122" s="10">
         <v>12.8324275664321</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8">
-        <v>28.284269999999999</v>
+      <c r="C122" s="10">
+        <v>8</v>
+      </c>
+      <c r="D122" s="10">
+        <v>62.9</v>
+      </c>
+      <c r="E122" s="10">
+        <v>22.432120000000001</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>35</v>
@@ -9775,7 +9784,7 @@
         <v>61</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O122" s="5" t="s">
         <v>62</v>
@@ -9784,7 +9793,7 @@
         <v>4</v>
       </c>
       <c r="Q122" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R122" s="10">
         <v>320000</v>
@@ -9802,7 +9811,7 @@
         <v>4.2</v>
       </c>
       <c r="W122" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X122" s="3">
         <v>1</v>
@@ -9818,14 +9827,18 @@
       <c r="B123" s="10">
         <v>12.909945653985901</v>
       </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8">
-        <v>28.284269999999999</v>
+      <c r="C123" s="10">
+        <v>8</v>
+      </c>
+      <c r="D123" s="10">
+        <v>62.9</v>
+      </c>
+      <c r="E123" s="10">
+        <v>22.432120000000001</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>35</v>
@@ -9846,7 +9859,7 @@
         <v>61</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O123" s="5" t="s">
         <v>62</v>
@@ -9855,7 +9868,7 @@
         <v>4</v>
       </c>
       <c r="Q123" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R123" s="10">
         <v>320000</v>
@@ -9873,7 +9886,7 @@
         <v>4.2</v>
       </c>
       <c r="W123" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X123" s="3">
         <v>1</v>
@@ -9889,14 +9902,18 @@
       <c r="B124" s="10">
         <v>15.0592471576701</v>
       </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8">
-        <v>28.284269999999999</v>
+      <c r="C124" s="10">
+        <v>8</v>
+      </c>
+      <c r="D124" s="10">
+        <v>62.9</v>
+      </c>
+      <c r="E124" s="10">
+        <v>22.432120000000001</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>35</v>
@@ -9917,7 +9934,7 @@
         <v>61</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O124" s="5" t="s">
         <v>62</v>
@@ -9926,7 +9943,7 @@
         <v>4</v>
       </c>
       <c r="Q124" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R124" s="10">
         <v>320000</v>
@@ -9944,7 +9961,7 @@
         <v>4.2</v>
       </c>
       <c r="W124" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X124" s="3">
         <v>1</v>
@@ -9960,14 +9977,18 @@
       <c r="B125" s="10">
         <v>4.9511798209926701</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8">
-        <v>223.60679999999999</v>
+      <c r="C125" s="10">
+        <v>136</v>
+      </c>
+      <c r="D125" s="10">
+        <v>451</v>
+      </c>
+      <c r="E125" s="10">
+        <v>247.6611</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>35</v>
@@ -9988,7 +10009,7 @@
         <v>61</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O125" s="5" t="s">
         <v>62</v>
@@ -9997,7 +10018,7 @@
         <v>4</v>
       </c>
       <c r="Q125" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R125" s="10">
         <v>320000</v>
@@ -10015,7 +10036,7 @@
         <v>4.2</v>
       </c>
       <c r="W125" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X125" s="3">
         <v>1</v>
@@ -10031,14 +10052,18 @@
       <c r="B126" s="10">
         <v>7.3433685923515002</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8">
-        <v>223.60679999999999</v>
+      <c r="C126" s="10">
+        <v>136</v>
+      </c>
+      <c r="D126" s="10">
+        <v>451</v>
+      </c>
+      <c r="E126" s="10">
+        <v>247.6611</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>35</v>
@@ -10059,7 +10084,7 @@
         <v>61</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O126" s="5" t="s">
         <v>62</v>
@@ -10068,7 +10093,7 @@
         <v>4</v>
       </c>
       <c r="Q126" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R126" s="10">
         <v>320000</v>
@@ -10086,7 +10111,7 @@
         <v>4.2</v>
       </c>
       <c r="W126" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X126" s="3">
         <v>1</v>
@@ -10102,14 +10127,18 @@
       <c r="B127" s="10">
         <v>8.9422294548413301</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8">
-        <v>223.60679999999999</v>
+      <c r="C127" s="10">
+        <v>136</v>
+      </c>
+      <c r="D127" s="10">
+        <v>451</v>
+      </c>
+      <c r="E127" s="10">
+        <v>247.6611</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>35</v>
@@ -10130,7 +10159,7 @@
         <v>61</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O127" s="5" t="s">
         <v>62</v>
@@ -10139,7 +10168,7 @@
         <v>4</v>
       </c>
       <c r="Q127" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R127" s="10">
         <v>320000</v>
@@ -10157,7 +10186,7 @@
         <v>4.2</v>
       </c>
       <c r="W127" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X127" s="3">
         <v>1</v>
@@ -10173,14 +10202,18 @@
       <c r="B128" s="10">
         <v>11.078112286411701</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8">
-        <v>223.60679999999999</v>
+      <c r="C128" s="10">
+        <v>136</v>
+      </c>
+      <c r="D128" s="10">
+        <v>451</v>
+      </c>
+      <c r="E128" s="10">
+        <v>247.6611</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>35</v>
@@ -10201,7 +10234,7 @@
         <v>61</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O128" s="5" t="s">
         <v>62</v>
@@ -10210,7 +10243,7 @@
         <v>4</v>
       </c>
       <c r="Q128" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R128" s="10">
         <v>320000</v>
@@ -10228,7 +10261,7 @@
         <v>4.2</v>
       </c>
       <c r="W128" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X128" s="3">
         <v>1</v>
@@ -10244,14 +10277,18 @@
       <c r="B129" s="10">
         <v>12.9454841334418</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8">
-        <v>223.60679999999999</v>
+      <c r="C129" s="10">
+        <v>136</v>
+      </c>
+      <c r="D129" s="10">
+        <v>451</v>
+      </c>
+      <c r="E129" s="10">
+        <v>247.6611</v>
       </c>
       <c r="F129" s="8"/>
       <c r="G129" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>35</v>
@@ -10272,7 +10309,7 @@
         <v>61</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O129" s="5" t="s">
         <v>62</v>
@@ -10281,7 +10318,7 @@
         <v>4</v>
       </c>
       <c r="Q129" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R129" s="10">
         <v>320000</v>
@@ -10299,7 +10336,7 @@
         <v>4.2</v>
       </c>
       <c r="W129" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X129" s="3">
         <v>1</v>
@@ -10315,14 +10352,18 @@
       <c r="B130" s="10">
         <v>14.8494711147274</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8">
-        <v>223.60679999999999</v>
+      <c r="C130" s="10">
+        <v>136</v>
+      </c>
+      <c r="D130" s="10">
+        <v>451</v>
+      </c>
+      <c r="E130" s="10">
+        <v>247.6611</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>35</v>
@@ -10343,7 +10384,7 @@
         <v>61</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O130" s="5" t="s">
         <v>62</v>
@@ -10352,7 +10393,7 @@
         <v>4</v>
       </c>
       <c r="Q130" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R130" s="10">
         <v>320000</v>
@@ -10370,7 +10411,7 @@
         <v>4.2</v>
       </c>
       <c r="W130" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X130" s="3">
         <v>1</v>
@@ -10386,14 +10427,18 @@
       <c r="B131" s="10">
         <v>2.3461158981779899</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8">
-        <v>3872.9830000000002</v>
+      <c r="C131" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D131" s="10">
+        <v>4600</v>
+      </c>
+      <c r="E131" s="10">
+        <v>3714.835</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>35</v>
@@ -10414,7 +10459,7 @@
         <v>61</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O131" s="5" t="s">
         <v>62</v>
@@ -10423,7 +10468,7 @@
         <v>4</v>
       </c>
       <c r="Q131" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R131" s="10">
         <v>320000</v>
@@ -10441,7 +10486,7 @@
         <v>4.2</v>
       </c>
       <c r="W131" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X131" s="3">
         <v>1</v>
@@ -10457,14 +10502,18 @@
       <c r="B132" s="10">
         <v>4.46188252318621</v>
       </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8">
-        <v>3872.9830000000002</v>
+      <c r="C132" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D132" s="10">
+        <v>4600</v>
+      </c>
+      <c r="E132" s="10">
+        <v>3714.835</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>35</v>
@@ -10485,7 +10534,7 @@
         <v>61</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O132" s="5" t="s">
         <v>62</v>
@@ -10494,7 +10543,7 @@
         <v>4</v>
       </c>
       <c r="Q132" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R132" s="10">
         <v>320000</v>
@@ -10512,7 +10561,7 @@
         <v>4.2</v>
       </c>
       <c r="W132" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X132" s="3">
         <v>1</v>
@@ -10528,14 +10577,18 @@
       <c r="B133" s="10">
         <v>6.8471518779188303</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8">
-        <v>3872.9830000000002</v>
+      <c r="C133" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D133" s="10">
+        <v>4600</v>
+      </c>
+      <c r="E133" s="10">
+        <v>3714.835</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>35</v>
@@ -10556,7 +10609,7 @@
         <v>61</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O133" s="5" t="s">
         <v>62</v>
@@ -10565,7 +10618,7 @@
         <v>4</v>
       </c>
       <c r="Q133" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R133" s="10">
         <v>320000</v>
@@ -10583,7 +10636,7 @@
         <v>4.2</v>
       </c>
       <c r="W133" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X133" s="3">
         <v>1</v>
@@ -10599,14 +10652,18 @@
       <c r="B134" s="10">
         <v>9.6306814444517492</v>
       </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8">
-        <v>3872.9830000000002</v>
+      <c r="C134" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D134" s="10">
+        <v>4600</v>
+      </c>
+      <c r="E134" s="10">
+        <v>3714.835</v>
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>35</v>
@@ -10627,7 +10684,7 @@
         <v>61</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O134" s="5" t="s">
         <v>62</v>
@@ -10636,7 +10693,7 @@
         <v>4</v>
       </c>
       <c r="Q134" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R134" s="10">
         <v>320000</v>
@@ -10654,7 +10711,7 @@
         <v>4.2</v>
       </c>
       <c r="W134" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X134" s="3">
         <v>1</v>
@@ -10670,14 +10727,18 @@
       <c r="B135" s="10">
         <v>12.483769650726799</v>
       </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8">
-        <v>3872.9830000000002</v>
+      <c r="C135" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D135" s="10">
+        <v>4600</v>
+      </c>
+      <c r="E135" s="10">
+        <v>3714.835</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>35</v>
@@ -10698,7 +10759,7 @@
         <v>61</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O135" s="5" t="s">
         <v>62</v>
@@ -10707,7 +10768,7 @@
         <v>4</v>
       </c>
       <c r="Q135" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R135" s="10">
         <v>320000</v>
@@ -10725,7 +10786,7 @@
         <v>4.2</v>
       </c>
       <c r="W135" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X135" s="3">
         <v>1</v>
@@ -10741,14 +10802,18 @@
       <c r="B136" s="10">
         <v>15.0288758797605</v>
       </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8">
-        <v>3872.9830000000002</v>
+      <c r="C136" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D136" s="10">
+        <v>4600</v>
+      </c>
+      <c r="E136" s="10">
+        <v>3714.835</v>
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>35</v>
@@ -10769,7 +10834,7 @@
         <v>61</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O136" s="5" t="s">
         <v>62</v>
@@ -10778,7 +10843,7 @@
         <v>4</v>
       </c>
       <c r="Q136" s="10">
-        <v>16730</v>
+        <v>22413.4</v>
       </c>
       <c r="R136" s="10">
         <v>320000</v>
@@ -10796,7 +10861,7 @@
         <v>4.2</v>
       </c>
       <c r="W136" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="X136" s="3">
         <v>1</v>
@@ -10814,12 +10879,11 @@
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8">
+      <c r="E137" s="10">
         <v>1.7</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>36</v>
@@ -10840,7 +10904,7 @@
         <v>72</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O137" s="5" t="s">
         <v>62</v>
@@ -10849,7 +10913,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q137" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R137" s="10">
         <v>25000</v>
@@ -10866,9 +10930,7 @@
       <c r="V137" s="12">
         <v>8.9</v>
       </c>
-      <c r="W137" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W137" s="4"/>
       <c r="X137" s="3">
         <v>1</v>
       </c>
@@ -10885,12 +10947,11 @@
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8">
+      <c r="E138" s="10">
         <v>1.7</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>36</v>
@@ -10911,7 +10972,7 @@
         <v>72</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O138" s="5" t="s">
         <v>62</v>
@@ -10920,7 +10981,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q138" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R138" s="10">
         <v>25000</v>
@@ -10937,9 +10998,7 @@
       <c r="V138" s="12">
         <v>8.9</v>
       </c>
-      <c r="W138" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W138" s="4"/>
       <c r="X138" s="3">
         <v>1</v>
       </c>
@@ -10956,12 +11015,11 @@
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8">
+      <c r="E139" s="10">
         <v>1.7</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>36</v>
@@ -10982,7 +11040,7 @@
         <v>72</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O139" s="5" t="s">
         <v>62</v>
@@ -10991,7 +11049,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q139" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R139" s="10">
         <v>25000</v>
@@ -11008,9 +11066,7 @@
       <c r="V139" s="12">
         <v>8.9</v>
       </c>
-      <c r="W139" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W139" s="4"/>
       <c r="X139" s="3">
         <v>1</v>
       </c>
@@ -11027,12 +11083,11 @@
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8">
+      <c r="E140" s="10">
         <v>1.7</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>36</v>
@@ -11053,7 +11108,7 @@
         <v>72</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O140" s="5" t="s">
         <v>62</v>
@@ -11062,7 +11117,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q140" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R140" s="10">
         <v>25000</v>
@@ -11079,9 +11134,7 @@
       <c r="V140" s="12">
         <v>8.9</v>
       </c>
-      <c r="W140" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W140" s="4"/>
       <c r="X140" s="3">
         <v>1</v>
       </c>
@@ -11098,12 +11151,11 @@
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8">
+      <c r="E141" s="10">
         <v>1.7</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>36</v>
@@ -11124,7 +11176,7 @@
         <v>72</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O141" s="5" t="s">
         <v>62</v>
@@ -11133,7 +11185,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q141" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R141" s="10">
         <v>25000</v>
@@ -11150,9 +11202,7 @@
       <c r="V141" s="12">
         <v>8.9</v>
       </c>
-      <c r="W141" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W141" s="4"/>
       <c r="X141" s="3">
         <v>1</v>
       </c>
@@ -11169,12 +11219,11 @@
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8">
+      <c r="E142" s="10">
         <v>1.7</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>36</v>
@@ -11195,7 +11244,7 @@
         <v>72</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O142" s="5" t="s">
         <v>62</v>
@@ -11204,7 +11253,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q142" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R142" s="10">
         <v>25000</v>
@@ -11221,9 +11270,7 @@
       <c r="V142" s="12">
         <v>8.9</v>
       </c>
-      <c r="W142" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W142" s="4"/>
       <c r="X142" s="3">
         <v>1</v>
       </c>
@@ -11240,12 +11287,11 @@
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8">
+      <c r="E143" s="10">
         <v>1.9</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>36</v>
@@ -11266,7 +11312,7 @@
         <v>72</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O143" s="5" t="s">
         <v>62</v>
@@ -11275,7 +11321,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q143" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R143" s="10">
         <v>25000</v>
@@ -11292,9 +11338,7 @@
       <c r="V143" s="12">
         <v>8.9</v>
       </c>
-      <c r="W143" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W143" s="4"/>
       <c r="X143" s="3">
         <v>1</v>
       </c>
@@ -11311,12 +11355,11 @@
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8">
+      <c r="E144" s="10">
         <v>1.9</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>36</v>
@@ -11337,7 +11380,7 @@
         <v>72</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O144" s="5" t="s">
         <v>62</v>
@@ -11346,7 +11389,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q144" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R144" s="10">
         <v>25000</v>
@@ -11363,9 +11406,7 @@
       <c r="V144" s="12">
         <v>8.9</v>
       </c>
-      <c r="W144" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W144" s="4"/>
       <c r="X144" s="3">
         <v>1</v>
       </c>
@@ -11382,12 +11423,11 @@
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8">
+      <c r="E145" s="10">
         <v>1.9</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>36</v>
@@ -11408,7 +11448,7 @@
         <v>72</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O145" s="5" t="s">
         <v>62</v>
@@ -11417,7 +11457,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q145" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R145" s="10">
         <v>25000</v>
@@ -11434,9 +11474,7 @@
       <c r="V145" s="12">
         <v>8.9</v>
       </c>
-      <c r="W145" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W145" s="4"/>
       <c r="X145" s="3">
         <v>1</v>
       </c>
@@ -11453,12 +11491,11 @@
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8">
+      <c r="E146" s="10">
         <v>1.9</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>36</v>
@@ -11479,7 +11516,7 @@
         <v>72</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O146" s="5" t="s">
         <v>62</v>
@@ -11488,7 +11525,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q146" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R146" s="10">
         <v>25000</v>
@@ -11505,9 +11542,7 @@
       <c r="V146" s="12">
         <v>8.9</v>
       </c>
-      <c r="W146" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W146" s="4"/>
       <c r="X146" s="3">
         <v>1</v>
       </c>
@@ -11524,12 +11559,11 @@
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8">
+      <c r="E147" s="10">
         <v>1.9</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>36</v>
@@ -11550,7 +11584,7 @@
         <v>72</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O147" s="5" t="s">
         <v>62</v>
@@ -11559,7 +11593,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q147" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R147" s="10">
         <v>25000</v>
@@ -11576,9 +11610,7 @@
       <c r="V147" s="12">
         <v>8.9</v>
       </c>
-      <c r="W147" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W147" s="4"/>
       <c r="X147" s="3">
         <v>1</v>
       </c>
@@ -11595,12 +11627,11 @@
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8">
+      <c r="E148" s="10">
         <v>1.9</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>36</v>
@@ -11621,7 +11652,7 @@
         <v>72</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O148" s="5" t="s">
         <v>62</v>
@@ -11630,7 +11661,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q148" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R148" s="10">
         <v>25000</v>
@@ -11647,9 +11678,7 @@
       <c r="V148" s="12">
         <v>8.9</v>
       </c>
-      <c r="W148" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W148" s="4"/>
       <c r="X148" s="3">
         <v>1</v>
       </c>
@@ -11666,12 +11695,11 @@
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8">
+      <c r="E149" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>36</v>
@@ -11692,7 +11720,7 @@
         <v>72</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O149" s="5" t="s">
         <v>62</v>
@@ -11701,7 +11729,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q149" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R149" s="10">
         <v>25000</v>
@@ -11718,9 +11746,7 @@
       <c r="V149" s="12">
         <v>8.9</v>
       </c>
-      <c r="W149" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W149" s="4"/>
       <c r="X149" s="3">
         <v>1</v>
       </c>
@@ -11737,12 +11763,11 @@
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8">
+      <c r="E150" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>36</v>
@@ -11763,7 +11788,7 @@
         <v>72</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O150" s="5" t="s">
         <v>62</v>
@@ -11772,7 +11797,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q150" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R150" s="10">
         <v>25000</v>
@@ -11789,9 +11814,7 @@
       <c r="V150" s="12">
         <v>8.9</v>
       </c>
-      <c r="W150" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W150" s="4"/>
       <c r="X150" s="3">
         <v>1</v>
       </c>
@@ -11808,12 +11831,11 @@
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8">
+      <c r="E151" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>36</v>
@@ -11834,7 +11856,7 @@
         <v>72</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O151" s="5" t="s">
         <v>62</v>
@@ -11843,7 +11865,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q151" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R151" s="10">
         <v>25000</v>
@@ -11860,9 +11882,7 @@
       <c r="V151" s="12">
         <v>8.9</v>
       </c>
-      <c r="W151" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W151" s="4"/>
       <c r="X151" s="3">
         <v>1</v>
       </c>
@@ -11879,12 +11899,11 @@
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8">
+      <c r="E152" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>36</v>
@@ -11905,7 +11924,7 @@
         <v>72</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O152" s="5" t="s">
         <v>62</v>
@@ -11914,7 +11933,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q152" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R152" s="10">
         <v>25000</v>
@@ -11931,9 +11950,7 @@
       <c r="V152" s="12">
         <v>8.9</v>
       </c>
-      <c r="W152" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W152" s="4"/>
       <c r="X152" s="3">
         <v>1</v>
       </c>
@@ -11950,12 +11967,11 @@
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8">
+      <c r="E153" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>36</v>
@@ -11976,7 +11992,7 @@
         <v>72</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O153" s="5" t="s">
         <v>62</v>
@@ -11985,7 +12001,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q153" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R153" s="10">
         <v>25000</v>
@@ -12002,9 +12018,7 @@
       <c r="V153" s="12">
         <v>8.9</v>
       </c>
-      <c r="W153" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W153" s="4"/>
       <c r="X153" s="3">
         <v>1</v>
       </c>
@@ -12021,12 +12035,11 @@
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8">
+      <c r="E154" s="10">
         <v>13.7</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>36</v>
@@ -12047,7 +12060,7 @@
         <v>72</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O154" s="5" t="s">
         <v>62</v>
@@ -12056,7 +12069,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q154" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R154" s="10">
         <v>25000</v>
@@ -12073,9 +12086,7 @@
       <c r="V154" s="12">
         <v>8.9</v>
       </c>
-      <c r="W154" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W154" s="4"/>
       <c r="X154" s="3">
         <v>1</v>
       </c>
@@ -12092,12 +12103,11 @@
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8">
+      <c r="E155" s="10">
         <v>13.7</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>36</v>
@@ -12118,7 +12128,7 @@
         <v>72</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O155" s="5" t="s">
         <v>62</v>
@@ -12127,7 +12137,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q155" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R155" s="10">
         <v>25000</v>
@@ -12144,9 +12154,7 @@
       <c r="V155" s="12">
         <v>8.9</v>
       </c>
-      <c r="W155" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W155" s="4"/>
       <c r="X155" s="3">
         <v>1</v>
       </c>
@@ -12163,12 +12171,11 @@
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8">
+      <c r="E156" s="10">
         <v>13.7</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>36</v>
@@ -12189,7 +12196,7 @@
         <v>72</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O156" s="5" t="s">
         <v>62</v>
@@ -12198,7 +12205,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q156" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R156" s="10">
         <v>25000</v>
@@ -12215,9 +12222,7 @@
       <c r="V156" s="12">
         <v>8.9</v>
       </c>
-      <c r="W156" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W156" s="4"/>
       <c r="X156" s="3">
         <v>1</v>
       </c>
@@ -12234,12 +12239,11 @@
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8">
+      <c r="E157" s="10">
         <v>13.7</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>36</v>
@@ -12260,7 +12264,7 @@
         <v>72</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O157" s="5" t="s">
         <v>62</v>
@@ -12269,7 +12273,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q157" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R157" s="10">
         <v>25000</v>
@@ -12286,9 +12290,7 @@
       <c r="V157" s="12">
         <v>8.9</v>
       </c>
-      <c r="W157" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W157" s="4"/>
       <c r="X157" s="3">
         <v>1</v>
       </c>
@@ -12305,12 +12307,11 @@
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8">
+      <c r="E158" s="10">
         <v>13.7</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>36</v>
@@ -12331,7 +12332,7 @@
         <v>72</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O158" s="5" t="s">
         <v>62</v>
@@ -12340,7 +12341,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q158" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R158" s="10">
         <v>25000</v>
@@ -12357,9 +12358,7 @@
       <c r="V158" s="12">
         <v>8.9</v>
       </c>
-      <c r="W158" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W158" s="4"/>
       <c r="X158" s="3">
         <v>1</v>
       </c>
@@ -12376,12 +12375,11 @@
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8">
+      <c r="E159" s="10">
         <v>13.7</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>36</v>
@@ -12402,7 +12400,7 @@
         <v>72</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O159" s="5" t="s">
         <v>62</v>
@@ -12411,7 +12409,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q159" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R159" s="10">
         <v>25000</v>
@@ -12428,9 +12426,7 @@
       <c r="V159" s="12">
         <v>8.9</v>
       </c>
-      <c r="W159" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W159" s="4"/>
       <c r="X159" s="3">
         <v>1</v>
       </c>
@@ -12447,12 +12443,11 @@
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8">
+      <c r="E160" s="10">
         <v>54</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>36</v>
@@ -12473,7 +12468,7 @@
         <v>72</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O160" s="5" t="s">
         <v>62</v>
@@ -12482,7 +12477,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q160" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R160" s="10">
         <v>25000</v>
@@ -12499,9 +12494,7 @@
       <c r="V160" s="12">
         <v>8.9</v>
       </c>
-      <c r="W160" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W160" s="4"/>
       <c r="X160" s="3">
         <v>1</v>
       </c>
@@ -12518,12 +12511,11 @@
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8">
+      <c r="E161" s="10">
         <v>54</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>36</v>
@@ -12544,7 +12536,7 @@
         <v>72</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O161" s="5" t="s">
         <v>62</v>
@@ -12553,7 +12545,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q161" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R161" s="10">
         <v>25000</v>
@@ -12570,9 +12562,7 @@
       <c r="V161" s="12">
         <v>8.9</v>
       </c>
-      <c r="W161" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W161" s="4"/>
       <c r="X161" s="3">
         <v>1</v>
       </c>
@@ -12589,12 +12579,11 @@
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8">
+      <c r="E162" s="10">
         <v>54</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>36</v>
@@ -12615,7 +12604,7 @@
         <v>72</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O162" s="5" t="s">
         <v>62</v>
@@ -12624,7 +12613,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q162" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R162" s="10">
         <v>25000</v>
@@ -12641,9 +12630,7 @@
       <c r="V162" s="12">
         <v>8.9</v>
       </c>
-      <c r="W162" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W162" s="4"/>
       <c r="X162" s="3">
         <v>1</v>
       </c>
@@ -12660,12 +12647,11 @@
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8">
+      <c r="E163" s="10">
         <v>54</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>36</v>
@@ -12686,7 +12672,7 @@
         <v>72</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O163" s="5" t="s">
         <v>62</v>
@@ -12695,7 +12681,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q163" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R163" s="10">
         <v>25000</v>
@@ -12712,9 +12698,7 @@
       <c r="V163" s="12">
         <v>8.9</v>
       </c>
-      <c r="W163" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W163" s="4"/>
       <c r="X163" s="3">
         <v>1</v>
       </c>
@@ -12731,12 +12715,11 @@
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8">
+      <c r="E164" s="10">
         <v>54</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>36</v>
@@ -12757,7 +12740,7 @@
         <v>72</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O164" s="5" t="s">
         <v>62</v>
@@ -12766,7 +12749,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q164" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R164" s="10">
         <v>25000</v>
@@ -12783,9 +12766,7 @@
       <c r="V164" s="12">
         <v>8.9</v>
       </c>
-      <c r="W164" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W164" s="4"/>
       <c r="X164" s="3">
         <v>1</v>
       </c>
@@ -12802,12 +12783,11 @@
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8">
+      <c r="E165" s="10">
         <v>54</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>36</v>
@@ -12828,7 +12808,7 @@
         <v>72</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O165" s="5" t="s">
         <v>62</v>
@@ -12837,7 +12817,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q165" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R165" s="10">
         <v>25000</v>
@@ -12854,9 +12834,7 @@
       <c r="V165" s="12">
         <v>8.9</v>
       </c>
-      <c r="W165" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W165" s="4"/>
       <c r="X165" s="3">
         <v>1</v>
       </c>
@@ -12873,12 +12851,11 @@
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8">
+      <c r="E166" s="10">
         <v>499</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>36</v>
@@ -12899,7 +12876,7 @@
         <v>72</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O166" s="5" t="s">
         <v>62</v>
@@ -12908,7 +12885,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q166" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R166" s="10">
         <v>25000</v>
@@ -12925,9 +12902,7 @@
       <c r="V166" s="12">
         <v>8.9</v>
       </c>
-      <c r="W166" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W166" s="4"/>
       <c r="X166" s="3">
         <v>1</v>
       </c>
@@ -12944,12 +12919,11 @@
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8">
+      <c r="E167" s="10">
         <v>499</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>36</v>
@@ -12970,7 +12944,7 @@
         <v>72</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O167" s="5" t="s">
         <v>62</v>
@@ -12979,7 +12953,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q167" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R167" s="10">
         <v>25000</v>
@@ -12996,9 +12970,7 @@
       <c r="V167" s="12">
         <v>8.9</v>
       </c>
-      <c r="W167" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W167" s="4"/>
       <c r="X167" s="3">
         <v>1</v>
       </c>
@@ -13015,12 +12987,11 @@
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8">
+      <c r="E168" s="10">
         <v>499</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>36</v>
@@ -13041,7 +13012,7 @@
         <v>72</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O168" s="5" t="s">
         <v>62</v>
@@ -13050,7 +13021,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q168" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R168" s="10">
         <v>25000</v>
@@ -13067,9 +13038,7 @@
       <c r="V168" s="12">
         <v>8.9</v>
       </c>
-      <c r="W168" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W168" s="4"/>
       <c r="X168" s="3">
         <v>1</v>
       </c>
@@ -13086,12 +13055,11 @@
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8">
+      <c r="E169" s="10">
         <v>499</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>36</v>
@@ -13112,7 +13080,7 @@
         <v>72</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O169" s="5" t="s">
         <v>62</v>
@@ -13121,7 +13089,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q169" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R169" s="10">
         <v>25000</v>
@@ -13138,9 +13106,7 @@
       <c r="V169" s="12">
         <v>8.9</v>
       </c>
-      <c r="W169" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W169" s="4"/>
       <c r="X169" s="3">
         <v>1</v>
       </c>
@@ -13157,12 +13123,11 @@
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8">
+      <c r="E170" s="10">
         <v>499</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>36</v>
@@ -13183,7 +13148,7 @@
         <v>72</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O170" s="5" t="s">
         <v>62</v>
@@ -13192,7 +13157,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q170" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R170" s="10">
         <v>25000</v>
@@ -13209,9 +13174,7 @@
       <c r="V170" s="12">
         <v>8.9</v>
       </c>
-      <c r="W170" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W170" s="4"/>
       <c r="X170" s="3">
         <v>1</v>
       </c>
@@ -13228,12 +13191,11 @@
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8">
+      <c r="E171" s="10">
         <v>499</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>36</v>
@@ -13254,7 +13216,7 @@
         <v>72</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O171" s="5" t="s">
         <v>62</v>
@@ -13263,7 +13225,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q171" s="10">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R171" s="10">
         <v>25000</v>
@@ -13280,9 +13242,7 @@
       <c r="V171" s="12">
         <v>8.9</v>
       </c>
-      <c r="W171" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="W171" s="4"/>
       <c r="X171" s="3">
         <v>1</v>
       </c>
@@ -13304,7 +13264,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>44</v>
@@ -13325,7 +13285,7 @@
         <v>72</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O172" s="3" t="s">
         <v>66</v>
@@ -13337,7 +13297,7 @@
         <v>21</v>
       </c>
       <c r="R172" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S172" s="12">
         <v>-2</v>
@@ -13352,10 +13312,10 @@
         <v>1.4</v>
       </c>
       <c r="W172" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X172" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y172" s="3" t="s">
         <v>43</v>
@@ -13375,7 +13335,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>44</v>
@@ -13396,7 +13356,7 @@
         <v>72</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>66</v>
@@ -13408,7 +13368,7 @@
         <v>21</v>
       </c>
       <c r="R173" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S173" s="12">
         <v>-2</v>
@@ -13423,10 +13383,10 @@
         <v>1.4</v>
       </c>
       <c r="W173" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X173" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y173" s="3" t="s">
         <v>43</v>
@@ -13446,7 +13406,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>44</v>
@@ -13467,7 +13427,7 @@
         <v>72</v>
       </c>
       <c r="N174" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O174" s="3" t="s">
         <v>66</v>
@@ -13479,7 +13439,7 @@
         <v>21</v>
       </c>
       <c r="R174" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S174" s="12">
         <v>-2</v>
@@ -13494,10 +13454,10 @@
         <v>1.4</v>
       </c>
       <c r="W174" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X174" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y174" s="3" t="s">
         <v>43</v>
@@ -13517,7 +13477,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>44</v>
@@ -13538,7 +13498,7 @@
         <v>72</v>
       </c>
       <c r="N175" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O175" s="3" t="s">
         <v>66</v>
@@ -13550,7 +13510,7 @@
         <v>21</v>
       </c>
       <c r="R175" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S175" s="12">
         <v>-2</v>
@@ -13565,10 +13525,10 @@
         <v>1.4</v>
       </c>
       <c r="W175" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X175" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y175" s="3" t="s">
         <v>43</v>
@@ -13588,7 +13548,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>44</v>
@@ -13609,7 +13569,7 @@
         <v>72</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O176" s="3" t="s">
         <v>66</v>
@@ -13621,7 +13581,7 @@
         <v>21</v>
       </c>
       <c r="R176" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S176" s="12">
         <v>-2</v>
@@ -13636,10 +13596,10 @@
         <v>1.4</v>
       </c>
       <c r="W176" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X176" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y176" s="3" t="s">
         <v>43</v>
@@ -13659,7 +13619,7 @@
         <v>1.18953</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>44</v>
@@ -13680,7 +13640,7 @@
         <v>72</v>
       </c>
       <c r="N177" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O177" s="3" t="s">
         <v>66</v>
@@ -13692,7 +13652,7 @@
         <v>21</v>
       </c>
       <c r="R177" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S177" s="12">
         <v>-2</v>
@@ -13707,10 +13667,10 @@
         <v>1.4</v>
       </c>
       <c r="W177" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X177" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y177" s="3" t="s">
         <v>43</v>
@@ -13730,7 +13690,7 @@
         <v>1.18953</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>44</v>
@@ -13751,7 +13711,7 @@
         <v>72</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O178" s="3" t="s">
         <v>66</v>
@@ -13763,7 +13723,7 @@
         <v>21</v>
       </c>
       <c r="R178" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S178" s="12">
         <v>-2</v>
@@ -13778,10 +13738,10 @@
         <v>1.4</v>
       </c>
       <c r="W178" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X178" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y178" s="3" t="s">
         <v>43</v>
@@ -13801,7 +13761,7 @@
         <v>1.18953</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>44</v>
@@ -13822,7 +13782,7 @@
         <v>72</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O179" s="3" t="s">
         <v>66</v>
@@ -13834,7 +13794,7 @@
         <v>21</v>
       </c>
       <c r="R179" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S179" s="12">
         <v>-2</v>
@@ -13849,10 +13809,10 @@
         <v>1.4</v>
       </c>
       <c r="W179" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X179" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y179" s="3" t="s">
         <v>43</v>
@@ -13872,7 +13832,7 @@
         <v>1.18953</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>44</v>
@@ -13893,7 +13853,7 @@
         <v>72</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O180" s="3" t="s">
         <v>66</v>
@@ -13905,7 +13865,7 @@
         <v>21</v>
       </c>
       <c r="R180" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S180" s="12">
         <v>-2</v>
@@ -13920,10 +13880,10 @@
         <v>1.4</v>
       </c>
       <c r="W180" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X180" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y180" s="3" t="s">
         <v>43</v>
@@ -13943,7 +13903,7 @@
         <v>1.18953</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>44</v>
@@ -13964,7 +13924,7 @@
         <v>72</v>
       </c>
       <c r="N181" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O181" s="3" t="s">
         <v>66</v>
@@ -13976,7 +13936,7 @@
         <v>21</v>
       </c>
       <c r="R181" s="10">
-        <v>582</v>
+        <v>595.5</v>
       </c>
       <c r="S181" s="12">
         <v>-2</v>
@@ -13991,10 +13951,10 @@
         <v>1.4</v>
       </c>
       <c r="W181" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="X181" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y181" s="3" t="s">
         <v>43</v>
@@ -14014,7 +13974,7 @@
         <v>10</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>38</v>
@@ -14035,7 +13995,7 @@
         <v>72</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O182" s="3" t="s">
         <v>67</v>
@@ -14044,7 +14004,7 @@
         <v>4</v>
       </c>
       <c r="Q182" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R182" s="10">
         <v>68000</v>
@@ -14059,13 +14019,13 @@
         <v>24.5</v>
       </c>
       <c r="V182" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W182" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X182" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y182" s="3" t="s">
         <v>46</v>
@@ -14085,7 +14045,7 @@
         <v>10</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>38</v>
@@ -14106,7 +14066,7 @@
         <v>72</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O183" s="3" t="s">
         <v>67</v>
@@ -14115,7 +14075,7 @@
         <v>4</v>
       </c>
       <c r="Q183" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R183" s="10">
         <v>68000</v>
@@ -14130,13 +14090,13 @@
         <v>24.5</v>
       </c>
       <c r="V183" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W183" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X183" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y183" s="3" t="s">
         <v>46</v>
@@ -14156,7 +14116,7 @@
         <v>10</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>38</v>
@@ -14177,7 +14137,7 @@
         <v>72</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O184" s="3" t="s">
         <v>67</v>
@@ -14186,7 +14146,7 @@
         <v>4</v>
       </c>
       <c r="Q184" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R184" s="10">
         <v>68000</v>
@@ -14201,13 +14161,13 @@
         <v>24.5</v>
       </c>
       <c r="V184" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W184" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X184" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y184" s="3" t="s">
         <v>46</v>
@@ -14227,7 +14187,7 @@
         <v>10</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>38</v>
@@ -14248,7 +14208,7 @@
         <v>72</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O185" s="3" t="s">
         <v>67</v>
@@ -14257,7 +14217,7 @@
         <v>4</v>
       </c>
       <c r="Q185" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R185" s="10">
         <v>68000</v>
@@ -14272,13 +14232,13 @@
         <v>24.5</v>
       </c>
       <c r="V185" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W185" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X185" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y185" s="3" t="s">
         <v>46</v>
@@ -14298,7 +14258,7 @@
         <v>10</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>38</v>
@@ -14319,7 +14279,7 @@
         <v>72</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O186" s="3" t="s">
         <v>67</v>
@@ -14328,7 +14288,7 @@
         <v>4</v>
       </c>
       <c r="Q186" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R186" s="10">
         <v>68000</v>
@@ -14343,13 +14303,13 @@
         <v>24.5</v>
       </c>
       <c r="V186" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W186" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X186" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y186" s="3" t="s">
         <v>46</v>
@@ -14369,7 +14329,7 @@
         <v>30</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>38</v>
@@ -14390,7 +14350,7 @@
         <v>72</v>
       </c>
       <c r="N187" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O187" s="3" t="s">
         <v>67</v>
@@ -14399,7 +14359,7 @@
         <v>4</v>
       </c>
       <c r="Q187" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R187" s="10">
         <v>68000</v>
@@ -14414,13 +14374,13 @@
         <v>24.5</v>
       </c>
       <c r="V187" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W187" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X187" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y187" s="3" t="s">
         <v>46</v>
@@ -14440,7 +14400,7 @@
         <v>30</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>38</v>
@@ -14461,7 +14421,7 @@
         <v>72</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>67</v>
@@ -14470,7 +14430,7 @@
         <v>4</v>
       </c>
       <c r="Q188" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R188" s="10">
         <v>68000</v>
@@ -14485,13 +14445,13 @@
         <v>24.5</v>
       </c>
       <c r="V188" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W188" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X188" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y188" s="3" t="s">
         <v>46</v>
@@ -14511,7 +14471,7 @@
         <v>30</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>38</v>
@@ -14532,7 +14492,7 @@
         <v>72</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O189" s="3" t="s">
         <v>67</v>
@@ -14541,7 +14501,7 @@
         <v>4</v>
       </c>
       <c r="Q189" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R189" s="10">
         <v>68000</v>
@@ -14556,13 +14516,13 @@
         <v>24.5</v>
       </c>
       <c r="V189" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W189" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X189" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y189" s="3" t="s">
         <v>46</v>
@@ -14582,7 +14542,7 @@
         <v>30</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>38</v>
@@ -14603,7 +14563,7 @@
         <v>72</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O190" s="3" t="s">
         <v>67</v>
@@ -14612,7 +14572,7 @@
         <v>4</v>
       </c>
       <c r="Q190" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R190" s="10">
         <v>68000</v>
@@ -14627,13 +14587,13 @@
         <v>24.5</v>
       </c>
       <c r="V190" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W190" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X190" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y190" s="3" t="s">
         <v>46</v>
@@ -14653,7 +14613,7 @@
         <v>30</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>38</v>
@@ -14674,7 +14634,7 @@
         <v>72</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O191" s="3" t="s">
         <v>67</v>
@@ -14683,7 +14643,7 @@
         <v>4</v>
       </c>
       <c r="Q191" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R191" s="10">
         <v>68000</v>
@@ -14698,13 +14658,13 @@
         <v>24.5</v>
       </c>
       <c r="V191" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W191" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X191" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y191" s="3" t="s">
         <v>46</v>
@@ -14724,7 +14684,7 @@
         <v>70</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>38</v>
@@ -14745,7 +14705,7 @@
         <v>72</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O192" s="3" t="s">
         <v>67</v>
@@ -14754,7 +14714,7 @@
         <v>4</v>
       </c>
       <c r="Q192" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R192" s="10">
         <v>68000</v>
@@ -14769,13 +14729,13 @@
         <v>24.5</v>
       </c>
       <c r="V192" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W192" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X192" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y192" s="3" t="s">
         <v>46</v>
@@ -14795,7 +14755,7 @@
         <v>70</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>38</v>
@@ -14816,7 +14776,7 @@
         <v>72</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O193" s="3" t="s">
         <v>67</v>
@@ -14825,7 +14785,7 @@
         <v>4</v>
       </c>
       <c r="Q193" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R193" s="10">
         <v>68000</v>
@@ -14840,13 +14800,13 @@
         <v>24.5</v>
       </c>
       <c r="V193" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W193" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X193" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y193" s="3" t="s">
         <v>46</v>
@@ -14866,7 +14826,7 @@
         <v>70</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>38</v>
@@ -14887,7 +14847,7 @@
         <v>72</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O194" s="3" t="s">
         <v>67</v>
@@ -14896,7 +14856,7 @@
         <v>4</v>
       </c>
       <c r="Q194" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R194" s="10">
         <v>68000</v>
@@ -14911,13 +14871,13 @@
         <v>24.5</v>
       </c>
       <c r="V194" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W194" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X194" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y194" s="3" t="s">
         <v>46</v>
@@ -14937,7 +14897,7 @@
         <v>70</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>38</v>
@@ -14958,7 +14918,7 @@
         <v>72</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O195" s="3" t="s">
         <v>67</v>
@@ -14967,7 +14927,7 @@
         <v>4</v>
       </c>
       <c r="Q195" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R195" s="10">
         <v>68000</v>
@@ -14982,13 +14942,13 @@
         <v>24.5</v>
       </c>
       <c r="V195" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W195" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X195" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y195" s="3" t="s">
         <v>46</v>
@@ -15008,7 +14968,7 @@
         <v>70</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>38</v>
@@ -15029,7 +14989,7 @@
         <v>72</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O196" s="3" t="s">
         <v>67</v>
@@ -15038,7 +14998,7 @@
         <v>4</v>
       </c>
       <c r="Q196" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R196" s="10">
         <v>68000</v>
@@ -15053,13 +15013,13 @@
         <v>24.5</v>
       </c>
       <c r="V196" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W196" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X196" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y196" s="3" t="s">
         <v>46</v>
@@ -15079,7 +15039,7 @@
         <v>200</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>38</v>
@@ -15100,7 +15060,7 @@
         <v>72</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O197" s="3" t="s">
         <v>67</v>
@@ -15109,7 +15069,7 @@
         <v>4</v>
       </c>
       <c r="Q197" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R197" s="10">
         <v>68000</v>
@@ -15124,13 +15084,13 @@
         <v>24.5</v>
       </c>
       <c r="V197" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W197" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X197" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y197" s="3" t="s">
         <v>46</v>
@@ -15150,7 +15110,7 @@
         <v>200</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>38</v>
@@ -15171,7 +15131,7 @@
         <v>72</v>
       </c>
       <c r="N198" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O198" s="3" t="s">
         <v>67</v>
@@ -15180,7 +15140,7 @@
         <v>4</v>
       </c>
       <c r="Q198" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R198" s="10">
         <v>68000</v>
@@ -15195,13 +15155,13 @@
         <v>24.5</v>
       </c>
       <c r="V198" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W198" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X198" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y198" s="3" t="s">
         <v>46</v>
@@ -15221,7 +15181,7 @@
         <v>200</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>38</v>
@@ -15242,7 +15202,7 @@
         <v>72</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O199" s="3" t="s">
         <v>67</v>
@@ -15251,7 +15211,7 @@
         <v>4</v>
       </c>
       <c r="Q199" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R199" s="10">
         <v>68000</v>
@@ -15266,13 +15226,13 @@
         <v>24.5</v>
       </c>
       <c r="V199" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W199" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X199" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y199" s="3" t="s">
         <v>46</v>
@@ -15292,7 +15252,7 @@
         <v>200</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>38</v>
@@ -15313,7 +15273,7 @@
         <v>72</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O200" s="3" t="s">
         <v>67</v>
@@ -15322,7 +15282,7 @@
         <v>4</v>
       </c>
       <c r="Q200" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R200" s="10">
         <v>68000</v>
@@ -15337,13 +15297,13 @@
         <v>24.5</v>
       </c>
       <c r="V200" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W200" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X200" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y200" s="3" t="s">
         <v>46</v>
@@ -15363,7 +15323,7 @@
         <v>200</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>38</v>
@@ -15384,7 +15344,7 @@
         <v>72</v>
       </c>
       <c r="N201" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O201" s="3" t="s">
         <v>67</v>
@@ -15393,7 +15353,7 @@
         <v>4</v>
       </c>
       <c r="Q201" s="10">
-        <v>2740</v>
+        <v>2770</v>
       </c>
       <c r="R201" s="10">
         <v>68000</v>
@@ -15408,13 +15368,13 @@
         <v>24.5</v>
       </c>
       <c r="V201" s="12">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="W201" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X201" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y201" s="3" t="s">
         <v>46</v>
@@ -15434,7 +15394,7 @@
         <v>6</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>86</v>
@@ -15455,7 +15415,7 @@
         <v>57</v>
       </c>
       <c r="N202" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O202" s="6" t="s">
         <v>62</v>
@@ -15482,13 +15442,13 @@
         <v>21</v>
       </c>
       <c r="W202" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X202" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y202" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
@@ -15505,7 +15465,7 @@
         <v>16</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>86</v>
@@ -15526,7 +15486,7 @@
         <v>57</v>
       </c>
       <c r="N203" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O203" s="6" t="s">
         <v>62</v>
@@ -15553,13 +15513,13 @@
         <v>21</v>
       </c>
       <c r="W203" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X203" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y203" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
@@ -15576,7 +15536,7 @@
         <v>36</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>86</v>
@@ -15597,7 +15557,7 @@
         <v>57</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O204" s="6" t="s">
         <v>62</v>
@@ -15624,13 +15584,13 @@
         <v>21</v>
       </c>
       <c r="W204" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X204" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y204" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
@@ -15647,7 +15607,7 @@
         <v>6</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>86</v>
@@ -15668,7 +15628,7 @@
         <v>57</v>
       </c>
       <c r="N205" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O205" s="6" t="s">
         <v>62</v>
@@ -15695,13 +15655,13 @@
         <v>21</v>
       </c>
       <c r="W205" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X205" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y205" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
@@ -15718,7 +15678,7 @@
         <v>16</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>86</v>
@@ -15739,7 +15699,7 @@
         <v>57</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O206" s="6" t="s">
         <v>62</v>
@@ -15766,13 +15726,13 @@
         <v>21</v>
       </c>
       <c r="W206" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X206" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y206" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.2">
@@ -15789,7 +15749,7 @@
         <v>36</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>86</v>
@@ -15810,7 +15770,7 @@
         <v>57</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O207" s="6" t="s">
         <v>62</v>
@@ -15837,13 +15797,13 @@
         <v>21</v>
       </c>
       <c r="W207" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X207" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y207" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.2">
@@ -15860,7 +15820,7 @@
         <v>6</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>86</v>
@@ -15881,7 +15841,7 @@
         <v>57</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O208" s="6" t="s">
         <v>62</v>
@@ -15908,13 +15868,13 @@
         <v>21</v>
       </c>
       <c r="W208" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X208" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y208" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.2">
@@ -15931,7 +15891,7 @@
         <v>16</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>86</v>
@@ -15952,7 +15912,7 @@
         <v>57</v>
       </c>
       <c r="N209" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O209" s="6" t="s">
         <v>62</v>
@@ -15979,13 +15939,13 @@
         <v>21</v>
       </c>
       <c r="W209" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X209" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y209" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.2">
@@ -16002,7 +15962,7 @@
         <v>36</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>86</v>
@@ -16023,7 +15983,7 @@
         <v>57</v>
       </c>
       <c r="N210" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O210" s="6" t="s">
         <v>62</v>
@@ -16050,13 +16010,13 @@
         <v>21</v>
       </c>
       <c r="W210" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X210" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y210" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.2">
@@ -16073,7 +16033,7 @@
         <v>6</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>86</v>
@@ -16094,7 +16054,7 @@
         <v>57</v>
       </c>
       <c r="N211" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O211" s="6" t="s">
         <v>62</v>
@@ -16121,13 +16081,13 @@
         <v>21</v>
       </c>
       <c r="W211" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X211" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y211" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.2">
@@ -16144,7 +16104,7 @@
         <v>16</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>86</v>
@@ -16165,7 +16125,7 @@
         <v>57</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O212" s="6" t="s">
         <v>62</v>
@@ -16192,13 +16152,13 @@
         <v>21</v>
       </c>
       <c r="W212" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X212" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y212" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.2">
@@ -16215,7 +16175,7 @@
         <v>36</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>86</v>
@@ -16236,7 +16196,7 @@
         <v>57</v>
       </c>
       <c r="N213" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O213" s="6" t="s">
         <v>62</v>
@@ -16263,13 +16223,13 @@
         <v>21</v>
       </c>
       <c r="W213" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X213" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y213" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.2">
@@ -16286,7 +16246,7 @@
         <v>6</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>86</v>
@@ -16307,7 +16267,7 @@
         <v>57</v>
       </c>
       <c r="N214" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O214" s="6" t="s">
         <v>62</v>
@@ -16334,13 +16294,13 @@
         <v>21</v>
       </c>
       <c r="W214" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X214" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y214" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.2">
@@ -16357,7 +16317,7 @@
         <v>16</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>86</v>
@@ -16378,7 +16338,7 @@
         <v>57</v>
       </c>
       <c r="N215" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O215" s="6" t="s">
         <v>62</v>
@@ -16405,13 +16365,13 @@
         <v>21</v>
       </c>
       <c r="W215" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X215" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y215" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.2">
@@ -16428,7 +16388,7 @@
         <v>36</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>86</v>
@@ -16449,7 +16409,7 @@
         <v>57</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O216" s="6" t="s">
         <v>62</v>
@@ -16476,13 +16436,13 @@
         <v>21</v>
       </c>
       <c r="W216" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="X216" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y216" s="6" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.2">
@@ -16501,13 +16461,13 @@
         <v>3248</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>53</v>
@@ -16522,7 +16482,7 @@
         <v>61</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O217" s="3" t="s">
         <v>62</v>
@@ -16549,13 +16509,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W217" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X217" s="3">
         <v>2</v>
       </c>
       <c r="Y217" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.2">
@@ -16574,13 +16534,13 @@
         <v>3248</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J218" s="3" t="s">
         <v>53</v>
@@ -16595,7 +16555,7 @@
         <v>61</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O218" s="3" t="s">
         <v>62</v>
@@ -16622,13 +16582,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W218" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X218" s="3">
         <v>2</v>
       </c>
       <c r="Y218" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.2">
@@ -16647,13 +16607,13 @@
         <v>3248</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>53</v>
@@ -16668,7 +16628,7 @@
         <v>61</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O219" s="3" t="s">
         <v>62</v>
@@ -16695,13 +16655,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W219" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X219" s="3">
         <v>2</v>
       </c>
       <c r="Y219" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
@@ -16720,13 +16680,13 @@
         <v>3248</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>53</v>
@@ -16741,7 +16701,7 @@
         <v>61</v>
       </c>
       <c r="N220" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O220" s="3" t="s">
         <v>62</v>
@@ -16768,13 +16728,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W220" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X220" s="3">
         <v>2</v>
       </c>
       <c r="Y220" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.2">
@@ -16793,13 +16753,13 @@
         <v>3248</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>53</v>
@@ -16814,7 +16774,7 @@
         <v>61</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O221" s="3" t="s">
         <v>62</v>
@@ -16841,13 +16801,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W221" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X221" s="3">
         <v>2</v>
       </c>
       <c r="Y221" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
@@ -16866,13 +16826,13 @@
         <v>3248</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>53</v>
@@ -16887,7 +16847,7 @@
         <v>61</v>
       </c>
       <c r="N222" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O222" s="3" t="s">
         <v>62</v>
@@ -16914,13 +16874,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W222" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X222" s="3">
         <v>2</v>
       </c>
       <c r="Y222" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
@@ -16939,13 +16899,13 @@
         <v>3248</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J223" s="3" t="s">
         <v>53</v>
@@ -16960,7 +16920,7 @@
         <v>61</v>
       </c>
       <c r="N223" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O223" s="3" t="s">
         <v>62</v>
@@ -16987,13 +16947,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W223" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X223" s="3">
         <v>2</v>
       </c>
       <c r="Y223" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
@@ -17012,13 +16972,13 @@
         <v>3248</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J224" s="3" t="s">
         <v>53</v>
@@ -17033,7 +16993,7 @@
         <v>61</v>
       </c>
       <c r="N224" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O224" s="3" t="s">
         <v>62</v>
@@ -17060,13 +17020,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W224" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X224" s="3">
         <v>2</v>
       </c>
       <c r="Y224" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
@@ -17085,13 +17045,13 @@
         <v>3248</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J225" s="3" t="s">
         <v>53</v>
@@ -17106,7 +17066,7 @@
         <v>61</v>
       </c>
       <c r="N225" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O225" s="3" t="s">
         <v>62</v>
@@ -17133,13 +17093,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W225" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X225" s="3">
         <v>2</v>
       </c>
       <c r="Y225" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.2">
@@ -17158,13 +17118,13 @@
         <v>3248</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J226" s="3" t="s">
         <v>53</v>
@@ -17179,7 +17139,7 @@
         <v>61</v>
       </c>
       <c r="N226" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O226" s="3" t="s">
         <v>62</v>
@@ -17206,13 +17166,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W226" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X226" s="3">
         <v>2</v>
       </c>
       <c r="Y226" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.2">
@@ -17231,13 +17191,13 @@
         <v>3248</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J227" s="3" t="s">
         <v>53</v>
@@ -17252,7 +17212,7 @@
         <v>61</v>
       </c>
       <c r="N227" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O227" s="3" t="s">
         <v>62</v>
@@ -17279,13 +17239,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W227" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X227" s="3">
         <v>2</v>
       </c>
       <c r="Y227" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
@@ -17304,13 +17264,13 @@
         <v>3248</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J228" s="3" t="s">
         <v>53</v>
@@ -17325,7 +17285,7 @@
         <v>61</v>
       </c>
       <c r="N228" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O228" s="3" t="s">
         <v>62</v>
@@ -17352,13 +17312,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W228" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X228" s="3">
         <v>2</v>
       </c>
       <c r="Y228" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.2">
@@ -17377,13 +17337,13 @@
         <v>3248</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J229" s="3" t="s">
         <v>53</v>
@@ -17398,7 +17358,7 @@
         <v>61</v>
       </c>
       <c r="N229" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O229" s="3" t="s">
         <v>62</v>
@@ -17425,13 +17385,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W229" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="X229" s="3">
         <v>2</v>
       </c>
       <c r="Y229" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A17164-4051-CF4A-BB04-A590ECE975F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DBB0D6-0B25-8B40-ABD9-9D12EC705371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="460" windowWidth="21160" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,13 +444,13 @@
     <t>Fish sizes are "about" the size specified; Weight at maturation based on median lengths from two fishbase sources; Optimum is temperature treatment yielding highest growth (not estimated)</t>
   </si>
   <si>
-    <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated)</t>
-  </si>
-  <si>
     <t>Zhang-etal-2016-JournalofAppliedIchtyology</t>
   </si>
   <si>
     <t>Geometric mean from size window; Weight at maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
+  </si>
+  <si>
+    <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated); Found through consumption search</t>
   </si>
 </sst>
 </file>
@@ -902,9 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA204" sqref="AA204"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W195" sqref="W195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14835,10 +14835,10 @@
         <v>21</v>
       </c>
       <c r="W202" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X202" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X202" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
@@ -14903,10 +14903,10 @@
         <v>21</v>
       </c>
       <c r="W203" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X203" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X203" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
@@ -14971,10 +14971,10 @@
         <v>21</v>
       </c>
       <c r="W204" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X204" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X204" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
@@ -15039,10 +15039,10 @@
         <v>21</v>
       </c>
       <c r="W205" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X205" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X205" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
@@ -15107,10 +15107,10 @@
         <v>21</v>
       </c>
       <c r="W206" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X206" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X206" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
@@ -15175,10 +15175,10 @@
         <v>21</v>
       </c>
       <c r="W207" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X207" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X207" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
@@ -15243,10 +15243,10 @@
         <v>21</v>
       </c>
       <c r="W208" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X208" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X208" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
@@ -15311,10 +15311,10 @@
         <v>21</v>
       </c>
       <c r="W209" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X209" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X209" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
@@ -15379,10 +15379,10 @@
         <v>21</v>
       </c>
       <c r="W210" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X210" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X210" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
@@ -15447,10 +15447,10 @@
         <v>21</v>
       </c>
       <c r="W211" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X211" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X211" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
@@ -15515,10 +15515,10 @@
         <v>21</v>
       </c>
       <c r="W212" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X212" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X212" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
@@ -15583,10 +15583,10 @@
         <v>21</v>
       </c>
       <c r="W213" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X213" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X213" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
@@ -15651,10 +15651,10 @@
         <v>21</v>
       </c>
       <c r="W214" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X214" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X214" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
@@ -15719,10 +15719,10 @@
         <v>21</v>
       </c>
       <c r="W215" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X215" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X215" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
@@ -15787,10 +15787,10 @@
         <v>21</v>
       </c>
       <c r="W216" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X216" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X216" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
@@ -15857,7 +15857,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W217" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X217" s="10" t="s">
         <v>92</v>
@@ -15927,7 +15927,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W218" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X218" s="10" t="s">
         <v>92</v>
@@ -15997,7 +15997,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W219" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X219" s="10" t="s">
         <v>92</v>
@@ -16067,7 +16067,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W220" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X220" s="10" t="s">
         <v>92</v>
@@ -16137,7 +16137,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W221" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X221" s="10" t="s">
         <v>92</v>
@@ -16207,7 +16207,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W222" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X222" s="10" t="s">
         <v>92</v>
@@ -16277,7 +16277,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W223" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X223" s="10" t="s">
         <v>92</v>
@@ -16347,7 +16347,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W224" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X224" s="10" t="s">
         <v>92</v>
@@ -16417,7 +16417,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W225" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X225" s="10" t="s">
         <v>92</v>
@@ -16487,7 +16487,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W226" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X226" s="10" t="s">
         <v>92</v>
@@ -16557,7 +16557,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W227" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X227" s="10" t="s">
         <v>92</v>
@@ -16627,7 +16627,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W228" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X228" s="10" t="s">
         <v>92</v>
@@ -16697,7 +16697,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W229" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X229" s="10" t="s">
         <v>92</v>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DBB0D6-0B25-8B40-ABD9-9D12EC705371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB3B3BC-730C-4F4F-9ECB-51920DC9C874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="21160" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="35640" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -363,66 +363,6 @@
     <t>Sizes are average initial and final; Environmental temperature from Joh et al. (2013). Interannual growth differences and growth-selective survival in larvae and juveniles of marbled sole Pseudopleuronectes yokohamae. Marine Ecology Progress Series, 494, 267–279. AND Mitamura, H., Arai, N., Hori, M., Uchida, K., Kajiyama, M. &amp; Ishii, M. (2020). Occurrence of a temperate coastal flatfish, the marbled flounder Pseudopleuronectes yokohamae, at high water temperatures in a shallow bay in summer detected by acoustic telemetry. Fish Sci, 86, 77–85.</t>
   </si>
   <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382155</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382156</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382157</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382158</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382159</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382160</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382161</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382162</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382163</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382164</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382165</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382166</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382167</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382168</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382169</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382170</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382171</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382172</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382173</t>
-  </si>
-  <si>
-    <t>Only size classes with optimum presented here; Geometric mean from size window; Standard growth unit, different equation; Maturation size from preprint: https://doi.org/10.1101/382174</t>
-  </si>
-  <si>
     <t>Sizes are average initial and final; Maturation length 35 cm (mid male and female); Also goes by bastard halibut, Japaneese halibut or Olive flounder</t>
   </si>
   <si>
@@ -438,9 +378,6 @@
     <t>Growth is for a large size-range; Geometric mean average initial and final size</t>
   </si>
   <si>
-    <t>Standard growth unit. different equation; Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size, calculated mean in separate doc.; w_maturation from Craig et al 1981 CJFA, age at maturatity 2,3, used geometric mean of length at age.</t>
-  </si>
-  <si>
     <t>Fish sizes are "about" the size specified; Weight at maturation based on median lengths from two fishbase sources; Optimum is temperature treatment yielding highest growth (not estimated)</t>
   </si>
   <si>
@@ -451,6 +388,69 @@
   </si>
   <si>
     <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated); Found through consumption search</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382155</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382156</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382157</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382158</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382159</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382160</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382161</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382162</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382163</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382164</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382165</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382166</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382167</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382168</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382169</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382170</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382171</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382172</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382173</t>
+  </si>
+  <si>
+    <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382174</t>
+  </si>
+  <si>
+    <t>Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size, calculated mean in separate doc.; w_maturation from Craig et al 1981 CJFA, age at maturatity 2,3, used geometric mean of length at age.</t>
   </si>
 </sst>
 </file>
@@ -902,9 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W195" sqref="W195"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA207" sqref="AA207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -938,7 +938,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>94</v>
@@ -2368,7 +2368,7 @@
         <v>6</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X20" s="10" t="s">
         <v>19</v>
@@ -2436,7 +2436,7 @@
         <v>6</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>19</v>
@@ -2504,7 +2504,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="X22" s="10" t="s">
         <v>19</v>
@@ -2572,7 +2572,7 @@
         <v>6</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>19</v>
@@ -2640,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>19</v>
@@ -2708,7 +2708,7 @@
         <v>6</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X25" s="10" t="s">
         <v>19</v>
@@ -2776,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X26" s="10" t="s">
         <v>19</v>
@@ -2844,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X27" s="10" t="s">
         <v>19</v>
@@ -2912,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X28" s="10" t="s">
         <v>19</v>
@@ -2980,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X29" s="10" t="s">
         <v>19</v>
@@ -3048,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X30" s="10" t="s">
         <v>19</v>
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X31" s="10" t="s">
         <v>19</v>
@@ -3184,7 +3184,7 @@
         <v>6</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X32" s="10" t="s">
         <v>19</v>
@@ -3252,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X33" s="10" t="s">
         <v>19</v>
@@ -3320,7 +3320,7 @@
         <v>6</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X34" s="10" t="s">
         <v>19</v>
@@ -3388,7 +3388,7 @@
         <v>6</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>19</v>
@@ -3456,7 +3456,7 @@
         <v>6</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X36" s="10" t="s">
         <v>19</v>
@@ -3524,7 +3524,7 @@
         <v>6</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="X37" s="10" t="s">
         <v>19</v>
@@ -3592,7 +3592,7 @@
         <v>6</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="X38" s="10" t="s">
         <v>19</v>
@@ -3660,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="X39" s="10" t="s">
         <v>19</v>
@@ -3732,7 +3732,7 @@
         <v>16.8</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X40" s="10" t="s">
         <v>24</v>
@@ -3804,7 +3804,7 @@
         <v>16.8</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X41" s="10" t="s">
         <v>24</v>
@@ -3876,7 +3876,7 @@
         <v>16.8</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X42" s="10" t="s">
         <v>24</v>
@@ -3948,7 +3948,7 @@
         <v>16.8</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X43" s="10" t="s">
         <v>24</v>
@@ -4020,7 +4020,7 @@
         <v>16.8</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X44" s="10" t="s">
         <v>24</v>
@@ -4092,7 +4092,7 @@
         <v>16.8</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X45" s="10" t="s">
         <v>24</v>
@@ -4164,7 +4164,7 @@
         <v>16.8</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X46" s="10" t="s">
         <v>24</v>
@@ -4236,7 +4236,7 @@
         <v>16.8</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X47" s="10" t="s">
         <v>24</v>
@@ -4308,7 +4308,7 @@
         <v>16.8</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X48" s="10" t="s">
         <v>24</v>
@@ -4380,7 +4380,7 @@
         <v>16.8</v>
       </c>
       <c r="W49" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X49" s="10" t="s">
         <v>24</v>
@@ -4452,7 +4452,7 @@
         <v>16.8</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X50" s="10" t="s">
         <v>24</v>
@@ -4524,7 +4524,7 @@
         <v>16.8</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X51" s="10" t="s">
         <v>24</v>
@@ -4596,7 +4596,7 @@
         <v>16.8</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X52" s="10" t="s">
         <v>24</v>
@@ -4668,7 +4668,7 @@
         <v>16.8</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X53" s="10" t="s">
         <v>24</v>
@@ -4740,7 +4740,7 @@
         <v>16.8</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X54" s="10" t="s">
         <v>24</v>
@@ -4812,7 +4812,7 @@
         <v>16.8</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X55" s="10" t="s">
         <v>24</v>
@@ -4884,7 +4884,7 @@
         <v>16.8</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X56" s="10" t="s">
         <v>24</v>
@@ -4956,7 +4956,7 @@
         <v>16.8</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X57" s="10" t="s">
         <v>24</v>
@@ -5028,7 +5028,7 @@
         <v>16.8</v>
       </c>
       <c r="W58" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X58" s="10" t="s">
         <v>24</v>
@@ -5100,7 +5100,7 @@
         <v>16.8</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="X59" s="10" t="s">
         <v>24</v>
@@ -6124,7 +6124,7 @@
         <v>27.05</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X74" s="15" t="s">
         <v>93</v>
@@ -6196,7 +6196,7 @@
         <v>27.05</v>
       </c>
       <c r="W75" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X75" s="15" t="s">
         <v>93</v>
@@ -6268,7 +6268,7 @@
         <v>27.05</v>
       </c>
       <c r="W76" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X76" s="15" t="s">
         <v>93</v>
@@ -6340,7 +6340,7 @@
         <v>27.05</v>
       </c>
       <c r="W77" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X77" s="15" t="s">
         <v>93</v>
@@ -6412,7 +6412,7 @@
         <v>27.05</v>
       </c>
       <c r="W78" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X78" s="15" t="s">
         <v>93</v>
@@ -6484,7 +6484,7 @@
         <v>27.05</v>
       </c>
       <c r="W79" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X79" s="15" t="s">
         <v>93</v>
@@ -6556,7 +6556,7 @@
         <v>27.05</v>
       </c>
       <c r="W80" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X80" s="15" t="s">
         <v>93</v>
@@ -6628,7 +6628,7 @@
         <v>27.05</v>
       </c>
       <c r="W81" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X81" s="15" t="s">
         <v>93</v>
@@ -6700,7 +6700,7 @@
         <v>27.05</v>
       </c>
       <c r="W82" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X82" s="15" t="s">
         <v>93</v>
@@ -6772,7 +6772,7 @@
         <v>27.05</v>
       </c>
       <c r="W83" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X83" s="15" t="s">
         <v>93</v>
@@ -6844,7 +6844,7 @@
         <v>27.05</v>
       </c>
       <c r="W84" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X84" s="15" t="s">
         <v>93</v>
@@ -6916,7 +6916,7 @@
         <v>27.05</v>
       </c>
       <c r="W85" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X85" s="15" t="s">
         <v>93</v>
@@ -6984,7 +6984,7 @@
         <v>5.4</v>
       </c>
       <c r="W86" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X86" s="10" t="s">
         <v>89</v>
@@ -7052,7 +7052,7 @@
         <v>5.4</v>
       </c>
       <c r="W87" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X87" s="10" t="s">
         <v>89</v>
@@ -7120,7 +7120,7 @@
         <v>5.4</v>
       </c>
       <c r="W88" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X88" s="10" t="s">
         <v>89</v>
@@ -7188,7 +7188,7 @@
         <v>5.4</v>
       </c>
       <c r="W89" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X89" s="10" t="s">
         <v>89</v>
@@ -7256,7 +7256,7 @@
         <v>5.4</v>
       </c>
       <c r="W90" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X90" s="10" t="s">
         <v>89</v>
@@ -7324,7 +7324,7 @@
         <v>5.4</v>
       </c>
       <c r="W91" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X91" s="10" t="s">
         <v>89</v>
@@ -7392,7 +7392,7 @@
         <v>5.4</v>
       </c>
       <c r="W92" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X92" s="10" t="s">
         <v>89</v>
@@ -7460,7 +7460,7 @@
         <v>5.4</v>
       </c>
       <c r="W93" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X93" s="10" t="s">
         <v>89</v>
@@ -7528,7 +7528,7 @@
         <v>5.4</v>
       </c>
       <c r="W94" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X94" s="10" t="s">
         <v>89</v>
@@ -7596,7 +7596,7 @@
         <v>5.4</v>
       </c>
       <c r="W95" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X95" s="10" t="s">
         <v>89</v>
@@ -7664,7 +7664,7 @@
         <v>5.4</v>
       </c>
       <c r="W96" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X96" s="10" t="s">
         <v>89</v>
@@ -7732,7 +7732,7 @@
         <v>5.4</v>
       </c>
       <c r="W97" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X97" s="10" t="s">
         <v>89</v>
@@ -7800,7 +7800,7 @@
         <v>5.4</v>
       </c>
       <c r="W98" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X98" s="10" t="s">
         <v>89</v>
@@ -7868,7 +7868,7 @@
         <v>5.4</v>
       </c>
       <c r="W99" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X99" s="10" t="s">
         <v>89</v>
@@ -7936,7 +7936,7 @@
         <v>5.4</v>
       </c>
       <c r="W100" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X100" s="10" t="s">
         <v>89</v>
@@ -8004,7 +8004,7 @@
         <v>5.4</v>
       </c>
       <c r="W101" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X101" s="10" t="s">
         <v>89</v>
@@ -8072,7 +8072,7 @@
         <v>5.4</v>
       </c>
       <c r="W102" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X102" s="10" t="s">
         <v>89</v>
@@ -8140,7 +8140,7 @@
         <v>5.4</v>
       </c>
       <c r="W103" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X103" s="10" t="s">
         <v>89</v>
@@ -8208,7 +8208,7 @@
         <v>5.4</v>
       </c>
       <c r="W104" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X104" s="10" t="s">
         <v>89</v>
@@ -8276,7 +8276,7 @@
         <v>5.4</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X105" s="10" t="s">
         <v>89</v>
@@ -8344,7 +8344,7 @@
         <v>5.4</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X106" s="10" t="s">
         <v>89</v>
@@ -8412,7 +8412,7 @@
         <v>5.4</v>
       </c>
       <c r="W107" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X107" s="10" t="s">
         <v>89</v>
@@ -8480,7 +8480,7 @@
         <v>5.4</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X108" s="10" t="s">
         <v>89</v>
@@ -8548,7 +8548,7 @@
         <v>5.4</v>
       </c>
       <c r="W109" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X109" s="10" t="s">
         <v>89</v>
@@ -8616,7 +8616,7 @@
         <v>5.4</v>
       </c>
       <c r="W110" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X110" s="10" t="s">
         <v>89</v>
@@ -8684,7 +8684,7 @@
         <v>5.4</v>
       </c>
       <c r="W111" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X111" s="10" t="s">
         <v>89</v>
@@ -8752,7 +8752,7 @@
         <v>5.4</v>
       </c>
       <c r="W112" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X112" s="10" t="s">
         <v>89</v>
@@ -8820,7 +8820,7 @@
         <v>5.4</v>
       </c>
       <c r="W113" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X113" s="10" t="s">
         <v>89</v>
@@ -8888,7 +8888,7 @@
         <v>5.4</v>
       </c>
       <c r="W114" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X114" s="10" t="s">
         <v>89</v>
@@ -8956,7 +8956,7 @@
         <v>5.4</v>
       </c>
       <c r="W115" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X115" s="10" t="s">
         <v>89</v>
@@ -9024,7 +9024,7 @@
         <v>5.4</v>
       </c>
       <c r="W116" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X116" s="10" t="s">
         <v>89</v>
@@ -9092,7 +9092,7 @@
         <v>5.4</v>
       </c>
       <c r="W117" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X117" s="10" t="s">
         <v>89</v>
@@ -9160,7 +9160,7 @@
         <v>5.4</v>
       </c>
       <c r="W118" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X118" s="10" t="s">
         <v>89</v>
@@ -9228,7 +9228,7 @@
         <v>5.4</v>
       </c>
       <c r="W119" s="15" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="X119" s="10" t="s">
         <v>89</v>
@@ -9300,7 +9300,7 @@
         <v>4.2</v>
       </c>
       <c r="W120" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X120" s="10" t="s">
         <v>34</v>
@@ -9372,7 +9372,7 @@
         <v>4.2</v>
       </c>
       <c r="W121" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X121" s="10" t="s">
         <v>34</v>
@@ -9444,7 +9444,7 @@
         <v>4.2</v>
       </c>
       <c r="W122" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X122" s="10" t="s">
         <v>34</v>
@@ -9516,7 +9516,7 @@
         <v>4.2</v>
       </c>
       <c r="W123" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X123" s="10" t="s">
         <v>34</v>
@@ -9588,7 +9588,7 @@
         <v>4.2</v>
       </c>
       <c r="W124" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X124" s="10" t="s">
         <v>34</v>
@@ -9660,7 +9660,7 @@
         <v>4.2</v>
       </c>
       <c r="W125" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X125" s="10" t="s">
         <v>34</v>
@@ -9732,7 +9732,7 @@
         <v>4.2</v>
       </c>
       <c r="W126" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X126" s="10" t="s">
         <v>34</v>
@@ -9804,7 +9804,7 @@
         <v>4.2</v>
       </c>
       <c r="W127" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X127" s="10" t="s">
         <v>34</v>
@@ -9876,7 +9876,7 @@
         <v>4.2</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X128" s="10" t="s">
         <v>34</v>
@@ -9948,7 +9948,7 @@
         <v>4.2</v>
       </c>
       <c r="W129" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X129" s="10" t="s">
         <v>34</v>
@@ -10020,7 +10020,7 @@
         <v>4.2</v>
       </c>
       <c r="W130" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X130" s="10" t="s">
         <v>34</v>
@@ -10092,7 +10092,7 @@
         <v>4.2</v>
       </c>
       <c r="W131" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X131" s="10" t="s">
         <v>34</v>
@@ -10164,7 +10164,7 @@
         <v>4.2</v>
       </c>
       <c r="W132" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X132" s="10" t="s">
         <v>34</v>
@@ -10236,7 +10236,7 @@
         <v>4.2</v>
       </c>
       <c r="W133" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X133" s="10" t="s">
         <v>34</v>
@@ -10308,7 +10308,7 @@
         <v>4.2</v>
       </c>
       <c r="W134" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X134" s="10" t="s">
         <v>34</v>
@@ -10380,7 +10380,7 @@
         <v>4.2</v>
       </c>
       <c r="W135" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X135" s="10" t="s">
         <v>34</v>
@@ -10452,7 +10452,7 @@
         <v>4.2</v>
       </c>
       <c r="W136" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="X136" s="10" t="s">
         <v>34</v>
@@ -12795,7 +12795,7 @@
         <v>1.4</v>
       </c>
       <c r="W172" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X172" s="10" t="s">
         <v>43</v>
@@ -12863,7 +12863,7 @@
         <v>1.4</v>
       </c>
       <c r="W173" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X173" s="10" t="s">
         <v>43</v>
@@ -12931,7 +12931,7 @@
         <v>1.4</v>
       </c>
       <c r="W174" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X174" s="10" t="s">
         <v>43</v>
@@ -12999,7 +12999,7 @@
         <v>1.4</v>
       </c>
       <c r="W175" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X175" s="10" t="s">
         <v>43</v>
@@ -13067,7 +13067,7 @@
         <v>1.4</v>
       </c>
       <c r="W176" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X176" s="10" t="s">
         <v>43</v>
@@ -13135,7 +13135,7 @@
         <v>1.4</v>
       </c>
       <c r="W177" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X177" s="10" t="s">
         <v>43</v>
@@ -13203,7 +13203,7 @@
         <v>1.4</v>
       </c>
       <c r="W178" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X178" s="10" t="s">
         <v>43</v>
@@ -13271,7 +13271,7 @@
         <v>1.4</v>
       </c>
       <c r="W179" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X179" s="10" t="s">
         <v>43</v>
@@ -13339,7 +13339,7 @@
         <v>1.4</v>
       </c>
       <c r="W180" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X180" s="10" t="s">
         <v>43</v>
@@ -13407,7 +13407,7 @@
         <v>1.4</v>
       </c>
       <c r="W181" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X181" s="10" t="s">
         <v>43</v>
@@ -13475,7 +13475,7 @@
         <v>13.95</v>
       </c>
       <c r="W182" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X182" s="10" t="s">
         <v>46</v>
@@ -13543,7 +13543,7 @@
         <v>13.95</v>
       </c>
       <c r="W183" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X183" s="10" t="s">
         <v>46</v>
@@ -13611,7 +13611,7 @@
         <v>13.95</v>
       </c>
       <c r="W184" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X184" s="10" t="s">
         <v>46</v>
@@ -13679,7 +13679,7 @@
         <v>13.95</v>
       </c>
       <c r="W185" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X185" s="10" t="s">
         <v>46</v>
@@ -13747,7 +13747,7 @@
         <v>13.95</v>
       </c>
       <c r="W186" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X186" s="10" t="s">
         <v>46</v>
@@ -13815,7 +13815,7 @@
         <v>13.95</v>
       </c>
       <c r="W187" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X187" s="10" t="s">
         <v>46</v>
@@ -13883,7 +13883,7 @@
         <v>13.95</v>
       </c>
       <c r="W188" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X188" s="10" t="s">
         <v>46</v>
@@ -13951,7 +13951,7 @@
         <v>13.95</v>
       </c>
       <c r="W189" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X189" s="10" t="s">
         <v>46</v>
@@ -14019,7 +14019,7 @@
         <v>13.95</v>
       </c>
       <c r="W190" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X190" s="10" t="s">
         <v>46</v>
@@ -14087,7 +14087,7 @@
         <v>13.95</v>
       </c>
       <c r="W191" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X191" s="10" t="s">
         <v>46</v>
@@ -14155,7 +14155,7 @@
         <v>13.95</v>
       </c>
       <c r="W192" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X192" s="10" t="s">
         <v>46</v>
@@ -14223,7 +14223,7 @@
         <v>13.95</v>
       </c>
       <c r="W193" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X193" s="10" t="s">
         <v>46</v>
@@ -14291,7 +14291,7 @@
         <v>13.95</v>
       </c>
       <c r="W194" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X194" s="10" t="s">
         <v>46</v>
@@ -14359,7 +14359,7 @@
         <v>13.95</v>
       </c>
       <c r="W195" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X195" s="10" t="s">
         <v>46</v>
@@ -14427,7 +14427,7 @@
         <v>13.95</v>
       </c>
       <c r="W196" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X196" s="10" t="s">
         <v>46</v>
@@ -14495,7 +14495,7 @@
         <v>13.95</v>
       </c>
       <c r="W197" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X197" s="10" t="s">
         <v>46</v>
@@ -14563,7 +14563,7 @@
         <v>13.95</v>
       </c>
       <c r="W198" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X198" s="10" t="s">
         <v>46</v>
@@ -14631,7 +14631,7 @@
         <v>13.95</v>
       </c>
       <c r="W199" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X199" s="10" t="s">
         <v>46</v>
@@ -14699,7 +14699,7 @@
         <v>13.95</v>
       </c>
       <c r="W200" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X200" s="10" t="s">
         <v>46</v>
@@ -14767,7 +14767,7 @@
         <v>13.95</v>
       </c>
       <c r="W201" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="X201" s="10" t="s">
         <v>46</v>
@@ -14835,10 +14835,10 @@
         <v>21</v>
       </c>
       <c r="W202" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
@@ -14903,10 +14903,10 @@
         <v>21</v>
       </c>
       <c r="W203" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X203" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
@@ -14971,10 +14971,10 @@
         <v>21</v>
       </c>
       <c r="W204" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X204" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
@@ -15039,10 +15039,10 @@
         <v>21</v>
       </c>
       <c r="W205" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
@@ -15107,10 +15107,10 @@
         <v>21</v>
       </c>
       <c r="W206" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X206" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
@@ -15175,10 +15175,10 @@
         <v>21</v>
       </c>
       <c r="W207" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X207" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
@@ -15243,10 +15243,10 @@
         <v>21</v>
       </c>
       <c r="W208" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X208" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
@@ -15311,10 +15311,10 @@
         <v>21</v>
       </c>
       <c r="W209" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
@@ -15379,10 +15379,10 @@
         <v>21</v>
       </c>
       <c r="W210" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
@@ -15447,10 +15447,10 @@
         <v>21</v>
       </c>
       <c r="W211" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
@@ -15515,10 +15515,10 @@
         <v>21</v>
       </c>
       <c r="W212" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
@@ -15583,10 +15583,10 @@
         <v>21</v>
       </c>
       <c r="W213" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
@@ -15651,10 +15651,10 @@
         <v>21</v>
       </c>
       <c r="W214" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X214" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
@@ -15719,10 +15719,10 @@
         <v>21</v>
       </c>
       <c r="W215" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
@@ -15787,10 +15787,10 @@
         <v>21</v>
       </c>
       <c r="W216" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X216" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
@@ -15857,7 +15857,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W217" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X217" s="10" t="s">
         <v>92</v>
@@ -15927,7 +15927,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W218" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X218" s="10" t="s">
         <v>92</v>
@@ -15997,7 +15997,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W219" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X219" s="10" t="s">
         <v>92</v>
@@ -16067,7 +16067,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W220" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X220" s="10" t="s">
         <v>92</v>
@@ -16137,7 +16137,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W221" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X221" s="10" t="s">
         <v>92</v>
@@ -16207,7 +16207,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W222" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X222" s="10" t="s">
         <v>92</v>
@@ -16277,7 +16277,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W223" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X223" s="10" t="s">
         <v>92</v>
@@ -16347,7 +16347,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W224" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X224" s="10" t="s">
         <v>92</v>
@@ -16417,7 +16417,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W225" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X225" s="10" t="s">
         <v>92</v>
@@ -16487,7 +16487,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W226" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X226" s="10" t="s">
         <v>92</v>
@@ -16557,7 +16557,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W227" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X227" s="10" t="s">
         <v>92</v>
@@ -16627,7 +16627,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W228" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X228" s="10" t="s">
         <v>92</v>
@@ -16697,7 +16697,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W229" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="X229" s="10" t="s">
         <v>92</v>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB3B3BC-730C-4F4F-9ECB-51920DC9C874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B59E5-F8C6-E14E-83D1-E2550A28B66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="460" windowWidth="35640" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,9 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA207" sqref="AA207"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
-      <c r="E137" s="12">
+      <c r="F137" s="12">
         <v>1.7</v>
       </c>
       <c r="G137" s="10" t="s">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
-      <c r="E138" s="12">
+      <c r="F138" s="12">
         <v>1.7</v>
       </c>
       <c r="G138" s="10" t="s">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
-      <c r="E139" s="12">
+      <c r="F139" s="12">
         <v>1.7</v>
       </c>
       <c r="G139" s="10" t="s">
@@ -10662,7 +10662,7 @@
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
-      <c r="E140" s="12">
+      <c r="F140" s="12">
         <v>1.7</v>
       </c>
       <c r="G140" s="10" t="s">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
-      <c r="E141" s="12">
+      <c r="F141" s="12">
         <v>1.7</v>
       </c>
       <c r="G141" s="10" t="s">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
-      <c r="E142" s="12">
+      <c r="F142" s="12">
         <v>1.7</v>
       </c>
       <c r="G142" s="10" t="s">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
-      <c r="E143" s="12">
+      <c r="F143" s="12">
         <v>1.9</v>
       </c>
       <c r="G143" s="10" t="s">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
-      <c r="E144" s="12">
+      <c r="F144" s="12">
         <v>1.9</v>
       </c>
       <c r="G144" s="10" t="s">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
-      <c r="E145" s="12">
+      <c r="F145" s="12">
         <v>1.9</v>
       </c>
       <c r="G145" s="10" t="s">
@@ -11052,7 +11052,7 @@
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
-      <c r="E146" s="12">
+      <c r="F146" s="12">
         <v>1.9</v>
       </c>
       <c r="G146" s="10" t="s">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
-      <c r="E147" s="12">
+      <c r="F147" s="12">
         <v>1.9</v>
       </c>
       <c r="G147" s="10" t="s">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
-      <c r="E148" s="12">
+      <c r="F148" s="12">
         <v>1.9</v>
       </c>
       <c r="G148" s="10" t="s">
@@ -11247,7 +11247,7 @@
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
-      <c r="E149" s="12">
+      <c r="F149" s="12">
         <v>4.4000000000000004</v>
       </c>
       <c r="G149" s="10" t="s">
@@ -11312,7 +11312,7 @@
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
-      <c r="E150" s="12">
+      <c r="F150" s="12">
         <v>4.4000000000000004</v>
       </c>
       <c r="G150" s="10" t="s">
@@ -11377,7 +11377,7 @@
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
-      <c r="E151" s="12">
+      <c r="F151" s="12">
         <v>4.4000000000000004</v>
       </c>
       <c r="G151" s="10" t="s">
@@ -11442,7 +11442,7 @@
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
-      <c r="E152" s="12">
+      <c r="F152" s="12">
         <v>4.4000000000000004</v>
       </c>
       <c r="G152" s="10" t="s">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
-      <c r="E153" s="12">
+      <c r="F153" s="12">
         <v>4.4000000000000004</v>
       </c>
       <c r="G153" s="10" t="s">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
-      <c r="E154" s="12">
+      <c r="F154" s="12">
         <v>13.7</v>
       </c>
       <c r="G154" s="10" t="s">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
-      <c r="E155" s="12">
+      <c r="F155" s="12">
         <v>13.7</v>
       </c>
       <c r="G155" s="10" t="s">
@@ -11702,7 +11702,7 @@
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
-      <c r="E156" s="12">
+      <c r="F156" s="12">
         <v>13.7</v>
       </c>
       <c r="G156" s="10" t="s">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
-      <c r="E157" s="12">
+      <c r="F157" s="12">
         <v>13.7</v>
       </c>
       <c r="G157" s="10" t="s">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
-      <c r="E158" s="12">
+      <c r="F158" s="12">
         <v>13.7</v>
       </c>
       <c r="G158" s="10" t="s">
@@ -11897,7 +11897,7 @@
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
-      <c r="E159" s="12">
+      <c r="F159" s="12">
         <v>13.7</v>
       </c>
       <c r="G159" s="10" t="s">
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
-      <c r="E160" s="12">
+      <c r="F160" s="12">
         <v>54</v>
       </c>
       <c r="G160" s="10" t="s">
@@ -12027,7 +12027,7 @@
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
-      <c r="E161" s="12">
+      <c r="F161" s="12">
         <v>54</v>
       </c>
       <c r="G161" s="10" t="s">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
-      <c r="E162" s="12">
+      <c r="F162" s="12">
         <v>54</v>
       </c>
       <c r="G162" s="10" t="s">
@@ -12157,7 +12157,7 @@
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
-      <c r="E163" s="12">
+      <c r="F163" s="12">
         <v>54</v>
       </c>
       <c r="G163" s="10" t="s">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
-      <c r="E164" s="12">
+      <c r="F164" s="12">
         <v>54</v>
       </c>
       <c r="G164" s="10" t="s">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
-      <c r="E165" s="12">
+      <c r="F165" s="12">
         <v>54</v>
       </c>
       <c r="G165" s="10" t="s">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
-      <c r="E166" s="12">
+      <c r="F166" s="12">
         <v>499</v>
       </c>
       <c r="G166" s="10" t="s">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
-      <c r="E167" s="12">
+      <c r="F167" s="12">
         <v>499</v>
       </c>
       <c r="G167" s="10" t="s">
@@ -12482,7 +12482,7 @@
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
-      <c r="E168" s="12">
+      <c r="F168" s="12">
         <v>499</v>
       </c>
       <c r="G168" s="10" t="s">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
-      <c r="E169" s="12">
+      <c r="F169" s="12">
         <v>499</v>
       </c>
       <c r="G169" s="10" t="s">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
-      <c r="E170" s="12">
+      <c r="F170" s="12">
         <v>499</v>
       </c>
       <c r="G170" s="10" t="s">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
-      <c r="E171" s="12">
+      <c r="F171" s="12">
         <v>499</v>
       </c>
       <c r="G171" s="10" t="s">

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B59E5-F8C6-E14E-83D1-E2550A28B66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA825FE-F352-3B40-A66C-80AE9ED84EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="460" windowWidth="35640" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,9 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA825FE-F352-3B40-A66C-80AE9ED84EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E0F69-9FDF-BC49-9148-6CA9D3586E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="35640" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="20420" windowHeight="22260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$X$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$X$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="142">
   <si>
     <t>common_name</t>
   </si>
@@ -324,12 +324,6 @@
     <t>Potentially average over a too large size-range; Geometric mean from size window; Unusual formula for SGR; Wild strain; Maturity size based on 16C treatment and 42% maturing (males)</t>
   </si>
   <si>
-    <t>Seawater treatment; Geometric mean from size window; Maturation size from Davis 1982 Aust. J. Mar. Freshwater Res</t>
-  </si>
-  <si>
-    <t>above_optimum</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>Tomiyama-etal-2018-J.Sea.Res</t>
   </si>
   <si>
-    <t>Sizes are average initial and final; Environmental temperature from Joh et al. (2013). Interannual growth differences and growth-selective survival in larvae and juveniles of marbled sole Pseudopleuronectes yokohamae. Marine Ecology Progress Series, 494, 267–279. AND Mitamura, H., Arai, N., Hori, M., Uchida, K., Kajiyama, M. &amp; Ishii, M. (2020). Occurrence of a temperate coastal flatfish, the marbled flounder Pseudopleuronectes yokohamae, at high water temperatures in a shallow bay in summer detected by acoustic telemetry. Fish Sci, 86, 77–85.</t>
-  </si>
-  <si>
     <t>Sizes are average initial and final; Maturation length 35 cm (mid male and female); Also goes by bastard halibut, Japaneese halibut or Olive flounder</t>
   </si>
   <si>
@@ -375,16 +366,10 @@
     <t>Experiments not conducted at the same time (partly published previously); Maturation size 77.5 cm (Males 75, Females 80) (Icelandic cod at year 2000 Pardoe et al 2009 CJFAS); Temperature not from FishBase as it was not concistent with reference. Instead I used mean minimum and maximum from Righton et al (2010). Thermal niche of Atlantic cod Gadus morhua: limits, tolerance and optima. Marine Ecology Progress Series, 420, 1-13.</t>
   </si>
   <si>
-    <t>Growth is for a large size-range; Geometric mean average initial and final size</t>
-  </si>
-  <si>
     <t>Fish sizes are "about" the size specified; Weight at maturation based on median lengths from two fishbase sources; Optimum is temperature treatment yielding highest growth (not estimated)</t>
   </si>
   <si>
     <t>Zhang-etal-2016-JournalofAppliedIchtyology</t>
-  </si>
-  <si>
-    <t>Geometric mean from size window; Weight at maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
   </si>
   <si>
     <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated); Found through consumption search</t>
@@ -452,15 +437,34 @@
   <si>
     <t>Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size, calculated mean in separate doc.; w_maturation from Craig et al 1981 CJFA, age at maturatity 2,3, used geometric mean of length at age.</t>
   </si>
+  <si>
+    <t>Data from authors; Environmental temperature from Joh et al. (2013). Interannual growth differences and growth-selective survival in larvae and juveniles of marbled sole Pseudopleuronectes yokohamae. Marine Ecology Progress Series, 494, 267–279. AND Mitamura, H., Arai, N., Hori, M., Uchida, K., Kajiyama, M. &amp; Ishii, M. (2020). Occurrence of a temperate coastal flatfish, the marbled flounder Pseudopleuronectes yokohamae, at high water temperatures in a shallow bay in summer detected by acoustic telemetry. Fish Sci, 86, 77–85.</t>
+  </si>
+  <si>
+    <t>Data in Appendix; Took from figure because already grouped by size there</t>
+  </si>
+  <si>
+    <t>Data from author (two measurements at warmest temp, took average); Geometric mean from size window; Weight at maturation from midpoint in length in Foss et al 2004 Reviews in Fish Biology and Fisheries</t>
+  </si>
+  <si>
+    <t>Data from author; Seawater treatment; Geometric mean from size window; Maturation size from Davis 1982 Aust. J. Mar. Freshwater Res</t>
+  </si>
+  <si>
+    <t>above_peak_temp</t>
+  </si>
+  <si>
+    <t>Growth is for a large size-range; Geometric mean average initial and final size; Data from author bud took from figure since not all data could be retrieved</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +492,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -509,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -561,6 +578,18 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,11 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X229"/>
+  <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W122" sqref="W122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -938,7 +967,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>94</v>
@@ -956,7 +985,7 @@
         <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1011,24 +1040,20 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>4.2743127401714398</v>
-      </c>
-      <c r="B2" s="12">
-        <v>8.0261437908496696</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.15166669999999999</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.17197390000000001</v>
+      <c r="A2" s="19">
+        <v>4.3833193333333336</v>
+      </c>
+      <c r="B2" s="18">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="19">
+        <v>0.17173879727294428</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -1049,7 +1074,7 @@
         <v>61</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>62</v>
@@ -1076,31 +1101,27 @@
         <v>13.5</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>1.8622524386638999</v>
-      </c>
-      <c r="B3" s="12">
-        <v>10.0261437908496</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.15166669999999999</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.17197390000000001</v>
+      <c r="A3" s="19">
+        <v>2.0097961666666664</v>
+      </c>
+      <c r="B3" s="18">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="19">
+        <v>0.17</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>17</v>
@@ -1121,7 +1142,7 @@
         <v>61</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>62</v>
@@ -1148,31 +1169,27 @@
         <v>13.5</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>5.4847768253029896</v>
-      </c>
-      <c r="B4" s="12">
-        <v>11.9084967320261</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.15166669999999999</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.17197390000000001</v>
+      <c r="A4" s="19">
+        <v>5.6499713333333332</v>
+      </c>
+      <c r="B4" s="18">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19">
+        <v>0.17173879727294428</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
@@ -1193,7 +1210,7 @@
         <v>61</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>62</v>
@@ -1220,31 +1237,27 @@
         <v>13.5</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>5.7094295004433997</v>
-      </c>
-      <c r="B5" s="12">
-        <v>13.9477124183006</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.15166669999999999</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.17197390000000001</v>
+      <c r="A5" s="19">
+        <v>6.0531258333333327</v>
+      </c>
+      <c r="B5" s="18">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="19">
+        <v>0.17173879727294428</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
@@ -1265,7 +1278,7 @@
         <v>61</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>62</v>
@@ -1292,31 +1305,27 @@
         <v>13.5</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>3.3727460833579701</v>
-      </c>
-      <c r="B6" s="12">
-        <v>15.9477124183006</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.15166669999999999</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.17197390000000001</v>
+      <c r="A6" s="19">
+        <v>3.7590558333333335</v>
+      </c>
+      <c r="B6" s="18">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="19">
+        <v>0.17173879727294428</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>17</v>
@@ -1337,7 +1346,7 @@
         <v>61</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>62</v>
@@ -1364,31 +1373,27 @@
         <v>13.5</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>-2.70469997044041</v>
-      </c>
-      <c r="B7" s="12">
-        <v>19.869281045751599</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.15166669999999999</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.17197390000000001</v>
+      <c r="A7" s="19">
+        <v>-2.1277233333333334</v>
+      </c>
+      <c r="B7" s="18">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="19">
+        <v>0.17173879727294428</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>17</v>
@@ -1409,7 +1414,7 @@
         <v>61</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>62</v>
@@ -1436,31 +1441,27 @@
         <v>13.5</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>4.20359281437125</v>
-      </c>
-      <c r="B8" s="12">
-        <v>12.0557043807122</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.6433333</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1.115</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.84694550000000002</v>
+      <c r="A8" s="19">
+        <v>4.3232118333333327</v>
+      </c>
+      <c r="B8" s="18">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="19">
+        <v>0.84</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>17</v>
@@ -1481,7 +1482,7 @@
         <v>61</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O8" s="10" t="s">
         <v>62</v>
@@ -1508,31 +1509,27 @@
         <v>13.5</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>6.9520958083832296</v>
-      </c>
-      <c r="B9" s="12">
-        <v>13.9888118499842</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.6433333</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1.115</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.84694550000000002</v>
+      <c r="A9" s="19">
+        <v>7.0545455000000006</v>
+      </c>
+      <c r="B9" s="18">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="20">
+        <v>0.84118443780377783</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>17</v>
@@ -1553,7 +1550,7 @@
         <v>61</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>62</v>
@@ -1580,31 +1577,27 @@
         <v>13.5</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>7.9041916167664601</v>
-      </c>
-      <c r="B10" s="12">
-        <v>16.045619287740301</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.6433333</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1.115</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.84694550000000002</v>
+      <c r="A10" s="19">
+        <v>7.988397</v>
+      </c>
+      <c r="B10" s="18">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="20">
+        <v>0.84118443780377783</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
@@ -1625,7 +1618,7 @@
         <v>61</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>62</v>
@@ -1652,31 +1645,27 @@
         <v>13.5</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>7.5808383233532899</v>
-      </c>
-      <c r="B11" s="12">
-        <v>18.057358966277899</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.6433333</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1.115</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.84694550000000002</v>
+      <c r="A11" s="19">
+        <v>7.6841650000000001</v>
+      </c>
+      <c r="B11" s="18">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="20">
+        <v>0.84118443780377783</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>17</v>
@@ -1697,7 +1686,7 @@
         <v>61</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>62</v>
@@ -1724,31 +1713,27 @@
         <v>13.5</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>9.48502994011975</v>
-      </c>
-      <c r="B12" s="12">
-        <v>19.999921210211099</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0.6433333</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1.115</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.84694550000000002</v>
+      <c r="A12" s="19">
+        <v>9.6023323333333312</v>
+      </c>
+      <c r="B12" s="18">
+        <v>20</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="20">
+        <v>0.84118443780377783</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
@@ -1769,7 +1754,7 @@
         <v>61</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O12" s="10" t="s">
         <v>62</v>
@@ -1796,31 +1781,27 @@
         <v>13.5</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>8.6766467065868191</v>
-      </c>
-      <c r="B13" s="12">
-        <v>22.009533564449999</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.6433333</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1.115</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.84694550000000002</v>
+      <c r="A13" s="19">
+        <v>8.8253963333333338</v>
+      </c>
+      <c r="B13" s="18">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="20">
+        <v>0.84118443780377783</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
@@ -1841,7 +1822,7 @@
         <v>61</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>62</v>
@@ -1868,31 +1849,27 @@
         <v>13.5</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>4.0130718954248303</v>
-      </c>
-      <c r="B14" s="12">
-        <v>12.112295477475101</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1.961667</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2.9583330000000001</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2.4089969999999998</v>
+      <c r="A14" s="19">
+        <v>3.9172881666666668</v>
+      </c>
+      <c r="B14" s="18">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="20">
+        <v>2.4050903230046652</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>17</v>
@@ -1913,7 +1890,7 @@
         <v>61</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>62</v>
@@ -1940,31 +1917,27 @@
         <v>13.5</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>5.5686274509803901</v>
-      </c>
-      <c r="B15" s="12">
-        <v>14.2002895117778</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1.961667</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2.9583330000000001</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2.4089969999999998</v>
+      <c r="A15" s="19">
+        <v>5.5116506666666671</v>
+      </c>
+      <c r="B15" s="18">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="20">
+        <v>2.4050903230046652</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>17</v>
@@ -1985,7 +1958,7 @@
         <v>61</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>62</v>
@@ -2012,31 +1985,27 @@
         <v>13.5</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>6.2091503267973804</v>
-      </c>
-      <c r="B16" s="12">
-        <v>16.1820414966881</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1.961667</v>
-      </c>
-      <c r="D16" s="11">
-        <v>2.9583330000000001</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2.4089969999999998</v>
+      <c r="A16" s="19">
+        <v>6.1194905000000004</v>
+      </c>
+      <c r="B16" s="18">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="19">
+        <v>2.41</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>17</v>
@@ -2057,7 +2026,7 @@
         <v>61</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>62</v>
@@ -2084,31 +2053,27 @@
         <v>13.5</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>6.6405228758169903</v>
-      </c>
-      <c r="B17" s="12">
-        <v>18.2683686449971</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1.961667</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2.9583330000000001</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2.4089969999999998</v>
+      <c r="A17" s="19">
+        <v>6.5430453333333327</v>
+      </c>
+      <c r="B17" s="18">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="20">
+        <v>2.4050903230046652</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>17</v>
@@ -2129,7 +2094,7 @@
         <v>61</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>62</v>
@@ -2156,31 +2121,27 @@
         <v>13.5</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>7.4117647058823497</v>
-      </c>
-      <c r="B18" s="12">
-        <v>20.305566521910698</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1.961667</v>
-      </c>
-      <c r="D18" s="11">
-        <v>2.9583330000000001</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2.4089969999999998</v>
+      <c r="A18" s="19">
+        <v>7.3456960000000002</v>
+      </c>
+      <c r="B18" s="18">
+        <v>20</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="20">
+        <v>2.4050903230046652</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>17</v>
@@ -2201,7 +2162,7 @@
         <v>61</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>62</v>
@@ -2228,31 +2189,27 @@
         <v>13.5</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12">
-        <v>22.2597710225029</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1.961667</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2.9583330000000001</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2.4089969999999998</v>
+      <c r="A19" s="19">
+        <v>5.9478285</v>
+      </c>
+      <c r="B19" s="18">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="20">
+        <v>2.4050903230046652</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>17</v>
@@ -2273,7 +2230,7 @@
         <v>61</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>62</v>
@@ -2300,10 +2257,10 @@
         <v>13.5</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2320,7 +2277,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>18</v>
@@ -2341,7 +2298,7 @@
         <v>61</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>66</v>
@@ -2368,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X20" s="10" t="s">
         <v>19</v>
@@ -2388,7 +2345,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>18</v>
@@ -2409,7 +2366,7 @@
         <v>61</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>66</v>
@@ -2436,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>19</v>
@@ -2456,7 +2413,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>18</v>
@@ -2477,7 +2434,7 @@
         <v>61</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>66</v>
@@ -2504,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="X22" s="10" t="s">
         <v>19</v>
@@ -2524,7 +2481,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>18</v>
@@ -2545,7 +2502,7 @@
         <v>61</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O23" s="10" t="s">
         <v>66</v>
@@ -2572,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>19</v>
@@ -2592,7 +2549,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>18</v>
@@ -2613,7 +2570,7 @@
         <v>61</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>66</v>
@@ -2640,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>19</v>
@@ -2660,7 +2617,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>18</v>
@@ -2681,7 +2638,7 @@
         <v>61</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>66</v>
@@ -2708,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="X25" s="10" t="s">
         <v>19</v>
@@ -2728,7 +2685,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>18</v>
@@ -2749,7 +2706,7 @@
         <v>61</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O26" s="10" t="s">
         <v>66</v>
@@ -2776,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="X26" s="10" t="s">
         <v>19</v>
@@ -2796,7 +2753,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>18</v>
@@ -2817,7 +2774,7 @@
         <v>61</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>66</v>
@@ -2844,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="X27" s="10" t="s">
         <v>19</v>
@@ -2864,7 +2821,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>18</v>
@@ -2885,7 +2842,7 @@
         <v>61</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>66</v>
@@ -2912,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="X28" s="10" t="s">
         <v>19</v>
@@ -2932,7 +2889,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>18</v>
@@ -2953,7 +2910,7 @@
         <v>61</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O29" s="10" t="s">
         <v>66</v>
@@ -2980,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="X29" s="10" t="s">
         <v>19</v>
@@ -3000,7 +2957,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>18</v>
@@ -3021,7 +2978,7 @@
         <v>61</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>66</v>
@@ -3048,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="X30" s="10" t="s">
         <v>19</v>
@@ -3068,7 +3025,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>18</v>
@@ -3089,7 +3046,7 @@
         <v>61</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O31" s="10" t="s">
         <v>66</v>
@@ -3116,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="X31" s="10" t="s">
         <v>19</v>
@@ -3136,7 +3093,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>18</v>
@@ -3157,7 +3114,7 @@
         <v>61</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="10" t="s">
         <v>66</v>
@@ -3184,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="X32" s="10" t="s">
         <v>19</v>
@@ -3204,7 +3161,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>18</v>
@@ -3225,7 +3182,7 @@
         <v>61</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>66</v>
@@ -3252,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="X33" s="10" t="s">
         <v>19</v>
@@ -3272,7 +3229,7 @@
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>18</v>
@@ -3293,7 +3250,7 @@
         <v>61</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>66</v>
@@ -3320,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="X34" s="10" t="s">
         <v>19</v>
@@ -3340,7 +3297,7 @@
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>18</v>
@@ -3361,7 +3318,7 @@
         <v>61</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O35" s="10" t="s">
         <v>66</v>
@@ -3388,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>19</v>
@@ -3408,7 +3365,7 @@
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>18</v>
@@ -3429,7 +3386,7 @@
         <v>61</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O36" s="10" t="s">
         <v>66</v>
@@ -3456,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="X36" s="10" t="s">
         <v>19</v>
@@ -3476,7 +3433,7 @@
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>18</v>
@@ -3497,7 +3454,7 @@
         <v>61</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O37" s="10" t="s">
         <v>66</v>
@@ -3524,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="X37" s="10" t="s">
         <v>19</v>
@@ -3544,7 +3501,7 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>18</v>
@@ -3565,7 +3522,7 @@
         <v>61</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>66</v>
@@ -3592,7 +3549,7 @@
         <v>6</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="X38" s="10" t="s">
         <v>19</v>
@@ -3612,7 +3569,7 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>18</v>
@@ -3633,7 +3590,7 @@
         <v>61</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>66</v>
@@ -3660,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="X39" s="10" t="s">
         <v>19</v>
@@ -3684,7 +3641,7 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>22</v>
@@ -3705,7 +3662,7 @@
         <v>61</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>67</v>
@@ -3732,7 +3689,7 @@
         <v>16.8</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X40" s="10" t="s">
         <v>24</v>
@@ -3756,7 +3713,7 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>22</v>
@@ -3777,7 +3734,7 @@
         <v>61</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>67</v>
@@ -3804,7 +3761,7 @@
         <v>16.8</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X41" s="10" t="s">
         <v>24</v>
@@ -3828,7 +3785,7 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>22</v>
@@ -3849,7 +3806,7 @@
         <v>61</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>67</v>
@@ -3876,7 +3833,7 @@
         <v>16.8</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X42" s="10" t="s">
         <v>24</v>
@@ -3900,7 +3857,7 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>22</v>
@@ -3921,7 +3878,7 @@
         <v>61</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O43" s="10" t="s">
         <v>67</v>
@@ -3948,7 +3905,7 @@
         <v>16.8</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X43" s="10" t="s">
         <v>24</v>
@@ -3972,7 +3929,7 @@
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>22</v>
@@ -3993,7 +3950,7 @@
         <v>61</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O44" s="10" t="s">
         <v>67</v>
@@ -4020,7 +3977,7 @@
         <v>16.8</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X44" s="10" t="s">
         <v>24</v>
@@ -4044,7 +4001,7 @@
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>22</v>
@@ -4065,7 +4022,7 @@
         <v>61</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O45" s="10" t="s">
         <v>67</v>
@@ -4092,7 +4049,7 @@
         <v>16.8</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X45" s="10" t="s">
         <v>24</v>
@@ -4116,7 +4073,7 @@
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>22</v>
@@ -4137,7 +4094,7 @@
         <v>61</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O46" s="10" t="s">
         <v>67</v>
@@ -4164,7 +4121,7 @@
         <v>16.8</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X46" s="10" t="s">
         <v>24</v>
@@ -4188,7 +4145,7 @@
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>22</v>
@@ -4209,7 +4166,7 @@
         <v>61</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>67</v>
@@ -4236,7 +4193,7 @@
         <v>16.8</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X47" s="10" t="s">
         <v>24</v>
@@ -4260,7 +4217,7 @@
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>22</v>
@@ -4281,7 +4238,7 @@
         <v>61</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>67</v>
@@ -4308,7 +4265,7 @@
         <v>16.8</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X48" s="10" t="s">
         <v>24</v>
@@ -4332,7 +4289,7 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>22</v>
@@ -4353,7 +4310,7 @@
         <v>61</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>67</v>
@@ -4380,7 +4337,7 @@
         <v>16.8</v>
       </c>
       <c r="W49" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X49" s="10" t="s">
         <v>24</v>
@@ -4404,7 +4361,7 @@
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>22</v>
@@ -4425,7 +4382,7 @@
         <v>61</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>67</v>
@@ -4452,7 +4409,7 @@
         <v>16.8</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X50" s="10" t="s">
         <v>24</v>
@@ -4476,7 +4433,7 @@
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>22</v>
@@ -4497,7 +4454,7 @@
         <v>61</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O51" s="10" t="s">
         <v>67</v>
@@ -4524,7 +4481,7 @@
         <v>16.8</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X51" s="10" t="s">
         <v>24</v>
@@ -4548,7 +4505,7 @@
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>22</v>
@@ -4569,7 +4526,7 @@
         <v>61</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>67</v>
@@ -4596,7 +4553,7 @@
         <v>16.8</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X52" s="10" t="s">
         <v>24</v>
@@ -4620,7 +4577,7 @@
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>22</v>
@@ -4641,7 +4598,7 @@
         <v>61</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>67</v>
@@ -4668,7 +4625,7 @@
         <v>16.8</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X53" s="10" t="s">
         <v>24</v>
@@ -4692,7 +4649,7 @@
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>22</v>
@@ -4713,7 +4670,7 @@
         <v>61</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O54" s="10" t="s">
         <v>67</v>
@@ -4740,7 +4697,7 @@
         <v>16.8</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X54" s="10" t="s">
         <v>24</v>
@@ -4764,7 +4721,7 @@
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>22</v>
@@ -4785,7 +4742,7 @@
         <v>61</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>67</v>
@@ -4812,7 +4769,7 @@
         <v>16.8</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X55" s="10" t="s">
         <v>24</v>
@@ -4836,7 +4793,7 @@
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>22</v>
@@ -4857,7 +4814,7 @@
         <v>61</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O56" s="10" t="s">
         <v>67</v>
@@ -4884,7 +4841,7 @@
         <v>16.8</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X56" s="10" t="s">
         <v>24</v>
@@ -4908,7 +4865,7 @@
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>22</v>
@@ -4929,7 +4886,7 @@
         <v>61</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O57" s="10" t="s">
         <v>67</v>
@@ -4956,7 +4913,7 @@
         <v>16.8</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X57" s="10" t="s">
         <v>24</v>
@@ -4980,7 +4937,7 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>22</v>
@@ -5001,7 +4958,7 @@
         <v>61</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O58" s="10" t="s">
         <v>67</v>
@@ -5028,7 +4985,7 @@
         <v>16.8</v>
       </c>
       <c r="W58" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X58" s="10" t="s">
         <v>24</v>
@@ -5052,7 +5009,7 @@
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>22</v>
@@ -5073,7 +5030,7 @@
         <v>61</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O59" s="10" t="s">
         <v>67</v>
@@ -5100,7 +5057,7 @@
         <v>16.8</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X59" s="10" t="s">
         <v>24</v>
@@ -5120,7 +5077,7 @@
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>27</v>
@@ -5141,7 +5098,7 @@
         <v>71</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O60" s="15" t="s">
         <v>62</v>
@@ -5188,7 +5145,7 @@
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>27</v>
@@ -5209,7 +5166,7 @@
         <v>71</v>
       </c>
       <c r="N61" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O61" s="15" t="s">
         <v>62</v>
@@ -5256,7 +5213,7 @@
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>27</v>
@@ -5277,7 +5234,7 @@
         <v>71</v>
       </c>
       <c r="N62" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O62" s="15" t="s">
         <v>62</v>
@@ -5324,7 +5281,7 @@
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>27</v>
@@ -5345,7 +5302,7 @@
         <v>71</v>
       </c>
       <c r="N63" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O63" s="15" t="s">
         <v>62</v>
@@ -5392,7 +5349,7 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>27</v>
@@ -5413,7 +5370,7 @@
         <v>71</v>
       </c>
       <c r="N64" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O64" s="15" t="s">
         <v>62</v>
@@ -5460,7 +5417,7 @@
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>27</v>
@@ -5481,7 +5438,7 @@
         <v>71</v>
       </c>
       <c r="N65" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O65" s="15" t="s">
         <v>62</v>
@@ -5516,10 +5473,10 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
-        <v>0.782952508960573</v>
+        <v>0.78</v>
       </c>
       <c r="B66" s="12">
-        <v>5.2983870967741904</v>
+        <v>5</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="14"/>
@@ -5528,7 +5485,7 @@
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>28</v>
@@ -5549,7 +5506,7 @@
         <v>71</v>
       </c>
       <c r="N66" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O66" s="15" t="s">
         <v>62</v>
@@ -5576,7 +5533,7 @@
         <v>8.4</v>
       </c>
       <c r="W66" s="15" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="X66" s="15" t="s">
         <v>30</v>
@@ -5584,10 +5541,10 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
-        <v>1.0881384408602099</v>
+        <v>1.08</v>
       </c>
       <c r="B67" s="12">
-        <v>9.1209677419354804</v>
+        <v>9</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="14"/>
@@ -5596,7 +5553,7 @@
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>28</v>
@@ -5617,7 +5574,7 @@
         <v>71</v>
       </c>
       <c r="N67" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O67" s="15" t="s">
         <v>62</v>
@@ -5644,7 +5601,7 @@
         <v>8.4</v>
       </c>
       <c r="W67" s="15" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="X67" s="15" t="s">
         <v>30</v>
@@ -5652,10 +5609,10 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
-        <v>1.20643481182795</v>
+        <v>1.19</v>
       </c>
       <c r="B68" s="12">
-        <v>13.9032258064516</v>
+        <v>14</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -5664,7 +5621,7 @@
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>28</v>
@@ -5685,7 +5642,7 @@
         <v>71</v>
       </c>
       <c r="N68" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O68" s="15" t="s">
         <v>62</v>
@@ -5712,7 +5669,7 @@
         <v>8.4</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="X68" s="15" t="s">
         <v>30</v>
@@ -5720,10 +5677,10 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
-        <v>1.0589101702508901</v>
+        <v>1.03</v>
       </c>
       <c r="B69" s="12">
-        <v>17.758064516129</v>
+        <v>18</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -5732,7 +5689,7 @@
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>28</v>
@@ -5753,7 +5710,7 @@
         <v>71</v>
       </c>
       <c r="N69" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O69" s="15" t="s">
         <v>62</v>
@@ -5780,7 +5737,7 @@
         <v>8.4</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="X69" s="15" t="s">
         <v>30</v>
@@ -5788,10 +5745,10 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
-        <v>0.79290780141843897</v>
+        <v>0.79</v>
       </c>
       <c r="B70" s="12">
-        <v>4.9590559628106501</v>
+        <v>5</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -5800,7 +5757,7 @@
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>28</v>
@@ -5821,7 +5778,7 @@
         <v>71</v>
       </c>
       <c r="N70" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O70" s="15" t="s">
         <v>62</v>
@@ -5848,7 +5805,7 @@
         <v>8.4</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="X70" s="15" t="s">
         <v>30</v>
@@ -5856,10 +5813,10 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
-        <v>1.43971631205673</v>
+        <v>1.43</v>
       </c>
       <c r="B71" s="12">
-        <v>8.8607187555873406</v>
+        <v>9</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -5868,7 +5825,7 @@
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>28</v>
@@ -5889,7 +5846,7 @@
         <v>71</v>
       </c>
       <c r="N71" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O71" s="15" t="s">
         <v>62</v>
@@ -5916,7 +5873,7 @@
         <v>8.4</v>
       </c>
       <c r="W71" s="15" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="X71" s="15" t="s">
         <v>30</v>
@@ -5924,10 +5881,10 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
-        <v>1.5702127659574401</v>
+        <v>1.56</v>
       </c>
       <c r="B72" s="12">
-        <v>13.852672984087199</v>
+        <v>14</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -5936,7 +5893,7 @@
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>28</v>
@@ -5957,7 +5914,7 @@
         <v>71</v>
       </c>
       <c r="N72" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O72" s="15" t="s">
         <v>62</v>
@@ -5984,7 +5941,7 @@
         <v>8.4</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="X72" s="15" t="s">
         <v>30</v>
@@ -5992,10 +5949,10 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
-        <v>1.47659574468085</v>
+        <v>1.47</v>
       </c>
       <c r="B73" s="12">
-        <v>17.8728768102985</v>
+        <v>18</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -6004,7 +5961,7 @@
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>28</v>
@@ -6025,7 +5982,7 @@
         <v>71</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O73" s="15" t="s">
         <v>62</v>
@@ -6052,7 +6009,7 @@
         <v>8.4</v>
       </c>
       <c r="W73" s="15" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="X73" s="15" t="s">
         <v>30</v>
@@ -6076,7 +6033,7 @@
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>31</v>
@@ -6097,7 +6054,7 @@
         <v>71</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O74" s="10" t="s">
         <v>58</v>
@@ -6124,7 +6081,7 @@
         <v>27.05</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X74" s="15" t="s">
         <v>93</v>
@@ -6148,7 +6105,7 @@
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>31</v>
@@ -6169,7 +6126,7 @@
         <v>71</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O75" s="10" t="s">
         <v>58</v>
@@ -6196,7 +6153,7 @@
         <v>27.05</v>
       </c>
       <c r="W75" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X75" s="15" t="s">
         <v>93</v>
@@ -6220,7 +6177,7 @@
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>31</v>
@@ -6241,7 +6198,7 @@
         <v>71</v>
       </c>
       <c r="N76" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O76" s="10" t="s">
         <v>58</v>
@@ -6268,7 +6225,7 @@
         <v>27.05</v>
       </c>
       <c r="W76" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X76" s="15" t="s">
         <v>93</v>
@@ -6292,7 +6249,7 @@
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H77" s="15" t="s">
         <v>31</v>
@@ -6313,7 +6270,7 @@
         <v>71</v>
       </c>
       <c r="N77" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O77" s="10" t="s">
         <v>58</v>
@@ -6340,7 +6297,7 @@
         <v>27.05</v>
       </c>
       <c r="W77" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X77" s="15" t="s">
         <v>93</v>
@@ -6364,7 +6321,7 @@
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H78" s="15" t="s">
         <v>31</v>
@@ -6385,7 +6342,7 @@
         <v>71</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O78" s="10" t="s">
         <v>58</v>
@@ -6412,7 +6369,7 @@
         <v>27.05</v>
       </c>
       <c r="W78" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X78" s="15" t="s">
         <v>93</v>
@@ -6436,7 +6393,7 @@
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H79" s="15" t="s">
         <v>31</v>
@@ -6457,7 +6414,7 @@
         <v>71</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O79" s="10" t="s">
         <v>58</v>
@@ -6484,7 +6441,7 @@
         <v>27.05</v>
       </c>
       <c r="W79" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X79" s="15" t="s">
         <v>93</v>
@@ -6508,7 +6465,7 @@
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>31</v>
@@ -6529,7 +6486,7 @@
         <v>71</v>
       </c>
       <c r="N80" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O80" s="10" t="s">
         <v>58</v>
@@ -6556,7 +6513,7 @@
         <v>27.05</v>
       </c>
       <c r="W80" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X80" s="15" t="s">
         <v>93</v>
@@ -6580,7 +6537,7 @@
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H81" s="15" t="s">
         <v>31</v>
@@ -6601,7 +6558,7 @@
         <v>71</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O81" s="10" t="s">
         <v>58</v>
@@ -6628,7 +6585,7 @@
         <v>27.05</v>
       </c>
       <c r="W81" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X81" s="15" t="s">
         <v>93</v>
@@ -6652,7 +6609,7 @@
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H82" s="15" t="s">
         <v>31</v>
@@ -6673,7 +6630,7 @@
         <v>71</v>
       </c>
       <c r="N82" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O82" s="10" t="s">
         <v>58</v>
@@ -6700,7 +6657,7 @@
         <v>27.05</v>
       </c>
       <c r="W82" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X82" s="15" t="s">
         <v>93</v>
@@ -6724,7 +6681,7 @@
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H83" s="15" t="s">
         <v>31</v>
@@ -6745,7 +6702,7 @@
         <v>71</v>
       </c>
       <c r="N83" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O83" s="10" t="s">
         <v>58</v>
@@ -6772,7 +6729,7 @@
         <v>27.05</v>
       </c>
       <c r="W83" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X83" s="15" t="s">
         <v>93</v>
@@ -6796,7 +6753,7 @@
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H84" s="15" t="s">
         <v>31</v>
@@ -6817,7 +6774,7 @@
         <v>71</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O84" s="10" t="s">
         <v>58</v>
@@ -6844,7 +6801,7 @@
         <v>27.05</v>
       </c>
       <c r="W84" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X84" s="15" t="s">
         <v>93</v>
@@ -6868,7 +6825,7 @@
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H85" s="15" t="s">
         <v>31</v>
@@ -6889,7 +6846,7 @@
         <v>71</v>
       </c>
       <c r="N85" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O85" s="10" t="s">
         <v>58</v>
@@ -6916,7 +6873,7 @@
         <v>27.05</v>
       </c>
       <c r="W85" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X85" s="15" t="s">
         <v>93</v>
@@ -6936,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>33</v>
@@ -6957,7 +6914,7 @@
         <v>72</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>62</v>
@@ -6984,7 +6941,7 @@
         <v>5.4</v>
       </c>
       <c r="W86" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X86" s="10" t="s">
         <v>89</v>
@@ -7004,7 +6961,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>33</v>
@@ -7025,7 +6982,7 @@
         <v>72</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>62</v>
@@ -7052,7 +7009,7 @@
         <v>5.4</v>
       </c>
       <c r="W87" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X87" s="10" t="s">
         <v>89</v>
@@ -7072,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>33</v>
@@ -7093,7 +7050,7 @@
         <v>72</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>62</v>
@@ -7120,7 +7077,7 @@
         <v>5.4</v>
       </c>
       <c r="W88" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X88" s="10" t="s">
         <v>89</v>
@@ -7140,7 +7097,7 @@
         <v>2</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>33</v>
@@ -7161,7 +7118,7 @@
         <v>72</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>62</v>
@@ -7188,7 +7145,7 @@
         <v>5.4</v>
       </c>
       <c r="W89" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X89" s="10" t="s">
         <v>89</v>
@@ -7208,7 +7165,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>33</v>
@@ -7229,7 +7186,7 @@
         <v>72</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>62</v>
@@ -7256,7 +7213,7 @@
         <v>5.4</v>
       </c>
       <c r="W90" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X90" s="10" t="s">
         <v>89</v>
@@ -7276,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>33</v>
@@ -7297,7 +7254,7 @@
         <v>72</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>62</v>
@@ -7324,7 +7281,7 @@
         <v>5.4</v>
       </c>
       <c r="W91" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X91" s="10" t="s">
         <v>89</v>
@@ -7344,7 +7301,7 @@
         <v>7</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>33</v>
@@ -7365,7 +7322,7 @@
         <v>72</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>62</v>
@@ -7392,7 +7349,7 @@
         <v>5.4</v>
       </c>
       <c r="W92" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X92" s="10" t="s">
         <v>89</v>
@@ -7412,7 +7369,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>33</v>
@@ -7433,7 +7390,7 @@
         <v>72</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>62</v>
@@ -7460,7 +7417,7 @@
         <v>5.4</v>
       </c>
       <c r="W93" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X93" s="10" t="s">
         <v>89</v>
@@ -7480,7 +7437,7 @@
         <v>7</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>33</v>
@@ -7501,7 +7458,7 @@
         <v>72</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>62</v>
@@ -7528,7 +7485,7 @@
         <v>5.4</v>
       </c>
       <c r="W94" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X94" s="10" t="s">
         <v>89</v>
@@ -7548,7 +7505,7 @@
         <v>7</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>33</v>
@@ -7569,7 +7526,7 @@
         <v>72</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>62</v>
@@ -7596,7 +7553,7 @@
         <v>5.4</v>
       </c>
       <c r="W95" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X95" s="10" t="s">
         <v>89</v>
@@ -7616,7 +7573,7 @@
         <v>7</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>33</v>
@@ -7637,7 +7594,7 @@
         <v>72</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>62</v>
@@ -7664,7 +7621,7 @@
         <v>5.4</v>
       </c>
       <c r="W96" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X96" s="10" t="s">
         <v>89</v>
@@ -7684,7 +7641,7 @@
         <v>7</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>33</v>
@@ -7705,7 +7662,7 @@
         <v>72</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>62</v>
@@ -7732,7 +7689,7 @@
         <v>5.4</v>
       </c>
       <c r="W97" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X97" s="10" t="s">
         <v>89</v>
@@ -7752,7 +7709,7 @@
         <v>14</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>33</v>
@@ -7773,7 +7730,7 @@
         <v>72</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>62</v>
@@ -7800,7 +7757,7 @@
         <v>5.4</v>
       </c>
       <c r="W98" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X98" s="10" t="s">
         <v>89</v>
@@ -7820,7 +7777,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>33</v>
@@ -7841,7 +7798,7 @@
         <v>72</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>62</v>
@@ -7868,7 +7825,7 @@
         <v>5.4</v>
       </c>
       <c r="W99" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X99" s="10" t="s">
         <v>89</v>
@@ -7888,7 +7845,7 @@
         <v>14</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>33</v>
@@ -7909,7 +7866,7 @@
         <v>72</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>62</v>
@@ -7936,7 +7893,7 @@
         <v>5.4</v>
       </c>
       <c r="W100" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X100" s="10" t="s">
         <v>89</v>
@@ -7956,7 +7913,7 @@
         <v>14</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H101" s="10" t="s">
         <v>33</v>
@@ -7977,7 +7934,7 @@
         <v>72</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>62</v>
@@ -8004,7 +7961,7 @@
         <v>5.4</v>
       </c>
       <c r="W101" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X101" s="10" t="s">
         <v>89</v>
@@ -8024,7 +7981,7 @@
         <v>14</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>33</v>
@@ -8045,7 +8002,7 @@
         <v>72</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>62</v>
@@ -8072,7 +8029,7 @@
         <v>5.4</v>
       </c>
       <c r="W102" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X102" s="10" t="s">
         <v>89</v>
@@ -8092,7 +8049,7 @@
         <v>57</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>33</v>
@@ -8113,7 +8070,7 @@
         <v>72</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>62</v>
@@ -8140,7 +8097,7 @@
         <v>5.4</v>
       </c>
       <c r="W103" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X103" s="10" t="s">
         <v>89</v>
@@ -8160,7 +8117,7 @@
         <v>57</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>33</v>
@@ -8181,7 +8138,7 @@
         <v>72</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>62</v>
@@ -8208,7 +8165,7 @@
         <v>5.4</v>
       </c>
       <c r="W104" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X104" s="10" t="s">
         <v>89</v>
@@ -8228,7 +8185,7 @@
         <v>57</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>33</v>
@@ -8249,7 +8206,7 @@
         <v>72</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>62</v>
@@ -8276,7 +8233,7 @@
         <v>5.4</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X105" s="10" t="s">
         <v>89</v>
@@ -8296,7 +8253,7 @@
         <v>57</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>33</v>
@@ -8317,7 +8274,7 @@
         <v>72</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>62</v>
@@ -8344,7 +8301,7 @@
         <v>5.4</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X106" s="10" t="s">
         <v>89</v>
@@ -8364,7 +8321,7 @@
         <v>57</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>33</v>
@@ -8385,7 +8342,7 @@
         <v>72</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>62</v>
@@ -8412,7 +8369,7 @@
         <v>5.4</v>
       </c>
       <c r="W107" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X107" s="10" t="s">
         <v>89</v>
@@ -8432,7 +8389,7 @@
         <v>143</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>33</v>
@@ -8453,7 +8410,7 @@
         <v>72</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>62</v>
@@ -8480,7 +8437,7 @@
         <v>5.4</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X108" s="10" t="s">
         <v>89</v>
@@ -8500,7 +8457,7 @@
         <v>143</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>33</v>
@@ -8521,7 +8478,7 @@
         <v>72</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O109" s="3" t="s">
         <v>62</v>
@@ -8548,7 +8505,7 @@
         <v>5.4</v>
       </c>
       <c r="W109" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X109" s="10" t="s">
         <v>89</v>
@@ -8568,7 +8525,7 @@
         <v>143</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>33</v>
@@ -8589,7 +8546,7 @@
         <v>72</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>62</v>
@@ -8616,7 +8573,7 @@
         <v>5.4</v>
       </c>
       <c r="W110" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X110" s="10" t="s">
         <v>89</v>
@@ -8636,7 +8593,7 @@
         <v>143</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>33</v>
@@ -8657,7 +8614,7 @@
         <v>72</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>62</v>
@@ -8684,7 +8641,7 @@
         <v>5.4</v>
       </c>
       <c r="W111" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X111" s="10" t="s">
         <v>89</v>
@@ -8704,7 +8661,7 @@
         <v>373</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>33</v>
@@ -8725,7 +8682,7 @@
         <v>72</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>62</v>
@@ -8752,7 +8709,7 @@
         <v>5.4</v>
       </c>
       <c r="W112" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X112" s="10" t="s">
         <v>89</v>
@@ -8772,7 +8729,7 @@
         <v>373</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>33</v>
@@ -8793,7 +8750,7 @@
         <v>72</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O113" s="3" t="s">
         <v>62</v>
@@ -8820,7 +8777,7 @@
         <v>5.4</v>
       </c>
       <c r="W113" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X113" s="10" t="s">
         <v>89</v>
@@ -8840,7 +8797,7 @@
         <v>373</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>33</v>
@@ -8861,7 +8818,7 @@
         <v>72</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O114" s="3" t="s">
         <v>62</v>
@@ -8888,7 +8845,7 @@
         <v>5.4</v>
       </c>
       <c r="W114" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X114" s="10" t="s">
         <v>89</v>
@@ -8908,7 +8865,7 @@
         <v>373</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>33</v>
@@ -8929,7 +8886,7 @@
         <v>72</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>62</v>
@@ -8956,7 +8913,7 @@
         <v>5.4</v>
       </c>
       <c r="W115" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X115" s="10" t="s">
         <v>89</v>
@@ -8976,7 +8933,7 @@
         <v>1050</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>33</v>
@@ -8997,7 +8954,7 @@
         <v>72</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>62</v>
@@ -9024,7 +8981,7 @@
         <v>5.4</v>
       </c>
       <c r="W116" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X116" s="10" t="s">
         <v>89</v>
@@ -9044,7 +9001,7 @@
         <v>1050</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>33</v>
@@ -9065,7 +9022,7 @@
         <v>72</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>62</v>
@@ -9092,7 +9049,7 @@
         <v>5.4</v>
       </c>
       <c r="W117" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X117" s="10" t="s">
         <v>89</v>
@@ -9112,7 +9069,7 @@
         <v>1050</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>33</v>
@@ -9133,7 +9090,7 @@
         <v>72</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>62</v>
@@ -9160,7 +9117,7 @@
         <v>5.4</v>
       </c>
       <c r="W118" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X118" s="10" t="s">
         <v>89</v>
@@ -9180,7 +9137,7 @@
         <v>1050</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>33</v>
@@ -9201,7 +9158,7 @@
         <v>72</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O119" s="3" t="s">
         <v>62</v>
@@ -9228,7 +9185,7 @@
         <v>5.4</v>
       </c>
       <c r="W119" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X119" s="10" t="s">
         <v>89</v>
@@ -9252,7 +9209,7 @@
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>35</v>
@@ -9273,7 +9230,7 @@
         <v>61</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>62</v>
@@ -9300,7 +9257,7 @@
         <v>4.2</v>
       </c>
       <c r="W120" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X120" s="10" t="s">
         <v>34</v>
@@ -9324,7 +9281,7 @@
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>35</v>
@@ -9345,7 +9302,7 @@
         <v>61</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O121" s="3" t="s">
         <v>62</v>
@@ -9372,7 +9329,7 @@
         <v>4.2</v>
       </c>
       <c r="W121" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X121" s="10" t="s">
         <v>34</v>
@@ -9396,7 +9353,7 @@
       </c>
       <c r="F122" s="11"/>
       <c r="G122" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>35</v>
@@ -9417,7 +9374,7 @@
         <v>61</v>
       </c>
       <c r="N122" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>62</v>
@@ -9444,7 +9401,7 @@
         <v>4.2</v>
       </c>
       <c r="W122" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X122" s="10" t="s">
         <v>34</v>
@@ -9468,7 +9425,7 @@
       </c>
       <c r="F123" s="11"/>
       <c r="G123" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H123" s="10" t="s">
         <v>35</v>
@@ -9489,7 +9446,7 @@
         <v>61</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>62</v>
@@ -9516,7 +9473,7 @@
         <v>4.2</v>
       </c>
       <c r="W123" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X123" s="10" t="s">
         <v>34</v>
@@ -9540,7 +9497,7 @@
       </c>
       <c r="F124" s="11"/>
       <c r="G124" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>35</v>
@@ -9561,7 +9518,7 @@
         <v>61</v>
       </c>
       <c r="N124" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>62</v>
@@ -9588,7 +9545,7 @@
         <v>4.2</v>
       </c>
       <c r="W124" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X124" s="10" t="s">
         <v>34</v>
@@ -9612,7 +9569,7 @@
       </c>
       <c r="F125" s="11"/>
       <c r="G125" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>35</v>
@@ -9633,7 +9590,7 @@
         <v>61</v>
       </c>
       <c r="N125" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>62</v>
@@ -9660,7 +9617,7 @@
         <v>4.2</v>
       </c>
       <c r="W125" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X125" s="10" t="s">
         <v>34</v>
@@ -9684,7 +9641,7 @@
       </c>
       <c r="F126" s="11"/>
       <c r="G126" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>35</v>
@@ -9705,7 +9662,7 @@
         <v>61</v>
       </c>
       <c r="N126" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>62</v>
@@ -9732,7 +9689,7 @@
         <v>4.2</v>
       </c>
       <c r="W126" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X126" s="10" t="s">
         <v>34</v>
@@ -9756,7 +9713,7 @@
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H127" s="10" t="s">
         <v>35</v>
@@ -9777,7 +9734,7 @@
         <v>61</v>
       </c>
       <c r="N127" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>62</v>
@@ -9804,7 +9761,7 @@
         <v>4.2</v>
       </c>
       <c r="W127" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X127" s="10" t="s">
         <v>34</v>
@@ -9828,7 +9785,7 @@
       </c>
       <c r="F128" s="11"/>
       <c r="G128" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H128" s="10" t="s">
         <v>35</v>
@@ -9849,7 +9806,7 @@
         <v>61</v>
       </c>
       <c r="N128" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>62</v>
@@ -9876,7 +9833,7 @@
         <v>4.2</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X128" s="10" t="s">
         <v>34</v>
@@ -9900,7 +9857,7 @@
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>35</v>
@@ -9921,7 +9878,7 @@
         <v>61</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>62</v>
@@ -9948,7 +9905,7 @@
         <v>4.2</v>
       </c>
       <c r="W129" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X129" s="10" t="s">
         <v>34</v>
@@ -9972,7 +9929,7 @@
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H130" s="10" t="s">
         <v>35</v>
@@ -9993,7 +9950,7 @@
         <v>61</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O130" s="3" t="s">
         <v>62</v>
@@ -10020,7 +9977,7 @@
         <v>4.2</v>
       </c>
       <c r="W130" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X130" s="10" t="s">
         <v>34</v>
@@ -10044,7 +10001,7 @@
       </c>
       <c r="F131" s="11"/>
       <c r="G131" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H131" s="10" t="s">
         <v>35</v>
@@ -10065,7 +10022,7 @@
         <v>61</v>
       </c>
       <c r="N131" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>62</v>
@@ -10092,7 +10049,7 @@
         <v>4.2</v>
       </c>
       <c r="W131" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X131" s="10" t="s">
         <v>34</v>
@@ -10116,7 +10073,7 @@
       </c>
       <c r="F132" s="11"/>
       <c r="G132" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H132" s="10" t="s">
         <v>35</v>
@@ -10137,7 +10094,7 @@
         <v>61</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>62</v>
@@ -10164,7 +10121,7 @@
         <v>4.2</v>
       </c>
       <c r="W132" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X132" s="10" t="s">
         <v>34</v>
@@ -10188,7 +10145,7 @@
       </c>
       <c r="F133" s="11"/>
       <c r="G133" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>35</v>
@@ -10209,7 +10166,7 @@
         <v>61</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O133" s="3" t="s">
         <v>62</v>
@@ -10236,7 +10193,7 @@
         <v>4.2</v>
       </c>
       <c r="W133" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X133" s="10" t="s">
         <v>34</v>
@@ -10260,7 +10217,7 @@
       </c>
       <c r="F134" s="11"/>
       <c r="G134" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H134" s="10" t="s">
         <v>35</v>
@@ -10281,7 +10238,7 @@
         <v>61</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O134" s="3" t="s">
         <v>62</v>
@@ -10308,7 +10265,7 @@
         <v>4.2</v>
       </c>
       <c r="W134" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X134" s="10" t="s">
         <v>34</v>
@@ -10332,7 +10289,7 @@
       </c>
       <c r="F135" s="11"/>
       <c r="G135" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H135" s="10" t="s">
         <v>35</v>
@@ -10353,7 +10310,7 @@
         <v>61</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>62</v>
@@ -10380,7 +10337,7 @@
         <v>4.2</v>
       </c>
       <c r="W135" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X135" s="10" t="s">
         <v>34</v>
@@ -10404,7 +10361,7 @@
       </c>
       <c r="F136" s="11"/>
       <c r="G136" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H136" s="10" t="s">
         <v>35</v>
@@ -10425,7 +10382,7 @@
         <v>61</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>62</v>
@@ -10452,7 +10409,7 @@
         <v>4.2</v>
       </c>
       <c r="W136" s="15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="X136" s="10" t="s">
         <v>34</v>
@@ -10471,7 +10428,7 @@
         <v>1.7</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H137" s="10" t="s">
         <v>36</v>
@@ -10492,7 +10449,7 @@
         <v>72</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>62</v>
@@ -10518,7 +10475,9 @@
       <c r="V137" s="13">
         <v>8.9</v>
       </c>
-      <c r="W137" s="15"/>
+      <c r="W137" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X137" s="10" t="s">
         <v>37</v>
       </c>
@@ -10536,7 +10495,7 @@
         <v>1.7</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H138" s="10" t="s">
         <v>36</v>
@@ -10557,7 +10516,7 @@
         <v>72</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O138" s="3" t="s">
         <v>62</v>
@@ -10583,7 +10542,9 @@
       <c r="V138" s="13">
         <v>8.9</v>
       </c>
-      <c r="W138" s="15"/>
+      <c r="W138" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X138" s="10" t="s">
         <v>37</v>
       </c>
@@ -10601,7 +10562,7 @@
         <v>1.7</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H139" s="10" t="s">
         <v>36</v>
@@ -10622,7 +10583,7 @@
         <v>72</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O139" s="3" t="s">
         <v>62</v>
@@ -10648,7 +10609,9 @@
       <c r="V139" s="13">
         <v>8.9</v>
       </c>
-      <c r="W139" s="15"/>
+      <c r="W139" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X139" s="10" t="s">
         <v>37</v>
       </c>
@@ -10666,7 +10629,7 @@
         <v>1.7</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H140" s="10" t="s">
         <v>36</v>
@@ -10687,7 +10650,7 @@
         <v>72</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O140" s="3" t="s">
         <v>62</v>
@@ -10713,7 +10676,9 @@
       <c r="V140" s="13">
         <v>8.9</v>
       </c>
-      <c r="W140" s="15"/>
+      <c r="W140" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X140" s="10" t="s">
         <v>37</v>
       </c>
@@ -10731,7 +10696,7 @@
         <v>1.7</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H141" s="10" t="s">
         <v>36</v>
@@ -10752,7 +10717,7 @@
         <v>72</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O141" s="3" t="s">
         <v>62</v>
@@ -10778,7 +10743,9 @@
       <c r="V141" s="13">
         <v>8.9</v>
       </c>
-      <c r="W141" s="15"/>
+      <c r="W141" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X141" s="10" t="s">
         <v>37</v>
       </c>
@@ -10796,7 +10763,7 @@
         <v>1.7</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H142" s="10" t="s">
         <v>36</v>
@@ -10817,7 +10784,7 @@
         <v>72</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>62</v>
@@ -10843,7 +10810,9 @@
       <c r="V142" s="13">
         <v>8.9</v>
       </c>
-      <c r="W142" s="15"/>
+      <c r="W142" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X142" s="10" t="s">
         <v>37</v>
       </c>
@@ -10861,7 +10830,7 @@
         <v>1.9</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H143" s="10" t="s">
         <v>36</v>
@@ -10882,7 +10851,7 @@
         <v>72</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O143" s="3" t="s">
         <v>62</v>
@@ -10908,7 +10877,9 @@
       <c r="V143" s="13">
         <v>8.9</v>
       </c>
-      <c r="W143" s="15"/>
+      <c r="W143" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X143" s="10" t="s">
         <v>37</v>
       </c>
@@ -10926,7 +10897,7 @@
         <v>1.9</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H144" s="10" t="s">
         <v>36</v>
@@ -10947,7 +10918,7 @@
         <v>72</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O144" s="3" t="s">
         <v>62</v>
@@ -10973,7 +10944,9 @@
       <c r="V144" s="13">
         <v>8.9</v>
       </c>
-      <c r="W144" s="15"/>
+      <c r="W144" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X144" s="10" t="s">
         <v>37</v>
       </c>
@@ -10991,7 +10964,7 @@
         <v>1.9</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H145" s="10" t="s">
         <v>36</v>
@@ -11012,7 +10985,7 @@
         <v>72</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O145" s="3" t="s">
         <v>62</v>
@@ -11038,7 +11011,9 @@
       <c r="V145" s="13">
         <v>8.9</v>
       </c>
-      <c r="W145" s="15"/>
+      <c r="W145" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X145" s="10" t="s">
         <v>37</v>
       </c>
@@ -11056,7 +11031,7 @@
         <v>1.9</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H146" s="10" t="s">
         <v>36</v>
@@ -11077,7 +11052,7 @@
         <v>72</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>62</v>
@@ -11103,7 +11078,9 @@
       <c r="V146" s="13">
         <v>8.9</v>
       </c>
-      <c r="W146" s="15"/>
+      <c r="W146" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X146" s="10" t="s">
         <v>37</v>
       </c>
@@ -11121,7 +11098,7 @@
         <v>1.9</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H147" s="10" t="s">
         <v>36</v>
@@ -11142,7 +11119,7 @@
         <v>72</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O147" s="3" t="s">
         <v>62</v>
@@ -11168,7 +11145,9 @@
       <c r="V147" s="13">
         <v>8.9</v>
       </c>
-      <c r="W147" s="15"/>
+      <c r="W147" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X147" s="10" t="s">
         <v>37</v>
       </c>
@@ -11186,7 +11165,7 @@
         <v>1.9</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H148" s="10" t="s">
         <v>36</v>
@@ -11207,7 +11186,7 @@
         <v>72</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>62</v>
@@ -11233,7 +11212,9 @@
       <c r="V148" s="13">
         <v>8.9</v>
       </c>
-      <c r="W148" s="15"/>
+      <c r="W148" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X148" s="10" t="s">
         <v>37</v>
       </c>
@@ -11251,7 +11232,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H149" s="10" t="s">
         <v>36</v>
@@ -11272,7 +11253,7 @@
         <v>72</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O149" s="3" t="s">
         <v>62</v>
@@ -11298,7 +11279,9 @@
       <c r="V149" s="13">
         <v>8.9</v>
       </c>
-      <c r="W149" s="15"/>
+      <c r="W149" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X149" s="10" t="s">
         <v>37</v>
       </c>
@@ -11316,7 +11299,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H150" s="10" t="s">
         <v>36</v>
@@ -11337,7 +11320,7 @@
         <v>72</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>62</v>
@@ -11363,7 +11346,9 @@
       <c r="V150" s="13">
         <v>8.9</v>
       </c>
-      <c r="W150" s="15"/>
+      <c r="W150" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X150" s="10" t="s">
         <v>37</v>
       </c>
@@ -11381,7 +11366,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H151" s="10" t="s">
         <v>36</v>
@@ -11402,7 +11387,7 @@
         <v>72</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>62</v>
@@ -11428,7 +11413,9 @@
       <c r="V151" s="13">
         <v>8.9</v>
       </c>
-      <c r="W151" s="15"/>
+      <c r="W151" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X151" s="10" t="s">
         <v>37</v>
       </c>
@@ -11446,7 +11433,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H152" s="10" t="s">
         <v>36</v>
@@ -11467,7 +11454,7 @@
         <v>72</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O152" s="3" t="s">
         <v>62</v>
@@ -11493,7 +11480,9 @@
       <c r="V152" s="13">
         <v>8.9</v>
       </c>
-      <c r="W152" s="15"/>
+      <c r="W152" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X152" s="10" t="s">
         <v>37</v>
       </c>
@@ -11511,7 +11500,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H153" s="10" t="s">
         <v>36</v>
@@ -11532,7 +11521,7 @@
         <v>72</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O153" s="3" t="s">
         <v>62</v>
@@ -11558,7 +11547,9 @@
       <c r="V153" s="13">
         <v>8.9</v>
       </c>
-      <c r="W153" s="15"/>
+      <c r="W153" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X153" s="10" t="s">
         <v>37</v>
       </c>
@@ -11576,7 +11567,7 @@
         <v>13.7</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H154" s="10" t="s">
         <v>36</v>
@@ -11597,7 +11588,7 @@
         <v>72</v>
       </c>
       <c r="N154" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O154" s="3" t="s">
         <v>62</v>
@@ -11623,7 +11614,9 @@
       <c r="V154" s="13">
         <v>8.9</v>
       </c>
-      <c r="W154" s="15"/>
+      <c r="W154" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X154" s="10" t="s">
         <v>37</v>
       </c>
@@ -11641,7 +11634,7 @@
         <v>13.7</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H155" s="10" t="s">
         <v>36</v>
@@ -11662,7 +11655,7 @@
         <v>72</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O155" s="3" t="s">
         <v>62</v>
@@ -11688,7 +11681,9 @@
       <c r="V155" s="13">
         <v>8.9</v>
       </c>
-      <c r="W155" s="15"/>
+      <c r="W155" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X155" s="10" t="s">
         <v>37</v>
       </c>
@@ -11706,7 +11701,7 @@
         <v>13.7</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H156" s="10" t="s">
         <v>36</v>
@@ -11727,7 +11722,7 @@
         <v>72</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>62</v>
@@ -11753,7 +11748,9 @@
       <c r="V156" s="13">
         <v>8.9</v>
       </c>
-      <c r="W156" s="15"/>
+      <c r="W156" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X156" s="10" t="s">
         <v>37</v>
       </c>
@@ -11771,7 +11768,7 @@
         <v>13.7</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H157" s="10" t="s">
         <v>36</v>
@@ -11792,7 +11789,7 @@
         <v>72</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>62</v>
@@ -11818,7 +11815,9 @@
       <c r="V157" s="13">
         <v>8.9</v>
       </c>
-      <c r="W157" s="15"/>
+      <c r="W157" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X157" s="10" t="s">
         <v>37</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>13.7</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H158" s="10" t="s">
         <v>36</v>
@@ -11857,7 +11856,7 @@
         <v>72</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O158" s="3" t="s">
         <v>62</v>
@@ -11883,7 +11882,9 @@
       <c r="V158" s="13">
         <v>8.9</v>
       </c>
-      <c r="W158" s="15"/>
+      <c r="W158" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X158" s="10" t="s">
         <v>37</v>
       </c>
@@ -11901,7 +11902,7 @@
         <v>13.7</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H159" s="10" t="s">
         <v>36</v>
@@ -11922,7 +11923,7 @@
         <v>72</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O159" s="3" t="s">
         <v>62</v>
@@ -11948,7 +11949,9 @@
       <c r="V159" s="13">
         <v>8.9</v>
       </c>
-      <c r="W159" s="15"/>
+      <c r="W159" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X159" s="10" t="s">
         <v>37</v>
       </c>
@@ -11966,7 +11969,7 @@
         <v>54</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H160" s="10" t="s">
         <v>36</v>
@@ -11987,7 +11990,7 @@
         <v>72</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>62</v>
@@ -12013,7 +12016,9 @@
       <c r="V160" s="13">
         <v>8.9</v>
       </c>
-      <c r="W160" s="15"/>
+      <c r="W160" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X160" s="10" t="s">
         <v>37</v>
       </c>
@@ -12031,7 +12036,7 @@
         <v>54</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H161" s="10" t="s">
         <v>36</v>
@@ -12052,7 +12057,7 @@
         <v>72</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O161" s="3" t="s">
         <v>62</v>
@@ -12078,7 +12083,9 @@
       <c r="V161" s="13">
         <v>8.9</v>
       </c>
-      <c r="W161" s="15"/>
+      <c r="W161" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X161" s="10" t="s">
         <v>37</v>
       </c>
@@ -12096,7 +12103,7 @@
         <v>54</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H162" s="10" t="s">
         <v>36</v>
@@ -12117,7 +12124,7 @@
         <v>72</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O162" s="3" t="s">
         <v>62</v>
@@ -12143,7 +12150,9 @@
       <c r="V162" s="13">
         <v>8.9</v>
       </c>
-      <c r="W162" s="15"/>
+      <c r="W162" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X162" s="10" t="s">
         <v>37</v>
       </c>
@@ -12161,7 +12170,7 @@
         <v>54</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H163" s="10" t="s">
         <v>36</v>
@@ -12182,7 +12191,7 @@
         <v>72</v>
       </c>
       <c r="N163" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O163" s="3" t="s">
         <v>62</v>
@@ -12208,7 +12217,9 @@
       <c r="V163" s="13">
         <v>8.9</v>
       </c>
-      <c r="W163" s="15"/>
+      <c r="W163" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X163" s="10" t="s">
         <v>37</v>
       </c>
@@ -12226,7 +12237,7 @@
         <v>54</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H164" s="10" t="s">
         <v>36</v>
@@ -12247,7 +12258,7 @@
         <v>72</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O164" s="3" t="s">
         <v>62</v>
@@ -12273,7 +12284,9 @@
       <c r="V164" s="13">
         <v>8.9</v>
       </c>
-      <c r="W164" s="15"/>
+      <c r="W164" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X164" s="10" t="s">
         <v>37</v>
       </c>
@@ -12291,7 +12304,7 @@
         <v>54</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H165" s="10" t="s">
         <v>36</v>
@@ -12312,7 +12325,7 @@
         <v>72</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O165" s="3" t="s">
         <v>62</v>
@@ -12338,7 +12351,9 @@
       <c r="V165" s="13">
         <v>8.9</v>
       </c>
-      <c r="W165" s="15"/>
+      <c r="W165" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X165" s="10" t="s">
         <v>37</v>
       </c>
@@ -12356,7 +12371,7 @@
         <v>499</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H166" s="10" t="s">
         <v>36</v>
@@ -12377,7 +12392,7 @@
         <v>72</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O166" s="3" t="s">
         <v>62</v>
@@ -12403,7 +12418,9 @@
       <c r="V166" s="13">
         <v>8.9</v>
       </c>
-      <c r="W166" s="15"/>
+      <c r="W166" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X166" s="10" t="s">
         <v>37</v>
       </c>
@@ -12421,7 +12438,7 @@
         <v>499</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H167" s="10" t="s">
         <v>36</v>
@@ -12442,7 +12459,7 @@
         <v>72</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>62</v>
@@ -12468,7 +12485,9 @@
       <c r="V167" s="13">
         <v>8.9</v>
       </c>
-      <c r="W167" s="15"/>
+      <c r="W167" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X167" s="10" t="s">
         <v>37</v>
       </c>
@@ -12486,7 +12505,7 @@
         <v>499</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H168" s="10" t="s">
         <v>36</v>
@@ -12507,7 +12526,7 @@
         <v>72</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O168" s="3" t="s">
         <v>62</v>
@@ -12533,7 +12552,9 @@
       <c r="V168" s="13">
         <v>8.9</v>
       </c>
-      <c r="W168" s="15"/>
+      <c r="W168" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X168" s="10" t="s">
         <v>37</v>
       </c>
@@ -12551,7 +12572,7 @@
         <v>499</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H169" s="10" t="s">
         <v>36</v>
@@ -12572,7 +12593,7 @@
         <v>72</v>
       </c>
       <c r="N169" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O169" s="3" t="s">
         <v>62</v>
@@ -12598,7 +12619,9 @@
       <c r="V169" s="13">
         <v>8.9</v>
       </c>
-      <c r="W169" s="15"/>
+      <c r="W169" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X169" s="10" t="s">
         <v>37</v>
       </c>
@@ -12616,7 +12639,7 @@
         <v>499</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H170" s="10" t="s">
         <v>36</v>
@@ -12637,7 +12660,7 @@
         <v>72</v>
       </c>
       <c r="N170" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O170" s="3" t="s">
         <v>62</v>
@@ -12663,7 +12686,9 @@
       <c r="V170" s="13">
         <v>8.9</v>
       </c>
-      <c r="W170" s="15"/>
+      <c r="W170" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X170" s="10" t="s">
         <v>37</v>
       </c>
@@ -12681,7 +12706,7 @@
         <v>499</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H171" s="10" t="s">
         <v>36</v>
@@ -12702,7 +12727,7 @@
         <v>72</v>
       </c>
       <c r="N171" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>62</v>
@@ -12728,7 +12753,9 @@
       <c r="V171" s="13">
         <v>8.9</v>
       </c>
-      <c r="W171" s="15"/>
+      <c r="W171" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="X171" s="10" t="s">
         <v>37</v>
       </c>
@@ -12747,7 +12774,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H172" s="10" t="s">
         <v>44</v>
@@ -12768,7 +12795,7 @@
         <v>72</v>
       </c>
       <c r="N172" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O172" s="10" t="s">
         <v>66</v>
@@ -12795,7 +12822,7 @@
         <v>1.4</v>
       </c>
       <c r="W172" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X172" s="10" t="s">
         <v>43</v>
@@ -12815,7 +12842,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H173" s="10" t="s">
         <v>44</v>
@@ -12836,7 +12863,7 @@
         <v>72</v>
       </c>
       <c r="N173" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O173" s="10" t="s">
         <v>66</v>
@@ -12863,7 +12890,7 @@
         <v>1.4</v>
       </c>
       <c r="W173" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X173" s="10" t="s">
         <v>43</v>
@@ -12883,7 +12910,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H174" s="10" t="s">
         <v>44</v>
@@ -12904,7 +12931,7 @@
         <v>72</v>
       </c>
       <c r="N174" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O174" s="10" t="s">
         <v>66</v>
@@ -12931,7 +12958,7 @@
         <v>1.4</v>
       </c>
       <c r="W174" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X174" s="10" t="s">
         <v>43</v>
@@ -12951,7 +12978,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H175" s="10" t="s">
         <v>44</v>
@@ -12972,7 +12999,7 @@
         <v>72</v>
       </c>
       <c r="N175" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O175" s="10" t="s">
         <v>66</v>
@@ -12999,7 +13026,7 @@
         <v>1.4</v>
       </c>
       <c r="W175" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X175" s="10" t="s">
         <v>43</v>
@@ -13019,7 +13046,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H176" s="10" t="s">
         <v>44</v>
@@ -13040,7 +13067,7 @@
         <v>72</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O176" s="10" t="s">
         <v>66</v>
@@ -13067,7 +13094,7 @@
         <v>1.4</v>
       </c>
       <c r="W176" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X176" s="10" t="s">
         <v>43</v>
@@ -13087,7 +13114,7 @@
         <v>1.18953</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H177" s="10" t="s">
         <v>44</v>
@@ -13108,7 +13135,7 @@
         <v>72</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O177" s="10" t="s">
         <v>66</v>
@@ -13135,7 +13162,7 @@
         <v>1.4</v>
       </c>
       <c r="W177" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X177" s="10" t="s">
         <v>43</v>
@@ -13155,7 +13182,7 @@
         <v>1.18953</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H178" s="10" t="s">
         <v>44</v>
@@ -13176,7 +13203,7 @@
         <v>72</v>
       </c>
       <c r="N178" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O178" s="10" t="s">
         <v>66</v>
@@ -13203,7 +13230,7 @@
         <v>1.4</v>
       </c>
       <c r="W178" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X178" s="10" t="s">
         <v>43</v>
@@ -13223,7 +13250,7 @@
         <v>1.18953</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H179" s="10" t="s">
         <v>44</v>
@@ -13244,7 +13271,7 @@
         <v>72</v>
       </c>
       <c r="N179" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O179" s="10" t="s">
         <v>66</v>
@@ -13271,7 +13298,7 @@
         <v>1.4</v>
       </c>
       <c r="W179" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X179" s="10" t="s">
         <v>43</v>
@@ -13291,7 +13318,7 @@
         <v>1.18953</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H180" s="10" t="s">
         <v>44</v>
@@ -13312,7 +13339,7 @@
         <v>72</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O180" s="10" t="s">
         <v>66</v>
@@ -13339,7 +13366,7 @@
         <v>1.4</v>
       </c>
       <c r="W180" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X180" s="10" t="s">
         <v>43</v>
@@ -13359,7 +13386,7 @@
         <v>1.18953</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H181" s="10" t="s">
         <v>44</v>
@@ -13380,7 +13407,7 @@
         <v>72</v>
       </c>
       <c r="N181" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O181" s="10" t="s">
         <v>66</v>
@@ -13407,7 +13434,7 @@
         <v>1.4</v>
       </c>
       <c r="W181" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X181" s="10" t="s">
         <v>43</v>
@@ -13427,7 +13454,7 @@
         <v>10</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H182" s="10" t="s">
         <v>38</v>
@@ -13448,7 +13475,7 @@
         <v>72</v>
       </c>
       <c r="N182" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O182" s="10" t="s">
         <v>67</v>
@@ -13475,7 +13502,7 @@
         <v>13.95</v>
       </c>
       <c r="W182" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X182" s="10" t="s">
         <v>46</v>
@@ -13495,7 +13522,7 @@
         <v>10</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H183" s="10" t="s">
         <v>38</v>
@@ -13516,7 +13543,7 @@
         <v>72</v>
       </c>
       <c r="N183" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O183" s="10" t="s">
         <v>67</v>
@@ -13543,7 +13570,7 @@
         <v>13.95</v>
       </c>
       <c r="W183" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X183" s="10" t="s">
         <v>46</v>
@@ -13563,7 +13590,7 @@
         <v>10</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H184" s="10" t="s">
         <v>38</v>
@@ -13584,7 +13611,7 @@
         <v>72</v>
       </c>
       <c r="N184" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O184" s="10" t="s">
         <v>67</v>
@@ -13611,7 +13638,7 @@
         <v>13.95</v>
       </c>
       <c r="W184" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X184" s="10" t="s">
         <v>46</v>
@@ -13631,7 +13658,7 @@
         <v>10</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H185" s="10" t="s">
         <v>38</v>
@@ -13652,7 +13679,7 @@
         <v>72</v>
       </c>
       <c r="N185" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O185" s="10" t="s">
         <v>67</v>
@@ -13679,7 +13706,7 @@
         <v>13.95</v>
       </c>
       <c r="W185" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X185" s="10" t="s">
         <v>46</v>
@@ -13699,7 +13726,7 @@
         <v>10</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H186" s="10" t="s">
         <v>38</v>
@@ -13720,7 +13747,7 @@
         <v>72</v>
       </c>
       <c r="N186" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O186" s="10" t="s">
         <v>67</v>
@@ -13747,7 +13774,7 @@
         <v>13.95</v>
       </c>
       <c r="W186" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X186" s="10" t="s">
         <v>46</v>
@@ -13767,7 +13794,7 @@
         <v>30</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H187" s="10" t="s">
         <v>38</v>
@@ -13788,7 +13815,7 @@
         <v>72</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O187" s="10" t="s">
         <v>67</v>
@@ -13815,7 +13842,7 @@
         <v>13.95</v>
       </c>
       <c r="W187" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X187" s="10" t="s">
         <v>46</v>
@@ -13835,7 +13862,7 @@
         <v>30</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H188" s="10" t="s">
         <v>38</v>
@@ -13856,7 +13883,7 @@
         <v>72</v>
       </c>
       <c r="N188" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O188" s="10" t="s">
         <v>67</v>
@@ -13883,7 +13910,7 @@
         <v>13.95</v>
       </c>
       <c r="W188" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X188" s="10" t="s">
         <v>46</v>
@@ -13903,7 +13930,7 @@
         <v>30</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H189" s="10" t="s">
         <v>38</v>
@@ -13924,7 +13951,7 @@
         <v>72</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O189" s="10" t="s">
         <v>67</v>
@@ -13951,7 +13978,7 @@
         <v>13.95</v>
       </c>
       <c r="W189" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X189" s="10" t="s">
         <v>46</v>
@@ -13971,7 +13998,7 @@
         <v>30</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>38</v>
@@ -13992,7 +14019,7 @@
         <v>72</v>
       </c>
       <c r="N190" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O190" s="10" t="s">
         <v>67</v>
@@ -14019,7 +14046,7 @@
         <v>13.95</v>
       </c>
       <c r="W190" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X190" s="10" t="s">
         <v>46</v>
@@ -14039,7 +14066,7 @@
         <v>30</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H191" s="10" t="s">
         <v>38</v>
@@ -14060,7 +14087,7 @@
         <v>72</v>
       </c>
       <c r="N191" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O191" s="10" t="s">
         <v>67</v>
@@ -14087,7 +14114,7 @@
         <v>13.95</v>
       </c>
       <c r="W191" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X191" s="10" t="s">
         <v>46</v>
@@ -14107,7 +14134,7 @@
         <v>70</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H192" s="10" t="s">
         <v>38</v>
@@ -14128,7 +14155,7 @@
         <v>72</v>
       </c>
       <c r="N192" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O192" s="10" t="s">
         <v>67</v>
@@ -14155,7 +14182,7 @@
         <v>13.95</v>
       </c>
       <c r="W192" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X192" s="10" t="s">
         <v>46</v>
@@ -14175,7 +14202,7 @@
         <v>70</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H193" s="10" t="s">
         <v>38</v>
@@ -14196,7 +14223,7 @@
         <v>72</v>
       </c>
       <c r="N193" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O193" s="10" t="s">
         <v>67</v>
@@ -14223,7 +14250,7 @@
         <v>13.95</v>
       </c>
       <c r="W193" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X193" s="10" t="s">
         <v>46</v>
@@ -14243,7 +14270,7 @@
         <v>70</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H194" s="10" t="s">
         <v>38</v>
@@ -14264,7 +14291,7 @@
         <v>72</v>
       </c>
       <c r="N194" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O194" s="10" t="s">
         <v>67</v>
@@ -14291,7 +14318,7 @@
         <v>13.95</v>
       </c>
       <c r="W194" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X194" s="10" t="s">
         <v>46</v>
@@ -14311,7 +14338,7 @@
         <v>70</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H195" s="10" t="s">
         <v>38</v>
@@ -14332,7 +14359,7 @@
         <v>72</v>
       </c>
       <c r="N195" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O195" s="10" t="s">
         <v>67</v>
@@ -14359,7 +14386,7 @@
         <v>13.95</v>
       </c>
       <c r="W195" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X195" s="10" t="s">
         <v>46</v>
@@ -14379,7 +14406,7 @@
         <v>70</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H196" s="10" t="s">
         <v>38</v>
@@ -14400,7 +14427,7 @@
         <v>72</v>
       </c>
       <c r="N196" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O196" s="10" t="s">
         <v>67</v>
@@ -14427,7 +14454,7 @@
         <v>13.95</v>
       </c>
       <c r="W196" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X196" s="10" t="s">
         <v>46</v>
@@ -14447,7 +14474,7 @@
         <v>200</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H197" s="10" t="s">
         <v>38</v>
@@ -14468,7 +14495,7 @@
         <v>72</v>
       </c>
       <c r="N197" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O197" s="10" t="s">
         <v>67</v>
@@ -14495,7 +14522,7 @@
         <v>13.95</v>
       </c>
       <c r="W197" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X197" s="10" t="s">
         <v>46</v>
@@ -14515,7 +14542,7 @@
         <v>200</v>
       </c>
       <c r="G198" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H198" s="10" t="s">
         <v>38</v>
@@ -14536,7 +14563,7 @@
         <v>72</v>
       </c>
       <c r="N198" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O198" s="10" t="s">
         <v>67</v>
@@ -14563,7 +14590,7 @@
         <v>13.95</v>
       </c>
       <c r="W198" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X198" s="10" t="s">
         <v>46</v>
@@ -14583,7 +14610,7 @@
         <v>200</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H199" s="10" t="s">
         <v>38</v>
@@ -14604,7 +14631,7 @@
         <v>72</v>
       </c>
       <c r="N199" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O199" s="10" t="s">
         <v>67</v>
@@ -14631,7 +14658,7 @@
         <v>13.95</v>
       </c>
       <c r="W199" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X199" s="10" t="s">
         <v>46</v>
@@ -14651,7 +14678,7 @@
         <v>200</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H200" s="10" t="s">
         <v>38</v>
@@ -14672,7 +14699,7 @@
         <v>72</v>
       </c>
       <c r="N200" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O200" s="10" t="s">
         <v>67</v>
@@ -14699,7 +14726,7 @@
         <v>13.95</v>
       </c>
       <c r="W200" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X200" s="10" t="s">
         <v>46</v>
@@ -14719,7 +14746,7 @@
         <v>200</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H201" s="10" t="s">
         <v>38</v>
@@ -14740,7 +14767,7 @@
         <v>72</v>
       </c>
       <c r="N201" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O201" s="10" t="s">
         <v>67</v>
@@ -14767,7 +14794,7 @@
         <v>13.95</v>
       </c>
       <c r="W201" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X201" s="10" t="s">
         <v>46</v>
@@ -14787,7 +14814,7 @@
         <v>6</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>86</v>
@@ -14808,7 +14835,7 @@
         <v>57</v>
       </c>
       <c r="N202" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O202" s="4" t="s">
         <v>62</v>
@@ -14835,10 +14862,10 @@
         <v>21</v>
       </c>
       <c r="W202" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
@@ -14855,7 +14882,7 @@
         <v>16</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>86</v>
@@ -14876,7 +14903,7 @@
         <v>57</v>
       </c>
       <c r="N203" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O203" s="4" t="s">
         <v>62</v>
@@ -14903,10 +14930,10 @@
         <v>21</v>
       </c>
       <c r="W203" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X203" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
@@ -14923,7 +14950,7 @@
         <v>36</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>86</v>
@@ -14944,7 +14971,7 @@
         <v>57</v>
       </c>
       <c r="N204" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O204" s="4" t="s">
         <v>62</v>
@@ -14971,10 +14998,10 @@
         <v>21</v>
       </c>
       <c r="W204" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X204" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
@@ -14991,7 +15018,7 @@
         <v>6</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>86</v>
@@ -15012,7 +15039,7 @@
         <v>57</v>
       </c>
       <c r="N205" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O205" s="4" t="s">
         <v>62</v>
@@ -15039,10 +15066,10 @@
         <v>21</v>
       </c>
       <c r="W205" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
@@ -15059,7 +15086,7 @@
         <v>16</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H206" s="4" t="s">
         <v>86</v>
@@ -15080,7 +15107,7 @@
         <v>57</v>
       </c>
       <c r="N206" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O206" s="4" t="s">
         <v>62</v>
@@ -15107,10 +15134,10 @@
         <v>21</v>
       </c>
       <c r="W206" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X206" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
@@ -15127,7 +15154,7 @@
         <v>36</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>86</v>
@@ -15148,7 +15175,7 @@
         <v>57</v>
       </c>
       <c r="N207" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O207" s="4" t="s">
         <v>62</v>
@@ -15175,10 +15202,10 @@
         <v>21</v>
       </c>
       <c r="W207" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X207" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
@@ -15195,7 +15222,7 @@
         <v>6</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>86</v>
@@ -15216,7 +15243,7 @@
         <v>57</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O208" s="4" t="s">
         <v>62</v>
@@ -15243,10 +15270,10 @@
         <v>21</v>
       </c>
       <c r="W208" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X208" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
@@ -15263,7 +15290,7 @@
         <v>16</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>86</v>
@@ -15284,7 +15311,7 @@
         <v>57</v>
       </c>
       <c r="N209" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O209" s="4" t="s">
         <v>62</v>
@@ -15311,10 +15338,10 @@
         <v>21</v>
       </c>
       <c r="W209" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
@@ -15331,7 +15358,7 @@
         <v>36</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H210" s="4" t="s">
         <v>86</v>
@@ -15352,7 +15379,7 @@
         <v>57</v>
       </c>
       <c r="N210" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O210" s="4" t="s">
         <v>62</v>
@@ -15379,10 +15406,10 @@
         <v>21</v>
       </c>
       <c r="W210" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
@@ -15399,7 +15426,7 @@
         <v>6</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>86</v>
@@ -15420,7 +15447,7 @@
         <v>57</v>
       </c>
       <c r="N211" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O211" s="4" t="s">
         <v>62</v>
@@ -15447,10 +15474,10 @@
         <v>21</v>
       </c>
       <c r="W211" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
@@ -15467,7 +15494,7 @@
         <v>16</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H212" s="4" t="s">
         <v>86</v>
@@ -15488,7 +15515,7 @@
         <v>57</v>
       </c>
       <c r="N212" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O212" s="4" t="s">
         <v>62</v>
@@ -15515,10 +15542,10 @@
         <v>21</v>
       </c>
       <c r="W212" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
@@ -15535,7 +15562,7 @@
         <v>36</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>86</v>
@@ -15556,7 +15583,7 @@
         <v>57</v>
       </c>
       <c r="N213" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O213" s="4" t="s">
         <v>62</v>
@@ -15583,10 +15610,10 @@
         <v>21</v>
       </c>
       <c r="W213" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
@@ -15603,7 +15630,7 @@
         <v>6</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>86</v>
@@ -15624,7 +15651,7 @@
         <v>57</v>
       </c>
       <c r="N214" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O214" s="4" t="s">
         <v>62</v>
@@ -15651,10 +15678,10 @@
         <v>21</v>
       </c>
       <c r="W214" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X214" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
@@ -15671,7 +15698,7 @@
         <v>16</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>86</v>
@@ -15692,7 +15719,7 @@
         <v>57</v>
       </c>
       <c r="N215" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O215" s="4" t="s">
         <v>62</v>
@@ -15719,10 +15746,10 @@
         <v>21</v>
       </c>
       <c r="W215" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
@@ -15739,7 +15766,7 @@
         <v>36</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>86</v>
@@ -15760,7 +15787,7 @@
         <v>57</v>
       </c>
       <c r="N216" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O216" s="4" t="s">
         <v>62</v>
@@ -15787,10 +15814,10 @@
         <v>21</v>
       </c>
       <c r="W216" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X216" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
@@ -15798,18 +15825,16 @@
         <v>0.69933253487037395</v>
       </c>
       <c r="B217" s="12">
-        <v>3.9863013698630101</v>
+        <v>3.5</v>
       </c>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
       <c r="E217" s="11">
         <v>132.47640000000001</v>
       </c>
-      <c r="F217" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F217" s="11"/>
       <c r="G217" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H217" s="10" t="s">
         <v>91</v>
@@ -15830,7 +15855,7 @@
         <v>61</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O217" s="10" t="s">
         <v>62</v>
@@ -15857,7 +15882,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W217" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X217" s="10" t="s">
         <v>92</v>
@@ -15875,11 +15900,9 @@
       <c r="E218" s="11">
         <v>132.47640000000001</v>
       </c>
-      <c r="F218" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F218" s="11"/>
       <c r="G218" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H218" s="10" t="s">
         <v>91</v>
@@ -15900,7 +15923,7 @@
         <v>61</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O218" s="10" t="s">
         <v>62</v>
@@ -15927,7 +15950,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W218" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X218" s="10" t="s">
         <v>92</v>
@@ -15945,11 +15968,9 @@
       <c r="E219" s="11">
         <v>132.47640000000001</v>
       </c>
-      <c r="F219" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F219" s="11"/>
       <c r="G219" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H219" s="10" t="s">
         <v>91</v>
@@ -15970,7 +15991,7 @@
         <v>61</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O219" s="10" t="s">
         <v>62</v>
@@ -15997,7 +16018,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W219" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X219" s="10" t="s">
         <v>92</v>
@@ -16005,21 +16026,19 @@
     </row>
     <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="11">
-        <v>0.60983481797539696</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="B220" s="12">
-        <v>11.1095890410958</v>
+        <v>11.5</v>
       </c>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11">
         <v>132.47640000000001</v>
       </c>
-      <c r="F220" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F220" s="11"/>
       <c r="G220" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H220" s="10" t="s">
         <v>91</v>
@@ -16040,7 +16059,7 @@
         <v>61</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O220" s="10" t="s">
         <v>62</v>
@@ -16067,29 +16086,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W220" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X220" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A221" s="11">
-        <v>0.518391059734022</v>
+      <c r="A221" s="21">
+        <v>0.51902011508640777</v>
       </c>
       <c r="B221" s="12">
-        <v>3.9846055163566301</v>
+        <v>3.5</v>
       </c>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11">
         <v>217.48560000000001</v>
       </c>
-      <c r="F221" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F221" s="11"/>
       <c r="G221" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H221" s="10" t="s">
         <v>91</v>
@@ -16110,7 +16127,7 @@
         <v>61</v>
       </c>
       <c r="N221" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O221" s="10" t="s">
         <v>62</v>
@@ -16137,29 +16154,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W221" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X221" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A222" s="11">
-        <v>0.75081630263233801</v>
+      <c r="A222" s="21">
+        <v>0.75082549200000004</v>
       </c>
       <c r="B222" s="12">
-        <v>5.9858883899935798</v>
+        <v>5.7671232876712297</v>
       </c>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11">
         <v>217.48560000000001</v>
       </c>
-      <c r="F222" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F222" s="11"/>
       <c r="G222" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H222" s="10" t="s">
         <v>91</v>
@@ -16180,7 +16195,7 @@
         <v>61</v>
       </c>
       <c r="N222" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O222" s="10" t="s">
         <v>62</v>
@@ -16207,29 +16222,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W222" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X222" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A223" s="11">
-        <v>0.54836555956186495</v>
+      <c r="A223" s="21">
+        <v>0.54712031368846514</v>
       </c>
       <c r="B223" s="12">
-        <v>7.9974342527260998</v>
+        <v>7.5479452054794498</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11">
         <v>217.48560000000001</v>
       </c>
-      <c r="F223" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F223" s="11"/>
       <c r="G223" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H223" s="10" t="s">
         <v>91</v>
@@ -16250,7 +16263,7 @@
         <v>61</v>
       </c>
       <c r="N223" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O223" s="10" t="s">
         <v>62</v>
@@ -16277,7 +16290,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W223" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X223" s="10" t="s">
         <v>92</v>
@@ -16285,21 +16298,19 @@
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="11">
-        <v>0.59100730049479699</v>
+        <v>0.47</v>
       </c>
       <c r="B224" s="12">
-        <v>8.987812700449</v>
+        <v>11.5</v>
       </c>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11">
         <v>217.48560000000001</v>
       </c>
-      <c r="F224" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F224" s="11"/>
       <c r="G224" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H224" s="10" t="s">
         <v>91</v>
@@ -16320,7 +16331,7 @@
         <v>61</v>
       </c>
       <c r="N224" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O224" s="10" t="s">
         <v>62</v>
@@ -16347,29 +16358,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W224" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X224" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A225" s="11">
-        <v>0.34618397526535699</v>
+      <c r="A225" s="21">
+        <v>0.31718925725042257</v>
       </c>
       <c r="B225" s="12">
-        <v>11.9846055163566</v>
+        <v>3.5</v>
       </c>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11">
         <v>217.48560000000001</v>
       </c>
-      <c r="F225" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F225" s="11"/>
       <c r="G225" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H225" s="10" t="s">
         <v>91</v>
@@ -16390,7 +16399,7 @@
         <v>61</v>
       </c>
       <c r="N225" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O225" s="10" t="s">
         <v>62</v>
@@ -16417,29 +16426,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W225" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X225" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A226" s="11">
-        <v>0.31527890282952997</v>
+      <c r="A226" s="21">
+        <v>0.37763774835377417</v>
       </c>
       <c r="B226" s="12">
-        <v>3.9837272514535602</v>
+        <v>5.7671232876712297</v>
       </c>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11">
         <v>369.8648</v>
       </c>
-      <c r="F226" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F226" s="11"/>
       <c r="G226" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H226" s="10" t="s">
         <v>91</v>
@@ -16460,7 +16467,7 @@
         <v>61</v>
       </c>
       <c r="N226" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O226" s="10" t="s">
         <v>62</v>
@@ -16487,29 +16494,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W226" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X226" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A227" s="11">
-        <v>0.389288707280534</v>
+      <c r="A227" s="21">
+        <v>0.40507623637144624</v>
       </c>
       <c r="B227" s="12">
-        <v>5.9957878062390799</v>
+        <v>7.5479452054794498</v>
       </c>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11">
         <v>369.8648</v>
       </c>
-      <c r="F227" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F227" s="11"/>
       <c r="G227" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H227" s="10" t="s">
         <v>91</v>
@@ -16530,7 +16535,7 @@
         <v>61</v>
       </c>
       <c r="N227" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O227" s="10" t="s">
         <v>62</v>
@@ -16557,7 +16562,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W227" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X227" s="10" t="s">
         <v>92</v>
@@ -16565,21 +16570,19 @@
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="11">
-        <v>0.32017432801908802</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="B228" s="12">
-        <v>7.9917676213105704</v>
+        <v>11.5</v>
       </c>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11">
         <v>369.8648</v>
       </c>
-      <c r="F228" s="11">
-        <v>3248</v>
-      </c>
+      <c r="F228" s="11"/>
       <c r="G228" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H228" s="10" t="s">
         <v>91</v>
@@ -16600,7 +16603,7 @@
         <v>61</v>
       </c>
       <c r="N228" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O228" s="10" t="s">
         <v>62</v>
@@ -16627,84 +16630,14 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W228" s="10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="X228" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A229" s="11">
-        <v>0.229662164459565</v>
-      </c>
-      <c r="B229" s="12">
-        <v>12.0169927816679</v>
-      </c>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
-      <c r="E229" s="11">
-        <v>369.8648</v>
-      </c>
-      <c r="F229" s="11">
-        <v>3248</v>
-      </c>
-      <c r="G229" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H229" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I229" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J229" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K229" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L229" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M229" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N229" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O229" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P229" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="Q229" s="12">
-        <v>3248</v>
-      </c>
-      <c r="R229" s="12">
-        <v>27900</v>
-      </c>
-      <c r="S229" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="T229" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U229" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V229" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="W229" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="X229" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:X229" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X228" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E0F69-9FDF-BC49-9148-6CA9D3586E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B901ED-DF34-6D42-BA3B-58C90959F9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="20420" windowHeight="22260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17480" yWindow="10080" windowWidth="20420" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,6 @@
     <t>Fish sizes are "about" the size specified; Weight at maturation based on median lengths from two fishbase sources; Optimum is temperature treatment yielding highest growth (not estimated)</t>
   </si>
   <si>
-    <t>Zhang-etal-2016-JournalofAppliedIchtyology</t>
-  </si>
-  <si>
     <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated); Found through consumption search</t>
   </si>
   <si>
@@ -454,6 +451,9 @@
   </si>
   <si>
     <t>Growth is for a large size-range; Geometric mean average initial and final size; Data from author bud took from figure since not all data could be retrieved</t>
+  </si>
+  <si>
+    <t>Zhang-etal-2017-JournalofAppliedIchtyology</t>
   </si>
 </sst>
 </file>
@@ -931,9 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W122" sqref="W122"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,7 +985,7 @@
         <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>13.5</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>107</v>
@@ -1169,7 +1169,7 @@
         <v>13.5</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>107</v>
@@ -1237,7 +1237,7 @@
         <v>13.5</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>107</v>
@@ -1305,7 +1305,7 @@
         <v>13.5</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X5" s="10" t="s">
         <v>107</v>
@@ -1373,7 +1373,7 @@
         <v>13.5</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X6" s="10" t="s">
         <v>107</v>
@@ -1441,7 +1441,7 @@
         <v>13.5</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X7" s="10" t="s">
         <v>107</v>
@@ -1509,7 +1509,7 @@
         <v>13.5</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X8" s="10" t="s">
         <v>107</v>
@@ -1577,7 +1577,7 @@
         <v>13.5</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X9" s="10" t="s">
         <v>107</v>
@@ -1645,7 +1645,7 @@
         <v>13.5</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X10" s="10" t="s">
         <v>107</v>
@@ -1713,7 +1713,7 @@
         <v>13.5</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X11" s="10" t="s">
         <v>107</v>
@@ -1781,7 +1781,7 @@
         <v>13.5</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X12" s="10" t="s">
         <v>107</v>
@@ -1849,7 +1849,7 @@
         <v>13.5</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X13" s="10" t="s">
         <v>107</v>
@@ -1917,7 +1917,7 @@
         <v>13.5</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X14" s="10" t="s">
         <v>107</v>
@@ -1985,7 +1985,7 @@
         <v>13.5</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X15" s="10" t="s">
         <v>107</v>
@@ -2053,7 +2053,7 @@
         <v>13.5</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X16" s="10" t="s">
         <v>107</v>
@@ -2121,7 +2121,7 @@
         <v>13.5</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X17" s="10" t="s">
         <v>107</v>
@@ -2189,7 +2189,7 @@
         <v>13.5</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X18" s="10" t="s">
         <v>107</v>
@@ -2257,7 +2257,7 @@
         <v>13.5</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X19" s="10" t="s">
         <v>107</v>
@@ -2325,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X20" s="10" t="s">
         <v>19</v>
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>19</v>
@@ -2461,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X22" s="10" t="s">
         <v>19</v>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>19</v>
@@ -2597,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>19</v>
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X25" s="10" t="s">
         <v>19</v>
@@ -2733,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X26" s="10" t="s">
         <v>19</v>
@@ -2801,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X27" s="10" t="s">
         <v>19</v>
@@ -2869,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X28" s="10" t="s">
         <v>19</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X29" s="10" t="s">
         <v>19</v>
@@ -3005,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X30" s="10" t="s">
         <v>19</v>
@@ -3073,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X31" s="10" t="s">
         <v>19</v>
@@ -3141,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X32" s="10" t="s">
         <v>19</v>
@@ -3209,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X33" s="10" t="s">
         <v>19</v>
@@ -3277,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X34" s="10" t="s">
         <v>19</v>
@@ -3345,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>19</v>
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X36" s="10" t="s">
         <v>19</v>
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X37" s="10" t="s">
         <v>19</v>
@@ -3549,7 +3549,7 @@
         <v>6</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X38" s="10" t="s">
         <v>19</v>
@@ -3617,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X39" s="10" t="s">
         <v>19</v>
@@ -5533,7 +5533,7 @@
         <v>8.4</v>
       </c>
       <c r="W66" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X66" s="15" t="s">
         <v>30</v>
@@ -5601,7 +5601,7 @@
         <v>8.4</v>
       </c>
       <c r="W67" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X67" s="15" t="s">
         <v>30</v>
@@ -5669,7 +5669,7 @@
         <v>8.4</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X68" s="15" t="s">
         <v>30</v>
@@ -5737,7 +5737,7 @@
         <v>8.4</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X69" s="15" t="s">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         <v>8.4</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X70" s="15" t="s">
         <v>30</v>
@@ -5873,7 +5873,7 @@
         <v>8.4</v>
       </c>
       <c r="W71" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X71" s="15" t="s">
         <v>30</v>
@@ -5941,7 +5941,7 @@
         <v>8.4</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X72" s="15" t="s">
         <v>30</v>
@@ -6009,7 +6009,7 @@
         <v>8.4</v>
       </c>
       <c r="W73" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X73" s="15" t="s">
         <v>30</v>
@@ -9257,7 +9257,7 @@
         <v>4.2</v>
       </c>
       <c r="W120" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X120" s="10" t="s">
         <v>34</v>
@@ -9329,7 +9329,7 @@
         <v>4.2</v>
       </c>
       <c r="W121" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X121" s="10" t="s">
         <v>34</v>
@@ -9401,7 +9401,7 @@
         <v>4.2</v>
       </c>
       <c r="W122" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X122" s="10" t="s">
         <v>34</v>
@@ -9473,7 +9473,7 @@
         <v>4.2</v>
       </c>
       <c r="W123" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X123" s="10" t="s">
         <v>34</v>
@@ -9545,7 +9545,7 @@
         <v>4.2</v>
       </c>
       <c r="W124" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X124" s="10" t="s">
         <v>34</v>
@@ -9617,7 +9617,7 @@
         <v>4.2</v>
       </c>
       <c r="W125" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X125" s="10" t="s">
         <v>34</v>
@@ -9689,7 +9689,7 @@
         <v>4.2</v>
       </c>
       <c r="W126" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X126" s="10" t="s">
         <v>34</v>
@@ -9761,7 +9761,7 @@
         <v>4.2</v>
       </c>
       <c r="W127" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X127" s="10" t="s">
         <v>34</v>
@@ -9833,7 +9833,7 @@
         <v>4.2</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X128" s="10" t="s">
         <v>34</v>
@@ -9905,7 +9905,7 @@
         <v>4.2</v>
       </c>
       <c r="W129" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X129" s="10" t="s">
         <v>34</v>
@@ -9977,7 +9977,7 @@
         <v>4.2</v>
       </c>
       <c r="W130" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X130" s="10" t="s">
         <v>34</v>
@@ -10049,7 +10049,7 @@
         <v>4.2</v>
       </c>
       <c r="W131" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X131" s="10" t="s">
         <v>34</v>
@@ -10121,7 +10121,7 @@
         <v>4.2</v>
       </c>
       <c r="W132" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X132" s="10" t="s">
         <v>34</v>
@@ -10193,7 +10193,7 @@
         <v>4.2</v>
       </c>
       <c r="W133" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X133" s="10" t="s">
         <v>34</v>
@@ -10265,7 +10265,7 @@
         <v>4.2</v>
       </c>
       <c r="W134" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X134" s="10" t="s">
         <v>34</v>
@@ -10337,7 +10337,7 @@
         <v>4.2</v>
       </c>
       <c r="W135" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X135" s="10" t="s">
         <v>34</v>
@@ -10409,7 +10409,7 @@
         <v>4.2</v>
       </c>
       <c r="W136" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X136" s="10" t="s">
         <v>34</v>
@@ -10476,7 +10476,7 @@
         <v>8.9</v>
       </c>
       <c r="W137" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X137" s="10" t="s">
         <v>37</v>
@@ -10543,7 +10543,7 @@
         <v>8.9</v>
       </c>
       <c r="W138" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X138" s="10" t="s">
         <v>37</v>
@@ -10610,7 +10610,7 @@
         <v>8.9</v>
       </c>
       <c r="W139" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X139" s="10" t="s">
         <v>37</v>
@@ -10677,7 +10677,7 @@
         <v>8.9</v>
       </c>
       <c r="W140" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X140" s="10" t="s">
         <v>37</v>
@@ -10744,7 +10744,7 @@
         <v>8.9</v>
       </c>
       <c r="W141" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X141" s="10" t="s">
         <v>37</v>
@@ -10811,7 +10811,7 @@
         <v>8.9</v>
       </c>
       <c r="W142" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X142" s="10" t="s">
         <v>37</v>
@@ -10878,7 +10878,7 @@
         <v>8.9</v>
       </c>
       <c r="W143" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X143" s="10" t="s">
         <v>37</v>
@@ -10945,7 +10945,7 @@
         <v>8.9</v>
       </c>
       <c r="W144" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X144" s="10" t="s">
         <v>37</v>
@@ -11012,7 +11012,7 @@
         <v>8.9</v>
       </c>
       <c r="W145" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X145" s="10" t="s">
         <v>37</v>
@@ -11079,7 +11079,7 @@
         <v>8.9</v>
       </c>
       <c r="W146" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X146" s="10" t="s">
         <v>37</v>
@@ -11146,7 +11146,7 @@
         <v>8.9</v>
       </c>
       <c r="W147" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X147" s="10" t="s">
         <v>37</v>
@@ -11213,7 +11213,7 @@
         <v>8.9</v>
       </c>
       <c r="W148" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X148" s="10" t="s">
         <v>37</v>
@@ -11280,7 +11280,7 @@
         <v>8.9</v>
       </c>
       <c r="W149" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X149" s="10" t="s">
         <v>37</v>
@@ -11347,7 +11347,7 @@
         <v>8.9</v>
       </c>
       <c r="W150" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X150" s="10" t="s">
         <v>37</v>
@@ -11414,7 +11414,7 @@
         <v>8.9</v>
       </c>
       <c r="W151" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X151" s="10" t="s">
         <v>37</v>
@@ -11481,7 +11481,7 @@
         <v>8.9</v>
       </c>
       <c r="W152" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X152" s="10" t="s">
         <v>37</v>
@@ -11548,7 +11548,7 @@
         <v>8.9</v>
       </c>
       <c r="W153" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X153" s="10" t="s">
         <v>37</v>
@@ -11615,7 +11615,7 @@
         <v>8.9</v>
       </c>
       <c r="W154" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X154" s="10" t="s">
         <v>37</v>
@@ -11682,7 +11682,7 @@
         <v>8.9</v>
       </c>
       <c r="W155" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X155" s="10" t="s">
         <v>37</v>
@@ -11749,7 +11749,7 @@
         <v>8.9</v>
       </c>
       <c r="W156" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X156" s="10" t="s">
         <v>37</v>
@@ -11816,7 +11816,7 @@
         <v>8.9</v>
       </c>
       <c r="W157" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X157" s="10" t="s">
         <v>37</v>
@@ -11883,7 +11883,7 @@
         <v>8.9</v>
       </c>
       <c r="W158" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X158" s="10" t="s">
         <v>37</v>
@@ -11950,7 +11950,7 @@
         <v>8.9</v>
       </c>
       <c r="W159" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X159" s="10" t="s">
         <v>37</v>
@@ -12017,7 +12017,7 @@
         <v>8.9</v>
       </c>
       <c r="W160" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X160" s="10" t="s">
         <v>37</v>
@@ -12084,7 +12084,7 @@
         <v>8.9</v>
       </c>
       <c r="W161" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X161" s="10" t="s">
         <v>37</v>
@@ -12151,7 +12151,7 @@
         <v>8.9</v>
       </c>
       <c r="W162" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X162" s="10" t="s">
         <v>37</v>
@@ -12218,7 +12218,7 @@
         <v>8.9</v>
       </c>
       <c r="W163" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X163" s="10" t="s">
         <v>37</v>
@@ -12285,7 +12285,7 @@
         <v>8.9</v>
       </c>
       <c r="W164" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X164" s="10" t="s">
         <v>37</v>
@@ -12352,7 +12352,7 @@
         <v>8.9</v>
       </c>
       <c r="W165" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X165" s="10" t="s">
         <v>37</v>
@@ -12419,7 +12419,7 @@
         <v>8.9</v>
       </c>
       <c r="W166" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X166" s="10" t="s">
         <v>37</v>
@@ -12486,7 +12486,7 @@
         <v>8.9</v>
       </c>
       <c r="W167" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X167" s="10" t="s">
         <v>37</v>
@@ -12553,7 +12553,7 @@
         <v>8.9</v>
       </c>
       <c r="W168" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X168" s="10" t="s">
         <v>37</v>
@@ -12620,7 +12620,7 @@
         <v>8.9</v>
       </c>
       <c r="W169" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X169" s="10" t="s">
         <v>37</v>
@@ -12687,7 +12687,7 @@
         <v>8.9</v>
       </c>
       <c r="W170" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X170" s="10" t="s">
         <v>37</v>
@@ -12754,7 +12754,7 @@
         <v>8.9</v>
       </c>
       <c r="W171" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X171" s="10" t="s">
         <v>37</v>
@@ -12822,7 +12822,7 @@
         <v>1.4</v>
       </c>
       <c r="W172" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X172" s="10" t="s">
         <v>43</v>
@@ -12890,7 +12890,7 @@
         <v>1.4</v>
       </c>
       <c r="W173" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X173" s="10" t="s">
         <v>43</v>
@@ -12958,7 +12958,7 @@
         <v>1.4</v>
       </c>
       <c r="W174" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X174" s="10" t="s">
         <v>43</v>
@@ -13026,7 +13026,7 @@
         <v>1.4</v>
       </c>
       <c r="W175" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X175" s="10" t="s">
         <v>43</v>
@@ -13094,7 +13094,7 @@
         <v>1.4</v>
       </c>
       <c r="W176" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X176" s="10" t="s">
         <v>43</v>
@@ -13162,7 +13162,7 @@
         <v>1.4</v>
       </c>
       <c r="W177" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X177" s="10" t="s">
         <v>43</v>
@@ -13230,7 +13230,7 @@
         <v>1.4</v>
       </c>
       <c r="W178" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X178" s="10" t="s">
         <v>43</v>
@@ -13298,7 +13298,7 @@
         <v>1.4</v>
       </c>
       <c r="W179" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X179" s="10" t="s">
         <v>43</v>
@@ -13366,7 +13366,7 @@
         <v>1.4</v>
       </c>
       <c r="W180" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X180" s="10" t="s">
         <v>43</v>
@@ -13434,7 +13434,7 @@
         <v>1.4</v>
       </c>
       <c r="W181" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X181" s="10" t="s">
         <v>43</v>
@@ -14862,10 +14862,10 @@
         <v>21</v>
       </c>
       <c r="W202" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
@@ -14930,10 +14930,10 @@
         <v>21</v>
       </c>
       <c r="W203" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X203" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
@@ -14998,10 +14998,10 @@
         <v>21</v>
       </c>
       <c r="W204" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X204" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
@@ -15066,10 +15066,10 @@
         <v>21</v>
       </c>
       <c r="W205" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
@@ -15134,10 +15134,10 @@
         <v>21</v>
       </c>
       <c r="W206" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X206" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
@@ -15202,10 +15202,10 @@
         <v>21</v>
       </c>
       <c r="W207" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X207" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
@@ -15270,10 +15270,10 @@
         <v>21</v>
       </c>
       <c r="W208" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X208" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
@@ -15338,10 +15338,10 @@
         <v>21</v>
       </c>
       <c r="W209" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
@@ -15406,10 +15406,10 @@
         <v>21</v>
       </c>
       <c r="W210" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
@@ -15474,10 +15474,10 @@
         <v>21</v>
       </c>
       <c r="W211" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
@@ -15542,10 +15542,10 @@
         <v>21</v>
       </c>
       <c r="W212" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
@@ -15610,10 +15610,10 @@
         <v>21</v>
       </c>
       <c r="W213" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
@@ -15678,10 +15678,10 @@
         <v>21</v>
       </c>
       <c r="W214" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X214" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
@@ -15746,10 +15746,10 @@
         <v>21</v>
       </c>
       <c r="W215" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
@@ -15814,10 +15814,10 @@
         <v>21</v>
       </c>
       <c r="W216" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X216" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
@@ -15882,7 +15882,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W217" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X217" s="10" t="s">
         <v>92</v>
@@ -15950,7 +15950,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W218" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X218" s="10" t="s">
         <v>92</v>
@@ -16018,7 +16018,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W219" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X219" s="10" t="s">
         <v>92</v>
@@ -16086,7 +16086,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W220" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X220" s="10" t="s">
         <v>92</v>
@@ -16154,7 +16154,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W221" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X221" s="10" t="s">
         <v>92</v>
@@ -16222,7 +16222,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W222" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X222" s="10" t="s">
         <v>92</v>
@@ -16290,7 +16290,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W223" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X223" s="10" t="s">
         <v>92</v>
@@ -16358,7 +16358,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W224" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X224" s="10" t="s">
         <v>92</v>
@@ -16426,7 +16426,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W225" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X225" s="10" t="s">
         <v>92</v>
@@ -16494,7 +16494,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W226" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X226" s="10" t="s">
         <v>92</v>
@@ -16562,7 +16562,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W227" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X227" s="10" t="s">
         <v>92</v>
@@ -16630,14 +16630,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W228" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X228" s="10" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X228" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B901ED-DF34-6D42-BA3B-58C90959F9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A748F78B-B9C1-4244-BF7E-E27F7F9284F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="10080" windowWidth="20420" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6200" yWindow="2340" windowWidth="29000" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,6 @@
     <t>w_maturation_g</t>
   </si>
   <si>
-    <t>Potentially average over a too large size-range; Geometric mean from size window; Unusual formula for SGR; Wild strain; Maturity size based on 16C treatment and 42% maturing (males)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -432,9 +429,6 @@
     <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382174</t>
   </si>
   <si>
-    <t>Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size, calculated mean in separate doc.; w_maturation from Craig et al 1981 CJFA, age at maturatity 2,3, used geometric mean of length at age.</t>
-  </si>
-  <si>
     <t>Data from authors; Environmental temperature from Joh et al. (2013). Interannual growth differences and growth-selective survival in larvae and juveniles of marbled sole Pseudopleuronectes yokohamae. Marine Ecology Progress Series, 494, 267–279. AND Mitamura, H., Arai, N., Hori, M., Uchida, K., Kajiyama, M. &amp; Ishii, M. (2020). Occurrence of a temperate coastal flatfish, the marbled flounder Pseudopleuronectes yokohamae, at high water temperatures in a shallow bay in summer detected by acoustic telemetry. Fish Sci, 86, 77–85.</t>
   </si>
   <si>
@@ -450,10 +444,16 @@
     <t>above_peak_temp</t>
   </si>
   <si>
-    <t>Growth is for a large size-range; Geometric mean average initial and final size; Data from author bud took from figure since not all data could be retrieved</t>
+    <t>Zhang-etal-2017-JournalofAppliedIchtyology</t>
   </si>
   <si>
-    <t>Zhang-etal-2017-JournalofAppliedIchtyology</t>
+    <t>Potentially average over a too large size-range; Geometric mean from size window; Wild strain; Maturity size based on 16C treatment and 42% maturing (males)</t>
+  </si>
+  <si>
+    <t>Growth is for a large size-range; Geometric mean average initial and final size; Data from author but took from figure since not all data could be retrieved</t>
+  </si>
+  <si>
+    <t>Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size, calculated mean in separate doc; w_maturation from Craig et al 1981 CJFA, age at maturatity 2,3, used geometric mean of length at age.</t>
   </si>
 </sst>
 </file>
@@ -931,9 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W228" sqref="W228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -967,7 +967,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>94</v>
@@ -985,7 +985,7 @@
         <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -1074,7 +1074,7 @@
         <v>61</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>62</v>
@@ -1101,10 +1101,10 @@
         <v>13.5</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>17</v>
@@ -1142,7 +1142,7 @@
         <v>61</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>62</v>
@@ -1169,10 +1169,10 @@
         <v>13.5</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
@@ -1210,7 +1210,7 @@
         <v>61</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>62</v>
@@ -1237,10 +1237,10 @@
         <v>13.5</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
@@ -1278,7 +1278,7 @@
         <v>61</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>62</v>
@@ -1305,10 +1305,10 @@
         <v>13.5</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>17</v>
@@ -1346,7 +1346,7 @@
         <v>61</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>62</v>
@@ -1373,10 +1373,10 @@
         <v>13.5</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>17</v>
@@ -1414,7 +1414,7 @@
         <v>61</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>62</v>
@@ -1441,10 +1441,10 @@
         <v>13.5</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>17</v>
@@ -1482,7 +1482,7 @@
         <v>61</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O8" s="10" t="s">
         <v>62</v>
@@ -1509,10 +1509,10 @@
         <v>13.5</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>17</v>
@@ -1550,7 +1550,7 @@
         <v>61</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>62</v>
@@ -1577,10 +1577,10 @@
         <v>13.5</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
@@ -1618,7 +1618,7 @@
         <v>61</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>62</v>
@@ -1645,10 +1645,10 @@
         <v>13.5</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>17</v>
@@ -1686,7 +1686,7 @@
         <v>61</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>62</v>
@@ -1713,10 +1713,10 @@
         <v>13.5</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
@@ -1754,7 +1754,7 @@
         <v>61</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O12" s="10" t="s">
         <v>62</v>
@@ -1781,10 +1781,10 @@
         <v>13.5</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
@@ -1822,7 +1822,7 @@
         <v>61</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>62</v>
@@ -1849,10 +1849,10 @@
         <v>13.5</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>17</v>
@@ -1890,7 +1890,7 @@
         <v>61</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>62</v>
@@ -1917,10 +1917,10 @@
         <v>13.5</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>17</v>
@@ -1958,7 +1958,7 @@
         <v>61</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>62</v>
@@ -1985,10 +1985,10 @@
         <v>13.5</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>17</v>
@@ -2026,7 +2026,7 @@
         <v>61</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>62</v>
@@ -2053,10 +2053,10 @@
         <v>13.5</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>17</v>
@@ -2094,7 +2094,7 @@
         <v>61</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>62</v>
@@ -2121,10 +2121,10 @@
         <v>13.5</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>17</v>
@@ -2162,7 +2162,7 @@
         <v>61</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>62</v>
@@ -2189,10 +2189,10 @@
         <v>13.5</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>17</v>
@@ -2230,7 +2230,7 @@
         <v>61</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>62</v>
@@ -2257,10 +2257,10 @@
         <v>13.5</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>18</v>
@@ -2298,7 +2298,7 @@
         <v>61</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>66</v>
@@ -2325,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X20" s="10" t="s">
         <v>19</v>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>18</v>
@@ -2366,7 +2366,7 @@
         <v>61</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>66</v>
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>19</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>18</v>
@@ -2434,7 +2434,7 @@
         <v>61</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>66</v>
@@ -2461,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X22" s="10" t="s">
         <v>19</v>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>18</v>
@@ -2502,7 +2502,7 @@
         <v>61</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O23" s="10" t="s">
         <v>66</v>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>19</v>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>18</v>
@@ -2570,7 +2570,7 @@
         <v>61</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>66</v>
@@ -2597,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>19</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>18</v>
@@ -2638,7 +2638,7 @@
         <v>61</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>66</v>
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X25" s="10" t="s">
         <v>19</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>18</v>
@@ -2706,7 +2706,7 @@
         <v>61</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O26" s="10" t="s">
         <v>66</v>
@@ -2733,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X26" s="10" t="s">
         <v>19</v>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>18</v>
@@ -2774,7 +2774,7 @@
         <v>61</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>66</v>
@@ -2801,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X27" s="10" t="s">
         <v>19</v>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>18</v>
@@ -2842,7 +2842,7 @@
         <v>61</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>66</v>
@@ -2869,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X28" s="10" t="s">
         <v>19</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>18</v>
@@ -2910,7 +2910,7 @@
         <v>61</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O29" s="10" t="s">
         <v>66</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X29" s="10" t="s">
         <v>19</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>18</v>
@@ -2978,7 +2978,7 @@
         <v>61</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>66</v>
@@ -3005,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X30" s="10" t="s">
         <v>19</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>18</v>
@@ -3046,7 +3046,7 @@
         <v>61</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="10" t="s">
         <v>66</v>
@@ -3073,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X31" s="10" t="s">
         <v>19</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>18</v>
@@ -3114,7 +3114,7 @@
         <v>61</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="10" t="s">
         <v>66</v>
@@ -3141,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X32" s="10" t="s">
         <v>19</v>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>18</v>
@@ -3182,7 +3182,7 @@
         <v>61</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>66</v>
@@ -3209,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X33" s="10" t="s">
         <v>19</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>18</v>
@@ -3250,7 +3250,7 @@
         <v>61</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>66</v>
@@ -3277,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X34" s="10" t="s">
         <v>19</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>18</v>
@@ -3318,7 +3318,7 @@
         <v>61</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O35" s="10" t="s">
         <v>66</v>
@@ -3345,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>19</v>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>18</v>
@@ -3386,7 +3386,7 @@
         <v>61</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O36" s="10" t="s">
         <v>66</v>
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X36" s="10" t="s">
         <v>19</v>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>18</v>
@@ -3454,7 +3454,7 @@
         <v>61</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O37" s="10" t="s">
         <v>66</v>
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X37" s="10" t="s">
         <v>19</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>18</v>
@@ -3522,7 +3522,7 @@
         <v>61</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>66</v>
@@ -3549,7 +3549,7 @@
         <v>6</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X38" s="10" t="s">
         <v>19</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>18</v>
@@ -3590,7 +3590,7 @@
         <v>61</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>66</v>
@@ -3617,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X39" s="10" t="s">
         <v>19</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>22</v>
@@ -3662,7 +3662,7 @@
         <v>61</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>67</v>
@@ -3689,7 +3689,7 @@
         <v>16.8</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X40" s="10" t="s">
         <v>24</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>22</v>
@@ -3734,7 +3734,7 @@
         <v>61</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>67</v>
@@ -3761,7 +3761,7 @@
         <v>16.8</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X41" s="10" t="s">
         <v>24</v>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>22</v>
@@ -3806,7 +3806,7 @@
         <v>61</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>67</v>
@@ -3833,7 +3833,7 @@
         <v>16.8</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X42" s="10" t="s">
         <v>24</v>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>22</v>
@@ -3878,7 +3878,7 @@
         <v>61</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O43" s="10" t="s">
         <v>67</v>
@@ -3905,7 +3905,7 @@
         <v>16.8</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X43" s="10" t="s">
         <v>24</v>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>22</v>
@@ -3950,7 +3950,7 @@
         <v>61</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O44" s="10" t="s">
         <v>67</v>
@@ -3977,7 +3977,7 @@
         <v>16.8</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X44" s="10" t="s">
         <v>24</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>22</v>
@@ -4022,7 +4022,7 @@
         <v>61</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O45" s="10" t="s">
         <v>67</v>
@@ -4049,7 +4049,7 @@
         <v>16.8</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X45" s="10" t="s">
         <v>24</v>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>22</v>
@@ -4094,7 +4094,7 @@
         <v>61</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O46" s="10" t="s">
         <v>67</v>
@@ -4121,7 +4121,7 @@
         <v>16.8</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X46" s="10" t="s">
         <v>24</v>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>22</v>
@@ -4166,7 +4166,7 @@
         <v>61</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>67</v>
@@ -4193,7 +4193,7 @@
         <v>16.8</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X47" s="10" t="s">
         <v>24</v>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>22</v>
@@ -4238,7 +4238,7 @@
         <v>61</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>67</v>
@@ -4265,7 +4265,7 @@
         <v>16.8</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X48" s="10" t="s">
         <v>24</v>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>22</v>
@@ -4310,7 +4310,7 @@
         <v>61</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>67</v>
@@ -4337,7 +4337,7 @@
         <v>16.8</v>
       </c>
       <c r="W49" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X49" s="10" t="s">
         <v>24</v>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>22</v>
@@ -4382,7 +4382,7 @@
         <v>61</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>67</v>
@@ -4409,7 +4409,7 @@
         <v>16.8</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X50" s="10" t="s">
         <v>24</v>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>22</v>
@@ -4454,7 +4454,7 @@
         <v>61</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O51" s="10" t="s">
         <v>67</v>
@@ -4481,7 +4481,7 @@
         <v>16.8</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X51" s="10" t="s">
         <v>24</v>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>22</v>
@@ -4526,7 +4526,7 @@
         <v>61</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>67</v>
@@ -4553,7 +4553,7 @@
         <v>16.8</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X52" s="10" t="s">
         <v>24</v>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>22</v>
@@ -4598,7 +4598,7 @@
         <v>61</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>67</v>
@@ -4625,7 +4625,7 @@
         <v>16.8</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X53" s="10" t="s">
         <v>24</v>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>22</v>
@@ -4670,7 +4670,7 @@
         <v>61</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O54" s="10" t="s">
         <v>67</v>
@@ -4697,7 +4697,7 @@
         <v>16.8</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X54" s="10" t="s">
         <v>24</v>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>22</v>
@@ -4742,7 +4742,7 @@
         <v>61</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>67</v>
@@ -4769,7 +4769,7 @@
         <v>16.8</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X55" s="10" t="s">
         <v>24</v>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>22</v>
@@ -4814,7 +4814,7 @@
         <v>61</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O56" s="10" t="s">
         <v>67</v>
@@ -4841,7 +4841,7 @@
         <v>16.8</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X56" s="10" t="s">
         <v>24</v>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>22</v>
@@ -4886,7 +4886,7 @@
         <v>61</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O57" s="10" t="s">
         <v>67</v>
@@ -4913,7 +4913,7 @@
         <v>16.8</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X57" s="10" t="s">
         <v>24</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>22</v>
@@ -4958,7 +4958,7 @@
         <v>61</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O58" s="10" t="s">
         <v>67</v>
@@ -4985,7 +4985,7 @@
         <v>16.8</v>
       </c>
       <c r="W58" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X58" s="10" t="s">
         <v>24</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>22</v>
@@ -5030,7 +5030,7 @@
         <v>61</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O59" s="10" t="s">
         <v>67</v>
@@ -5057,7 +5057,7 @@
         <v>16.8</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X59" s="10" t="s">
         <v>24</v>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>27</v>
@@ -5098,7 +5098,7 @@
         <v>71</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O60" s="15" t="s">
         <v>62</v>
@@ -5125,7 +5125,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W60" s="15" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="X60" s="15" t="s">
         <v>25</v>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>27</v>
@@ -5166,7 +5166,7 @@
         <v>71</v>
       </c>
       <c r="N61" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O61" s="15" t="s">
         <v>62</v>
@@ -5193,7 +5193,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W61" s="15" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="X61" s="15" t="s">
         <v>25</v>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>27</v>
@@ -5234,7 +5234,7 @@
         <v>71</v>
       </c>
       <c r="N62" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O62" s="15" t="s">
         <v>62</v>
@@ -5261,7 +5261,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W62" s="15" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="X62" s="15" t="s">
         <v>25</v>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>27</v>
@@ -5302,7 +5302,7 @@
         <v>71</v>
       </c>
       <c r="N63" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O63" s="15" t="s">
         <v>62</v>
@@ -5329,7 +5329,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W63" s="15" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="X63" s="15" t="s">
         <v>25</v>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>27</v>
@@ -5370,7 +5370,7 @@
         <v>71</v>
       </c>
       <c r="N64" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O64" s="15" t="s">
         <v>62</v>
@@ -5397,7 +5397,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W64" s="15" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="X64" s="15" t="s">
         <v>25</v>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>27</v>
@@ -5438,7 +5438,7 @@
         <v>71</v>
       </c>
       <c r="N65" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O65" s="15" t="s">
         <v>62</v>
@@ -5465,7 +5465,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W65" s="15" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="X65" s="15" t="s">
         <v>25</v>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>28</v>
@@ -5506,7 +5506,7 @@
         <v>71</v>
       </c>
       <c r="N66" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O66" s="15" t="s">
         <v>62</v>
@@ -5533,7 +5533,7 @@
         <v>8.4</v>
       </c>
       <c r="W66" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X66" s="15" t="s">
         <v>30</v>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>28</v>
@@ -5574,7 +5574,7 @@
         <v>71</v>
       </c>
       <c r="N67" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O67" s="15" t="s">
         <v>62</v>
@@ -5601,7 +5601,7 @@
         <v>8.4</v>
       </c>
       <c r="W67" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X67" s="15" t="s">
         <v>30</v>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>28</v>
@@ -5642,7 +5642,7 @@
         <v>71</v>
       </c>
       <c r="N68" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O68" s="15" t="s">
         <v>62</v>
@@ -5669,7 +5669,7 @@
         <v>8.4</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X68" s="15" t="s">
         <v>30</v>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>28</v>
@@ -5710,7 +5710,7 @@
         <v>71</v>
       </c>
       <c r="N69" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O69" s="15" t="s">
         <v>62</v>
@@ -5737,7 +5737,7 @@
         <v>8.4</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X69" s="15" t="s">
         <v>30</v>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>28</v>
@@ -5778,7 +5778,7 @@
         <v>71</v>
       </c>
       <c r="N70" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O70" s="15" t="s">
         <v>62</v>
@@ -5805,7 +5805,7 @@
         <v>8.4</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X70" s="15" t="s">
         <v>30</v>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>28</v>
@@ -5846,7 +5846,7 @@
         <v>71</v>
       </c>
       <c r="N71" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O71" s="15" t="s">
         <v>62</v>
@@ -5873,7 +5873,7 @@
         <v>8.4</v>
       </c>
       <c r="W71" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X71" s="15" t="s">
         <v>30</v>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>28</v>
@@ -5914,7 +5914,7 @@
         <v>71</v>
       </c>
       <c r="N72" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O72" s="15" t="s">
         <v>62</v>
@@ -5941,7 +5941,7 @@
         <v>8.4</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X72" s="15" t="s">
         <v>30</v>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>28</v>
@@ -5982,7 +5982,7 @@
         <v>71</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O73" s="15" t="s">
         <v>62</v>
@@ -6009,7 +6009,7 @@
         <v>8.4</v>
       </c>
       <c r="W73" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X73" s="15" t="s">
         <v>30</v>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>31</v>
@@ -6054,7 +6054,7 @@
         <v>71</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O74" s="10" t="s">
         <v>58</v>
@@ -6081,7 +6081,7 @@
         <v>27.05</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X74" s="15" t="s">
         <v>93</v>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>31</v>
@@ -6126,7 +6126,7 @@
         <v>71</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O75" s="10" t="s">
         <v>58</v>
@@ -6153,7 +6153,7 @@
         <v>27.05</v>
       </c>
       <c r="W75" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X75" s="15" t="s">
         <v>93</v>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>31</v>
@@ -6198,7 +6198,7 @@
         <v>71</v>
       </c>
       <c r="N76" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O76" s="10" t="s">
         <v>58</v>
@@ -6225,7 +6225,7 @@
         <v>27.05</v>
       </c>
       <c r="W76" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X76" s="15" t="s">
         <v>93</v>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H77" s="15" t="s">
         <v>31</v>
@@ -6270,7 +6270,7 @@
         <v>71</v>
       </c>
       <c r="N77" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O77" s="10" t="s">
         <v>58</v>
@@ -6297,7 +6297,7 @@
         <v>27.05</v>
       </c>
       <c r="W77" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X77" s="15" t="s">
         <v>93</v>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H78" s="15" t="s">
         <v>31</v>
@@ -6342,7 +6342,7 @@
         <v>71</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O78" s="10" t="s">
         <v>58</v>
@@ -6369,7 +6369,7 @@
         <v>27.05</v>
       </c>
       <c r="W78" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X78" s="15" t="s">
         <v>93</v>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H79" s="15" t="s">
         <v>31</v>
@@ -6414,7 +6414,7 @@
         <v>71</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O79" s="10" t="s">
         <v>58</v>
@@ -6441,7 +6441,7 @@
         <v>27.05</v>
       </c>
       <c r="W79" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X79" s="15" t="s">
         <v>93</v>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>31</v>
@@ -6486,7 +6486,7 @@
         <v>71</v>
       </c>
       <c r="N80" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O80" s="10" t="s">
         <v>58</v>
@@ -6513,7 +6513,7 @@
         <v>27.05</v>
       </c>
       <c r="W80" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X80" s="15" t="s">
         <v>93</v>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H81" s="15" t="s">
         <v>31</v>
@@ -6558,7 +6558,7 @@
         <v>71</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O81" s="10" t="s">
         <v>58</v>
@@ -6585,7 +6585,7 @@
         <v>27.05</v>
       </c>
       <c r="W81" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X81" s="15" t="s">
         <v>93</v>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H82" s="15" t="s">
         <v>31</v>
@@ -6630,7 +6630,7 @@
         <v>71</v>
       </c>
       <c r="N82" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O82" s="10" t="s">
         <v>58</v>
@@ -6657,7 +6657,7 @@
         <v>27.05</v>
       </c>
       <c r="W82" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X82" s="15" t="s">
         <v>93</v>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H83" s="15" t="s">
         <v>31</v>
@@ -6702,7 +6702,7 @@
         <v>71</v>
       </c>
       <c r="N83" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O83" s="10" t="s">
         <v>58</v>
@@ -6729,7 +6729,7 @@
         <v>27.05</v>
       </c>
       <c r="W83" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X83" s="15" t="s">
         <v>93</v>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H84" s="15" t="s">
         <v>31</v>
@@ -6774,7 +6774,7 @@
         <v>71</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O84" s="10" t="s">
         <v>58</v>
@@ -6801,7 +6801,7 @@
         <v>27.05</v>
       </c>
       <c r="W84" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X84" s="15" t="s">
         <v>93</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H85" s="15" t="s">
         <v>31</v>
@@ -6846,7 +6846,7 @@
         <v>71</v>
       </c>
       <c r="N85" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O85" s="10" t="s">
         <v>58</v>
@@ -6873,7 +6873,7 @@
         <v>27.05</v>
       </c>
       <c r="W85" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X85" s="15" t="s">
         <v>93</v>
@@ -6893,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>33</v>
@@ -6914,7 +6914,7 @@
         <v>72</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>62</v>
@@ -6941,7 +6941,7 @@
         <v>5.4</v>
       </c>
       <c r="W86" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X86" s="10" t="s">
         <v>89</v>
@@ -6961,7 +6961,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>33</v>
@@ -6982,7 +6982,7 @@
         <v>72</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>62</v>
@@ -7009,7 +7009,7 @@
         <v>5.4</v>
       </c>
       <c r="W87" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X87" s="10" t="s">
         <v>89</v>
@@ -7029,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>33</v>
@@ -7050,7 +7050,7 @@
         <v>72</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>62</v>
@@ -7077,7 +7077,7 @@
         <v>5.4</v>
       </c>
       <c r="W88" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X88" s="10" t="s">
         <v>89</v>
@@ -7097,7 +7097,7 @@
         <v>2</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>33</v>
@@ -7118,7 +7118,7 @@
         <v>72</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>62</v>
@@ -7145,7 +7145,7 @@
         <v>5.4</v>
       </c>
       <c r="W89" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X89" s="10" t="s">
         <v>89</v>
@@ -7165,7 +7165,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>33</v>
@@ -7186,7 +7186,7 @@
         <v>72</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>62</v>
@@ -7213,7 +7213,7 @@
         <v>5.4</v>
       </c>
       <c r="W90" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X90" s="10" t="s">
         <v>89</v>
@@ -7233,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>33</v>
@@ -7254,7 +7254,7 @@
         <v>72</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>62</v>
@@ -7281,7 +7281,7 @@
         <v>5.4</v>
       </c>
       <c r="W91" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X91" s="10" t="s">
         <v>89</v>
@@ -7301,7 +7301,7 @@
         <v>7</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>33</v>
@@ -7322,7 +7322,7 @@
         <v>72</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>62</v>
@@ -7349,7 +7349,7 @@
         <v>5.4</v>
       </c>
       <c r="W92" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X92" s="10" t="s">
         <v>89</v>
@@ -7369,7 +7369,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>33</v>
@@ -7390,7 +7390,7 @@
         <v>72</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>62</v>
@@ -7417,7 +7417,7 @@
         <v>5.4</v>
       </c>
       <c r="W93" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X93" s="10" t="s">
         <v>89</v>
@@ -7437,7 +7437,7 @@
         <v>7</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>33</v>
@@ -7458,7 +7458,7 @@
         <v>72</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>62</v>
@@ -7485,7 +7485,7 @@
         <v>5.4</v>
       </c>
       <c r="W94" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X94" s="10" t="s">
         <v>89</v>
@@ -7505,7 +7505,7 @@
         <v>7</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>33</v>
@@ -7526,7 +7526,7 @@
         <v>72</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>62</v>
@@ -7553,7 +7553,7 @@
         <v>5.4</v>
       </c>
       <c r="W95" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X95" s="10" t="s">
         <v>89</v>
@@ -7573,7 +7573,7 @@
         <v>7</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>33</v>
@@ -7594,7 +7594,7 @@
         <v>72</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>62</v>
@@ -7621,7 +7621,7 @@
         <v>5.4</v>
       </c>
       <c r="W96" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X96" s="10" t="s">
         <v>89</v>
@@ -7641,7 +7641,7 @@
         <v>7</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>33</v>
@@ -7662,7 +7662,7 @@
         <v>72</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>62</v>
@@ -7689,7 +7689,7 @@
         <v>5.4</v>
       </c>
       <c r="W97" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X97" s="10" t="s">
         <v>89</v>
@@ -7709,7 +7709,7 @@
         <v>14</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>33</v>
@@ -7730,7 +7730,7 @@
         <v>72</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>62</v>
@@ -7757,7 +7757,7 @@
         <v>5.4</v>
       </c>
       <c r="W98" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X98" s="10" t="s">
         <v>89</v>
@@ -7777,7 +7777,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>33</v>
@@ -7798,7 +7798,7 @@
         <v>72</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>62</v>
@@ -7825,7 +7825,7 @@
         <v>5.4</v>
       </c>
       <c r="W99" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X99" s="10" t="s">
         <v>89</v>
@@ -7845,7 +7845,7 @@
         <v>14</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>33</v>
@@ -7866,7 +7866,7 @@
         <v>72</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>62</v>
@@ -7893,7 +7893,7 @@
         <v>5.4</v>
       </c>
       <c r="W100" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X100" s="10" t="s">
         <v>89</v>
@@ -7913,7 +7913,7 @@
         <v>14</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H101" s="10" t="s">
         <v>33</v>
@@ -7934,7 +7934,7 @@
         <v>72</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>62</v>
@@ -7961,7 +7961,7 @@
         <v>5.4</v>
       </c>
       <c r="W101" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X101" s="10" t="s">
         <v>89</v>
@@ -7981,7 +7981,7 @@
         <v>14</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>33</v>
@@ -8002,7 +8002,7 @@
         <v>72</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>62</v>
@@ -8029,7 +8029,7 @@
         <v>5.4</v>
       </c>
       <c r="W102" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X102" s="10" t="s">
         <v>89</v>
@@ -8049,7 +8049,7 @@
         <v>57</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>33</v>
@@ -8070,7 +8070,7 @@
         <v>72</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>62</v>
@@ -8097,7 +8097,7 @@
         <v>5.4</v>
       </c>
       <c r="W103" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X103" s="10" t="s">
         <v>89</v>
@@ -8117,7 +8117,7 @@
         <v>57</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>33</v>
@@ -8138,7 +8138,7 @@
         <v>72</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>62</v>
@@ -8165,7 +8165,7 @@
         <v>5.4</v>
       </c>
       <c r="W104" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X104" s="10" t="s">
         <v>89</v>
@@ -8185,7 +8185,7 @@
         <v>57</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>33</v>
@@ -8206,7 +8206,7 @@
         <v>72</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>62</v>
@@ -8233,7 +8233,7 @@
         <v>5.4</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X105" s="10" t="s">
         <v>89</v>
@@ -8253,7 +8253,7 @@
         <v>57</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>33</v>
@@ -8274,7 +8274,7 @@
         <v>72</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>62</v>
@@ -8301,7 +8301,7 @@
         <v>5.4</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X106" s="10" t="s">
         <v>89</v>
@@ -8321,7 +8321,7 @@
         <v>57</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>33</v>
@@ -8342,7 +8342,7 @@
         <v>72</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>62</v>
@@ -8369,7 +8369,7 @@
         <v>5.4</v>
       </c>
       <c r="W107" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X107" s="10" t="s">
         <v>89</v>
@@ -8389,7 +8389,7 @@
         <v>143</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>33</v>
@@ -8410,7 +8410,7 @@
         <v>72</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>62</v>
@@ -8437,7 +8437,7 @@
         <v>5.4</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X108" s="10" t="s">
         <v>89</v>
@@ -8457,7 +8457,7 @@
         <v>143</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>33</v>
@@ -8478,7 +8478,7 @@
         <v>72</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O109" s="3" t="s">
         <v>62</v>
@@ -8505,7 +8505,7 @@
         <v>5.4</v>
       </c>
       <c r="W109" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X109" s="10" t="s">
         <v>89</v>
@@ -8525,7 +8525,7 @@
         <v>143</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>33</v>
@@ -8546,7 +8546,7 @@
         <v>72</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>62</v>
@@ -8573,7 +8573,7 @@
         <v>5.4</v>
       </c>
       <c r="W110" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X110" s="10" t="s">
         <v>89</v>
@@ -8593,7 +8593,7 @@
         <v>143</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>33</v>
@@ -8614,7 +8614,7 @@
         <v>72</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>62</v>
@@ -8641,7 +8641,7 @@
         <v>5.4</v>
       </c>
       <c r="W111" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X111" s="10" t="s">
         <v>89</v>
@@ -8661,7 +8661,7 @@
         <v>373</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>33</v>
@@ -8682,7 +8682,7 @@
         <v>72</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>62</v>
@@ -8709,7 +8709,7 @@
         <v>5.4</v>
       </c>
       <c r="W112" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X112" s="10" t="s">
         <v>89</v>
@@ -8729,7 +8729,7 @@
         <v>373</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>33</v>
@@ -8750,7 +8750,7 @@
         <v>72</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O113" s="3" t="s">
         <v>62</v>
@@ -8777,7 +8777,7 @@
         <v>5.4</v>
       </c>
       <c r="W113" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X113" s="10" t="s">
         <v>89</v>
@@ -8797,7 +8797,7 @@
         <v>373</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>33</v>
@@ -8818,7 +8818,7 @@
         <v>72</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O114" s="3" t="s">
         <v>62</v>
@@ -8845,7 +8845,7 @@
         <v>5.4</v>
       </c>
       <c r="W114" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X114" s="10" t="s">
         <v>89</v>
@@ -8865,7 +8865,7 @@
         <v>373</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>33</v>
@@ -8886,7 +8886,7 @@
         <v>72</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>62</v>
@@ -8913,7 +8913,7 @@
         <v>5.4</v>
       </c>
       <c r="W115" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X115" s="10" t="s">
         <v>89</v>
@@ -8933,7 +8933,7 @@
         <v>1050</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>33</v>
@@ -8954,7 +8954,7 @@
         <v>72</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>62</v>
@@ -8981,7 +8981,7 @@
         <v>5.4</v>
       </c>
       <c r="W116" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X116" s="10" t="s">
         <v>89</v>
@@ -9001,7 +9001,7 @@
         <v>1050</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>33</v>
@@ -9022,7 +9022,7 @@
         <v>72</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>62</v>
@@ -9049,7 +9049,7 @@
         <v>5.4</v>
       </c>
       <c r="W117" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X117" s="10" t="s">
         <v>89</v>
@@ -9069,7 +9069,7 @@
         <v>1050</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>33</v>
@@ -9090,7 +9090,7 @@
         <v>72</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>62</v>
@@ -9117,7 +9117,7 @@
         <v>5.4</v>
       </c>
       <c r="W118" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X118" s="10" t="s">
         <v>89</v>
@@ -9137,7 +9137,7 @@
         <v>1050</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>33</v>
@@ -9158,7 +9158,7 @@
         <v>72</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O119" s="3" t="s">
         <v>62</v>
@@ -9185,7 +9185,7 @@
         <v>5.4</v>
       </c>
       <c r="W119" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X119" s="10" t="s">
         <v>89</v>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>35</v>
@@ -9230,7 +9230,7 @@
         <v>61</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>62</v>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>35</v>
@@ -9302,7 +9302,7 @@
         <v>61</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O121" s="3" t="s">
         <v>62</v>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F122" s="11"/>
       <c r="G122" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>35</v>
@@ -9374,7 +9374,7 @@
         <v>61</v>
       </c>
       <c r="N122" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>62</v>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="F123" s="11"/>
       <c r="G123" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H123" s="10" t="s">
         <v>35</v>
@@ -9446,7 +9446,7 @@
         <v>61</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>62</v>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="F124" s="11"/>
       <c r="G124" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>35</v>
@@ -9518,7 +9518,7 @@
         <v>61</v>
       </c>
       <c r="N124" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>62</v>
@@ -9569,7 +9569,7 @@
       </c>
       <c r="F125" s="11"/>
       <c r="G125" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>35</v>
@@ -9590,7 +9590,7 @@
         <v>61</v>
       </c>
       <c r="N125" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>62</v>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="F126" s="11"/>
       <c r="G126" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>35</v>
@@ -9662,7 +9662,7 @@
         <v>61</v>
       </c>
       <c r="N126" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>62</v>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H127" s="10" t="s">
         <v>35</v>
@@ -9734,7 +9734,7 @@
         <v>61</v>
       </c>
       <c r="N127" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>62</v>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="F128" s="11"/>
       <c r="G128" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H128" s="10" t="s">
         <v>35</v>
@@ -9806,7 +9806,7 @@
         <v>61</v>
       </c>
       <c r="N128" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>62</v>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>35</v>
@@ -9878,7 +9878,7 @@
         <v>61</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>62</v>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H130" s="10" t="s">
         <v>35</v>
@@ -9950,7 +9950,7 @@
         <v>61</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O130" s="3" t="s">
         <v>62</v>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="F131" s="11"/>
       <c r="G131" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H131" s="10" t="s">
         <v>35</v>
@@ -10022,7 +10022,7 @@
         <v>61</v>
       </c>
       <c r="N131" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>62</v>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="F132" s="11"/>
       <c r="G132" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H132" s="10" t="s">
         <v>35</v>
@@ -10094,7 +10094,7 @@
         <v>61</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>62</v>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="F133" s="11"/>
       <c r="G133" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>35</v>
@@ -10166,7 +10166,7 @@
         <v>61</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O133" s="3" t="s">
         <v>62</v>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="F134" s="11"/>
       <c r="G134" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H134" s="10" t="s">
         <v>35</v>
@@ -10238,7 +10238,7 @@
         <v>61</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O134" s="3" t="s">
         <v>62</v>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="F135" s="11"/>
       <c r="G135" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H135" s="10" t="s">
         <v>35</v>
@@ -10310,7 +10310,7 @@
         <v>61</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>62</v>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F136" s="11"/>
       <c r="G136" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H136" s="10" t="s">
         <v>35</v>
@@ -10382,7 +10382,7 @@
         <v>61</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>62</v>
@@ -10428,7 +10428,7 @@
         <v>1.7</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H137" s="10" t="s">
         <v>36</v>
@@ -10449,7 +10449,7 @@
         <v>72</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>62</v>
@@ -10476,7 +10476,7 @@
         <v>8.9</v>
       </c>
       <c r="W137" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X137" s="10" t="s">
         <v>37</v>
@@ -10495,7 +10495,7 @@
         <v>1.7</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H138" s="10" t="s">
         <v>36</v>
@@ -10516,7 +10516,7 @@
         <v>72</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O138" s="3" t="s">
         <v>62</v>
@@ -10543,7 +10543,7 @@
         <v>8.9</v>
       </c>
       <c r="W138" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X138" s="10" t="s">
         <v>37</v>
@@ -10562,7 +10562,7 @@
         <v>1.7</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H139" s="10" t="s">
         <v>36</v>
@@ -10583,7 +10583,7 @@
         <v>72</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O139" s="3" t="s">
         <v>62</v>
@@ -10610,7 +10610,7 @@
         <v>8.9</v>
       </c>
       <c r="W139" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X139" s="10" t="s">
         <v>37</v>
@@ -10629,7 +10629,7 @@
         <v>1.7</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H140" s="10" t="s">
         <v>36</v>
@@ -10650,7 +10650,7 @@
         <v>72</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O140" s="3" t="s">
         <v>62</v>
@@ -10677,7 +10677,7 @@
         <v>8.9</v>
       </c>
       <c r="W140" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X140" s="10" t="s">
         <v>37</v>
@@ -10696,7 +10696,7 @@
         <v>1.7</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H141" s="10" t="s">
         <v>36</v>
@@ -10717,7 +10717,7 @@
         <v>72</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O141" s="3" t="s">
         <v>62</v>
@@ -10744,7 +10744,7 @@
         <v>8.9</v>
       </c>
       <c r="W141" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X141" s="10" t="s">
         <v>37</v>
@@ -10763,7 +10763,7 @@
         <v>1.7</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H142" s="10" t="s">
         <v>36</v>
@@ -10784,7 +10784,7 @@
         <v>72</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>62</v>
@@ -10811,7 +10811,7 @@
         <v>8.9</v>
       </c>
       <c r="W142" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X142" s="10" t="s">
         <v>37</v>
@@ -10830,7 +10830,7 @@
         <v>1.9</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H143" s="10" t="s">
         <v>36</v>
@@ -10851,7 +10851,7 @@
         <v>72</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O143" s="3" t="s">
         <v>62</v>
@@ -10878,7 +10878,7 @@
         <v>8.9</v>
       </c>
       <c r="W143" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X143" s="10" t="s">
         <v>37</v>
@@ -10897,7 +10897,7 @@
         <v>1.9</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H144" s="10" t="s">
         <v>36</v>
@@ -10918,7 +10918,7 @@
         <v>72</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O144" s="3" t="s">
         <v>62</v>
@@ -10945,7 +10945,7 @@
         <v>8.9</v>
       </c>
       <c r="W144" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X144" s="10" t="s">
         <v>37</v>
@@ -10964,7 +10964,7 @@
         <v>1.9</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H145" s="10" t="s">
         <v>36</v>
@@ -10985,7 +10985,7 @@
         <v>72</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O145" s="3" t="s">
         <v>62</v>
@@ -11012,7 +11012,7 @@
         <v>8.9</v>
       </c>
       <c r="W145" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X145" s="10" t="s">
         <v>37</v>
@@ -11031,7 +11031,7 @@
         <v>1.9</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H146" s="10" t="s">
         <v>36</v>
@@ -11052,7 +11052,7 @@
         <v>72</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>62</v>
@@ -11079,7 +11079,7 @@
         <v>8.9</v>
       </c>
       <c r="W146" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X146" s="10" t="s">
         <v>37</v>
@@ -11098,7 +11098,7 @@
         <v>1.9</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H147" s="10" t="s">
         <v>36</v>
@@ -11119,7 +11119,7 @@
         <v>72</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O147" s="3" t="s">
         <v>62</v>
@@ -11146,7 +11146,7 @@
         <v>8.9</v>
       </c>
       <c r="W147" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X147" s="10" t="s">
         <v>37</v>
@@ -11165,7 +11165,7 @@
         <v>1.9</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H148" s="10" t="s">
         <v>36</v>
@@ -11186,7 +11186,7 @@
         <v>72</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>62</v>
@@ -11213,7 +11213,7 @@
         <v>8.9</v>
       </c>
       <c r="W148" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X148" s="10" t="s">
         <v>37</v>
@@ -11232,7 +11232,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H149" s="10" t="s">
         <v>36</v>
@@ -11253,7 +11253,7 @@
         <v>72</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O149" s="3" t="s">
         <v>62</v>
@@ -11280,7 +11280,7 @@
         <v>8.9</v>
       </c>
       <c r="W149" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X149" s="10" t="s">
         <v>37</v>
@@ -11299,7 +11299,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H150" s="10" t="s">
         <v>36</v>
@@ -11320,7 +11320,7 @@
         <v>72</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>62</v>
@@ -11347,7 +11347,7 @@
         <v>8.9</v>
       </c>
       <c r="W150" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X150" s="10" t="s">
         <v>37</v>
@@ -11366,7 +11366,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H151" s="10" t="s">
         <v>36</v>
@@ -11387,7 +11387,7 @@
         <v>72</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>62</v>
@@ -11414,7 +11414,7 @@
         <v>8.9</v>
       </c>
       <c r="W151" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X151" s="10" t="s">
         <v>37</v>
@@ -11433,7 +11433,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H152" s="10" t="s">
         <v>36</v>
@@ -11454,7 +11454,7 @@
         <v>72</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O152" s="3" t="s">
         <v>62</v>
@@ -11481,7 +11481,7 @@
         <v>8.9</v>
       </c>
       <c r="W152" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X152" s="10" t="s">
         <v>37</v>
@@ -11500,7 +11500,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H153" s="10" t="s">
         <v>36</v>
@@ -11521,7 +11521,7 @@
         <v>72</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O153" s="3" t="s">
         <v>62</v>
@@ -11548,7 +11548,7 @@
         <v>8.9</v>
       </c>
       <c r="W153" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X153" s="10" t="s">
         <v>37</v>
@@ -11567,7 +11567,7 @@
         <v>13.7</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H154" s="10" t="s">
         <v>36</v>
@@ -11588,7 +11588,7 @@
         <v>72</v>
       </c>
       <c r="N154" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O154" s="3" t="s">
         <v>62</v>
@@ -11615,7 +11615,7 @@
         <v>8.9</v>
       </c>
       <c r="W154" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X154" s="10" t="s">
         <v>37</v>
@@ -11634,7 +11634,7 @@
         <v>13.7</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H155" s="10" t="s">
         <v>36</v>
@@ -11655,7 +11655,7 @@
         <v>72</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O155" s="3" t="s">
         <v>62</v>
@@ -11682,7 +11682,7 @@
         <v>8.9</v>
       </c>
       <c r="W155" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X155" s="10" t="s">
         <v>37</v>
@@ -11701,7 +11701,7 @@
         <v>13.7</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H156" s="10" t="s">
         <v>36</v>
@@ -11722,7 +11722,7 @@
         <v>72</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>62</v>
@@ -11749,7 +11749,7 @@
         <v>8.9</v>
       </c>
       <c r="W156" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X156" s="10" t="s">
         <v>37</v>
@@ -11768,7 +11768,7 @@
         <v>13.7</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H157" s="10" t="s">
         <v>36</v>
@@ -11789,7 +11789,7 @@
         <v>72</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>62</v>
@@ -11816,7 +11816,7 @@
         <v>8.9</v>
       </c>
       <c r="W157" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X157" s="10" t="s">
         <v>37</v>
@@ -11835,7 +11835,7 @@
         <v>13.7</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H158" s="10" t="s">
         <v>36</v>
@@ -11856,7 +11856,7 @@
         <v>72</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O158" s="3" t="s">
         <v>62</v>
@@ -11883,7 +11883,7 @@
         <v>8.9</v>
       </c>
       <c r="W158" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X158" s="10" t="s">
         <v>37</v>
@@ -11902,7 +11902,7 @@
         <v>13.7</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H159" s="10" t="s">
         <v>36</v>
@@ -11923,7 +11923,7 @@
         <v>72</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O159" s="3" t="s">
         <v>62</v>
@@ -11950,7 +11950,7 @@
         <v>8.9</v>
       </c>
       <c r="W159" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X159" s="10" t="s">
         <v>37</v>
@@ -11969,7 +11969,7 @@
         <v>54</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H160" s="10" t="s">
         <v>36</v>
@@ -11990,7 +11990,7 @@
         <v>72</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>62</v>
@@ -12017,7 +12017,7 @@
         <v>8.9</v>
       </c>
       <c r="W160" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X160" s="10" t="s">
         <v>37</v>
@@ -12036,7 +12036,7 @@
         <v>54</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H161" s="10" t="s">
         <v>36</v>
@@ -12057,7 +12057,7 @@
         <v>72</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O161" s="3" t="s">
         <v>62</v>
@@ -12084,7 +12084,7 @@
         <v>8.9</v>
       </c>
       <c r="W161" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X161" s="10" t="s">
         <v>37</v>
@@ -12103,7 +12103,7 @@
         <v>54</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H162" s="10" t="s">
         <v>36</v>
@@ -12124,7 +12124,7 @@
         <v>72</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O162" s="3" t="s">
         <v>62</v>
@@ -12151,7 +12151,7 @@
         <v>8.9</v>
       </c>
       <c r="W162" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X162" s="10" t="s">
         <v>37</v>
@@ -12170,7 +12170,7 @@
         <v>54</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H163" s="10" t="s">
         <v>36</v>
@@ -12191,7 +12191,7 @@
         <v>72</v>
       </c>
       <c r="N163" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O163" s="3" t="s">
         <v>62</v>
@@ -12218,7 +12218,7 @@
         <v>8.9</v>
       </c>
       <c r="W163" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X163" s="10" t="s">
         <v>37</v>
@@ -12237,7 +12237,7 @@
         <v>54</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H164" s="10" t="s">
         <v>36</v>
@@ -12258,7 +12258,7 @@
         <v>72</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O164" s="3" t="s">
         <v>62</v>
@@ -12285,7 +12285,7 @@
         <v>8.9</v>
       </c>
       <c r="W164" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X164" s="10" t="s">
         <v>37</v>
@@ -12304,7 +12304,7 @@
         <v>54</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H165" s="10" t="s">
         <v>36</v>
@@ -12325,7 +12325,7 @@
         <v>72</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O165" s="3" t="s">
         <v>62</v>
@@ -12352,7 +12352,7 @@
         <v>8.9</v>
       </c>
       <c r="W165" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X165" s="10" t="s">
         <v>37</v>
@@ -12371,7 +12371,7 @@
         <v>499</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H166" s="10" t="s">
         <v>36</v>
@@ -12392,7 +12392,7 @@
         <v>72</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O166" s="3" t="s">
         <v>62</v>
@@ -12419,7 +12419,7 @@
         <v>8.9</v>
       </c>
       <c r="W166" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X166" s="10" t="s">
         <v>37</v>
@@ -12438,7 +12438,7 @@
         <v>499</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H167" s="10" t="s">
         <v>36</v>
@@ -12459,7 +12459,7 @@
         <v>72</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>62</v>
@@ -12486,7 +12486,7 @@
         <v>8.9</v>
       </c>
       <c r="W167" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X167" s="10" t="s">
         <v>37</v>
@@ -12505,7 +12505,7 @@
         <v>499</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H168" s="10" t="s">
         <v>36</v>
@@ -12526,7 +12526,7 @@
         <v>72</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O168" s="3" t="s">
         <v>62</v>
@@ -12553,7 +12553,7 @@
         <v>8.9</v>
       </c>
       <c r="W168" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X168" s="10" t="s">
         <v>37</v>
@@ -12572,7 +12572,7 @@
         <v>499</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H169" s="10" t="s">
         <v>36</v>
@@ -12593,7 +12593,7 @@
         <v>72</v>
       </c>
       <c r="N169" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O169" s="3" t="s">
         <v>62</v>
@@ -12620,7 +12620,7 @@
         <v>8.9</v>
       </c>
       <c r="W169" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X169" s="10" t="s">
         <v>37</v>
@@ -12639,7 +12639,7 @@
         <v>499</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H170" s="10" t="s">
         <v>36</v>
@@ -12660,7 +12660,7 @@
         <v>72</v>
       </c>
       <c r="N170" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O170" s="3" t="s">
         <v>62</v>
@@ -12687,7 +12687,7 @@
         <v>8.9</v>
       </c>
       <c r="W170" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X170" s="10" t="s">
         <v>37</v>
@@ -12706,7 +12706,7 @@
         <v>499</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H171" s="10" t="s">
         <v>36</v>
@@ -12727,7 +12727,7 @@
         <v>72</v>
       </c>
       <c r="N171" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>62</v>
@@ -12754,7 +12754,7 @@
         <v>8.9</v>
       </c>
       <c r="W171" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X171" s="10" t="s">
         <v>37</v>
@@ -12774,7 +12774,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H172" s="10" t="s">
         <v>44</v>
@@ -12795,7 +12795,7 @@
         <v>72</v>
       </c>
       <c r="N172" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O172" s="10" t="s">
         <v>66</v>
@@ -12822,7 +12822,7 @@
         <v>1.4</v>
       </c>
       <c r="W172" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X172" s="10" t="s">
         <v>43</v>
@@ -12842,7 +12842,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H173" s="10" t="s">
         <v>44</v>
@@ -12863,7 +12863,7 @@
         <v>72</v>
       </c>
       <c r="N173" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O173" s="10" t="s">
         <v>66</v>
@@ -12890,7 +12890,7 @@
         <v>1.4</v>
       </c>
       <c r="W173" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X173" s="10" t="s">
         <v>43</v>
@@ -12910,7 +12910,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H174" s="10" t="s">
         <v>44</v>
@@ -12931,7 +12931,7 @@
         <v>72</v>
       </c>
       <c r="N174" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O174" s="10" t="s">
         <v>66</v>
@@ -12958,7 +12958,7 @@
         <v>1.4</v>
       </c>
       <c r="W174" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X174" s="10" t="s">
         <v>43</v>
@@ -12978,7 +12978,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H175" s="10" t="s">
         <v>44</v>
@@ -12999,7 +12999,7 @@
         <v>72</v>
       </c>
       <c r="N175" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O175" s="10" t="s">
         <v>66</v>
@@ -13026,7 +13026,7 @@
         <v>1.4</v>
       </c>
       <c r="W175" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X175" s="10" t="s">
         <v>43</v>
@@ -13046,7 +13046,7 @@
         <v>7.4737530000000003</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H176" s="10" t="s">
         <v>44</v>
@@ -13067,7 +13067,7 @@
         <v>72</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O176" s="10" t="s">
         <v>66</v>
@@ -13094,7 +13094,7 @@
         <v>1.4</v>
       </c>
       <c r="W176" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X176" s="10" t="s">
         <v>43</v>
@@ -13114,7 +13114,7 @@
         <v>1.18953</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H177" s="10" t="s">
         <v>44</v>
@@ -13135,7 +13135,7 @@
         <v>72</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O177" s="10" t="s">
         <v>66</v>
@@ -13162,7 +13162,7 @@
         <v>1.4</v>
       </c>
       <c r="W177" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X177" s="10" t="s">
         <v>43</v>
@@ -13182,7 +13182,7 @@
         <v>1.18953</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H178" s="10" t="s">
         <v>44</v>
@@ -13203,7 +13203,7 @@
         <v>72</v>
       </c>
       <c r="N178" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O178" s="10" t="s">
         <v>66</v>
@@ -13230,7 +13230,7 @@
         <v>1.4</v>
       </c>
       <c r="W178" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X178" s="10" t="s">
         <v>43</v>
@@ -13250,7 +13250,7 @@
         <v>1.18953</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H179" s="10" t="s">
         <v>44</v>
@@ -13271,7 +13271,7 @@
         <v>72</v>
       </c>
       <c r="N179" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O179" s="10" t="s">
         <v>66</v>
@@ -13298,7 +13298,7 @@
         <v>1.4</v>
       </c>
       <c r="W179" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X179" s="10" t="s">
         <v>43</v>
@@ -13318,7 +13318,7 @@
         <v>1.18953</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H180" s="10" t="s">
         <v>44</v>
@@ -13339,7 +13339,7 @@
         <v>72</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O180" s="10" t="s">
         <v>66</v>
@@ -13366,7 +13366,7 @@
         <v>1.4</v>
       </c>
       <c r="W180" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X180" s="10" t="s">
         <v>43</v>
@@ -13386,7 +13386,7 @@
         <v>1.18953</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H181" s="10" t="s">
         <v>44</v>
@@ -13407,7 +13407,7 @@
         <v>72</v>
       </c>
       <c r="N181" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O181" s="10" t="s">
         <v>66</v>
@@ -13434,7 +13434,7 @@
         <v>1.4</v>
       </c>
       <c r="W181" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="X181" s="10" t="s">
         <v>43</v>
@@ -13454,7 +13454,7 @@
         <v>10</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H182" s="10" t="s">
         <v>38</v>
@@ -13475,7 +13475,7 @@
         <v>72</v>
       </c>
       <c r="N182" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O182" s="10" t="s">
         <v>67</v>
@@ -13502,7 +13502,7 @@
         <v>13.95</v>
       </c>
       <c r="W182" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X182" s="10" t="s">
         <v>46</v>
@@ -13522,7 +13522,7 @@
         <v>10</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H183" s="10" t="s">
         <v>38</v>
@@ -13543,7 +13543,7 @@
         <v>72</v>
       </c>
       <c r="N183" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O183" s="10" t="s">
         <v>67</v>
@@ -13570,7 +13570,7 @@
         <v>13.95</v>
       </c>
       <c r="W183" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X183" s="10" t="s">
         <v>46</v>
@@ -13590,7 +13590,7 @@
         <v>10</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H184" s="10" t="s">
         <v>38</v>
@@ -13611,7 +13611,7 @@
         <v>72</v>
       </c>
       <c r="N184" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O184" s="10" t="s">
         <v>67</v>
@@ -13638,7 +13638,7 @@
         <v>13.95</v>
       </c>
       <c r="W184" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X184" s="10" t="s">
         <v>46</v>
@@ -13658,7 +13658,7 @@
         <v>10</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H185" s="10" t="s">
         <v>38</v>
@@ -13679,7 +13679,7 @@
         <v>72</v>
       </c>
       <c r="N185" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O185" s="10" t="s">
         <v>67</v>
@@ -13706,7 +13706,7 @@
         <v>13.95</v>
       </c>
       <c r="W185" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X185" s="10" t="s">
         <v>46</v>
@@ -13726,7 +13726,7 @@
         <v>10</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H186" s="10" t="s">
         <v>38</v>
@@ -13747,7 +13747,7 @@
         <v>72</v>
       </c>
       <c r="N186" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O186" s="10" t="s">
         <v>67</v>
@@ -13774,7 +13774,7 @@
         <v>13.95</v>
       </c>
       <c r="W186" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X186" s="10" t="s">
         <v>46</v>
@@ -13794,7 +13794,7 @@
         <v>30</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H187" s="10" t="s">
         <v>38</v>
@@ -13815,7 +13815,7 @@
         <v>72</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O187" s="10" t="s">
         <v>67</v>
@@ -13842,7 +13842,7 @@
         <v>13.95</v>
       </c>
       <c r="W187" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X187" s="10" t="s">
         <v>46</v>
@@ -13862,7 +13862,7 @@
         <v>30</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H188" s="10" t="s">
         <v>38</v>
@@ -13883,7 +13883,7 @@
         <v>72</v>
       </c>
       <c r="N188" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O188" s="10" t="s">
         <v>67</v>
@@ -13910,7 +13910,7 @@
         <v>13.95</v>
       </c>
       <c r="W188" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X188" s="10" t="s">
         <v>46</v>
@@ -13930,7 +13930,7 @@
         <v>30</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H189" s="10" t="s">
         <v>38</v>
@@ -13951,7 +13951,7 @@
         <v>72</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O189" s="10" t="s">
         <v>67</v>
@@ -13978,7 +13978,7 @@
         <v>13.95</v>
       </c>
       <c r="W189" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X189" s="10" t="s">
         <v>46</v>
@@ -13998,7 +13998,7 @@
         <v>30</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>38</v>
@@ -14019,7 +14019,7 @@
         <v>72</v>
       </c>
       <c r="N190" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O190" s="10" t="s">
         <v>67</v>
@@ -14046,7 +14046,7 @@
         <v>13.95</v>
       </c>
       <c r="W190" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X190" s="10" t="s">
         <v>46</v>
@@ -14066,7 +14066,7 @@
         <v>30</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H191" s="10" t="s">
         <v>38</v>
@@ -14087,7 +14087,7 @@
         <v>72</v>
       </c>
       <c r="N191" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O191" s="10" t="s">
         <v>67</v>
@@ -14114,7 +14114,7 @@
         <v>13.95</v>
       </c>
       <c r="W191" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X191" s="10" t="s">
         <v>46</v>
@@ -14134,7 +14134,7 @@
         <v>70</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H192" s="10" t="s">
         <v>38</v>
@@ -14155,7 +14155,7 @@
         <v>72</v>
       </c>
       <c r="N192" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O192" s="10" t="s">
         <v>67</v>
@@ -14182,7 +14182,7 @@
         <v>13.95</v>
       </c>
       <c r="W192" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X192" s="10" t="s">
         <v>46</v>
@@ -14202,7 +14202,7 @@
         <v>70</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H193" s="10" t="s">
         <v>38</v>
@@ -14223,7 +14223,7 @@
         <v>72</v>
       </c>
       <c r="N193" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O193" s="10" t="s">
         <v>67</v>
@@ -14250,7 +14250,7 @@
         <v>13.95</v>
       </c>
       <c r="W193" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X193" s="10" t="s">
         <v>46</v>
@@ -14270,7 +14270,7 @@
         <v>70</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H194" s="10" t="s">
         <v>38</v>
@@ -14291,7 +14291,7 @@
         <v>72</v>
       </c>
       <c r="N194" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O194" s="10" t="s">
         <v>67</v>
@@ -14318,7 +14318,7 @@
         <v>13.95</v>
       </c>
       <c r="W194" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X194" s="10" t="s">
         <v>46</v>
@@ -14338,7 +14338,7 @@
         <v>70</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H195" s="10" t="s">
         <v>38</v>
@@ -14359,7 +14359,7 @@
         <v>72</v>
       </c>
       <c r="N195" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O195" s="10" t="s">
         <v>67</v>
@@ -14386,7 +14386,7 @@
         <v>13.95</v>
       </c>
       <c r="W195" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X195" s="10" t="s">
         <v>46</v>
@@ -14406,7 +14406,7 @@
         <v>70</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H196" s="10" t="s">
         <v>38</v>
@@ -14427,7 +14427,7 @@
         <v>72</v>
       </c>
       <c r="N196" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O196" s="10" t="s">
         <v>67</v>
@@ -14454,7 +14454,7 @@
         <v>13.95</v>
       </c>
       <c r="W196" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X196" s="10" t="s">
         <v>46</v>
@@ -14474,7 +14474,7 @@
         <v>200</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H197" s="10" t="s">
         <v>38</v>
@@ -14495,7 +14495,7 @@
         <v>72</v>
       </c>
       <c r="N197" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O197" s="10" t="s">
         <v>67</v>
@@ -14522,7 +14522,7 @@
         <v>13.95</v>
       </c>
       <c r="W197" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X197" s="10" t="s">
         <v>46</v>
@@ -14542,7 +14542,7 @@
         <v>200</v>
       </c>
       <c r="G198" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H198" s="10" t="s">
         <v>38</v>
@@ -14563,7 +14563,7 @@
         <v>72</v>
       </c>
       <c r="N198" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O198" s="10" t="s">
         <v>67</v>
@@ -14590,7 +14590,7 @@
         <v>13.95</v>
       </c>
       <c r="W198" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X198" s="10" t="s">
         <v>46</v>
@@ -14610,7 +14610,7 @@
         <v>200</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H199" s="10" t="s">
         <v>38</v>
@@ -14631,7 +14631,7 @@
         <v>72</v>
       </c>
       <c r="N199" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O199" s="10" t="s">
         <v>67</v>
@@ -14658,7 +14658,7 @@
         <v>13.95</v>
       </c>
       <c r="W199" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X199" s="10" t="s">
         <v>46</v>
@@ -14678,7 +14678,7 @@
         <v>200</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H200" s="10" t="s">
         <v>38</v>
@@ -14699,7 +14699,7 @@
         <v>72</v>
       </c>
       <c r="N200" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O200" s="10" t="s">
         <v>67</v>
@@ -14726,7 +14726,7 @@
         <v>13.95</v>
       </c>
       <c r="W200" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X200" s="10" t="s">
         <v>46</v>
@@ -14746,7 +14746,7 @@
         <v>200</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H201" s="10" t="s">
         <v>38</v>
@@ -14767,7 +14767,7 @@
         <v>72</v>
       </c>
       <c r="N201" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O201" s="10" t="s">
         <v>67</v>
@@ -14794,7 +14794,7 @@
         <v>13.95</v>
       </c>
       <c r="W201" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X201" s="10" t="s">
         <v>46</v>
@@ -14814,7 +14814,7 @@
         <v>6</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>86</v>
@@ -14835,7 +14835,7 @@
         <v>57</v>
       </c>
       <c r="N202" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O202" s="4" t="s">
         <v>62</v>
@@ -14862,10 +14862,10 @@
         <v>21</v>
       </c>
       <c r="W202" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
@@ -14882,7 +14882,7 @@
         <v>16</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>86</v>
@@ -14903,7 +14903,7 @@
         <v>57</v>
       </c>
       <c r="N203" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O203" s="4" t="s">
         <v>62</v>
@@ -14930,10 +14930,10 @@
         <v>21</v>
       </c>
       <c r="W203" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X203" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
@@ -14950,7 +14950,7 @@
         <v>36</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>86</v>
@@ -14971,7 +14971,7 @@
         <v>57</v>
       </c>
       <c r="N204" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O204" s="4" t="s">
         <v>62</v>
@@ -14998,10 +14998,10 @@
         <v>21</v>
       </c>
       <c r="W204" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X204" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
@@ -15018,7 +15018,7 @@
         <v>6</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>86</v>
@@ -15039,7 +15039,7 @@
         <v>57</v>
       </c>
       <c r="N205" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O205" s="4" t="s">
         <v>62</v>
@@ -15066,10 +15066,10 @@
         <v>21</v>
       </c>
       <c r="W205" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
@@ -15086,7 +15086,7 @@
         <v>16</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H206" s="4" t="s">
         <v>86</v>
@@ -15107,7 +15107,7 @@
         <v>57</v>
       </c>
       <c r="N206" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O206" s="4" t="s">
         <v>62</v>
@@ -15134,10 +15134,10 @@
         <v>21</v>
       </c>
       <c r="W206" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X206" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
@@ -15154,7 +15154,7 @@
         <v>36</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>86</v>
@@ -15175,7 +15175,7 @@
         <v>57</v>
       </c>
       <c r="N207" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O207" s="4" t="s">
         <v>62</v>
@@ -15202,10 +15202,10 @@
         <v>21</v>
       </c>
       <c r="W207" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X207" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
@@ -15222,7 +15222,7 @@
         <v>6</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>86</v>
@@ -15243,7 +15243,7 @@
         <v>57</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O208" s="4" t="s">
         <v>62</v>
@@ -15270,10 +15270,10 @@
         <v>21</v>
       </c>
       <c r="W208" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X208" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
@@ -15290,7 +15290,7 @@
         <v>16</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>86</v>
@@ -15311,7 +15311,7 @@
         <v>57</v>
       </c>
       <c r="N209" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O209" s="4" t="s">
         <v>62</v>
@@ -15338,10 +15338,10 @@
         <v>21</v>
       </c>
       <c r="W209" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
@@ -15358,7 +15358,7 @@
         <v>36</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H210" s="4" t="s">
         <v>86</v>
@@ -15379,7 +15379,7 @@
         <v>57</v>
       </c>
       <c r="N210" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O210" s="4" t="s">
         <v>62</v>
@@ -15406,10 +15406,10 @@
         <v>21</v>
       </c>
       <c r="W210" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
@@ -15426,7 +15426,7 @@
         <v>6</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>86</v>
@@ -15447,7 +15447,7 @@
         <v>57</v>
       </c>
       <c r="N211" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O211" s="4" t="s">
         <v>62</v>
@@ -15474,10 +15474,10 @@
         <v>21</v>
       </c>
       <c r="W211" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
@@ -15494,7 +15494,7 @@
         <v>16</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H212" s="4" t="s">
         <v>86</v>
@@ -15515,7 +15515,7 @@
         <v>57</v>
       </c>
       <c r="N212" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O212" s="4" t="s">
         <v>62</v>
@@ -15542,10 +15542,10 @@
         <v>21</v>
       </c>
       <c r="W212" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
@@ -15562,7 +15562,7 @@
         <v>36</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>86</v>
@@ -15583,7 +15583,7 @@
         <v>57</v>
       </c>
       <c r="N213" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O213" s="4" t="s">
         <v>62</v>
@@ -15610,10 +15610,10 @@
         <v>21</v>
       </c>
       <c r="W213" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
@@ -15630,7 +15630,7 @@
         <v>6</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>86</v>
@@ -15651,7 +15651,7 @@
         <v>57</v>
       </c>
       <c r="N214" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O214" s="4" t="s">
         <v>62</v>
@@ -15678,10 +15678,10 @@
         <v>21</v>
       </c>
       <c r="W214" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X214" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
@@ -15698,7 +15698,7 @@
         <v>16</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>86</v>
@@ -15719,7 +15719,7 @@
         <v>57</v>
       </c>
       <c r="N215" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O215" s="4" t="s">
         <v>62</v>
@@ -15746,10 +15746,10 @@
         <v>21</v>
       </c>
       <c r="W215" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
@@ -15766,7 +15766,7 @@
         <v>36</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>86</v>
@@ -15787,7 +15787,7 @@
         <v>57</v>
       </c>
       <c r="N216" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O216" s="4" t="s">
         <v>62</v>
@@ -15814,10 +15814,10 @@
         <v>21</v>
       </c>
       <c r="W216" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X216" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
@@ -15834,7 +15834,7 @@
       </c>
       <c r="F217" s="11"/>
       <c r="G217" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H217" s="10" t="s">
         <v>91</v>
@@ -15855,7 +15855,7 @@
         <v>61</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O217" s="10" t="s">
         <v>62</v>
@@ -15882,7 +15882,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W217" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X217" s="10" t="s">
         <v>92</v>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="F218" s="11"/>
       <c r="G218" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H218" s="10" t="s">
         <v>91</v>
@@ -15923,7 +15923,7 @@
         <v>61</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O218" s="10" t="s">
         <v>62</v>
@@ -15950,7 +15950,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W218" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X218" s="10" t="s">
         <v>92</v>
@@ -15970,7 +15970,7 @@
       </c>
       <c r="F219" s="11"/>
       <c r="G219" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H219" s="10" t="s">
         <v>91</v>
@@ -15991,7 +15991,7 @@
         <v>61</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O219" s="10" t="s">
         <v>62</v>
@@ -16018,7 +16018,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W219" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X219" s="10" t="s">
         <v>92</v>
@@ -16038,7 +16038,7 @@
       </c>
       <c r="F220" s="11"/>
       <c r="G220" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H220" s="10" t="s">
         <v>91</v>
@@ -16059,7 +16059,7 @@
         <v>61</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O220" s="10" t="s">
         <v>62</v>
@@ -16086,7 +16086,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W220" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X220" s="10" t="s">
         <v>92</v>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="F221" s="11"/>
       <c r="G221" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H221" s="10" t="s">
         <v>91</v>
@@ -16127,7 +16127,7 @@
         <v>61</v>
       </c>
       <c r="N221" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O221" s="10" t="s">
         <v>62</v>
@@ -16154,7 +16154,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W221" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X221" s="10" t="s">
         <v>92</v>
@@ -16174,7 +16174,7 @@
       </c>
       <c r="F222" s="11"/>
       <c r="G222" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H222" s="10" t="s">
         <v>91</v>
@@ -16195,7 +16195,7 @@
         <v>61</v>
       </c>
       <c r="N222" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O222" s="10" t="s">
         <v>62</v>
@@ -16222,7 +16222,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W222" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X222" s="10" t="s">
         <v>92</v>
@@ -16242,7 +16242,7 @@
       </c>
       <c r="F223" s="11"/>
       <c r="G223" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H223" s="10" t="s">
         <v>91</v>
@@ -16263,7 +16263,7 @@
         <v>61</v>
       </c>
       <c r="N223" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O223" s="10" t="s">
         <v>62</v>
@@ -16290,7 +16290,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W223" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X223" s="10" t="s">
         <v>92</v>
@@ -16310,7 +16310,7 @@
       </c>
       <c r="F224" s="11"/>
       <c r="G224" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H224" s="10" t="s">
         <v>91</v>
@@ -16331,7 +16331,7 @@
         <v>61</v>
       </c>
       <c r="N224" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O224" s="10" t="s">
         <v>62</v>
@@ -16358,7 +16358,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W224" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X224" s="10" t="s">
         <v>92</v>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="F225" s="11"/>
       <c r="G225" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H225" s="10" t="s">
         <v>91</v>
@@ -16399,7 +16399,7 @@
         <v>61</v>
       </c>
       <c r="N225" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O225" s="10" t="s">
         <v>62</v>
@@ -16426,7 +16426,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W225" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X225" s="10" t="s">
         <v>92</v>
@@ -16446,7 +16446,7 @@
       </c>
       <c r="F226" s="11"/>
       <c r="G226" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H226" s="10" t="s">
         <v>91</v>
@@ -16467,7 +16467,7 @@
         <v>61</v>
       </c>
       <c r="N226" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O226" s="10" t="s">
         <v>62</v>
@@ -16494,7 +16494,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W226" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X226" s="10" t="s">
         <v>92</v>
@@ -16514,7 +16514,7 @@
       </c>
       <c r="F227" s="11"/>
       <c r="G227" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H227" s="10" t="s">
         <v>91</v>
@@ -16535,7 +16535,7 @@
         <v>61</v>
       </c>
       <c r="N227" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O227" s="10" t="s">
         <v>62</v>
@@ -16562,7 +16562,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W227" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X227" s="10" t="s">
         <v>92</v>
@@ -16582,7 +16582,7 @@
       </c>
       <c r="F228" s="11"/>
       <c r="G228" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H228" s="10" t="s">
         <v>91</v>
@@ -16603,7 +16603,7 @@
         <v>61</v>
       </c>
       <c r="N228" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O228" s="10" t="s">
         <v>62</v>
@@ -16630,7 +16630,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W228" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X228" s="10" t="s">
         <v>92</v>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A748F78B-B9C1-4244-BF7E-E27F7F9284F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AA2429-55B4-3D46-AFB3-867B12AF0FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="2340" windowWidth="29000" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29220" yWindow="3200" windowWidth="21200" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,6 @@
     <t>Fish sizes are "about" the size specified; Weight at maturation based on median lengths from two fishbase sources; Optimum is temperature treatment yielding highest growth (not estimated)</t>
   </si>
   <si>
-    <t>Fish sizes are "about" the size specified; Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated); Found through consumption search</t>
-  </si>
-  <si>
     <t>Only size classes with optimum presented here; Geometric mean from size window; Maturation size from preprint: https://doi.org/10.1101/382155</t>
   </si>
   <si>
@@ -454,6 +451,9 @@
   </si>
   <si>
     <t>Calculated sizes from mean TL using equation in Fig. 2; Multiple data points per temp and size, calculated mean in separate doc; w_maturation from Craig et al 1981 CJFA, age at maturatity 2,3, used geometric mean of length at age.</t>
+  </si>
+  <si>
+    <t>Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated); Found through consumption search</t>
   </si>
 </sst>
 </file>
@@ -931,9 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W228" sqref="W228"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W216" sqref="W216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,7 +985,7 @@
         <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>13.5</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>106</v>
@@ -1169,7 +1169,7 @@
         <v>13.5</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>106</v>
@@ -1237,7 +1237,7 @@
         <v>13.5</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>106</v>
@@ -1305,7 +1305,7 @@
         <v>13.5</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X5" s="10" t="s">
         <v>106</v>
@@ -1373,7 +1373,7 @@
         <v>13.5</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X6" s="10" t="s">
         <v>106</v>
@@ -1441,7 +1441,7 @@
         <v>13.5</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X7" s="10" t="s">
         <v>106</v>
@@ -1509,7 +1509,7 @@
         <v>13.5</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X8" s="10" t="s">
         <v>106</v>
@@ -1577,7 +1577,7 @@
         <v>13.5</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X9" s="10" t="s">
         <v>106</v>
@@ -1645,7 +1645,7 @@
         <v>13.5</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X10" s="10" t="s">
         <v>106</v>
@@ -1713,7 +1713,7 @@
         <v>13.5</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X11" s="10" t="s">
         <v>106</v>
@@ -1781,7 +1781,7 @@
         <v>13.5</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X12" s="10" t="s">
         <v>106</v>
@@ -1849,7 +1849,7 @@
         <v>13.5</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X13" s="10" t="s">
         <v>106</v>
@@ -1917,7 +1917,7 @@
         <v>13.5</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X14" s="10" t="s">
         <v>106</v>
@@ -1985,7 +1985,7 @@
         <v>13.5</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X15" s="10" t="s">
         <v>106</v>
@@ -2053,7 +2053,7 @@
         <v>13.5</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X16" s="10" t="s">
         <v>106</v>
@@ -2121,7 +2121,7 @@
         <v>13.5</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X17" s="10" t="s">
         <v>106</v>
@@ -2189,7 +2189,7 @@
         <v>13.5</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X18" s="10" t="s">
         <v>106</v>
@@ -2257,7 +2257,7 @@
         <v>13.5</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X19" s="10" t="s">
         <v>106</v>
@@ -2325,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X20" s="10" t="s">
         <v>19</v>
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>19</v>
@@ -2461,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X22" s="10" t="s">
         <v>19</v>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>19</v>
@@ -2597,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>19</v>
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X25" s="10" t="s">
         <v>19</v>
@@ -2733,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X26" s="10" t="s">
         <v>19</v>
@@ -2801,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X27" s="10" t="s">
         <v>19</v>
@@ -2869,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X28" s="10" t="s">
         <v>19</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X29" s="10" t="s">
         <v>19</v>
@@ -3005,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X30" s="10" t="s">
         <v>19</v>
@@ -3073,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X31" s="10" t="s">
         <v>19</v>
@@ -3141,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X32" s="10" t="s">
         <v>19</v>
@@ -3209,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X33" s="10" t="s">
         <v>19</v>
@@ -3277,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X34" s="10" t="s">
         <v>19</v>
@@ -3345,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>19</v>
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X36" s="10" t="s">
         <v>19</v>
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X37" s="10" t="s">
         <v>19</v>
@@ -3549,7 +3549,7 @@
         <v>6</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X38" s="10" t="s">
         <v>19</v>
@@ -3617,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X39" s="10" t="s">
         <v>19</v>
@@ -5125,7 +5125,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W60" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X60" s="15" t="s">
         <v>25</v>
@@ -5193,7 +5193,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W61" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X61" s="15" t="s">
         <v>25</v>
@@ -5261,7 +5261,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W62" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X62" s="15" t="s">
         <v>25</v>
@@ -5329,7 +5329,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W63" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X63" s="15" t="s">
         <v>25</v>
@@ -5397,7 +5397,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W64" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X64" s="15" t="s">
         <v>25</v>
@@ -5465,7 +5465,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W65" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X65" s="15" t="s">
         <v>25</v>
@@ -5533,7 +5533,7 @@
         <v>8.4</v>
       </c>
       <c r="W66" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X66" s="15" t="s">
         <v>30</v>
@@ -5601,7 +5601,7 @@
         <v>8.4</v>
       </c>
       <c r="W67" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X67" s="15" t="s">
         <v>30</v>
@@ -5669,7 +5669,7 @@
         <v>8.4</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X68" s="15" t="s">
         <v>30</v>
@@ -5737,7 +5737,7 @@
         <v>8.4</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X69" s="15" t="s">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         <v>8.4</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X70" s="15" t="s">
         <v>30</v>
@@ -5873,7 +5873,7 @@
         <v>8.4</v>
       </c>
       <c r="W71" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X71" s="15" t="s">
         <v>30</v>
@@ -5941,7 +5941,7 @@
         <v>8.4</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X72" s="15" t="s">
         <v>30</v>
@@ -6009,7 +6009,7 @@
         <v>8.4</v>
       </c>
       <c r="W73" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X73" s="15" t="s">
         <v>30</v>
@@ -9257,7 +9257,7 @@
         <v>4.2</v>
       </c>
       <c r="W120" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X120" s="10" t="s">
         <v>34</v>
@@ -9329,7 +9329,7 @@
         <v>4.2</v>
       </c>
       <c r="W121" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X121" s="10" t="s">
         <v>34</v>
@@ -9401,7 +9401,7 @@
         <v>4.2</v>
       </c>
       <c r="W122" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X122" s="10" t="s">
         <v>34</v>
@@ -9473,7 +9473,7 @@
         <v>4.2</v>
       </c>
       <c r="W123" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X123" s="10" t="s">
         <v>34</v>
@@ -9545,7 +9545,7 @@
         <v>4.2</v>
       </c>
       <c r="W124" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X124" s="10" t="s">
         <v>34</v>
@@ -9617,7 +9617,7 @@
         <v>4.2</v>
       </c>
       <c r="W125" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X125" s="10" t="s">
         <v>34</v>
@@ -9689,7 +9689,7 @@
         <v>4.2</v>
       </c>
       <c r="W126" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X126" s="10" t="s">
         <v>34</v>
@@ -9761,7 +9761,7 @@
         <v>4.2</v>
       </c>
       <c r="W127" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X127" s="10" t="s">
         <v>34</v>
@@ -9833,7 +9833,7 @@
         <v>4.2</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X128" s="10" t="s">
         <v>34</v>
@@ -9905,7 +9905,7 @@
         <v>4.2</v>
       </c>
       <c r="W129" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X129" s="10" t="s">
         <v>34</v>
@@ -9977,7 +9977,7 @@
         <v>4.2</v>
       </c>
       <c r="W130" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X130" s="10" t="s">
         <v>34</v>
@@ -10049,7 +10049,7 @@
         <v>4.2</v>
       </c>
       <c r="W131" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X131" s="10" t="s">
         <v>34</v>
@@ -10121,7 +10121,7 @@
         <v>4.2</v>
       </c>
       <c r="W132" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X132" s="10" t="s">
         <v>34</v>
@@ -10193,7 +10193,7 @@
         <v>4.2</v>
       </c>
       <c r="W133" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X133" s="10" t="s">
         <v>34</v>
@@ -10265,7 +10265,7 @@
         <v>4.2</v>
       </c>
       <c r="W134" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X134" s="10" t="s">
         <v>34</v>
@@ -10337,7 +10337,7 @@
         <v>4.2</v>
       </c>
       <c r="W135" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X135" s="10" t="s">
         <v>34</v>
@@ -10409,7 +10409,7 @@
         <v>4.2</v>
       </c>
       <c r="W136" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X136" s="10" t="s">
         <v>34</v>
@@ -10476,7 +10476,7 @@
         <v>8.9</v>
       </c>
       <c r="W137" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X137" s="10" t="s">
         <v>37</v>
@@ -10543,7 +10543,7 @@
         <v>8.9</v>
       </c>
       <c r="W138" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X138" s="10" t="s">
         <v>37</v>
@@ -10610,7 +10610,7 @@
         <v>8.9</v>
       </c>
       <c r="W139" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X139" s="10" t="s">
         <v>37</v>
@@ -10677,7 +10677,7 @@
         <v>8.9</v>
       </c>
       <c r="W140" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X140" s="10" t="s">
         <v>37</v>
@@ -10744,7 +10744,7 @@
         <v>8.9</v>
       </c>
       <c r="W141" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X141" s="10" t="s">
         <v>37</v>
@@ -10811,7 +10811,7 @@
         <v>8.9</v>
       </c>
       <c r="W142" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X142" s="10" t="s">
         <v>37</v>
@@ -10878,7 +10878,7 @@
         <v>8.9</v>
       </c>
       <c r="W143" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X143" s="10" t="s">
         <v>37</v>
@@ -10945,7 +10945,7 @@
         <v>8.9</v>
       </c>
       <c r="W144" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X144" s="10" t="s">
         <v>37</v>
@@ -11012,7 +11012,7 @@
         <v>8.9</v>
       </c>
       <c r="W145" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X145" s="10" t="s">
         <v>37</v>
@@ -11079,7 +11079,7 @@
         <v>8.9</v>
       </c>
       <c r="W146" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X146" s="10" t="s">
         <v>37</v>
@@ -11146,7 +11146,7 @@
         <v>8.9</v>
       </c>
       <c r="W147" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X147" s="10" t="s">
         <v>37</v>
@@ -11213,7 +11213,7 @@
         <v>8.9</v>
       </c>
       <c r="W148" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X148" s="10" t="s">
         <v>37</v>
@@ -11280,7 +11280,7 @@
         <v>8.9</v>
       </c>
       <c r="W149" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X149" s="10" t="s">
         <v>37</v>
@@ -11347,7 +11347,7 @@
         <v>8.9</v>
       </c>
       <c r="W150" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X150" s="10" t="s">
         <v>37</v>
@@ -11414,7 +11414,7 @@
         <v>8.9</v>
       </c>
       <c r="W151" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X151" s="10" t="s">
         <v>37</v>
@@ -11481,7 +11481,7 @@
         <v>8.9</v>
       </c>
       <c r="W152" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X152" s="10" t="s">
         <v>37</v>
@@ -11548,7 +11548,7 @@
         <v>8.9</v>
       </c>
       <c r="W153" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X153" s="10" t="s">
         <v>37</v>
@@ -11615,7 +11615,7 @@
         <v>8.9</v>
       </c>
       <c r="W154" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X154" s="10" t="s">
         <v>37</v>
@@ -11682,7 +11682,7 @@
         <v>8.9</v>
       </c>
       <c r="W155" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X155" s="10" t="s">
         <v>37</v>
@@ -11749,7 +11749,7 @@
         <v>8.9</v>
       </c>
       <c r="W156" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X156" s="10" t="s">
         <v>37</v>
@@ -11816,7 +11816,7 @@
         <v>8.9</v>
       </c>
       <c r="W157" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X157" s="10" t="s">
         <v>37</v>
@@ -11883,7 +11883,7 @@
         <v>8.9</v>
       </c>
       <c r="W158" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X158" s="10" t="s">
         <v>37</v>
@@ -11950,7 +11950,7 @@
         <v>8.9</v>
       </c>
       <c r="W159" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X159" s="10" t="s">
         <v>37</v>
@@ -12017,7 +12017,7 @@
         <v>8.9</v>
       </c>
       <c r="W160" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X160" s="10" t="s">
         <v>37</v>
@@ -12084,7 +12084,7 @@
         <v>8.9</v>
       </c>
       <c r="W161" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X161" s="10" t="s">
         <v>37</v>
@@ -12151,7 +12151,7 @@
         <v>8.9</v>
       </c>
       <c r="W162" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X162" s="10" t="s">
         <v>37</v>
@@ -12218,7 +12218,7 @@
         <v>8.9</v>
       </c>
       <c r="W163" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X163" s="10" t="s">
         <v>37</v>
@@ -12285,7 +12285,7 @@
         <v>8.9</v>
       </c>
       <c r="W164" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X164" s="10" t="s">
         <v>37</v>
@@ -12352,7 +12352,7 @@
         <v>8.9</v>
       </c>
       <c r="W165" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X165" s="10" t="s">
         <v>37</v>
@@ -12419,7 +12419,7 @@
         <v>8.9</v>
       </c>
       <c r="W166" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X166" s="10" t="s">
         <v>37</v>
@@ -12486,7 +12486,7 @@
         <v>8.9</v>
       </c>
       <c r="W167" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X167" s="10" t="s">
         <v>37</v>
@@ -12553,7 +12553,7 @@
         <v>8.9</v>
       </c>
       <c r="W168" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X168" s="10" t="s">
         <v>37</v>
@@ -12620,7 +12620,7 @@
         <v>8.9</v>
       </c>
       <c r="W169" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X169" s="10" t="s">
         <v>37</v>
@@ -12687,7 +12687,7 @@
         <v>8.9</v>
       </c>
       <c r="W170" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X170" s="10" t="s">
         <v>37</v>
@@ -12754,7 +12754,7 @@
         <v>8.9</v>
       </c>
       <c r="W171" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X171" s="10" t="s">
         <v>37</v>
@@ -12822,7 +12822,7 @@
         <v>1.4</v>
       </c>
       <c r="W172" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X172" s="10" t="s">
         <v>43</v>
@@ -12890,7 +12890,7 @@
         <v>1.4</v>
       </c>
       <c r="W173" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X173" s="10" t="s">
         <v>43</v>
@@ -12958,7 +12958,7 @@
         <v>1.4</v>
       </c>
       <c r="W174" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X174" s="10" t="s">
         <v>43</v>
@@ -13026,7 +13026,7 @@
         <v>1.4</v>
       </c>
       <c r="W175" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X175" s="10" t="s">
         <v>43</v>
@@ -13094,7 +13094,7 @@
         <v>1.4</v>
       </c>
       <c r="W176" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X176" s="10" t="s">
         <v>43</v>
@@ -13162,7 +13162,7 @@
         <v>1.4</v>
       </c>
       <c r="W177" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X177" s="10" t="s">
         <v>43</v>
@@ -13230,7 +13230,7 @@
         <v>1.4</v>
       </c>
       <c r="W178" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X178" s="10" t="s">
         <v>43</v>
@@ -13298,7 +13298,7 @@
         <v>1.4</v>
       </c>
       <c r="W179" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X179" s="10" t="s">
         <v>43</v>
@@ -13366,7 +13366,7 @@
         <v>1.4</v>
       </c>
       <c r="W180" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X180" s="10" t="s">
         <v>43</v>
@@ -13434,7 +13434,7 @@
         <v>1.4</v>
       </c>
       <c r="W181" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X181" s="10" t="s">
         <v>43</v>
@@ -14862,10 +14862,10 @@
         <v>21</v>
       </c>
       <c r="W202" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
@@ -14930,10 +14930,10 @@
         <v>21</v>
       </c>
       <c r="W203" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X203" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
@@ -14998,10 +14998,10 @@
         <v>21</v>
       </c>
       <c r="W204" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X204" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
@@ -15066,10 +15066,10 @@
         <v>21</v>
       </c>
       <c r="W205" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
@@ -15134,10 +15134,10 @@
         <v>21</v>
       </c>
       <c r="W206" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X206" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
@@ -15202,10 +15202,10 @@
         <v>21</v>
       </c>
       <c r="W207" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X207" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
@@ -15270,10 +15270,10 @@
         <v>21</v>
       </c>
       <c r="W208" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X208" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
@@ -15338,10 +15338,10 @@
         <v>21</v>
       </c>
       <c r="W209" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
@@ -15406,10 +15406,10 @@
         <v>21</v>
       </c>
       <c r="W210" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
@@ -15474,10 +15474,10 @@
         <v>21</v>
       </c>
       <c r="W211" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
@@ -15542,10 +15542,10 @@
         <v>21</v>
       </c>
       <c r="W212" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
@@ -15610,10 +15610,10 @@
         <v>21</v>
       </c>
       <c r="W213" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
@@ -15678,10 +15678,10 @@
         <v>21</v>
       </c>
       <c r="W214" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X214" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
@@ -15746,10 +15746,10 @@
         <v>21</v>
       </c>
       <c r="W215" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
@@ -15814,10 +15814,10 @@
         <v>21</v>
       </c>
       <c r="W216" s="10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="X216" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
@@ -15882,7 +15882,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W217" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X217" s="10" t="s">
         <v>92</v>
@@ -15950,7 +15950,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W218" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X218" s="10" t="s">
         <v>92</v>
@@ -16018,7 +16018,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W219" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X219" s="10" t="s">
         <v>92</v>
@@ -16086,7 +16086,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W220" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X220" s="10" t="s">
         <v>92</v>
@@ -16154,7 +16154,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W221" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X221" s="10" t="s">
         <v>92</v>
@@ -16222,7 +16222,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W222" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X222" s="10" t="s">
         <v>92</v>
@@ -16290,7 +16290,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W223" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X223" s="10" t="s">
         <v>92</v>
@@ -16358,7 +16358,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W224" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X224" s="10" t="s">
         <v>92</v>
@@ -16426,7 +16426,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W225" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X225" s="10" t="s">
         <v>92</v>
@@ -16494,7 +16494,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W226" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X226" s="10" t="s">
         <v>92</v>
@@ -16562,7 +16562,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W227" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X227" s="10" t="s">
         <v>92</v>
@@ -16630,7 +16630,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W228" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X228" s="10" t="s">
         <v>92</v>

--- a/data/growth_data.xlsx
+++ b/data/growth_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AA2429-55B4-3D46-AFB3-867B12AF0FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58160B6-F529-E44C-A8DA-950995168FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29220" yWindow="3200" windowWidth="21200" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7880" yWindow="2460" windowWidth="29380" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,6 @@
     <t>Reef-associated; oceanodromous</t>
   </si>
   <si>
-    <t>Tomiyama-etal-2018-J.Sea.Res</t>
-  </si>
-  <si>
     <t>Sizes are average initial and final; Maturation length 35 cm (mid male and female); Also goes by bastard halibut, Japaneese halibut or Olive flounder</t>
   </si>
   <si>
@@ -454,6 +451,9 @@
   </si>
   <si>
     <t>Weight at maturation based on min size of maturation (midpoint of sexes) from Cao etal 2009 Environ Biol Fish; Optimum is temperature treatment yielding highest growth (not estimated); Found through consumption search</t>
+  </si>
+  <si>
+    <t>Tomiyama-etal-2018-JSeaRes</t>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
   <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W216" sqref="W216"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -967,7 +967,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>94</v>
@@ -985,7 +985,7 @@
         <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>13.5</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1169,10 +1169,10 @@
         <v>13.5</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1237,10 +1237,10 @@
         <v>13.5</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1305,10 +1305,10 @@
         <v>13.5</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1373,10 +1373,10 @@
         <v>13.5</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
         <v>13.5</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1509,10 +1509,10 @@
         <v>13.5</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1577,10 +1577,10 @@
         <v>13.5</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1645,10 +1645,10 @@
         <v>13.5</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1713,10 +1713,10 @@
         <v>13.5</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1781,10 +1781,10 @@
         <v>13.5</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -1849,10 +1849,10 @@
         <v>13.5</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1917,10 +1917,10 @@
         <v>13.5</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -1985,10 +1985,10 @@
         <v>13.5</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2053,10 +2053,10 @@
         <v>13.5</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2121,10 +2121,10 @@
         <v>13.5</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2189,10 +2189,10 @@
         <v>13.5</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2257,10 +2257,10 @@
         <v>13.5</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2325,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X20" s="10" t="s">
         <v>19</v>
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>19</v>
@@ -2461,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X22" s="10" t="s">
         <v>19</v>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>19</v>
@@ -2597,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>19</v>
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X25" s="10" t="s">
         <v>19</v>
@@ -2733,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X26" s="10" t="s">
         <v>19</v>
@@ -2801,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X27" s="10" t="s">
         <v>19</v>
@@ -2869,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X28" s="10" t="s">
         <v>19</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X29" s="10" t="s">
         <v>19</v>
@@ -3005,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X30" s="10" t="s">
         <v>19</v>
@@ -3073,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X31" s="10" t="s">
         <v>19</v>
@@ -3141,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X32" s="10" t="s">
         <v>19</v>
@@ -3209,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X33" s="10" t="s">
         <v>19</v>
@@ -3277,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X34" s="10" t="s">
         <v>19</v>
@@ -3345,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>19</v>
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X36" s="10" t="s">
         <v>19</v>
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X37" s="10" t="s">
         <v>19</v>
@@ -3549,7 +3549,7 @@
         <v>6</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X38" s="10" t="s">
         <v>19</v>
@@ -3617,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X39" s="10" t="s">
         <v>19</v>
@@ -3689,7 +3689,7 @@
         <v>16.8</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X40" s="10" t="s">
         <v>24</v>
@@ -3761,7 +3761,7 @@
         <v>16.8</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X41" s="10" t="s">
         <v>24</v>
@@ -3833,7 +3833,7 @@
         <v>16.8</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X42" s="10" t="s">
         <v>24</v>
@@ -3905,7 +3905,7 @@
         <v>16.8</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X43" s="10" t="s">
         <v>24</v>
@@ -3977,7 +3977,7 @@
         <v>16.8</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X44" s="10" t="s">
         <v>24</v>
@@ -4049,7 +4049,7 @@
         <v>16.8</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X45" s="10" t="s">
         <v>24</v>
@@ -4121,7 +4121,7 @@
         <v>16.8</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X46" s="10" t="s">
         <v>24</v>
@@ -4193,7 +4193,7 @@
         <v>16.8</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X47" s="10" t="s">
         <v>24</v>
@@ -4265,7 +4265,7 @@
         <v>16.8</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X48" s="10" t="s">
         <v>24</v>
@@ -4337,7 +4337,7 @@
         <v>16.8</v>
       </c>
       <c r="W49" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X49" s="10" t="s">
         <v>24</v>
@@ -4409,7 +4409,7 @@
         <v>16.8</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X50" s="10" t="s">
         <v>24</v>
@@ -4481,7 +4481,7 @@
         <v>16.8</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X51" s="10" t="s">
         <v>24</v>
@@ -4553,7 +4553,7 @@
         <v>16.8</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X52" s="10" t="s">
         <v>24</v>
@@ -4625,7 +4625,7 @@
         <v>16.8</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X53" s="10" t="s">
         <v>24</v>
@@ -4697,7 +4697,7 @@
         <v>16.8</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X54" s="10" t="s">
         <v>24</v>
@@ -4769,7 +4769,7 @@
         <v>16.8</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X55" s="10" t="s">
         <v>24</v>
@@ -4841,7 +4841,7 @@
         <v>16.8</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X56" s="10" t="s">
         <v>24</v>
@@ -4913,7 +4913,7 @@
         <v>16.8</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X57" s="10" t="s">
         <v>24</v>
@@ -4985,7 +4985,7 @@
         <v>16.8</v>
       </c>
       <c r="W58" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X58" s="10" t="s">
         <v>24</v>
@@ -5057,7 +5057,7 @@
         <v>16.8</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X59" s="10" t="s">
         <v>24</v>
@@ -5125,7 +5125,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W60" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X60" s="15" t="s">
         <v>25</v>
@@ -5193,7 +5193,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W61" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X61" s="15" t="s">
         <v>25</v>
@@ -5261,7 +5261,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W62" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X62" s="15" t="s">
         <v>25</v>
@@ -5329,7 +5329,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W63" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X63" s="15" t="s">
         <v>25</v>
@@ -5397,7 +5397,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W64" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X64" s="15" t="s">
         <v>25</v>
@@ -5465,7 +5465,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W65" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X65" s="15" t="s">
         <v>25</v>
@@ -5533,7 +5533,7 @@
         <v>8.4</v>
       </c>
       <c r="W66" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X66" s="15" t="s">
         <v>30</v>
@@ -5601,7 +5601,7 @@
         <v>8.4</v>
       </c>
       <c r="W67" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X67" s="15" t="s">
         <v>30</v>
@@ -5669,7 +5669,7 @@
         <v>8.4</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X68" s="15" t="s">
         <v>30</v>
@@ -5737,7 +5737,7 @@
         <v>8.4</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X69" s="15" t="s">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         <v>8.4</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X70" s="15" t="s">
         <v>30</v>
@@ -5873,7 +5873,7 @@
         <v>8.4</v>
       </c>
       <c r="W71" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X71" s="15" t="s">
         <v>30</v>
@@ -5941,7 +5941,7 @@
         <v>8.4</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X72" s="15" t="s">
         <v>30</v>
@@ -6009,7 +6009,7 @@
         <v>8.4</v>
       </c>
       <c r="W73" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X73" s="15" t="s">
         <v>30</v>
@@ -6081,7 +6081,7 @@
         <v>27.05</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X74" s="15" t="s">
         <v>93</v>
@@ -6153,7 +6153,7 @@
         <v>27.05</v>
       </c>
       <c r="W75" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X75" s="15" t="s">
         <v>93</v>
@@ -6225,7 +6225,7 @@
         <v>27.05</v>
       </c>
       <c r="W76" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X76" s="15" t="s">
         <v>93</v>
@@ -6297,7 +6297,7 @@
         <v>27.05</v>
       </c>
       <c r="W77" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X77" s="15" t="s">
         <v>93</v>
@@ -6369,7 +6369,7 @@
         <v>27.05</v>
       </c>
       <c r="W78" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X78" s="15" t="s">
         <v>93</v>
@@ -6441,7 +6441,7 @@
         <v>27.05</v>
       </c>
       <c r="W79" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X79" s="15" t="s">
         <v>93</v>
@@ -6513,7 +6513,7 @@
         <v>27.05</v>
       </c>
       <c r="W80" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X80" s="15" t="s">
         <v>93</v>
@@ -6585,7 +6585,7 @@
         <v>27.05</v>
       </c>
       <c r="W81" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X81" s="15" t="s">
         <v>93</v>
@@ -6657,7 +6657,7 @@
         <v>27.05</v>
       </c>
       <c r="W82" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X82" s="15" t="s">
         <v>93</v>
@@ -6729,7 +6729,7 @@
         <v>27.05</v>
       </c>
       <c r="W83" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X83" s="15" t="s">
         <v>93</v>
@@ -6801,7 +6801,7 @@
         <v>27.05</v>
       </c>
       <c r="W84" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X84" s="15" t="s">
         <v>93</v>
@@ -6873,7 +6873,7 @@
         <v>27.05</v>
       </c>
       <c r="W85" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X85" s="15" t="s">
         <v>93</v>
@@ -6941,7 +6941,7 @@
         <v>5.4</v>
       </c>
       <c r="W86" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X86" s="10" t="s">
         <v>89</v>
@@ -7009,7 +7009,7 @@
         <v>5.4</v>
       </c>
       <c r="W87" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X87" s="10" t="s">
         <v>89</v>
@@ -7077,7 +7077,7 @@
         <v>5.4</v>
       </c>
       <c r="W88" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X88" s="10" t="s">
         <v>89</v>
@@ -7145,7 +7145,7 @@
         <v>5.4</v>
       </c>
       <c r="W89" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X89" s="10" t="s">
         <v>89</v>
@@ -7213,7 +7213,7 @@
         <v>5.4</v>
       </c>
       <c r="W90" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X90" s="10" t="s">
         <v>89</v>
@@ -7281,7 +7281,7 @@
         <v>5.4</v>
       </c>
       <c r="W91" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X91" s="10" t="s">
         <v>89</v>
@@ -7349,7 +7349,7 @@
         <v>5.4</v>
       </c>
       <c r="W92" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X92" s="10" t="s">
         <v>89</v>
@@ -7417,7 +7417,7 @@
         <v>5.4</v>
       </c>
       <c r="W93" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X93" s="10" t="s">
         <v>89</v>
@@ -7485,7 +7485,7 @@
         <v>5.4</v>
       </c>
       <c r="W94" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X94" s="10" t="s">
         <v>89</v>
@@ -7553,7 +7553,7 @@
         <v>5.4</v>
       </c>
       <c r="W95" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X95" s="10" t="s">
         <v>89</v>
@@ -7621,7 +7621,7 @@
         <v>5.4</v>
       </c>
       <c r="W96" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X96" s="10" t="s">
         <v>89</v>
@@ -7689,7 +7689,7 @@
         <v>5.4</v>
       </c>
       <c r="W97" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X97" s="10" t="s">
         <v>89</v>
@@ -7757,7 +7757,7 @@
         <v>5.4</v>
       </c>
       <c r="W98" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X98" s="10" t="s">
         <v>89</v>
@@ -7825,7 +7825,7 @@
         <v>5.4</v>
       </c>
       <c r="W99" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X99" s="10" t="s">
         <v>89</v>
@@ -7893,7 +7893,7 @@
         <v>5.4</v>
       </c>
       <c r="W100" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X100" s="10" t="s">
         <v>89</v>
@@ -7961,7 +7961,7 @@
         <v>5.4</v>
       </c>
       <c r="W101" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X101" s="10" t="s">
         <v>89</v>
@@ -8029,7 +8029,7 @@
         <v>5.4</v>
       </c>
       <c r="W102" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X102" s="10" t="s">
         <v>89</v>
@@ -8097,7 +8097,7 @@
         <v>5.4</v>
       </c>
       <c r="W103" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X103" s="10" t="s">
         <v>89</v>
@@ -8165,7 +8165,7 @@
         <v>5.4</v>
       </c>
       <c r="W104" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X104" s="10" t="s">
         <v>89</v>
@@ -8233,7 +8233,7 @@
         <v>5.4</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X105" s="10" t="s">
         <v>89</v>
@@ -8301,7 +8301,7 @@
         <v>5.4</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X106" s="10" t="s">
         <v>89</v>
@@ -8369,7 +8369,7 @@
         <v>5.4</v>
       </c>
       <c r="W107" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X107" s="10" t="s">
         <v>89</v>
@@ -8437,7 +8437,7 @@
         <v>5.4</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X108" s="10" t="s">
         <v>89</v>
@@ -8505,7 +8505,7 @@
         <v>5.4</v>
       </c>
       <c r="W109" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X109" s="10" t="s">
         <v>89</v>
@@ -8573,7 +8573,7 @@
         <v>5.4</v>
       </c>
       <c r="W110" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X110" s="10" t="s">
         <v>89</v>
@@ -8641,7 +8641,7 @@
         <v>5.4</v>
       </c>
       <c r="W111" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X111" s="10" t="s">
         <v>89</v>
@@ -8709,7 +8709,7 @@
         <v>5.4</v>
       </c>
       <c r="W112" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X112" s="10" t="s">
         <v>89</v>
@@ -8777,7 +8777,7 @@
         <v>5.4</v>
       </c>
       <c r="W113" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X113" s="10" t="s">
         <v>89</v>
@@ -8845,7 +8845,7 @@
         <v>5.4</v>
       </c>
       <c r="W114" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X114" s="10" t="s">
         <v>89</v>
@@ -8913,7 +8913,7 @@
         <v>5.4</v>
       </c>
       <c r="W115" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X115" s="10" t="s">
         <v>89</v>
@@ -8981,7 +8981,7 @@
         <v>5.4</v>
       </c>
       <c r="W116" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X116" s="10" t="s">
         <v>89</v>
@@ -9049,7 +9049,7 @@
         <v>5.4</v>
       </c>
       <c r="W117" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X117" s="10" t="s">
         <v>89</v>
@@ -9117,7 +9117,7 @@
         <v>5.4</v>
       </c>
       <c r="W118" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X118" s="10" t="s">
         <v>89</v>
@@ -9185,7 +9185,7 @@
         <v>5.4</v>
       </c>
       <c r="W119" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X119" s="10" t="s">
         <v>89</v>
@@ -9257,7 +9257,7 @@
         <v>4.2</v>
       </c>
       <c r="W120" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X120" s="10" t="s">
         <v>34</v>
@@ -9329,7 +9329,7 @@
         <v>4.2</v>
       </c>
       <c r="W121" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X121" s="10" t="s">
         <v>34</v>
@@ -9401,7 +9401,7 @@
         <v>4.2</v>
       </c>
       <c r="W122" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X122" s="10" t="s">
         <v>34</v>
@@ -9473,7 +9473,7 @@
         <v>4.2</v>
       </c>
       <c r="W123" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X123" s="10" t="s">
         <v>34</v>
@@ -9545,7 +9545,7 @@
         <v>4.2</v>
       </c>
       <c r="W124" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X124" s="10" t="s">
         <v>34</v>
@@ -9617,7 +9617,7 @@
         <v>4.2</v>
       </c>
       <c r="W125" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X125" s="10" t="s">
         <v>34</v>
@@ -9689,7 +9689,7 @@
         <v>4.2</v>
       </c>
       <c r="W126" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X126" s="10" t="s">
         <v>34</v>
@@ -9761,7 +9761,7 @@
         <v>4.2</v>
       </c>
       <c r="W127" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X127" s="10" t="s">
         <v>34</v>
@@ -9833,7 +9833,7 @@
         <v>4.2</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X128" s="10" t="s">
         <v>34</v>
@@ -9905,7 +9905,7 @@
         <v>4.2</v>
       </c>
       <c r="W129" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X129" s="10" t="s">
         <v>34</v>
@@ -9977,7 +9977,7 @@
         <v>4.2</v>
       </c>
       <c r="W130" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X130" s="10" t="s">
         <v>34</v>
@@ -10049,7 +10049,7 @@
         <v>4.2</v>
       </c>
       <c r="W131" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X131" s="10" t="s">
         <v>34</v>
@@ -10121,7 +10121,7 @@
         <v>4.2</v>
       </c>
       <c r="W132" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X132" s="10" t="s">
         <v>34</v>
@@ -10193,7 +10193,7 @@
         <v>4.2</v>
       </c>
       <c r="W133" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X133" s="10" t="s">
         <v>34</v>
@@ -10265,7 +10265,7 @@
         <v>4.2</v>
       </c>
       <c r="W134" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X134" s="10" t="s">
         <v>34</v>
@@ -10337,7 +10337,7 @@
         <v>4.2</v>
       </c>
       <c r="W135" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X135" s="10" t="s">
         <v>34</v>
@@ -10409,7 +10409,7 @@
         <v>4.2</v>
       </c>
       <c r="W136" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X136" s="10" t="s">
         <v>34</v>
@@ -10476,7 +10476,7 @@
         <v>8.9</v>
       </c>
       <c r="W137" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X137" s="10" t="s">
         <v>37</v>
@@ -10543,7 +10543,7 @@
         <v>8.9</v>
       </c>
       <c r="W138" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X138" s="10" t="s">
         <v>37</v>
@@ -10610,7 +10610,7 @@
         <v>8.9</v>
       </c>
       <c r="W139" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X139" s="10" t="s">
         <v>37</v>
@@ -10677,7 +10677,7 @@
         <v>8.9</v>
       </c>
       <c r="W140" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X140" s="10" t="s">
         <v>37</v>
@@ -10744,7 +10744,7 @@
         <v>8.9</v>
       </c>
       <c r="W141" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X141" s="10" t="s">
         <v>37</v>
@@ -10811,7 +10811,7 @@
         <v>8.9</v>
       </c>
       <c r="W142" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X142" s="10" t="s">
         <v>37</v>
@@ -10878,7 +10878,7 @@
         <v>8.9</v>
       </c>
       <c r="W143" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X143" s="10" t="s">
         <v>37</v>
@@ -10945,7 +10945,7 @@
         <v>8.9</v>
       </c>
       <c r="W144" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X144" s="10" t="s">
         <v>37</v>
@@ -11012,7 +11012,7 @@
         <v>8.9</v>
       </c>
       <c r="W145" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X145" s="10" t="s">
         <v>37</v>
@@ -11079,7 +11079,7 @@
         <v>8.9</v>
       </c>
       <c r="W146" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X146" s="10" t="s">
         <v>37</v>
@@ -11146,7 +11146,7 @@
         <v>8.9</v>
       </c>
       <c r="W147" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X147" s="10" t="s">
         <v>37</v>
@@ -11213,7 +11213,7 @@
         <v>8.9</v>
       </c>
       <c r="W148" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X148" s="10" t="s">
         <v>37</v>
@@ -11280,7 +11280,7 @@
         <v>8.9</v>
       </c>
       <c r="W149" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X149" s="10" t="s">
         <v>37</v>
@@ -11347,7 +11347,7 @@
         <v>8.9</v>
       </c>
       <c r="W150" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X150" s="10" t="s">
         <v>37</v>
@@ -11414,7 +11414,7 @@
         <v>8.9</v>
       </c>
       <c r="W151" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X151" s="10" t="s">
         <v>37</v>
@@ -11481,7 +11481,7 @@
         <v>8.9</v>
       </c>
       <c r="W152" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X152" s="10" t="s">
         <v>37</v>
@@ -11548,7 +11548,7 @@
         <v>8.9</v>
       </c>
       <c r="W153" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X153" s="10" t="s">
         <v>37</v>
@@ -11615,7 +11615,7 @@
         <v>8.9</v>
       </c>
       <c r="W154" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X154" s="10" t="s">
         <v>37</v>
@@ -11682,7 +11682,7 @@
         <v>8.9</v>
       </c>
       <c r="W155" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X155" s="10" t="s">
         <v>37</v>
@@ -11749,7 +11749,7 @@
         <v>8.9</v>
       </c>
       <c r="W156" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X156" s="10" t="s">
         <v>37</v>
@@ -11816,7 +11816,7 @@
         <v>8.9</v>
       </c>
       <c r="W157" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X157" s="10" t="s">
         <v>37</v>
@@ -11883,7 +11883,7 @@
         <v>8.9</v>
       </c>
       <c r="W158" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X158" s="10" t="s">
         <v>37</v>
@@ -11950,7 +11950,7 @@
         <v>8.9</v>
       </c>
       <c r="W159" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X159" s="10" t="s">
         <v>37</v>
@@ -12017,7 +12017,7 @@
         <v>8.9</v>
       </c>
       <c r="W160" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X160" s="10" t="s">
         <v>37</v>
@@ -12084,7 +12084,7 @@
         <v>8.9</v>
       </c>
       <c r="W161" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X161" s="10" t="s">
         <v>37</v>
@@ -12151,7 +12151,7 @@
         <v>8.9</v>
       </c>
       <c r="W162" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X162" s="10" t="s">
         <v>37</v>
@@ -12218,7 +12218,7 @@
         <v>8.9</v>
       </c>
       <c r="W163" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X163" s="10" t="s">
         <v>37</v>
@@ -12285,7 +12285,7 @@
         <v>8.9</v>
       </c>
       <c r="W164" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X164" s="10" t="s">
         <v>37</v>
@@ -12352,7 +12352,7 @@
         <v>8.9</v>
       </c>
       <c r="W165" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X165" s="10" t="s">
         <v>37</v>
@@ -12419,7 +12419,7 @@
         <v>8.9</v>
       </c>
       <c r="W166" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X166" s="10" t="s">
         <v>37</v>
@@ -12486,7 +12486,7 @@
         <v>8.9</v>
       </c>
       <c r="W167" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X167" s="10" t="s">
         <v>37</v>
@@ -12553,7 +12553,7 @@
         <v>8.9</v>
       </c>
       <c r="W168" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X168" s="10" t="s">
         <v>37</v>
@@ -12620,7 +12620,7 @@
         <v>8.9</v>
       </c>
       <c r="W169" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X169" s="10" t="s">
         <v>37</v>
@@ -12687,7 +12687,7 @@
         <v>8.9</v>
       </c>
       <c r="W170" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X170" s="10" t="s">
         <v>37</v>
@@ -12754,7 +12754,7 @@
         <v>8.9</v>
       </c>
       <c r="W171" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X171" s="10" t="s">
         <v>37</v>
@@ -12822,7 +12822,7 @@
         <v>1.4</v>
       </c>
       <c r="W172" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X172" s="10" t="s">
         <v>43</v>
@@ -12890,7 +12890,7 @@
         <v>1.4</v>
       </c>
       <c r="W173" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X173" s="10" t="s">
         <v>43</v>
@@ -12958,7 +12958,7 @@
         <v>1.4</v>
       </c>
       <c r="W174" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X174" s="10" t="s">
         <v>43</v>
@@ -13026,7 +13026,7 @@
         <v>1.4</v>
       </c>
       <c r="W175" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X175" s="10" t="s">
         <v>43</v>
@@ -13094,7 +13094,7 @@
         <v>1.4</v>
       </c>
       <c r="W176" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X176" s="10" t="s">
         <v>43</v>
@@ -13162,7 +13162,7 @@
         <v>1.4</v>
       </c>
       <c r="W177" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X177" s="10" t="s">
         <v>43</v>
@@ -13230,7 +13230,7 @@
         <v>1.4</v>
       </c>
       <c r="W178" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X178" s="10" t="s">
         <v>43</v>
@@ -13298,7 +13298,7 @@
         <v>1.4</v>
       </c>
       <c r="W179" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X179" s="10" t="s">
         <v>43</v>
@@ -13366,7 +13366,7 @@
         <v>1.4</v>
       </c>
       <c r="W180" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X180" s="10" t="s">
         <v>43</v>
@@ -13434,7 +13434,7 @@
         <v>1.4</v>
       </c>
       <c r="W181" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X181" s="10" t="s">
         <v>43</v>
@@ -13502,7 +13502,7 @@
         <v>13.95</v>
       </c>
       <c r="W182" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X182" s="10" t="s">
         <v>46</v>
@@ -13570,7 +13570,7 @@
         <v>13.95</v>
       </c>
       <c r="W183" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X183" s="10" t="s">
         <v>46</v>
@@ -13638,7 +13638,7 @@
         <v>13.95</v>
       </c>
       <c r="W184" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X184" s="10" t="s">
         <v>46</v>
@@ -13706,7 +13706,7 @@
         <v>13.95</v>
       </c>
       <c r="W185" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X185" s="10" t="s">
         <v>46</v>
@@ -13774,7 +13774,7 @@
         <v>13.95</v>
       </c>
       <c r="W186" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X186" s="10" t="s">
         <v>46</v>
@@ -13842,7 +13842,7 @@
         <v>13.95</v>
       </c>
       <c r="W187" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X187" s="10" t="s">
         <v>46</v>
@@ -13910,7 +13910,7 @@
         <v>13.95</v>
       </c>
       <c r="W188" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X188" s="10" t="s">
         <v>46</v>
@@ -13978,7 +13978,7 @@
         <v>13.95</v>
       </c>
       <c r="W189" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X189" s="10" t="s">
         <v>46</v>
@@ -14046,7 +14046,7 @@
         <v>13.95</v>
       </c>
       <c r="W190" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X190" s="10" t="s">
         <v>46</v>
@@ -14114,7 +14114,7 @@
         <v>13.95</v>
       </c>
       <c r="W191" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X191" s="10" t="s">
         <v>46</v>
@@ -14182,7 +14182,7 @@
         <v>13.95</v>
       </c>
       <c r="W192" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X192" s="10" t="s">
         <v>46</v>
@@ -14250,7 +14250,7 @@
         <v>13.95</v>
       </c>
       <c r="W193" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X193" s="10" t="s">
         <v>46</v>
@@ -14318,7 +14318,7 @@
         <v>13.95</v>
       </c>
       <c r="W194" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X194" s="10" t="s">
         <v>46</v>
@@ -14386,7 +14386,7 @@
         <v>13.95</v>
       </c>
       <c r="W195" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X195" s="10" t="s">
         <v>46</v>
@@ -14454,7 +14454,7 @@
         <v>13.95</v>
       </c>
       <c r="W196" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X196" s="10" t="s">
         <v>46</v>
@@ -14522,7 +14522,7 @@
         <v>13.95</v>
       </c>
       <c r="W197" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X197" s="10" t="s">
         <v>46</v>
@@ -14590,7 +14590,7 @@
         <v>13.95</v>
       </c>
       <c r="W198" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X198" s="10" t="s">
         <v>46</v>
@@ -14658,7 +14658,7 @@
         <v>13.95</v>
       </c>
       <c r="W199" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X199" s="10" t="s">
         <v>46</v>
@@ -14726,7 +14726,7 @@
         <v>13.95</v>
       </c>
       <c r="W200" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X200" s="10" t="s">
         <v>46</v>
@@ -14794,7 +14794,7 @@
         <v>13.95</v>
       </c>
       <c r="W201" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X201" s="10" t="s">
         <v>46</v>
@@ -14862,10 +14862,10 @@
         <v>21</v>
       </c>
       <c r="W202" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
@@ -14930,10 +14930,10 @@
         <v>21</v>
       </c>
       <c r="W203" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X203" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
@@ -14998,10 +14998,10 @@
         <v>21</v>
       </c>
       <c r="W204" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X204" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
@@ -15066,10 +15066,10 @@
         <v>21</v>
       </c>
       <c r="W205" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
@@ -15134,10 +15134,10 @@
         <v>21</v>
       </c>
       <c r="W206" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X206" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
@@ -15202,10 +15202,10 @@
         <v>21</v>
       </c>
       <c r="W207" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X207" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
@@ -15270,10 +15270,10 @@
         <v>21</v>
       </c>
       <c r="W208" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X208" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
@@ -15338,10 +15338,10 @@
         <v>21</v>
       </c>
       <c r="W209" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
@@ -15406,10 +15406,10 @@
         <v>21</v>
       </c>
       <c r="W210" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
@@ -15474,10 +15474,10 @@
         <v>21</v>
       </c>
       <c r="W211" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
@@ -15542,10 +15542,10 @@
         <v>21</v>
       </c>
       <c r="W212" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
@@ -15610,10 +15610,10 @@
         <v>21</v>
       </c>
       <c r="W213" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X213" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
@@ -15678,10 +15678,10 @@
         <v>21</v>
       </c>
       <c r="W214" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X214" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
@@ -15746,10 +15746,10 @@
         <v>21</v>
       </c>
       <c r="W215" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
@@ -15814,10 +15814,10 @@
         <v>21</v>
       </c>
       <c r="W216" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X216" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
@@ -15882,7 +15882,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W217" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X217" s="10" t="s">
         <v>92</v>
@@ -15950,7 +15950,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W218" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X218" s="10" t="s">
         <v>92</v>
@@ -16018,7 +16018,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W219" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X219" s="10" t="s">
         <v>92</v>
@@ -16086,7 +16086,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W220" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X220" s="10" t="s">
         <v>92</v>
@@ -16154,7 +16154,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W221" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X221" s="10" t="s">
         <v>92</v>
@@ -16222,7 +16222,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W222" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X222" s="10" t="s">
         <v>92</v>
@@ -16290,7 +16290,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W223" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X223" s="10" t="s">
         <v>92</v>
@@ -16358,7 +16358,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W224" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X224" s="10" t="s">
         <v>92</v>
@@ -16426,7 +16426,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W225" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X225" s="10" t="s">
         <v>92</v>
@@ -16494,7 +16494,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W226" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X226" s="10" t="s">
         <v>92</v>
@@ -16562,7 +16562,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W227" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X227" s="10" t="s">
         <v>92</v>
@@ -16630,7 +16630,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W228" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X228" s="10" t="s">
         <v>92</v>
